--- a/設計書/データベース設計書.xlsx
+++ b/設計書/データベース設計書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\SD3D_2023_Scrum1\設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36819602-6B1C-4642-9DBC-95699AE408D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{913DDA70-CDDB-4B27-8B10-43F9CC6BCEFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" firstSheet="2" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="12" r:id="rId1"/>
@@ -26,7 +26,7 @@
     <sheet name="CRUD図 " sheetId="18" r:id="rId11"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="10">'CRUD図 '!$A$1:$M$38</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="10">'CRUD図 '!$A$1:$M$17</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'E-Rモデル　　エンティティ一覧'!$A$1:$F$74</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">アイテム!$A$1:$H$54</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="8">スキル!$A$1:$H$54</definedName>
@@ -2560,7 +2560,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="218">
+  <cellXfs count="214">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2859,21 +2859,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="21" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -2894,6 +2879,42 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="14" fillId="0" borderId="29" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="14" fillId="0" borderId="31" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="14" fillId="0" borderId="30" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2942,18 +2963,9 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="14" fillId="0" borderId="29" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="38" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2981,25 +2993,22 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="14" fillId="0" borderId="29" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="14" fillId="0" borderId="31" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="14" fillId="0" borderId="30" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3008,22 +3017,37 @@
     <xf numFmtId="0" fontId="13" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="20" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3038,10 +3062,43 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -3050,6 +3107,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="15" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3059,90 +3119,33 @@
     <xf numFmtId="49" fontId="15" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3152,26 +3155,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="24">
@@ -3571,7 +3559,7 @@
   </sheetPr>
   <dimension ref="A1:FT34"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="AI20" sqref="AI20"/>
     </sheetView>
   </sheetViews>
@@ -4005,21 +3993,21 @@
       <c r="R3" s="12"/>
       <c r="S3" s="12"/>
       <c r="T3" s="12"/>
-      <c r="U3" s="141" t="s">
+      <c r="U3" s="122" t="s">
         <v>0</v>
       </c>
-      <c r="V3" s="142"/>
-      <c r="W3" s="143">
+      <c r="V3" s="124"/>
+      <c r="W3" s="148">
         <v>45306</v>
       </c>
-      <c r="X3" s="144"/>
-      <c r="Y3" s="144"/>
-      <c r="Z3" s="144"/>
-      <c r="AA3" s="144"/>
-      <c r="AB3" s="144"/>
-      <c r="AC3" s="144"/>
-      <c r="AD3" s="144"/>
-      <c r="AE3" s="142"/>
+      <c r="X3" s="123"/>
+      <c r="Y3" s="123"/>
+      <c r="Z3" s="123"/>
+      <c r="AA3" s="123"/>
+      <c r="AB3" s="123"/>
+      <c r="AC3" s="123"/>
+      <c r="AD3" s="123"/>
+      <c r="AE3" s="124"/>
       <c r="AF3" s="12"/>
     </row>
     <row r="4" spans="1:176" ht="15.75" customHeight="1">
@@ -4131,20 +4119,20 @@
       <c r="C7" s="35"/>
       <c r="D7" s="35"/>
       <c r="E7" s="36"/>
-      <c r="F7" s="126" t="s">
+      <c r="F7" s="133" t="s">
         <v>4</v>
       </c>
-      <c r="G7" s="127"/>
-      <c r="H7" s="127"/>
-      <c r="I7" s="127"/>
-      <c r="J7" s="127"/>
-      <c r="K7" s="127"/>
-      <c r="L7" s="127"/>
-      <c r="M7" s="127"/>
-      <c r="N7" s="127"/>
-      <c r="O7" s="127"/>
-      <c r="P7" s="127"/>
-      <c r="Q7" s="128"/>
+      <c r="G7" s="134"/>
+      <c r="H7" s="134"/>
+      <c r="I7" s="134"/>
+      <c r="J7" s="134"/>
+      <c r="K7" s="134"/>
+      <c r="L7" s="134"/>
+      <c r="M7" s="134"/>
+      <c r="N7" s="134"/>
+      <c r="O7" s="134"/>
+      <c r="P7" s="134"/>
+      <c r="Q7" s="135"/>
       <c r="R7" s="12"/>
       <c r="S7" s="12"/>
       <c r="T7" s="12"/>
@@ -4162,82 +4150,82 @@
     </row>
     <row r="8" spans="1:176" ht="15.75" customHeight="1">
       <c r="A8" s="12"/>
-      <c r="B8" s="129" t="s">
+      <c r="B8" s="136" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="130"/>
-      <c r="D8" s="130"/>
-      <c r="E8" s="131"/>
-      <c r="F8" s="135" t="s">
+      <c r="C8" s="137"/>
+      <c r="D8" s="137"/>
+      <c r="E8" s="138"/>
+      <c r="F8" s="142" t="s">
         <v>63</v>
       </c>
-      <c r="G8" s="136"/>
-      <c r="H8" s="136"/>
-      <c r="I8" s="136"/>
-      <c r="J8" s="136"/>
-      <c r="K8" s="136"/>
-      <c r="L8" s="136"/>
-      <c r="M8" s="136"/>
-      <c r="N8" s="136"/>
-      <c r="O8" s="136"/>
-      <c r="P8" s="136"/>
-      <c r="Q8" s="137"/>
+      <c r="G8" s="143"/>
+      <c r="H8" s="143"/>
+      <c r="I8" s="143"/>
+      <c r="J8" s="143"/>
+      <c r="K8" s="143"/>
+      <c r="L8" s="143"/>
+      <c r="M8" s="143"/>
+      <c r="N8" s="143"/>
+      <c r="O8" s="143"/>
+      <c r="P8" s="143"/>
+      <c r="Q8" s="144"/>
       <c r="R8" s="12"/>
       <c r="S8" s="12"/>
       <c r="T8" s="12"/>
       <c r="U8" s="12"/>
       <c r="V8" s="12"/>
-      <c r="W8" s="125" t="s">
+      <c r="W8" s="132" t="s">
         <v>6</v>
       </c>
-      <c r="X8" s="125"/>
-      <c r="Y8" s="125"/>
-      <c r="Z8" s="125" t="s">
+      <c r="X8" s="132"/>
+      <c r="Y8" s="132"/>
+      <c r="Z8" s="132" t="s">
         <v>7</v>
       </c>
-      <c r="AA8" s="125"/>
-      <c r="AB8" s="125"/>
-      <c r="AC8" s="125" t="s">
+      <c r="AA8" s="132"/>
+      <c r="AB8" s="132"/>
+      <c r="AC8" s="132" t="s">
         <v>8</v>
       </c>
-      <c r="AD8" s="125"/>
-      <c r="AE8" s="125"/>
+      <c r="AD8" s="132"/>
+      <c r="AE8" s="132"/>
       <c r="AF8" s="12"/>
     </row>
     <row r="9" spans="1:176" ht="15.75" customHeight="1">
       <c r="A9" s="12"/>
-      <c r="B9" s="132"/>
-      <c r="C9" s="133"/>
-      <c r="D9" s="133"/>
-      <c r="E9" s="134"/>
-      <c r="F9" s="138"/>
-      <c r="G9" s="139"/>
-      <c r="H9" s="139"/>
-      <c r="I9" s="139"/>
-      <c r="J9" s="139"/>
-      <c r="K9" s="139"/>
-      <c r="L9" s="139"/>
-      <c r="M9" s="139"/>
-      <c r="N9" s="139"/>
-      <c r="O9" s="139"/>
-      <c r="P9" s="139"/>
-      <c r="Q9" s="140"/>
+      <c r="B9" s="139"/>
+      <c r="C9" s="140"/>
+      <c r="D9" s="140"/>
+      <c r="E9" s="141"/>
+      <c r="F9" s="145"/>
+      <c r="G9" s="146"/>
+      <c r="H9" s="146"/>
+      <c r="I9" s="146"/>
+      <c r="J9" s="146"/>
+      <c r="K9" s="146"/>
+      <c r="L9" s="146"/>
+      <c r="M9" s="146"/>
+      <c r="N9" s="146"/>
+      <c r="O9" s="146"/>
+      <c r="P9" s="146"/>
+      <c r="Q9" s="147"/>
       <c r="R9" s="12"/>
       <c r="S9" s="12"/>
       <c r="T9" s="12"/>
       <c r="U9" s="12"/>
       <c r="V9" s="12"/>
-      <c r="W9" s="145"/>
-      <c r="X9" s="146"/>
-      <c r="Y9" s="147"/>
-      <c r="Z9" s="145"/>
-      <c r="AA9" s="146"/>
-      <c r="AB9" s="147"/>
-      <c r="AC9" s="145" t="s">
+      <c r="W9" s="149"/>
+      <c r="X9" s="150"/>
+      <c r="Y9" s="151"/>
+      <c r="Z9" s="149"/>
+      <c r="AA9" s="150"/>
+      <c r="AB9" s="151"/>
+      <c r="AC9" s="149" t="s">
         <v>239</v>
       </c>
-      <c r="AD9" s="146"/>
-      <c r="AE9" s="147"/>
+      <c r="AD9" s="150"/>
+      <c r="AE9" s="151"/>
       <c r="AF9" s="12"/>
     </row>
     <row r="10" spans="1:176" ht="15.75" customHeight="1">
@@ -4263,15 +4251,15 @@
       <c r="T10" s="12"/>
       <c r="U10" s="12"/>
       <c r="V10" s="12"/>
-      <c r="W10" s="148"/>
-      <c r="X10" s="149"/>
-      <c r="Y10" s="150"/>
-      <c r="Z10" s="148"/>
-      <c r="AA10" s="149"/>
-      <c r="AB10" s="150"/>
-      <c r="AC10" s="148"/>
-      <c r="AD10" s="149"/>
-      <c r="AE10" s="150"/>
+      <c r="W10" s="152"/>
+      <c r="X10" s="153"/>
+      <c r="Y10" s="154"/>
+      <c r="Z10" s="152"/>
+      <c r="AA10" s="153"/>
+      <c r="AB10" s="154"/>
+      <c r="AC10" s="152"/>
+      <c r="AD10" s="153"/>
+      <c r="AE10" s="154"/>
       <c r="AF10" s="12"/>
     </row>
     <row r="11" spans="1:176" ht="15.75" customHeight="1">
@@ -4297,15 +4285,15 @@
       <c r="T11" s="12"/>
       <c r="U11" s="12"/>
       <c r="V11" s="12"/>
-      <c r="W11" s="148"/>
-      <c r="X11" s="149"/>
-      <c r="Y11" s="150"/>
-      <c r="Z11" s="148"/>
-      <c r="AA11" s="149"/>
-      <c r="AB11" s="150"/>
-      <c r="AC11" s="148"/>
-      <c r="AD11" s="149"/>
-      <c r="AE11" s="150"/>
+      <c r="W11" s="152"/>
+      <c r="X11" s="153"/>
+      <c r="Y11" s="154"/>
+      <c r="Z11" s="152"/>
+      <c r="AA11" s="153"/>
+      <c r="AB11" s="154"/>
+      <c r="AC11" s="152"/>
+      <c r="AD11" s="153"/>
+      <c r="AE11" s="154"/>
       <c r="AF11" s="12"/>
     </row>
     <row r="12" spans="1:176" ht="15.75" customHeight="1">
@@ -4331,15 +4319,15 @@
       <c r="T12" s="16"/>
       <c r="U12" s="16"/>
       <c r="V12" s="16"/>
-      <c r="W12" s="151"/>
-      <c r="X12" s="152"/>
-      <c r="Y12" s="153"/>
-      <c r="Z12" s="151"/>
-      <c r="AA12" s="152"/>
-      <c r="AB12" s="153"/>
-      <c r="AC12" s="151"/>
-      <c r="AD12" s="152"/>
-      <c r="AE12" s="153"/>
+      <c r="W12" s="155"/>
+      <c r="X12" s="156"/>
+      <c r="Y12" s="157"/>
+      <c r="Z12" s="155"/>
+      <c r="AA12" s="156"/>
+      <c r="AB12" s="157"/>
+      <c r="AC12" s="155"/>
+      <c r="AD12" s="156"/>
+      <c r="AE12" s="157"/>
       <c r="AF12" s="12"/>
     </row>
     <row r="13" spans="1:176" ht="15.75" customHeight="1">
@@ -4434,106 +4422,106 @@
     </row>
     <row r="16" spans="1:176" ht="15" customHeight="1">
       <c r="A16" s="12"/>
-      <c r="B16" s="154" t="s">
+      <c r="B16" s="131" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="154"/>
-      <c r="D16" s="154"/>
-      <c r="E16" s="154"/>
-      <c r="F16" s="154"/>
-      <c r="G16" s="154"/>
-      <c r="H16" s="154"/>
-      <c r="I16" s="154"/>
-      <c r="J16" s="154"/>
-      <c r="K16" s="154"/>
-      <c r="L16" s="154"/>
-      <c r="M16" s="154"/>
-      <c r="N16" s="154"/>
-      <c r="O16" s="154"/>
-      <c r="P16" s="154"/>
-      <c r="Q16" s="154"/>
-      <c r="R16" s="154"/>
-      <c r="S16" s="154"/>
-      <c r="T16" s="154"/>
-      <c r="U16" s="154"/>
-      <c r="V16" s="154"/>
-      <c r="W16" s="154"/>
-      <c r="X16" s="154"/>
-      <c r="Y16" s="154"/>
-      <c r="Z16" s="154"/>
-      <c r="AA16" s="154"/>
-      <c r="AB16" s="154"/>
-      <c r="AC16" s="154"/>
-      <c r="AD16" s="154"/>
-      <c r="AE16" s="154"/>
+      <c r="C16" s="131"/>
+      <c r="D16" s="131"/>
+      <c r="E16" s="131"/>
+      <c r="F16" s="131"/>
+      <c r="G16" s="131"/>
+      <c r="H16" s="131"/>
+      <c r="I16" s="131"/>
+      <c r="J16" s="131"/>
+      <c r="K16" s="131"/>
+      <c r="L16" s="131"/>
+      <c r="M16" s="131"/>
+      <c r="N16" s="131"/>
+      <c r="O16" s="131"/>
+      <c r="P16" s="131"/>
+      <c r="Q16" s="131"/>
+      <c r="R16" s="131"/>
+      <c r="S16" s="131"/>
+      <c r="T16" s="131"/>
+      <c r="U16" s="131"/>
+      <c r="V16" s="131"/>
+      <c r="W16" s="131"/>
+      <c r="X16" s="131"/>
+      <c r="Y16" s="131"/>
+      <c r="Z16" s="131"/>
+      <c r="AA16" s="131"/>
+      <c r="AB16" s="131"/>
+      <c r="AC16" s="131"/>
+      <c r="AD16" s="131"/>
+      <c r="AE16" s="131"/>
       <c r="AF16" s="12"/>
     </row>
     <row r="17" spans="1:32" ht="15" customHeight="1">
       <c r="A17" s="12"/>
-      <c r="B17" s="154"/>
-      <c r="C17" s="154"/>
-      <c r="D17" s="154"/>
-      <c r="E17" s="154"/>
-      <c r="F17" s="154"/>
-      <c r="G17" s="154"/>
-      <c r="H17" s="154"/>
-      <c r="I17" s="154"/>
-      <c r="J17" s="154"/>
-      <c r="K17" s="154"/>
-      <c r="L17" s="154"/>
-      <c r="M17" s="154"/>
-      <c r="N17" s="154"/>
-      <c r="O17" s="154"/>
-      <c r="P17" s="154"/>
-      <c r="Q17" s="154"/>
-      <c r="R17" s="154"/>
-      <c r="S17" s="154"/>
-      <c r="T17" s="154"/>
-      <c r="U17" s="154"/>
-      <c r="V17" s="154"/>
-      <c r="W17" s="154"/>
-      <c r="X17" s="154"/>
-      <c r="Y17" s="154"/>
-      <c r="Z17" s="154"/>
-      <c r="AA17" s="154"/>
-      <c r="AB17" s="154"/>
-      <c r="AC17" s="154"/>
-      <c r="AD17" s="154"/>
-      <c r="AE17" s="154"/>
+      <c r="B17" s="131"/>
+      <c r="C17" s="131"/>
+      <c r="D17" s="131"/>
+      <c r="E17" s="131"/>
+      <c r="F17" s="131"/>
+      <c r="G17" s="131"/>
+      <c r="H17" s="131"/>
+      <c r="I17" s="131"/>
+      <c r="J17" s="131"/>
+      <c r="K17" s="131"/>
+      <c r="L17" s="131"/>
+      <c r="M17" s="131"/>
+      <c r="N17" s="131"/>
+      <c r="O17" s="131"/>
+      <c r="P17" s="131"/>
+      <c r="Q17" s="131"/>
+      <c r="R17" s="131"/>
+      <c r="S17" s="131"/>
+      <c r="T17" s="131"/>
+      <c r="U17" s="131"/>
+      <c r="V17" s="131"/>
+      <c r="W17" s="131"/>
+      <c r="X17" s="131"/>
+      <c r="Y17" s="131"/>
+      <c r="Z17" s="131"/>
+      <c r="AA17" s="131"/>
+      <c r="AB17" s="131"/>
+      <c r="AC17" s="131"/>
+      <c r="AD17" s="131"/>
+      <c r="AE17" s="131"/>
       <c r="AF17" s="12"/>
     </row>
     <row r="18" spans="1:32" ht="15" customHeight="1">
       <c r="A18" s="12"/>
-      <c r="B18" s="154"/>
-      <c r="C18" s="154"/>
-      <c r="D18" s="154"/>
-      <c r="E18" s="154"/>
-      <c r="F18" s="154"/>
-      <c r="G18" s="154"/>
-      <c r="H18" s="154"/>
-      <c r="I18" s="154"/>
-      <c r="J18" s="154"/>
-      <c r="K18" s="154"/>
-      <c r="L18" s="154"/>
-      <c r="M18" s="154"/>
-      <c r="N18" s="154"/>
-      <c r="O18" s="154"/>
-      <c r="P18" s="154"/>
-      <c r="Q18" s="154"/>
-      <c r="R18" s="154"/>
-      <c r="S18" s="154"/>
-      <c r="T18" s="154"/>
-      <c r="U18" s="154"/>
-      <c r="V18" s="154"/>
-      <c r="W18" s="154"/>
-      <c r="X18" s="154"/>
-      <c r="Y18" s="154"/>
-      <c r="Z18" s="154"/>
-      <c r="AA18" s="154"/>
-      <c r="AB18" s="154"/>
-      <c r="AC18" s="154"/>
-      <c r="AD18" s="154"/>
-      <c r="AE18" s="154"/>
+      <c r="B18" s="131"/>
+      <c r="C18" s="131"/>
+      <c r="D18" s="131"/>
+      <c r="E18" s="131"/>
+      <c r="F18" s="131"/>
+      <c r="G18" s="131"/>
+      <c r="H18" s="131"/>
+      <c r="I18" s="131"/>
+      <c r="J18" s="131"/>
+      <c r="K18" s="131"/>
+      <c r="L18" s="131"/>
+      <c r="M18" s="131"/>
+      <c r="N18" s="131"/>
+      <c r="O18" s="131"/>
+      <c r="P18" s="131"/>
+      <c r="Q18" s="131"/>
+      <c r="R18" s="131"/>
+      <c r="S18" s="131"/>
+      <c r="T18" s="131"/>
+      <c r="U18" s="131"/>
+      <c r="V18" s="131"/>
+      <c r="W18" s="131"/>
+      <c r="X18" s="131"/>
+      <c r="Y18" s="131"/>
+      <c r="Z18" s="131"/>
+      <c r="AA18" s="131"/>
+      <c r="AB18" s="131"/>
+      <c r="AC18" s="131"/>
+      <c r="AD18" s="131"/>
+      <c r="AE18" s="131"/>
       <c r="AF18" s="12"/>
     </row>
     <row r="19" spans="1:32" ht="15" customHeight="1">
@@ -4672,392 +4660,392 @@
     </row>
     <row r="23" spans="1:32" s="39" customFormat="1" ht="29.25" customHeight="1">
       <c r="A23" s="37"/>
-      <c r="B23" s="141" t="s">
+      <c r="B23" s="122" t="s">
         <v>11</v>
       </c>
-      <c r="C23" s="144"/>
-      <c r="D23" s="144"/>
-      <c r="E23" s="142"/>
-      <c r="F23" s="141" t="s">
+      <c r="C23" s="123"/>
+      <c r="D23" s="123"/>
+      <c r="E23" s="124"/>
+      <c r="F23" s="122" t="s">
         <v>12</v>
       </c>
-      <c r="G23" s="144"/>
-      <c r="H23" s="144"/>
-      <c r="I23" s="142"/>
-      <c r="J23" s="141" t="s">
+      <c r="G23" s="123"/>
+      <c r="H23" s="123"/>
+      <c r="I23" s="124"/>
+      <c r="J23" s="122" t="s">
         <v>13</v>
       </c>
-      <c r="K23" s="144"/>
-      <c r="L23" s="144"/>
-      <c r="M23" s="144"/>
-      <c r="N23" s="144"/>
-      <c r="O23" s="144"/>
-      <c r="P23" s="144"/>
-      <c r="Q23" s="144"/>
-      <c r="R23" s="144"/>
-      <c r="S23" s="144"/>
-      <c r="T23" s="144"/>
-      <c r="U23" s="144"/>
-      <c r="V23" s="144"/>
-      <c r="W23" s="144"/>
-      <c r="X23" s="144"/>
-      <c r="Y23" s="144"/>
-      <c r="Z23" s="144"/>
-      <c r="AA23" s="144"/>
-      <c r="AB23" s="142"/>
-      <c r="AC23" s="141" t="s">
+      <c r="K23" s="123"/>
+      <c r="L23" s="123"/>
+      <c r="M23" s="123"/>
+      <c r="N23" s="123"/>
+      <c r="O23" s="123"/>
+      <c r="P23" s="123"/>
+      <c r="Q23" s="123"/>
+      <c r="R23" s="123"/>
+      <c r="S23" s="123"/>
+      <c r="T23" s="123"/>
+      <c r="U23" s="123"/>
+      <c r="V23" s="123"/>
+      <c r="W23" s="123"/>
+      <c r="X23" s="123"/>
+      <c r="Y23" s="123"/>
+      <c r="Z23" s="123"/>
+      <c r="AA23" s="123"/>
+      <c r="AB23" s="124"/>
+      <c r="AC23" s="122" t="s">
         <v>8</v>
       </c>
-      <c r="AD23" s="144"/>
-      <c r="AE23" s="142"/>
+      <c r="AD23" s="123"/>
+      <c r="AE23" s="124"/>
       <c r="AF23" s="37"/>
     </row>
     <row r="24" spans="1:32" ht="29.25" customHeight="1">
       <c r="A24" s="12"/>
-      <c r="B24" s="141" t="s">
+      <c r="B24" s="122" t="s">
         <v>14</v>
       </c>
-      <c r="C24" s="144"/>
-      <c r="D24" s="144"/>
-      <c r="E24" s="142"/>
-      <c r="F24" s="155">
+      <c r="C24" s="123"/>
+      <c r="D24" s="123"/>
+      <c r="E24" s="124"/>
+      <c r="F24" s="125">
         <v>45306</v>
       </c>
-      <c r="G24" s="156"/>
-      <c r="H24" s="156"/>
-      <c r="I24" s="157"/>
-      <c r="J24" s="158" t="s">
+      <c r="G24" s="126"/>
+      <c r="H24" s="126"/>
+      <c r="I24" s="127"/>
+      <c r="J24" s="128" t="s">
         <v>15</v>
       </c>
-      <c r="K24" s="159"/>
-      <c r="L24" s="159"/>
-      <c r="M24" s="159"/>
-      <c r="N24" s="159"/>
-      <c r="O24" s="159"/>
-      <c r="P24" s="159"/>
-      <c r="Q24" s="159"/>
-      <c r="R24" s="159"/>
-      <c r="S24" s="159"/>
-      <c r="T24" s="159"/>
-      <c r="U24" s="159"/>
-      <c r="V24" s="159"/>
-      <c r="W24" s="159"/>
-      <c r="X24" s="159"/>
-      <c r="Y24" s="159"/>
-      <c r="Z24" s="159"/>
-      <c r="AA24" s="159"/>
-      <c r="AB24" s="160"/>
-      <c r="AC24" s="141" t="s">
+      <c r="K24" s="129"/>
+      <c r="L24" s="129"/>
+      <c r="M24" s="129"/>
+      <c r="N24" s="129"/>
+      <c r="O24" s="129"/>
+      <c r="P24" s="129"/>
+      <c r="Q24" s="129"/>
+      <c r="R24" s="129"/>
+      <c r="S24" s="129"/>
+      <c r="T24" s="129"/>
+      <c r="U24" s="129"/>
+      <c r="V24" s="129"/>
+      <c r="W24" s="129"/>
+      <c r="X24" s="129"/>
+      <c r="Y24" s="129"/>
+      <c r="Z24" s="129"/>
+      <c r="AA24" s="129"/>
+      <c r="AB24" s="130"/>
+      <c r="AC24" s="122" t="s">
         <v>239</v>
       </c>
-      <c r="AD24" s="144"/>
-      <c r="AE24" s="142"/>
+      <c r="AD24" s="123"/>
+      <c r="AE24" s="124"/>
       <c r="AF24" s="12"/>
     </row>
     <row r="25" spans="1:32" ht="29.25" customHeight="1">
       <c r="A25" s="12"/>
-      <c r="B25" s="141"/>
-      <c r="C25" s="144"/>
-      <c r="D25" s="144"/>
-      <c r="E25" s="142"/>
-      <c r="F25" s="155"/>
-      <c r="G25" s="156"/>
-      <c r="H25" s="156"/>
-      <c r="I25" s="157"/>
-      <c r="J25" s="158"/>
-      <c r="K25" s="159"/>
-      <c r="L25" s="159"/>
-      <c r="M25" s="159"/>
-      <c r="N25" s="159"/>
-      <c r="O25" s="159"/>
-      <c r="P25" s="159"/>
-      <c r="Q25" s="159"/>
-      <c r="R25" s="159"/>
-      <c r="S25" s="159"/>
-      <c r="T25" s="159"/>
-      <c r="U25" s="159"/>
-      <c r="V25" s="159"/>
-      <c r="W25" s="159"/>
-      <c r="X25" s="159"/>
-      <c r="Y25" s="159"/>
-      <c r="Z25" s="159"/>
-      <c r="AA25" s="159"/>
-      <c r="AB25" s="160"/>
-      <c r="AC25" s="141"/>
-      <c r="AD25" s="144"/>
-      <c r="AE25" s="142"/>
+      <c r="B25" s="122"/>
+      <c r="C25" s="123"/>
+      <c r="D25" s="123"/>
+      <c r="E25" s="124"/>
+      <c r="F25" s="125"/>
+      <c r="G25" s="126"/>
+      <c r="H25" s="126"/>
+      <c r="I25" s="127"/>
+      <c r="J25" s="128"/>
+      <c r="K25" s="129"/>
+      <c r="L25" s="129"/>
+      <c r="M25" s="129"/>
+      <c r="N25" s="129"/>
+      <c r="O25" s="129"/>
+      <c r="P25" s="129"/>
+      <c r="Q25" s="129"/>
+      <c r="R25" s="129"/>
+      <c r="S25" s="129"/>
+      <c r="T25" s="129"/>
+      <c r="U25" s="129"/>
+      <c r="V25" s="129"/>
+      <c r="W25" s="129"/>
+      <c r="X25" s="129"/>
+      <c r="Y25" s="129"/>
+      <c r="Z25" s="129"/>
+      <c r="AA25" s="129"/>
+      <c r="AB25" s="130"/>
+      <c r="AC25" s="122"/>
+      <c r="AD25" s="123"/>
+      <c r="AE25" s="124"/>
       <c r="AF25" s="12"/>
     </row>
     <row r="26" spans="1:32" ht="29.25" customHeight="1">
       <c r="A26" s="12"/>
-      <c r="B26" s="141"/>
-      <c r="C26" s="144"/>
-      <c r="D26" s="144"/>
-      <c r="E26" s="142"/>
-      <c r="F26" s="155"/>
-      <c r="G26" s="156"/>
-      <c r="H26" s="156"/>
-      <c r="I26" s="157"/>
-      <c r="J26" s="158"/>
-      <c r="K26" s="159"/>
-      <c r="L26" s="159"/>
-      <c r="M26" s="159"/>
-      <c r="N26" s="159"/>
-      <c r="O26" s="159"/>
-      <c r="P26" s="159"/>
-      <c r="Q26" s="159"/>
-      <c r="R26" s="159"/>
-      <c r="S26" s="159"/>
-      <c r="T26" s="159"/>
-      <c r="U26" s="159"/>
-      <c r="V26" s="159"/>
-      <c r="W26" s="159"/>
-      <c r="X26" s="159"/>
-      <c r="Y26" s="159"/>
-      <c r="Z26" s="159"/>
-      <c r="AA26" s="159"/>
-      <c r="AB26" s="160"/>
-      <c r="AC26" s="141"/>
-      <c r="AD26" s="144"/>
-      <c r="AE26" s="142"/>
+      <c r="B26" s="122"/>
+      <c r="C26" s="123"/>
+      <c r="D26" s="123"/>
+      <c r="E26" s="124"/>
+      <c r="F26" s="125"/>
+      <c r="G26" s="126"/>
+      <c r="H26" s="126"/>
+      <c r="I26" s="127"/>
+      <c r="J26" s="128"/>
+      <c r="K26" s="129"/>
+      <c r="L26" s="129"/>
+      <c r="M26" s="129"/>
+      <c r="N26" s="129"/>
+      <c r="O26" s="129"/>
+      <c r="P26" s="129"/>
+      <c r="Q26" s="129"/>
+      <c r="R26" s="129"/>
+      <c r="S26" s="129"/>
+      <c r="T26" s="129"/>
+      <c r="U26" s="129"/>
+      <c r="V26" s="129"/>
+      <c r="W26" s="129"/>
+      <c r="X26" s="129"/>
+      <c r="Y26" s="129"/>
+      <c r="Z26" s="129"/>
+      <c r="AA26" s="129"/>
+      <c r="AB26" s="130"/>
+      <c r="AC26" s="122"/>
+      <c r="AD26" s="123"/>
+      <c r="AE26" s="124"/>
       <c r="AF26" s="12"/>
     </row>
     <row r="27" spans="1:32" ht="29.25" customHeight="1">
       <c r="A27" s="12"/>
-      <c r="B27" s="141"/>
-      <c r="C27" s="144"/>
-      <c r="D27" s="144"/>
-      <c r="E27" s="142"/>
-      <c r="F27" s="155"/>
-      <c r="G27" s="156"/>
-      <c r="H27" s="156"/>
-      <c r="I27" s="157"/>
-      <c r="J27" s="158"/>
-      <c r="K27" s="159"/>
-      <c r="L27" s="159"/>
-      <c r="M27" s="159"/>
-      <c r="N27" s="159"/>
-      <c r="O27" s="159"/>
-      <c r="P27" s="159"/>
-      <c r="Q27" s="159"/>
-      <c r="R27" s="159"/>
-      <c r="S27" s="159"/>
-      <c r="T27" s="159"/>
-      <c r="U27" s="159"/>
-      <c r="V27" s="159"/>
-      <c r="W27" s="159"/>
-      <c r="X27" s="159"/>
-      <c r="Y27" s="159"/>
-      <c r="Z27" s="159"/>
-      <c r="AA27" s="159"/>
-      <c r="AB27" s="160"/>
-      <c r="AC27" s="141"/>
-      <c r="AD27" s="144"/>
-      <c r="AE27" s="142"/>
+      <c r="B27" s="122"/>
+      <c r="C27" s="123"/>
+      <c r="D27" s="123"/>
+      <c r="E27" s="124"/>
+      <c r="F27" s="125"/>
+      <c r="G27" s="126"/>
+      <c r="H27" s="126"/>
+      <c r="I27" s="127"/>
+      <c r="J27" s="128"/>
+      <c r="K27" s="129"/>
+      <c r="L27" s="129"/>
+      <c r="M27" s="129"/>
+      <c r="N27" s="129"/>
+      <c r="O27" s="129"/>
+      <c r="P27" s="129"/>
+      <c r="Q27" s="129"/>
+      <c r="R27" s="129"/>
+      <c r="S27" s="129"/>
+      <c r="T27" s="129"/>
+      <c r="U27" s="129"/>
+      <c r="V27" s="129"/>
+      <c r="W27" s="129"/>
+      <c r="X27" s="129"/>
+      <c r="Y27" s="129"/>
+      <c r="Z27" s="129"/>
+      <c r="AA27" s="129"/>
+      <c r="AB27" s="130"/>
+      <c r="AC27" s="122"/>
+      <c r="AD27" s="123"/>
+      <c r="AE27" s="124"/>
       <c r="AF27" s="12"/>
     </row>
     <row r="28" spans="1:32" ht="29.25" customHeight="1">
       <c r="A28" s="12"/>
-      <c r="B28" s="141"/>
-      <c r="C28" s="144"/>
-      <c r="D28" s="144"/>
-      <c r="E28" s="142"/>
-      <c r="F28" s="155"/>
-      <c r="G28" s="156"/>
-      <c r="H28" s="156"/>
-      <c r="I28" s="157"/>
-      <c r="J28" s="158"/>
-      <c r="K28" s="159"/>
-      <c r="L28" s="159"/>
-      <c r="M28" s="159"/>
-      <c r="N28" s="159"/>
-      <c r="O28" s="159"/>
-      <c r="P28" s="159"/>
-      <c r="Q28" s="159"/>
-      <c r="R28" s="159"/>
-      <c r="S28" s="159"/>
-      <c r="T28" s="159"/>
-      <c r="U28" s="159"/>
-      <c r="V28" s="159"/>
-      <c r="W28" s="159"/>
-      <c r="X28" s="159"/>
-      <c r="Y28" s="159"/>
-      <c r="Z28" s="159"/>
-      <c r="AA28" s="159"/>
-      <c r="AB28" s="160"/>
-      <c r="AC28" s="141"/>
-      <c r="AD28" s="144"/>
-      <c r="AE28" s="142"/>
+      <c r="B28" s="122"/>
+      <c r="C28" s="123"/>
+      <c r="D28" s="123"/>
+      <c r="E28" s="124"/>
+      <c r="F28" s="125"/>
+      <c r="G28" s="126"/>
+      <c r="H28" s="126"/>
+      <c r="I28" s="127"/>
+      <c r="J28" s="128"/>
+      <c r="K28" s="129"/>
+      <c r="L28" s="129"/>
+      <c r="M28" s="129"/>
+      <c r="N28" s="129"/>
+      <c r="O28" s="129"/>
+      <c r="P28" s="129"/>
+      <c r="Q28" s="129"/>
+      <c r="R28" s="129"/>
+      <c r="S28" s="129"/>
+      <c r="T28" s="129"/>
+      <c r="U28" s="129"/>
+      <c r="V28" s="129"/>
+      <c r="W28" s="129"/>
+      <c r="X28" s="129"/>
+      <c r="Y28" s="129"/>
+      <c r="Z28" s="129"/>
+      <c r="AA28" s="129"/>
+      <c r="AB28" s="130"/>
+      <c r="AC28" s="122"/>
+      <c r="AD28" s="123"/>
+      <c r="AE28" s="124"/>
       <c r="AF28" s="12"/>
     </row>
     <row r="29" spans="1:32" ht="29.25" customHeight="1">
       <c r="A29" s="12"/>
-      <c r="B29" s="141"/>
-      <c r="C29" s="144"/>
-      <c r="D29" s="144"/>
-      <c r="E29" s="142"/>
-      <c r="F29" s="155"/>
-      <c r="G29" s="156"/>
-      <c r="H29" s="156"/>
-      <c r="I29" s="157"/>
-      <c r="J29" s="158"/>
-      <c r="K29" s="159"/>
-      <c r="L29" s="159"/>
-      <c r="M29" s="159"/>
-      <c r="N29" s="159"/>
-      <c r="O29" s="159"/>
-      <c r="P29" s="159"/>
-      <c r="Q29" s="159"/>
-      <c r="R29" s="159"/>
-      <c r="S29" s="159"/>
-      <c r="T29" s="159"/>
-      <c r="U29" s="159"/>
-      <c r="V29" s="159"/>
-      <c r="W29" s="159"/>
-      <c r="X29" s="159"/>
-      <c r="Y29" s="159"/>
-      <c r="Z29" s="159"/>
-      <c r="AA29" s="159"/>
-      <c r="AB29" s="160"/>
-      <c r="AC29" s="141"/>
-      <c r="AD29" s="144"/>
-      <c r="AE29" s="142"/>
+      <c r="B29" s="122"/>
+      <c r="C29" s="123"/>
+      <c r="D29" s="123"/>
+      <c r="E29" s="124"/>
+      <c r="F29" s="125"/>
+      <c r="G29" s="126"/>
+      <c r="H29" s="126"/>
+      <c r="I29" s="127"/>
+      <c r="J29" s="128"/>
+      <c r="K29" s="129"/>
+      <c r="L29" s="129"/>
+      <c r="M29" s="129"/>
+      <c r="N29" s="129"/>
+      <c r="O29" s="129"/>
+      <c r="P29" s="129"/>
+      <c r="Q29" s="129"/>
+      <c r="R29" s="129"/>
+      <c r="S29" s="129"/>
+      <c r="T29" s="129"/>
+      <c r="U29" s="129"/>
+      <c r="V29" s="129"/>
+      <c r="W29" s="129"/>
+      <c r="X29" s="129"/>
+      <c r="Y29" s="129"/>
+      <c r="Z29" s="129"/>
+      <c r="AA29" s="129"/>
+      <c r="AB29" s="130"/>
+      <c r="AC29" s="122"/>
+      <c r="AD29" s="123"/>
+      <c r="AE29" s="124"/>
       <c r="AF29" s="12"/>
     </row>
     <row r="30" spans="1:32" ht="29.25" customHeight="1">
       <c r="A30" s="12"/>
-      <c r="B30" s="141"/>
-      <c r="C30" s="144"/>
-      <c r="D30" s="144"/>
-      <c r="E30" s="142"/>
-      <c r="F30" s="155"/>
-      <c r="G30" s="156"/>
-      <c r="H30" s="156"/>
-      <c r="I30" s="157"/>
-      <c r="J30" s="158"/>
-      <c r="K30" s="159"/>
-      <c r="L30" s="159"/>
-      <c r="M30" s="159"/>
-      <c r="N30" s="159"/>
-      <c r="O30" s="159"/>
-      <c r="P30" s="159"/>
-      <c r="Q30" s="159"/>
-      <c r="R30" s="159"/>
-      <c r="S30" s="159"/>
-      <c r="T30" s="159"/>
-      <c r="U30" s="159"/>
-      <c r="V30" s="159"/>
-      <c r="W30" s="159"/>
-      <c r="X30" s="159"/>
-      <c r="Y30" s="159"/>
-      <c r="Z30" s="159"/>
-      <c r="AA30" s="159"/>
-      <c r="AB30" s="160"/>
-      <c r="AC30" s="141"/>
-      <c r="AD30" s="144"/>
-      <c r="AE30" s="142"/>
+      <c r="B30" s="122"/>
+      <c r="C30" s="123"/>
+      <c r="D30" s="123"/>
+      <c r="E30" s="124"/>
+      <c r="F30" s="125"/>
+      <c r="G30" s="126"/>
+      <c r="H30" s="126"/>
+      <c r="I30" s="127"/>
+      <c r="J30" s="128"/>
+      <c r="K30" s="129"/>
+      <c r="L30" s="129"/>
+      <c r="M30" s="129"/>
+      <c r="N30" s="129"/>
+      <c r="O30" s="129"/>
+      <c r="P30" s="129"/>
+      <c r="Q30" s="129"/>
+      <c r="R30" s="129"/>
+      <c r="S30" s="129"/>
+      <c r="T30" s="129"/>
+      <c r="U30" s="129"/>
+      <c r="V30" s="129"/>
+      <c r="W30" s="129"/>
+      <c r="X30" s="129"/>
+      <c r="Y30" s="129"/>
+      <c r="Z30" s="129"/>
+      <c r="AA30" s="129"/>
+      <c r="AB30" s="130"/>
+      <c r="AC30" s="122"/>
+      <c r="AD30" s="123"/>
+      <c r="AE30" s="124"/>
       <c r="AF30" s="12"/>
     </row>
     <row r="31" spans="1:32" ht="29.25" customHeight="1">
       <c r="A31" s="12"/>
-      <c r="B31" s="141"/>
-      <c r="C31" s="144"/>
-      <c r="D31" s="144"/>
-      <c r="E31" s="142"/>
-      <c r="F31" s="155"/>
-      <c r="G31" s="156"/>
-      <c r="H31" s="156"/>
-      <c r="I31" s="157"/>
-      <c r="J31" s="158"/>
-      <c r="K31" s="159"/>
-      <c r="L31" s="159"/>
-      <c r="M31" s="159"/>
-      <c r="N31" s="159"/>
-      <c r="O31" s="159"/>
-      <c r="P31" s="159"/>
-      <c r="Q31" s="159"/>
-      <c r="R31" s="159"/>
-      <c r="S31" s="159"/>
-      <c r="T31" s="159"/>
-      <c r="U31" s="159"/>
-      <c r="V31" s="159"/>
-      <c r="W31" s="159"/>
-      <c r="X31" s="159"/>
-      <c r="Y31" s="159"/>
-      <c r="Z31" s="159"/>
-      <c r="AA31" s="159"/>
-      <c r="AB31" s="160"/>
-      <c r="AC31" s="141"/>
-      <c r="AD31" s="144"/>
-      <c r="AE31" s="142"/>
+      <c r="B31" s="122"/>
+      <c r="C31" s="123"/>
+      <c r="D31" s="123"/>
+      <c r="E31" s="124"/>
+      <c r="F31" s="125"/>
+      <c r="G31" s="126"/>
+      <c r="H31" s="126"/>
+      <c r="I31" s="127"/>
+      <c r="J31" s="128"/>
+      <c r="K31" s="129"/>
+      <c r="L31" s="129"/>
+      <c r="M31" s="129"/>
+      <c r="N31" s="129"/>
+      <c r="O31" s="129"/>
+      <c r="P31" s="129"/>
+      <c r="Q31" s="129"/>
+      <c r="R31" s="129"/>
+      <c r="S31" s="129"/>
+      <c r="T31" s="129"/>
+      <c r="U31" s="129"/>
+      <c r="V31" s="129"/>
+      <c r="W31" s="129"/>
+      <c r="X31" s="129"/>
+      <c r="Y31" s="129"/>
+      <c r="Z31" s="129"/>
+      <c r="AA31" s="129"/>
+      <c r="AB31" s="130"/>
+      <c r="AC31" s="122"/>
+      <c r="AD31" s="123"/>
+      <c r="AE31" s="124"/>
       <c r="AF31" s="12"/>
     </row>
     <row r="32" spans="1:32" ht="29.25" customHeight="1">
       <c r="A32" s="12"/>
-      <c r="B32" s="141"/>
-      <c r="C32" s="144"/>
-      <c r="D32" s="144"/>
-      <c r="E32" s="142"/>
-      <c r="F32" s="155"/>
-      <c r="G32" s="156"/>
-      <c r="H32" s="156"/>
-      <c r="I32" s="157"/>
-      <c r="J32" s="158"/>
-      <c r="K32" s="159"/>
-      <c r="L32" s="159"/>
-      <c r="M32" s="159"/>
-      <c r="N32" s="159"/>
-      <c r="O32" s="159"/>
-      <c r="P32" s="159"/>
-      <c r="Q32" s="159"/>
-      <c r="R32" s="159"/>
-      <c r="S32" s="159"/>
-      <c r="T32" s="159"/>
-      <c r="U32" s="159"/>
-      <c r="V32" s="159"/>
-      <c r="W32" s="159"/>
-      <c r="X32" s="159"/>
-      <c r="Y32" s="159"/>
-      <c r="Z32" s="159"/>
-      <c r="AA32" s="159"/>
-      <c r="AB32" s="160"/>
-      <c r="AC32" s="141"/>
-      <c r="AD32" s="144"/>
-      <c r="AE32" s="142"/>
+      <c r="B32" s="122"/>
+      <c r="C32" s="123"/>
+      <c r="D32" s="123"/>
+      <c r="E32" s="124"/>
+      <c r="F32" s="125"/>
+      <c r="G32" s="126"/>
+      <c r="H32" s="126"/>
+      <c r="I32" s="127"/>
+      <c r="J32" s="128"/>
+      <c r="K32" s="129"/>
+      <c r="L32" s="129"/>
+      <c r="M32" s="129"/>
+      <c r="N32" s="129"/>
+      <c r="O32" s="129"/>
+      <c r="P32" s="129"/>
+      <c r="Q32" s="129"/>
+      <c r="R32" s="129"/>
+      <c r="S32" s="129"/>
+      <c r="T32" s="129"/>
+      <c r="U32" s="129"/>
+      <c r="V32" s="129"/>
+      <c r="W32" s="129"/>
+      <c r="X32" s="129"/>
+      <c r="Y32" s="129"/>
+      <c r="Z32" s="129"/>
+      <c r="AA32" s="129"/>
+      <c r="AB32" s="130"/>
+      <c r="AC32" s="122"/>
+      <c r="AD32" s="123"/>
+      <c r="AE32" s="124"/>
       <c r="AF32" s="12"/>
     </row>
     <row r="33" spans="1:32" ht="29.25" customHeight="1">
       <c r="A33" s="12"/>
-      <c r="B33" s="141"/>
-      <c r="C33" s="144"/>
-      <c r="D33" s="144"/>
-      <c r="E33" s="142"/>
-      <c r="F33" s="155"/>
-      <c r="G33" s="156"/>
-      <c r="H33" s="156"/>
-      <c r="I33" s="157"/>
-      <c r="J33" s="158"/>
-      <c r="K33" s="159"/>
-      <c r="L33" s="159"/>
-      <c r="M33" s="159"/>
-      <c r="N33" s="159"/>
-      <c r="O33" s="159"/>
-      <c r="P33" s="159"/>
-      <c r="Q33" s="159"/>
-      <c r="R33" s="159"/>
-      <c r="S33" s="159"/>
-      <c r="T33" s="159"/>
-      <c r="U33" s="159"/>
-      <c r="V33" s="159"/>
-      <c r="W33" s="159"/>
-      <c r="X33" s="159"/>
-      <c r="Y33" s="159"/>
-      <c r="Z33" s="159"/>
-      <c r="AA33" s="159"/>
-      <c r="AB33" s="160"/>
-      <c r="AC33" s="141"/>
-      <c r="AD33" s="144"/>
-      <c r="AE33" s="142"/>
+      <c r="B33" s="122"/>
+      <c r="C33" s="123"/>
+      <c r="D33" s="123"/>
+      <c r="E33" s="124"/>
+      <c r="F33" s="125"/>
+      <c r="G33" s="126"/>
+      <c r="H33" s="126"/>
+      <c r="I33" s="127"/>
+      <c r="J33" s="128"/>
+      <c r="K33" s="129"/>
+      <c r="L33" s="129"/>
+      <c r="M33" s="129"/>
+      <c r="N33" s="129"/>
+      <c r="O33" s="129"/>
+      <c r="P33" s="129"/>
+      <c r="Q33" s="129"/>
+      <c r="R33" s="129"/>
+      <c r="S33" s="129"/>
+      <c r="T33" s="129"/>
+      <c r="U33" s="129"/>
+      <c r="V33" s="129"/>
+      <c r="W33" s="129"/>
+      <c r="X33" s="129"/>
+      <c r="Y33" s="129"/>
+      <c r="Z33" s="129"/>
+      <c r="AA33" s="129"/>
+      <c r="AB33" s="130"/>
+      <c r="AC33" s="122"/>
+      <c r="AD33" s="123"/>
+      <c r="AE33" s="124"/>
       <c r="AF33" s="12"/>
     </row>
     <row r="34" spans="1:32" ht="15" customHeight="1">
@@ -5095,51 +5083,6 @@
     </row>
   </sheetData>
   <mergeCells count="56">
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="F32:I32"/>
-    <mergeCell ref="J32:AB32"/>
-    <mergeCell ref="AC32:AE32"/>
-    <mergeCell ref="B33:E33"/>
-    <mergeCell ref="F33:I33"/>
-    <mergeCell ref="J33:AB33"/>
-    <mergeCell ref="AC33:AE33"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="F30:I30"/>
-    <mergeCell ref="J30:AB30"/>
-    <mergeCell ref="AC30:AE30"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="F31:I31"/>
-    <mergeCell ref="J31:AB31"/>
-    <mergeCell ref="AC31:AE31"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="F28:I28"/>
-    <mergeCell ref="J28:AB28"/>
-    <mergeCell ref="AC28:AE28"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="F29:I29"/>
-    <mergeCell ref="J29:AB29"/>
-    <mergeCell ref="AC29:AE29"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="F26:I26"/>
-    <mergeCell ref="J26:AB26"/>
-    <mergeCell ref="AC26:AE26"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="F27:I27"/>
-    <mergeCell ref="J27:AB27"/>
-    <mergeCell ref="AC27:AE27"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="J24:AB24"/>
-    <mergeCell ref="AC24:AE24"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="J25:AB25"/>
-    <mergeCell ref="AC25:AE25"/>
-    <mergeCell ref="B16:AE18"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="J23:AB23"/>
-    <mergeCell ref="AC23:AE23"/>
     <mergeCell ref="AC8:AE8"/>
     <mergeCell ref="F7:Q7"/>
     <mergeCell ref="B8:E9"/>
@@ -5151,6 +5094,51 @@
     <mergeCell ref="AC9:AE12"/>
     <mergeCell ref="Z9:AB12"/>
     <mergeCell ref="W9:Y12"/>
+    <mergeCell ref="B16:AE18"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="J23:AB23"/>
+    <mergeCell ref="AC23:AE23"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="J24:AB24"/>
+    <mergeCell ref="AC24:AE24"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="J25:AB25"/>
+    <mergeCell ref="AC25:AE25"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="F26:I26"/>
+    <mergeCell ref="J26:AB26"/>
+    <mergeCell ref="AC26:AE26"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="F27:I27"/>
+    <mergeCell ref="J27:AB27"/>
+    <mergeCell ref="AC27:AE27"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="F28:I28"/>
+    <mergeCell ref="J28:AB28"/>
+    <mergeCell ref="AC28:AE28"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="F29:I29"/>
+    <mergeCell ref="J29:AB29"/>
+    <mergeCell ref="AC29:AE29"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="F30:I30"/>
+    <mergeCell ref="J30:AB30"/>
+    <mergeCell ref="AC30:AE30"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="F31:I31"/>
+    <mergeCell ref="J31:AB31"/>
+    <mergeCell ref="AC31:AE31"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="F32:I32"/>
+    <mergeCell ref="J32:AB32"/>
+    <mergeCell ref="AC32:AE32"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="F33:I33"/>
+    <mergeCell ref="J33:AB33"/>
+    <mergeCell ref="AC33:AE33"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>
@@ -5189,16 +5177,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="14.4">
-      <c r="A1" s="119" t="s">
+      <c r="A1" s="114" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="120"/>
-      <c r="C1" s="120"/>
-      <c r="D1" s="120"/>
-      <c r="E1" s="120"/>
-      <c r="F1" s="120"/>
-      <c r="G1" s="120"/>
-      <c r="H1" s="121"/>
+      <c r="B1" s="115"/>
+      <c r="C1" s="115"/>
+      <c r="D1" s="115"/>
+      <c r="E1" s="115"/>
+      <c r="F1" s="115"/>
+      <c r="G1" s="115"/>
+      <c r="H1" s="116"/>
     </row>
     <row r="2" spans="1:8" ht="20.25" customHeight="1">
       <c r="A2" s="40" t="s">
@@ -5273,42 +5261,42 @@
         <v>38</v>
       </c>
       <c r="B6" s="45"/>
-      <c r="C6" s="197" t="s">
+      <c r="C6" s="168" t="s">
         <v>69</v>
       </c>
-      <c r="D6" s="198"/>
-      <c r="E6" s="198"/>
-      <c r="F6" s="198"/>
-      <c r="G6" s="198"/>
-      <c r="H6" s="199"/>
+      <c r="D6" s="169"/>
+      <c r="E6" s="169"/>
+      <c r="F6" s="169"/>
+      <c r="G6" s="169"/>
+      <c r="H6" s="170"/>
     </row>
     <row r="7" spans="1:8" ht="20.25" customHeight="1">
       <c r="A7" s="40" t="s">
         <v>31</v>
       </c>
       <c r="B7" s="45"/>
-      <c r="C7" s="197" t="s">
+      <c r="C7" s="168" t="s">
         <v>70</v>
       </c>
-      <c r="D7" s="198"/>
-      <c r="E7" s="198"/>
-      <c r="F7" s="198"/>
-      <c r="G7" s="198"/>
-      <c r="H7" s="199"/>
+      <c r="D7" s="169"/>
+      <c r="E7" s="169"/>
+      <c r="F7" s="169"/>
+      <c r="G7" s="169"/>
+      <c r="H7" s="170"/>
     </row>
     <row r="8" spans="1:8" ht="20.25" customHeight="1">
       <c r="A8" s="40" t="s">
         <v>39</v>
       </c>
       <c r="B8" s="45"/>
-      <c r="C8" s="197" t="s">
+      <c r="C8" s="168" t="s">
         <v>78</v>
       </c>
-      <c r="D8" s="198"/>
-      <c r="E8" s="198"/>
-      <c r="F8" s="198"/>
-      <c r="G8" s="198"/>
-      <c r="H8" s="199"/>
+      <c r="D8" s="169"/>
+      <c r="E8" s="169"/>
+      <c r="F8" s="169"/>
+      <c r="G8" s="169"/>
+      <c r="H8" s="170"/>
     </row>
     <row r="9" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A9" s="46" t="s">
@@ -5329,10 +5317,10 @@
       <c r="B10" s="48" t="s">
         <v>42</v>
       </c>
-      <c r="C10" s="183" t="s">
+      <c r="C10" s="171" t="s">
         <v>43</v>
       </c>
-      <c r="D10" s="200"/>
+      <c r="D10" s="172"/>
       <c r="E10" s="48" t="s">
         <v>44</v>
       </c>
@@ -5353,10 +5341,10 @@
       <c r="B11" s="62" t="s">
         <v>65</v>
       </c>
-      <c r="C11" s="201" t="s">
+      <c r="C11" s="173" t="s">
         <v>72</v>
       </c>
-      <c r="D11" s="202"/>
+      <c r="D11" s="174"/>
       <c r="E11" s="63" t="s">
         <v>79</v>
       </c>
@@ -5375,10 +5363,10 @@
       <c r="B12" s="67" t="s">
         <v>66</v>
       </c>
-      <c r="C12" s="193" t="s">
+      <c r="C12" s="166" t="s">
         <v>73</v>
       </c>
-      <c r="D12" s="194"/>
+      <c r="D12" s="167"/>
       <c r="E12" s="68" t="s">
         <v>81</v>
       </c>
@@ -5395,10 +5383,10 @@
       <c r="B13" s="67" t="s">
         <v>67</v>
       </c>
-      <c r="C13" s="193" t="s">
+      <c r="C13" s="166" t="s">
         <v>74</v>
       </c>
-      <c r="D13" s="194"/>
+      <c r="D13" s="167"/>
       <c r="E13" s="68" t="s">
         <v>81</v>
       </c>
@@ -5415,10 +5403,10 @@
       <c r="B14" s="72" t="s">
         <v>68</v>
       </c>
-      <c r="C14" s="193" t="s">
+      <c r="C14" s="166" t="s">
         <v>75</v>
       </c>
-      <c r="D14" s="194"/>
+      <c r="D14" s="167"/>
       <c r="E14" s="68" t="s">
         <v>82</v>
       </c>
@@ -5431,8 +5419,8 @@
     <row r="15" spans="1:8" ht="20.25" customHeight="1">
       <c r="A15" s="71"/>
       <c r="B15" s="72"/>
-      <c r="C15" s="193"/>
-      <c r="D15" s="194"/>
+      <c r="C15" s="166"/>
+      <c r="D15" s="167"/>
       <c r="E15" s="73"/>
       <c r="F15" s="73"/>
       <c r="G15" s="74"/>
@@ -5441,8 +5429,8 @@
     <row r="16" spans="1:8" ht="20.25" customHeight="1">
       <c r="A16" s="71"/>
       <c r="B16" s="72"/>
-      <c r="C16" s="193"/>
-      <c r="D16" s="194"/>
+      <c r="C16" s="166"/>
+      <c r="D16" s="167"/>
       <c r="E16" s="73"/>
       <c r="F16" s="73"/>
       <c r="G16" s="74"/>
@@ -5451,8 +5439,8 @@
     <row r="17" spans="1:8" ht="20.25" customHeight="1">
       <c r="A17" s="71"/>
       <c r="B17" s="72"/>
-      <c r="C17" s="193"/>
-      <c r="D17" s="194"/>
+      <c r="C17" s="166"/>
+      <c r="D17" s="167"/>
       <c r="E17" s="73"/>
       <c r="F17" s="73"/>
       <c r="G17" s="74"/>
@@ -5461,8 +5449,8 @@
     <row r="18" spans="1:8" ht="20.25" customHeight="1">
       <c r="A18" s="71"/>
       <c r="B18" s="72"/>
-      <c r="C18" s="193"/>
-      <c r="D18" s="194"/>
+      <c r="C18" s="166"/>
+      <c r="D18" s="167"/>
       <c r="E18" s="73"/>
       <c r="F18" s="73"/>
       <c r="G18" s="74"/>
@@ -5471,8 +5459,8 @@
     <row r="19" spans="1:8" ht="20.25" customHeight="1">
       <c r="A19" s="71"/>
       <c r="B19" s="72"/>
-      <c r="C19" s="193"/>
-      <c r="D19" s="194"/>
+      <c r="C19" s="166"/>
+      <c r="D19" s="167"/>
       <c r="E19" s="73"/>
       <c r="F19" s="73"/>
       <c r="G19" s="74"/>
@@ -5481,8 +5469,8 @@
     <row r="20" spans="1:8" ht="20.25" customHeight="1">
       <c r="A20" s="71"/>
       <c r="B20" s="72"/>
-      <c r="C20" s="193"/>
-      <c r="D20" s="194"/>
+      <c r="C20" s="166"/>
+      <c r="D20" s="167"/>
       <c r="E20" s="73"/>
       <c r="F20" s="73"/>
       <c r="G20" s="74"/>
@@ -5491,8 +5479,8 @@
     <row r="21" spans="1:8" ht="20.25" customHeight="1">
       <c r="A21" s="71"/>
       <c r="B21" s="72"/>
-      <c r="C21" s="193"/>
-      <c r="D21" s="194"/>
+      <c r="C21" s="166"/>
+      <c r="D21" s="167"/>
       <c r="E21" s="73"/>
       <c r="F21" s="73"/>
       <c r="G21" s="74"/>
@@ -5501,8 +5489,8 @@
     <row r="22" spans="1:8" ht="20.25" customHeight="1">
       <c r="A22" s="71"/>
       <c r="B22" s="72"/>
-      <c r="C22" s="193"/>
-      <c r="D22" s="194"/>
+      <c r="C22" s="166"/>
+      <c r="D22" s="167"/>
       <c r="E22" s="73"/>
       <c r="F22" s="73"/>
       <c r="G22" s="74"/>
@@ -5511,8 +5499,8 @@
     <row r="23" spans="1:8" ht="20.25" customHeight="1">
       <c r="A23" s="71"/>
       <c r="B23" s="72"/>
-      <c r="C23" s="193"/>
-      <c r="D23" s="194"/>
+      <c r="C23" s="166"/>
+      <c r="D23" s="167"/>
       <c r="E23" s="73"/>
       <c r="F23" s="73"/>
       <c r="G23" s="74"/>
@@ -5521,8 +5509,8 @@
     <row r="24" spans="1:8" ht="20.25" customHeight="1">
       <c r="A24" s="71"/>
       <c r="B24" s="72"/>
-      <c r="C24" s="193"/>
-      <c r="D24" s="194"/>
+      <c r="C24" s="166"/>
+      <c r="D24" s="167"/>
       <c r="E24" s="73"/>
       <c r="F24" s="73"/>
       <c r="G24" s="74"/>
@@ -5531,8 +5519,8 @@
     <row r="25" spans="1:8" ht="20.25" customHeight="1">
       <c r="A25" s="71"/>
       <c r="B25" s="72"/>
-      <c r="C25" s="193"/>
-      <c r="D25" s="194"/>
+      <c r="C25" s="166"/>
+      <c r="D25" s="167"/>
       <c r="E25" s="73"/>
       <c r="F25" s="73"/>
       <c r="G25" s="74"/>
@@ -5541,8 +5529,8 @@
     <row r="26" spans="1:8" ht="20.25" customHeight="1">
       <c r="A26" s="71"/>
       <c r="B26" s="72"/>
-      <c r="C26" s="193"/>
-      <c r="D26" s="194"/>
+      <c r="C26" s="166"/>
+      <c r="D26" s="167"/>
       <c r="E26" s="73"/>
       <c r="F26" s="73"/>
       <c r="G26" s="74"/>
@@ -5551,8 +5539,8 @@
     <row r="27" spans="1:8" ht="20.25" customHeight="1">
       <c r="A27" s="71"/>
       <c r="B27" s="72"/>
-      <c r="C27" s="193"/>
-      <c r="D27" s="194"/>
+      <c r="C27" s="166"/>
+      <c r="D27" s="167"/>
       <c r="E27" s="73"/>
       <c r="F27" s="73"/>
       <c r="G27" s="74"/>
@@ -5561,8 +5549,8 @@
     <row r="28" spans="1:8" ht="20.25" customHeight="1">
       <c r="A28" s="71"/>
       <c r="B28" s="72"/>
-      <c r="C28" s="193"/>
-      <c r="D28" s="194"/>
+      <c r="C28" s="166"/>
+      <c r="D28" s="167"/>
       <c r="E28" s="73"/>
       <c r="F28" s="73"/>
       <c r="G28" s="74"/>
@@ -5571,8 +5559,8 @@
     <row r="29" spans="1:8" ht="20.25" customHeight="1">
       <c r="A29" s="71"/>
       <c r="B29" s="72"/>
-      <c r="C29" s="193"/>
-      <c r="D29" s="194"/>
+      <c r="C29" s="166"/>
+      <c r="D29" s="167"/>
       <c r="E29" s="73"/>
       <c r="F29" s="73"/>
       <c r="G29" s="74"/>
@@ -5581,8 +5569,8 @@
     <row r="30" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A30" s="76"/>
       <c r="B30" s="77"/>
-      <c r="C30" s="172"/>
-      <c r="D30" s="174"/>
+      <c r="C30" s="180"/>
+      <c r="D30" s="181"/>
       <c r="E30" s="78"/>
       <c r="F30" s="78"/>
       <c r="G30" s="79"/>
@@ -5614,10 +5602,10 @@
       <c r="A33" s="53" t="s">
         <v>41</v>
       </c>
-      <c r="B33" s="180" t="s">
+      <c r="B33" s="182" t="s">
         <v>49</v>
       </c>
-      <c r="C33" s="182"/>
+      <c r="C33" s="183"/>
       <c r="D33" s="54" t="s">
         <v>50</v>
       </c>
@@ -5632,51 +5620,51 @@
     </row>
     <row r="34" spans="1:8" ht="20.25" customHeight="1">
       <c r="A34" s="61"/>
-      <c r="B34" s="195"/>
-      <c r="C34" s="196"/>
-      <c r="D34" s="185"/>
-      <c r="E34" s="186"/>
-      <c r="F34" s="187"/>
+      <c r="B34" s="184"/>
+      <c r="C34" s="185"/>
+      <c r="D34" s="186"/>
+      <c r="E34" s="187"/>
+      <c r="F34" s="188"/>
       <c r="G34" s="64"/>
       <c r="H34" s="65"/>
     </row>
     <row r="35" spans="1:8" ht="20.25" customHeight="1">
       <c r="A35" s="66"/>
-      <c r="B35" s="188"/>
-      <c r="C35" s="189"/>
-      <c r="D35" s="169"/>
-      <c r="E35" s="170"/>
-      <c r="F35" s="171"/>
+      <c r="B35" s="175"/>
+      <c r="C35" s="176"/>
+      <c r="D35" s="177"/>
+      <c r="E35" s="178"/>
+      <c r="F35" s="179"/>
       <c r="G35" s="69"/>
       <c r="H35" s="70"/>
     </row>
     <row r="36" spans="1:8" ht="20.25" customHeight="1">
       <c r="A36" s="66"/>
-      <c r="B36" s="188"/>
-      <c r="C36" s="189"/>
-      <c r="D36" s="169"/>
-      <c r="E36" s="170"/>
-      <c r="F36" s="171"/>
+      <c r="B36" s="175"/>
+      <c r="C36" s="176"/>
+      <c r="D36" s="177"/>
+      <c r="E36" s="178"/>
+      <c r="F36" s="179"/>
       <c r="G36" s="69"/>
       <c r="H36" s="70"/>
     </row>
     <row r="37" spans="1:8" ht="20.25" customHeight="1">
       <c r="A37" s="66"/>
-      <c r="B37" s="188"/>
-      <c r="C37" s="189"/>
-      <c r="D37" s="169"/>
-      <c r="E37" s="170"/>
-      <c r="F37" s="171"/>
+      <c r="B37" s="175"/>
+      <c r="C37" s="176"/>
+      <c r="D37" s="177"/>
+      <c r="E37" s="178"/>
+      <c r="F37" s="179"/>
       <c r="G37" s="69"/>
       <c r="H37" s="70"/>
     </row>
     <row r="38" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A38" s="76"/>
-      <c r="B38" s="190"/>
-      <c r="C38" s="191"/>
-      <c r="D38" s="172"/>
-      <c r="E38" s="173"/>
-      <c r="F38" s="174"/>
+      <c r="B38" s="189"/>
+      <c r="C38" s="190"/>
+      <c r="D38" s="180"/>
+      <c r="E38" s="191"/>
+      <c r="F38" s="181"/>
       <c r="G38" s="79"/>
       <c r="H38" s="80"/>
     </row>
@@ -5709,15 +5697,15 @@
       <c r="B41" s="57" t="s">
         <v>53</v>
       </c>
-      <c r="C41" s="180" t="s">
+      <c r="C41" s="182" t="s">
         <v>50</v>
       </c>
-      <c r="D41" s="181"/>
-      <c r="E41" s="182"/>
-      <c r="F41" s="180" t="s">
+      <c r="D41" s="192"/>
+      <c r="E41" s="183"/>
+      <c r="F41" s="182" t="s">
         <v>54</v>
       </c>
-      <c r="G41" s="192"/>
+      <c r="G41" s="193"/>
       <c r="H41" s="58" t="s">
         <v>55</v>
       </c>
@@ -5725,51 +5713,51 @@
     <row r="42" spans="1:8" ht="20.25" customHeight="1">
       <c r="A42" s="81"/>
       <c r="B42" s="82"/>
-      <c r="C42" s="185"/>
-      <c r="D42" s="186"/>
-      <c r="E42" s="187"/>
-      <c r="F42" s="185"/>
-      <c r="G42" s="187"/>
+      <c r="C42" s="186"/>
+      <c r="D42" s="187"/>
+      <c r="E42" s="188"/>
+      <c r="F42" s="186"/>
+      <c r="G42" s="188"/>
       <c r="H42" s="83"/>
     </row>
     <row r="43" spans="1:8" ht="20.25" customHeight="1">
       <c r="A43" s="84"/>
       <c r="B43" s="85"/>
-      <c r="C43" s="169"/>
-      <c r="D43" s="170"/>
-      <c r="E43" s="171"/>
-      <c r="F43" s="169"/>
-      <c r="G43" s="171"/>
+      <c r="C43" s="177"/>
+      <c r="D43" s="178"/>
+      <c r="E43" s="179"/>
+      <c r="F43" s="177"/>
+      <c r="G43" s="179"/>
       <c r="H43" s="86"/>
     </row>
     <row r="44" spans="1:8" ht="20.25" customHeight="1">
       <c r="A44" s="84"/>
       <c r="B44" s="85"/>
-      <c r="C44" s="169"/>
-      <c r="D44" s="170"/>
-      <c r="E44" s="171"/>
-      <c r="F44" s="169"/>
-      <c r="G44" s="171"/>
+      <c r="C44" s="177"/>
+      <c r="D44" s="178"/>
+      <c r="E44" s="179"/>
+      <c r="F44" s="177"/>
+      <c r="G44" s="179"/>
       <c r="H44" s="86"/>
     </row>
     <row r="45" spans="1:8" ht="20.25" customHeight="1">
       <c r="A45" s="84"/>
       <c r="B45" s="85"/>
-      <c r="C45" s="169"/>
-      <c r="D45" s="170"/>
-      <c r="E45" s="171"/>
-      <c r="F45" s="169"/>
-      <c r="G45" s="171"/>
+      <c r="C45" s="177"/>
+      <c r="D45" s="178"/>
+      <c r="E45" s="179"/>
+      <c r="F45" s="177"/>
+      <c r="G45" s="179"/>
       <c r="H45" s="86"/>
     </row>
     <row r="46" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A46" s="87"/>
       <c r="B46" s="88"/>
-      <c r="C46" s="172"/>
-      <c r="D46" s="173"/>
-      <c r="E46" s="174"/>
-      <c r="F46" s="175"/>
-      <c r="G46" s="176"/>
+      <c r="C46" s="180"/>
+      <c r="D46" s="191"/>
+      <c r="E46" s="181"/>
+      <c r="F46" s="194"/>
+      <c r="G46" s="195"/>
       <c r="H46" s="89"/>
     </row>
     <row r="47" spans="1:8" ht="20.25" customHeight="1">
@@ -5801,15 +5789,15 @@
       <c r="B49" s="57" t="s">
         <v>53</v>
       </c>
-      <c r="C49" s="180" t="s">
+      <c r="C49" s="182" t="s">
         <v>50</v>
       </c>
-      <c r="D49" s="181"/>
-      <c r="E49" s="182"/>
-      <c r="F49" s="183" t="s">
+      <c r="D49" s="192"/>
+      <c r="E49" s="183"/>
+      <c r="F49" s="171" t="s">
         <v>57</v>
       </c>
-      <c r="G49" s="184"/>
+      <c r="G49" s="196"/>
       <c r="H49" s="49" t="s">
         <v>58</v>
       </c>
@@ -5819,73 +5807,83 @@
         <v>1</v>
       </c>
       <c r="B50" s="95"/>
-      <c r="C50" s="177"/>
-      <c r="D50" s="178"/>
-      <c r="E50" s="179"/>
-      <c r="F50" s="177"/>
-      <c r="G50" s="179"/>
+      <c r="C50" s="197"/>
+      <c r="D50" s="198"/>
+      <c r="E50" s="199"/>
+      <c r="F50" s="197"/>
+      <c r="G50" s="199"/>
       <c r="H50" s="96"/>
     </row>
     <row r="51" spans="1:8" ht="20.25" customHeight="1">
       <c r="A51" s="84"/>
       <c r="B51" s="85"/>
-      <c r="C51" s="169"/>
-      <c r="D51" s="170"/>
-      <c r="E51" s="171"/>
-      <c r="F51" s="169"/>
-      <c r="G51" s="171"/>
+      <c r="C51" s="177"/>
+      <c r="D51" s="178"/>
+      <c r="E51" s="179"/>
+      <c r="F51" s="177"/>
+      <c r="G51" s="179"/>
       <c r="H51" s="86"/>
     </row>
     <row r="52" spans="1:8" ht="20.25" customHeight="1">
       <c r="A52" s="84"/>
       <c r="B52" s="85"/>
-      <c r="C52" s="169"/>
-      <c r="D52" s="170"/>
-      <c r="E52" s="171"/>
-      <c r="F52" s="169"/>
-      <c r="G52" s="171"/>
+      <c r="C52" s="177"/>
+      <c r="D52" s="178"/>
+      <c r="E52" s="179"/>
+      <c r="F52" s="177"/>
+      <c r="G52" s="179"/>
       <c r="H52" s="86"/>
     </row>
     <row r="53" spans="1:8" ht="20.25" customHeight="1">
       <c r="A53" s="84"/>
       <c r="B53" s="85"/>
-      <c r="C53" s="169"/>
-      <c r="D53" s="170"/>
-      <c r="E53" s="171"/>
-      <c r="F53" s="169"/>
-      <c r="G53" s="171"/>
+      <c r="C53" s="177"/>
+      <c r="D53" s="178"/>
+      <c r="E53" s="179"/>
+      <c r="F53" s="177"/>
+      <c r="G53" s="179"/>
       <c r="H53" s="86"/>
     </row>
     <row r="54" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A54" s="87"/>
       <c r="B54" s="88"/>
-      <c r="C54" s="172"/>
-      <c r="D54" s="173"/>
-      <c r="E54" s="174"/>
-      <c r="F54" s="175"/>
-      <c r="G54" s="176"/>
+      <c r="C54" s="180"/>
+      <c r="D54" s="191"/>
+      <c r="E54" s="181"/>
+      <c r="F54" s="194"/>
+      <c r="G54" s="195"/>
       <c r="H54" s="89"/>
     </row>
   </sheetData>
   <mergeCells count="59">
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="C54:E54"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="F41:G41"/>
     <mergeCell ref="B36:C36"/>
     <mergeCell ref="D36:F36"/>
     <mergeCell ref="C25:D25"/>
@@ -5899,34 +5897,24 @@
     <mergeCell ref="D34:F34"/>
     <mergeCell ref="B35:C35"/>
     <mergeCell ref="D35:F35"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="C44:E44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="C54:E54"/>
-    <mergeCell ref="F54:G54"/>
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="C51:E51"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="C52:E52"/>
-    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="1.0236220472440944" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -5939,21 +5927,21 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N38"/>
+  <dimension ref="A1:N17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="14.88671875" customWidth="1"/>
     <col min="2" max="2" width="4" customWidth="1"/>
-    <col min="3" max="12" width="10.109375" customWidth="1"/>
+    <col min="3" max="14" width="10.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="14.4">
-      <c r="A1" s="122" t="s">
+      <c r="A1" s="117" t="s">
         <v>59</v>
       </c>
       <c r="B1" s="97"/>
@@ -5967,7 +5955,7 @@
       <c r="J1" s="97"/>
       <c r="K1" s="97"/>
       <c r="L1" s="97"/>
-      <c r="M1" s="115"/>
+      <c r="M1" s="110"/>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="98" t="s">
@@ -5991,10 +5979,10 @@
       <c r="K2" s="100" t="s">
         <v>21</v>
       </c>
-      <c r="L2" s="214">
+      <c r="L2" s="206">
         <v>45307</v>
       </c>
-      <c r="M2" s="204"/>
+      <c r="M2" s="207"/>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="101" t="s">
@@ -6016,8 +6004,8 @@
       <c r="K3" s="100" t="s">
         <v>27</v>
       </c>
-      <c r="L3" s="203"/>
-      <c r="M3" s="204"/>
+      <c r="L3" s="208"/>
+      <c r="M3" s="207"/>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="98" t="s">
@@ -6037,10 +6025,10 @@
       <c r="K4" s="100" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="203" t="s">
+      <c r="L4" s="208" t="s">
         <v>14</v>
       </c>
-      <c r="M4" s="204"/>
+      <c r="M4" s="207"/>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="18"/>
@@ -6096,22 +6084,20 @@
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="105"/>
-      <c r="M8" s="215"/>
-      <c r="N8" s="215"/>
     </row>
     <row r="9" spans="1:14" ht="21.75" customHeight="1">
       <c r="A9" s="105"/>
       <c r="F9" s="106"/>
-      <c r="G9" s="205" t="s">
+      <c r="G9" s="200" t="s">
         <v>61</v>
       </c>
-      <c r="H9" s="206"/>
-      <c r="I9" s="206"/>
-      <c r="J9" s="206"/>
-      <c r="K9" s="206"/>
-      <c r="L9" s="206"/>
-      <c r="M9" s="206"/>
-      <c r="N9" s="207"/>
+      <c r="H9" s="201"/>
+      <c r="I9" s="201"/>
+      <c r="J9" s="201"/>
+      <c r="K9" s="201"/>
+      <c r="L9" s="201"/>
+      <c r="M9" s="201"/>
+      <c r="N9" s="202"/>
     </row>
     <row r="10" spans="1:14" ht="21.75" customHeight="1">
       <c r="A10" s="105"/>
@@ -6120,42 +6106,42 @@
       <c r="D10" s="107"/>
       <c r="E10" s="107"/>
       <c r="F10" s="108"/>
-      <c r="G10" s="216" t="s">
+      <c r="G10" s="120" t="s">
         <v>156</v>
       </c>
-      <c r="H10" s="217" t="s">
+      <c r="H10" s="121" t="s">
         <v>141</v>
       </c>
-      <c r="I10" s="217" t="s">
+      <c r="I10" s="121" t="s">
         <v>137</v>
       </c>
-      <c r="J10" s="217" t="s">
+      <c r="J10" s="121" t="s">
         <v>119</v>
       </c>
-      <c r="K10" s="217" t="s">
+      <c r="K10" s="121" t="s">
         <v>186</v>
       </c>
-      <c r="L10" s="217" t="s">
+      <c r="L10" s="121" t="s">
         <v>247</v>
       </c>
-      <c r="M10" s="217" t="s">
+      <c r="M10" s="121" t="s">
         <v>248</v>
       </c>
-      <c r="N10" s="217" t="s">
+      <c r="N10" s="121" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="22.5" customHeight="1">
       <c r="A11" s="105"/>
-      <c r="B11" s="208" t="s">
+      <c r="B11" s="209" t="s">
         <v>62</v>
       </c>
-      <c r="C11" s="211" t="s">
+      <c r="C11" s="203" t="s">
         <v>242</v>
       </c>
-      <c r="D11" s="212"/>
-      <c r="E11" s="212"/>
-      <c r="F11" s="213"/>
+      <c r="D11" s="204"/>
+      <c r="E11" s="204"/>
+      <c r="F11" s="205"/>
       <c r="G11" s="109" t="s">
         <v>252</v>
       </c>
@@ -6183,13 +6169,13 @@
     </row>
     <row r="12" spans="1:14" ht="22.5" customHeight="1">
       <c r="A12" s="105"/>
-      <c r="B12" s="209"/>
-      <c r="C12" s="211" t="s">
+      <c r="B12" s="210"/>
+      <c r="C12" s="203" t="s">
         <v>243</v>
       </c>
-      <c r="D12" s="212"/>
-      <c r="E12" s="212"/>
-      <c r="F12" s="213"/>
+      <c r="D12" s="204"/>
+      <c r="E12" s="204"/>
+      <c r="F12" s="205"/>
       <c r="G12" s="109" t="s">
         <v>252</v>
       </c>
@@ -6217,13 +6203,13 @@
     </row>
     <row r="13" spans="1:14" ht="22.5" customHeight="1">
       <c r="A13" s="105"/>
-      <c r="B13" s="209"/>
-      <c r="C13" s="211" t="s">
+      <c r="B13" s="210"/>
+      <c r="C13" s="203" t="s">
         <v>244</v>
       </c>
-      <c r="D13" s="212"/>
-      <c r="E13" s="212"/>
-      <c r="F13" s="213"/>
+      <c r="D13" s="204"/>
+      <c r="E13" s="204"/>
+      <c r="F13" s="205"/>
       <c r="G13" s="109" t="s">
         <v>250</v>
       </c>
@@ -6251,13 +6237,13 @@
     </row>
     <row r="14" spans="1:14" ht="22.5" customHeight="1">
       <c r="A14" s="105"/>
-      <c r="B14" s="209"/>
-      <c r="C14" s="211" t="s">
+      <c r="B14" s="210"/>
+      <c r="C14" s="203" t="s">
         <v>245</v>
       </c>
-      <c r="D14" s="212"/>
-      <c r="E14" s="212"/>
-      <c r="F14" s="213"/>
+      <c r="D14" s="204"/>
+      <c r="E14" s="204"/>
+      <c r="F14" s="205"/>
       <c r="G14" s="109" t="s">
         <v>250</v>
       </c>
@@ -6285,13 +6271,13 @@
     </row>
     <row r="15" spans="1:14" ht="22.5" customHeight="1">
       <c r="A15" s="105"/>
-      <c r="B15" s="209"/>
-      <c r="C15" s="211" t="s">
+      <c r="B15" s="211"/>
+      <c r="C15" s="203" t="s">
         <v>246</v>
       </c>
-      <c r="D15" s="212"/>
-      <c r="E15" s="212"/>
-      <c r="F15" s="213"/>
+      <c r="D15" s="204"/>
+      <c r="E15" s="204"/>
+      <c r="F15" s="205"/>
       <c r="G15" s="109" t="s">
         <v>252</v>
       </c>
@@ -6317,385 +6303,38 @@
         <v>253</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="22.5" customHeight="1">
+    <row r="16" spans="1:14">
       <c r="A16" s="105"/>
-      <c r="B16" s="209"/>
-      <c r="C16" s="211"/>
-      <c r="D16" s="212"/>
-      <c r="E16" s="212"/>
-      <c r="F16" s="213"/>
-      <c r="G16" s="109"/>
-      <c r="H16" s="109"/>
-      <c r="I16" s="109"/>
-      <c r="J16" s="109"/>
-      <c r="K16" s="109"/>
-      <c r="L16" s="109"/>
-      <c r="M16" s="109"/>
-      <c r="N16" s="109"/>
-    </row>
-    <row r="17" spans="1:14" ht="22.5" customHeight="1">
-      <c r="A17" s="105"/>
-      <c r="B17" s="209"/>
-      <c r="C17" s="211"/>
+      <c r="N16" s="213"/>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="A17" s="212"/>
+      <c r="B17" s="212"/>
+      <c r="C17" s="212"/>
       <c r="D17" s="212"/>
       <c r="E17" s="212"/>
-      <c r="F17" s="213"/>
-      <c r="G17" s="109"/>
-      <c r="H17" s="109"/>
-      <c r="I17" s="109"/>
-      <c r="J17" s="109"/>
-      <c r="K17" s="109"/>
-      <c r="L17" s="109"/>
-      <c r="M17" s="109"/>
-      <c r="N17" s="109"/>
-    </row>
-    <row r="18" spans="1:14" ht="22.5" customHeight="1">
-      <c r="A18" s="105"/>
-      <c r="B18" s="209"/>
-      <c r="C18" s="211"/>
-      <c r="D18" s="212"/>
-      <c r="E18" s="212"/>
-      <c r="F18" s="213"/>
-      <c r="G18" s="109"/>
-      <c r="H18" s="109"/>
-      <c r="I18" s="109"/>
-      <c r="J18" s="109"/>
-      <c r="K18" s="109"/>
-      <c r="L18" s="109"/>
-      <c r="M18" s="109"/>
-      <c r="N18" s="109"/>
-    </row>
-    <row r="19" spans="1:14" ht="22.5" customHeight="1">
-      <c r="A19" s="105"/>
-      <c r="B19" s="209"/>
-      <c r="C19" s="211"/>
-      <c r="D19" s="212"/>
-      <c r="E19" s="212"/>
-      <c r="F19" s="213"/>
-      <c r="G19" s="109"/>
-      <c r="H19" s="109"/>
-      <c r="I19" s="109"/>
-      <c r="J19" s="109"/>
-      <c r="K19" s="109"/>
-      <c r="L19" s="109"/>
-      <c r="M19" s="109"/>
-      <c r="N19" s="109"/>
-    </row>
-    <row r="20" spans="1:14" ht="22.5" customHeight="1">
-      <c r="A20" s="105"/>
-      <c r="B20" s="209"/>
-      <c r="C20" s="211"/>
-      <c r="D20" s="212"/>
-      <c r="E20" s="212"/>
-      <c r="F20" s="213"/>
-      <c r="G20" s="109"/>
-      <c r="H20" s="109"/>
-      <c r="I20" s="109"/>
-      <c r="J20" s="109"/>
-      <c r="K20" s="109"/>
-      <c r="L20" s="109"/>
-      <c r="M20" s="109"/>
-      <c r="N20" s="109"/>
-    </row>
-    <row r="21" spans="1:14" ht="22.5" customHeight="1">
-      <c r="A21" s="105"/>
-      <c r="B21" s="209"/>
-      <c r="C21" s="211"/>
-      <c r="D21" s="212"/>
-      <c r="E21" s="212"/>
-      <c r="F21" s="213"/>
-      <c r="G21" s="109"/>
-      <c r="H21" s="109"/>
-      <c r="I21" s="109"/>
-      <c r="J21" s="109"/>
-      <c r="K21" s="109"/>
-      <c r="L21" s="109"/>
-      <c r="M21" s="109"/>
-      <c r="N21" s="109"/>
-    </row>
-    <row r="22" spans="1:14" ht="22.5" customHeight="1">
-      <c r="A22" s="105"/>
-      <c r="B22" s="209"/>
-      <c r="C22" s="110"/>
-      <c r="D22" s="44"/>
-      <c r="E22" s="44"/>
-      <c r="F22" s="111"/>
-      <c r="G22" s="109"/>
-      <c r="H22" s="109"/>
-      <c r="I22" s="109"/>
-      <c r="J22" s="109"/>
-      <c r="K22" s="109"/>
-      <c r="L22" s="109"/>
-      <c r="M22" s="109"/>
-      <c r="N22" s="109"/>
-    </row>
-    <row r="23" spans="1:14" ht="22.5" customHeight="1">
-      <c r="A23" s="105"/>
-      <c r="B23" s="209"/>
-      <c r="C23" s="110"/>
-      <c r="D23" s="44"/>
-      <c r="E23" s="44"/>
-      <c r="F23" s="111"/>
-      <c r="G23" s="109"/>
-      <c r="H23" s="109"/>
-      <c r="I23" s="109"/>
-      <c r="J23" s="109"/>
-      <c r="K23" s="109"/>
-      <c r="L23" s="109"/>
-      <c r="M23" s="109"/>
-      <c r="N23" s="109"/>
-    </row>
-    <row r="24" spans="1:14" ht="22.5" customHeight="1">
-      <c r="A24" s="105"/>
-      <c r="B24" s="209"/>
-      <c r="C24" s="110"/>
-      <c r="D24" s="44"/>
-      <c r="E24" s="44"/>
-      <c r="F24" s="111"/>
-      <c r="G24" s="109"/>
-      <c r="H24" s="109"/>
-      <c r="I24" s="109"/>
-      <c r="J24" s="109"/>
-      <c r="K24" s="109"/>
-      <c r="L24" s="109"/>
-      <c r="M24" s="109"/>
-      <c r="N24" s="109"/>
-    </row>
-    <row r="25" spans="1:14" ht="22.5" customHeight="1">
-      <c r="A25" s="105"/>
-      <c r="B25" s="209"/>
-      <c r="C25" s="110"/>
-      <c r="D25" s="44"/>
-      <c r="E25" s="44"/>
-      <c r="F25" s="111"/>
-      <c r="G25" s="109"/>
-      <c r="H25" s="109"/>
-      <c r="I25" s="109"/>
-      <c r="J25" s="109"/>
-      <c r="K25" s="109"/>
-      <c r="L25" s="109"/>
-      <c r="M25" s="109"/>
-      <c r="N25" s="109"/>
-    </row>
-    <row r="26" spans="1:14" ht="22.5" customHeight="1">
-      <c r="A26" s="105"/>
-      <c r="B26" s="209"/>
-      <c r="C26" s="110"/>
-      <c r="D26" s="44"/>
-      <c r="E26" s="44"/>
-      <c r="F26" s="111"/>
-      <c r="G26" s="109"/>
-      <c r="H26" s="109"/>
-      <c r="I26" s="109"/>
-      <c r="J26" s="109"/>
-      <c r="K26" s="109"/>
-      <c r="L26" s="109"/>
-      <c r="M26" s="109"/>
-      <c r="N26" s="109"/>
-    </row>
-    <row r="27" spans="1:14" ht="22.5" customHeight="1">
-      <c r="A27" s="105"/>
-      <c r="B27" s="209"/>
-      <c r="C27" s="110"/>
-      <c r="D27" s="44"/>
-      <c r="E27" s="44"/>
-      <c r="F27" s="111"/>
-      <c r="G27" s="109"/>
-      <c r="H27" s="109"/>
-      <c r="I27" s="109"/>
-      <c r="J27" s="109"/>
-      <c r="K27" s="109"/>
-      <c r="L27" s="109"/>
-      <c r="M27" s="109"/>
-      <c r="N27" s="109"/>
-    </row>
-    <row r="28" spans="1:14" ht="22.5" customHeight="1">
-      <c r="A28" s="105"/>
-      <c r="B28" s="209"/>
-      <c r="C28" s="110"/>
-      <c r="D28" s="44"/>
-      <c r="E28" s="44"/>
-      <c r="F28" s="111"/>
-      <c r="G28" s="109"/>
-      <c r="H28" s="109"/>
-      <c r="I28" s="109"/>
-      <c r="J28" s="109"/>
-      <c r="K28" s="109"/>
-      <c r="L28" s="109"/>
-      <c r="M28" s="109"/>
-      <c r="N28" s="109"/>
-    </row>
-    <row r="29" spans="1:14" ht="22.5" customHeight="1">
-      <c r="A29" s="105"/>
-      <c r="B29" s="209"/>
-      <c r="C29" s="110"/>
-      <c r="D29" s="44"/>
-      <c r="E29" s="44"/>
-      <c r="F29" s="111"/>
-      <c r="G29" s="109"/>
-      <c r="H29" s="109"/>
-      <c r="I29" s="109"/>
-      <c r="J29" s="109"/>
-      <c r="K29" s="109"/>
-      <c r="L29" s="109"/>
-      <c r="M29" s="109"/>
-      <c r="N29" s="109"/>
-    </row>
-    <row r="30" spans="1:14" ht="22.5" customHeight="1">
-      <c r="A30" s="105"/>
-      <c r="B30" s="209"/>
-      <c r="C30" s="110"/>
-      <c r="D30" s="44"/>
-      <c r="E30" s="44"/>
-      <c r="F30" s="111"/>
-      <c r="G30" s="109"/>
-      <c r="H30" s="109"/>
-      <c r="I30" s="109"/>
-      <c r="J30" s="109"/>
-      <c r="K30" s="109"/>
-      <c r="L30" s="109"/>
-      <c r="M30" s="109"/>
-      <c r="N30" s="109"/>
-    </row>
-    <row r="31" spans="1:14" ht="22.5" customHeight="1">
-      <c r="A31" s="105"/>
-      <c r="B31" s="209"/>
-      <c r="C31" s="110"/>
-      <c r="D31" s="44"/>
-      <c r="E31" s="44"/>
-      <c r="F31" s="111"/>
-      <c r="G31" s="109"/>
-      <c r="H31" s="109"/>
-      <c r="I31" s="109"/>
-      <c r="J31" s="109"/>
-      <c r="K31" s="109"/>
-      <c r="L31" s="109"/>
-      <c r="M31" s="109"/>
-      <c r="N31" s="109"/>
-    </row>
-    <row r="32" spans="1:14" ht="22.5" customHeight="1">
-      <c r="A32" s="105"/>
-      <c r="B32" s="209"/>
-      <c r="C32" s="211"/>
-      <c r="D32" s="212"/>
-      <c r="E32" s="212"/>
-      <c r="F32" s="213"/>
-      <c r="G32" s="109"/>
-      <c r="H32" s="109"/>
-      <c r="I32" s="109"/>
-      <c r="J32" s="109"/>
-      <c r="K32" s="109"/>
-      <c r="L32" s="109"/>
-      <c r="M32" s="109"/>
-      <c r="N32" s="109"/>
-    </row>
-    <row r="33" spans="1:14" ht="22.5" customHeight="1">
-      <c r="A33" s="105"/>
-      <c r="B33" s="209"/>
-      <c r="C33" s="211"/>
-      <c r="D33" s="212"/>
-      <c r="E33" s="212"/>
-      <c r="F33" s="213"/>
-      <c r="G33" s="109"/>
-      <c r="H33" s="109"/>
-      <c r="I33" s="109"/>
-      <c r="J33" s="109"/>
-      <c r="K33" s="109"/>
-      <c r="L33" s="109"/>
-      <c r="M33" s="109"/>
-      <c r="N33" s="109"/>
-    </row>
-    <row r="34" spans="1:14" ht="23.25" customHeight="1">
-      <c r="A34" s="105"/>
-      <c r="B34" s="209"/>
-      <c r="C34" s="211"/>
-      <c r="D34" s="212"/>
-      <c r="E34" s="212"/>
-      <c r="F34" s="213"/>
-      <c r="G34" s="109"/>
-      <c r="H34" s="109"/>
-      <c r="I34" s="109"/>
-      <c r="J34" s="109"/>
-      <c r="K34" s="109"/>
-      <c r="L34" s="109"/>
-      <c r="M34" s="109"/>
-      <c r="N34" s="109"/>
-    </row>
-    <row r="35" spans="1:14" ht="23.25" customHeight="1">
-      <c r="A35" s="105"/>
-      <c r="B35" s="209"/>
-      <c r="C35" s="211"/>
-      <c r="D35" s="212"/>
-      <c r="E35" s="212"/>
-      <c r="F35" s="213"/>
-      <c r="G35" s="109"/>
-      <c r="H35" s="109"/>
-      <c r="I35" s="109"/>
-      <c r="J35" s="109"/>
-      <c r="K35" s="109"/>
-      <c r="L35" s="109"/>
-      <c r="M35" s="109"/>
-      <c r="N35" s="109"/>
-    </row>
-    <row r="36" spans="1:14" ht="23.25" customHeight="1">
-      <c r="A36" s="105"/>
-      <c r="B36" s="210"/>
-      <c r="C36" s="211"/>
-      <c r="D36" s="212"/>
-      <c r="E36" s="212"/>
-      <c r="F36" s="213"/>
-      <c r="G36" s="109"/>
-      <c r="H36" s="109"/>
-      <c r="I36" s="109"/>
-      <c r="J36" s="109"/>
-      <c r="K36" s="109"/>
-      <c r="L36" s="109"/>
-      <c r="M36" s="109"/>
-      <c r="N36" s="109"/>
-    </row>
-    <row r="37" spans="1:14">
-      <c r="A37" s="105"/>
-      <c r="N37" s="106"/>
-    </row>
-    <row r="38" spans="1:14">
-      <c r="A38" s="112"/>
-      <c r="B38" s="113"/>
-      <c r="C38" s="113"/>
-      <c r="D38" s="113"/>
-      <c r="E38" s="113"/>
-      <c r="F38" s="113"/>
-      <c r="G38" s="113"/>
-      <c r="H38" s="113"/>
-      <c r="I38" s="113"/>
-      <c r="J38" s="113"/>
-      <c r="K38" s="113"/>
-      <c r="L38" s="113"/>
-      <c r="M38" s="113"/>
-      <c r="N38" s="114"/>
+      <c r="F17" s="212"/>
+      <c r="G17" s="212"/>
+      <c r="H17" s="212"/>
+      <c r="I17" s="212"/>
+      <c r="J17" s="212"/>
+      <c r="K17" s="212"/>
+      <c r="L17" s="212"/>
+      <c r="M17" s="212"/>
+      <c r="N17" s="212"/>
     </row>
   </sheetData>
-  <mergeCells count="21">
-    <mergeCell ref="G9:N9"/>
-    <mergeCell ref="C33:F33"/>
-    <mergeCell ref="C34:F34"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="C17:F17"/>
+  <mergeCells count="10">
+    <mergeCell ref="B11:B15"/>
     <mergeCell ref="L2:M2"/>
     <mergeCell ref="L3:M3"/>
     <mergeCell ref="L4:M4"/>
-    <mergeCell ref="B11:B36"/>
     <mergeCell ref="C11:F11"/>
     <mergeCell ref="C12:F12"/>
     <mergeCell ref="C13:F13"/>
     <mergeCell ref="C14:F14"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="C35:F35"/>
-    <mergeCell ref="C36:F36"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="C32:F32"/>
+    <mergeCell ref="G9:N9"/>
+    <mergeCell ref="C15:F15"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6726,20 +6365,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="14.4">
-      <c r="A1" s="116" t="s">
+      <c r="A1" s="111" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="117"/>
-      <c r="C1" s="117"/>
-      <c r="D1" s="117"/>
-      <c r="E1" s="117"/>
-      <c r="F1" s="118"/>
+      <c r="B1" s="112"/>
+      <c r="C1" s="112"/>
+      <c r="D1" s="112"/>
+      <c r="E1" s="112"/>
+      <c r="F1" s="113"/>
     </row>
     <row r="2" spans="1:6" ht="18" customHeight="1">
-      <c r="A2" s="161" t="s">
+      <c r="A2" s="164" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="162"/>
+      <c r="B2" s="165"/>
       <c r="C2" s="30" t="s">
         <v>212</v>
       </c>
@@ -6752,10 +6391,10 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="18" customHeight="1">
-      <c r="A3" s="161" t="s">
+      <c r="A3" s="164" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="162"/>
+      <c r="B3" s="165"/>
       <c r="C3" s="30" t="s">
         <v>20</v>
       </c>
@@ -6768,10 +6407,10 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="18" customHeight="1">
-      <c r="A4" s="161" t="s">
+      <c r="A4" s="164" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="162"/>
+      <c r="B4" s="165"/>
       <c r="C4" s="30" t="s">
         <v>213</v>
       </c>
@@ -6784,10 +6423,10 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="18" customHeight="1">
-      <c r="A5" s="161" t="s">
+      <c r="A5" s="164" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="162"/>
+      <c r="B5" s="165"/>
       <c r="C5" s="30" t="s">
         <v>24</v>
       </c>
@@ -6798,10 +6437,10 @@
       <c r="F5" s="91"/>
     </row>
     <row r="6" spans="1:6" ht="18" customHeight="1">
-      <c r="A6" s="161" t="s">
+      <c r="A6" s="164" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="162"/>
+      <c r="B6" s="165"/>
       <c r="C6" s="30" t="s">
         <v>211</v>
       </c>
@@ -6842,10 +6481,10 @@
       <c r="D9" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="E9" s="167" t="s">
+      <c r="E9" s="162" t="s">
         <v>33</v>
       </c>
-      <c r="F9" s="168"/>
+      <c r="F9" s="163"/>
     </row>
     <row r="10" spans="1:6" ht="33.75" customHeight="1">
       <c r="A10" s="59">
@@ -6860,10 +6499,10 @@
       <c r="D10" s="60" t="s">
         <v>34</v>
       </c>
-      <c r="E10" s="163" t="s">
+      <c r="E10" s="158" t="s">
         <v>230</v>
       </c>
-      <c r="F10" s="164"/>
+      <c r="F10" s="159"/>
     </row>
     <row r="11" spans="1:6" ht="33.75" customHeight="1">
       <c r="A11" s="59">
@@ -6878,10 +6517,10 @@
       <c r="D11" s="60" t="s">
         <v>34</v>
       </c>
-      <c r="E11" s="163" t="s">
+      <c r="E11" s="158" t="s">
         <v>231</v>
       </c>
-      <c r="F11" s="164"/>
+      <c r="F11" s="159"/>
     </row>
     <row r="12" spans="1:6" ht="33.75" customHeight="1">
       <c r="A12" s="59">
@@ -6896,10 +6535,10 @@
       <c r="D12" s="60" t="s">
         <v>34</v>
       </c>
-      <c r="E12" s="163" t="s">
+      <c r="E12" s="158" t="s">
         <v>232</v>
       </c>
-      <c r="F12" s="164"/>
+      <c r="F12" s="159"/>
     </row>
     <row r="13" spans="1:6" ht="33.75" customHeight="1">
       <c r="A13" s="59">
@@ -6914,10 +6553,10 @@
       <c r="D13" s="60" t="s">
         <v>34</v>
       </c>
-      <c r="E13" s="163" t="s">
+      <c r="E13" s="158" t="s">
         <v>233</v>
       </c>
-      <c r="F13" s="164"/>
+      <c r="F13" s="159"/>
     </row>
     <row r="14" spans="1:6" ht="33.75" customHeight="1">
       <c r="A14" s="59">
@@ -6932,64 +6571,64 @@
       <c r="D14" s="60" t="s">
         <v>34</v>
       </c>
-      <c r="E14" s="163" t="s">
+      <c r="E14" s="158" t="s">
         <v>235</v>
       </c>
-      <c r="F14" s="164"/>
+      <c r="F14" s="159"/>
     </row>
     <row r="15" spans="1:6" ht="33.75" customHeight="1">
       <c r="A15" s="59">
         <v>6</v>
       </c>
-      <c r="B15" s="123" t="s">
+      <c r="B15" s="118" t="s">
         <v>219</v>
       </c>
-      <c r="C15" s="123" t="s">
+      <c r="C15" s="118" t="s">
         <v>227</v>
       </c>
       <c r="D15" s="60" t="s">
         <v>34</v>
       </c>
-      <c r="E15" s="165" t="s">
+      <c r="E15" s="160" t="s">
         <v>236</v>
       </c>
-      <c r="F15" s="166"/>
+      <c r="F15" s="161"/>
     </row>
     <row r="16" spans="1:6" ht="33.75" customHeight="1">
       <c r="A16" s="59">
         <v>7</v>
       </c>
-      <c r="B16" s="123" t="s">
+      <c r="B16" s="118" t="s">
         <v>220</v>
       </c>
-      <c r="C16" s="123" t="s">
+      <c r="C16" s="118" t="s">
         <v>228</v>
       </c>
       <c r="D16" s="60" t="s">
         <v>34</v>
       </c>
-      <c r="E16" s="165" t="s">
+      <c r="E16" s="160" t="s">
         <v>237</v>
       </c>
-      <c r="F16" s="166"/>
+      <c r="F16" s="161"/>
     </row>
     <row r="17" spans="1:6" ht="33.75" customHeight="1">
       <c r="A17" s="8">
         <v>8</v>
       </c>
-      <c r="B17" s="123" t="s">
+      <c r="B17" s="118" t="s">
         <v>221</v>
       </c>
-      <c r="C17" s="123" t="s">
+      <c r="C17" s="118" t="s">
         <v>229</v>
       </c>
-      <c r="D17" s="124" t="s">
+      <c r="D17" s="119" t="s">
         <v>35</v>
       </c>
-      <c r="E17" s="165" t="s">
+      <c r="E17" s="160" t="s">
         <v>234</v>
       </c>
-      <c r="F17" s="166"/>
+      <c r="F17" s="161"/>
     </row>
     <row r="18" spans="1:6" ht="29.25" customHeight="1">
       <c r="A18" s="29" t="s">
@@ -7231,6 +6870,11 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
     <mergeCell ref="E14:F14"/>
     <mergeCell ref="E15:F15"/>
     <mergeCell ref="E16:F16"/>
@@ -7240,11 +6884,6 @@
     <mergeCell ref="E11:F11"/>
     <mergeCell ref="E12:F12"/>
     <mergeCell ref="E13:F13"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="1.0236220472440944" right="0.62992125984251968" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -7265,7 +6904,7 @@
   </sheetPr>
   <dimension ref="A1:H54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A61" workbookViewId="0">
       <selection activeCell="C7" sqref="C7:H7"/>
     </sheetView>
   </sheetViews>
@@ -7280,16 +6919,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="14.4">
-      <c r="A1" s="119" t="s">
+      <c r="A1" s="114" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="120"/>
-      <c r="C1" s="120"/>
-      <c r="D1" s="120"/>
-      <c r="E1" s="120"/>
-      <c r="F1" s="120"/>
-      <c r="G1" s="120"/>
-      <c r="H1" s="121"/>
+      <c r="B1" s="115"/>
+      <c r="C1" s="115"/>
+      <c r="D1" s="115"/>
+      <c r="E1" s="115"/>
+      <c r="F1" s="115"/>
+      <c r="G1" s="115"/>
+      <c r="H1" s="116"/>
     </row>
     <row r="2" spans="1:8" ht="20.25" customHeight="1">
       <c r="A2" s="40" t="s">
@@ -7364,42 +7003,42 @@
         <v>38</v>
       </c>
       <c r="B6" s="45"/>
-      <c r="C6" s="197" t="s">
+      <c r="C6" s="168" t="s">
         <v>156</v>
       </c>
-      <c r="D6" s="198"/>
-      <c r="E6" s="198"/>
-      <c r="F6" s="198"/>
-      <c r="G6" s="198"/>
-      <c r="H6" s="199"/>
+      <c r="D6" s="169"/>
+      <c r="E6" s="169"/>
+      <c r="F6" s="169"/>
+      <c r="G6" s="169"/>
+      <c r="H6" s="170"/>
     </row>
     <row r="7" spans="1:8" ht="20.25" customHeight="1">
       <c r="A7" s="40" t="s">
         <v>31</v>
       </c>
       <c r="B7" s="45"/>
-      <c r="C7" s="197" t="s">
+      <c r="C7" s="168" t="s">
         <v>157</v>
       </c>
-      <c r="D7" s="198"/>
-      <c r="E7" s="198"/>
-      <c r="F7" s="198"/>
-      <c r="G7" s="198"/>
-      <c r="H7" s="199"/>
+      <c r="D7" s="169"/>
+      <c r="E7" s="169"/>
+      <c r="F7" s="169"/>
+      <c r="G7" s="169"/>
+      <c r="H7" s="170"/>
     </row>
     <row r="8" spans="1:8" ht="20.25" customHeight="1">
       <c r="A8" s="40" t="s">
         <v>39</v>
       </c>
       <c r="B8" s="45"/>
-      <c r="C8" s="197" t="s">
+      <c r="C8" s="168" t="s">
         <v>158</v>
       </c>
-      <c r="D8" s="198"/>
-      <c r="E8" s="198"/>
-      <c r="F8" s="198"/>
-      <c r="G8" s="198"/>
-      <c r="H8" s="199"/>
+      <c r="D8" s="169"/>
+      <c r="E8" s="169"/>
+      <c r="F8" s="169"/>
+      <c r="G8" s="169"/>
+      <c r="H8" s="170"/>
     </row>
     <row r="9" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A9" s="46" t="s">
@@ -7420,10 +7059,10 @@
       <c r="B10" s="48" t="s">
         <v>42</v>
       </c>
-      <c r="C10" s="183" t="s">
+      <c r="C10" s="171" t="s">
         <v>43</v>
       </c>
-      <c r="D10" s="200"/>
+      <c r="D10" s="172"/>
       <c r="E10" s="48" t="s">
         <v>44</v>
       </c>
@@ -7444,10 +7083,10 @@
       <c r="B11" s="62" t="s">
         <v>150</v>
       </c>
-      <c r="C11" s="201" t="s">
+      <c r="C11" s="173" t="s">
         <v>159</v>
       </c>
-      <c r="D11" s="202"/>
+      <c r="D11" s="174"/>
       <c r="E11" s="63" t="s">
         <v>100</v>
       </c>
@@ -7466,10 +7105,10 @@
       <c r="B12" s="67" t="s">
         <v>173</v>
       </c>
-      <c r="C12" s="193" t="s">
+      <c r="C12" s="166" t="s">
         <v>160</v>
       </c>
-      <c r="D12" s="194"/>
+      <c r="D12" s="167"/>
       <c r="E12" s="63" t="s">
         <v>101</v>
       </c>
@@ -7486,10 +7125,10 @@
       <c r="B13" s="67" t="s">
         <v>172</v>
       </c>
-      <c r="C13" s="193" t="s">
+      <c r="C13" s="166" t="s">
         <v>161</v>
       </c>
-      <c r="D13" s="194"/>
+      <c r="D13" s="167"/>
       <c r="E13" s="63" t="s">
         <v>155</v>
       </c>
@@ -7506,10 +7145,10 @@
       <c r="B14" s="67" t="s">
         <v>174</v>
       </c>
-      <c r="C14" s="193" t="s">
+      <c r="C14" s="166" t="s">
         <v>162</v>
       </c>
-      <c r="D14" s="194"/>
+      <c r="D14" s="167"/>
       <c r="E14" s="63" t="s">
         <v>155</v>
       </c>
@@ -7526,10 +7165,10 @@
       <c r="B15" s="67" t="s">
         <v>175</v>
       </c>
-      <c r="C15" s="193" t="s">
+      <c r="C15" s="166" t="s">
         <v>163</v>
       </c>
-      <c r="D15" s="194"/>
+      <c r="D15" s="167"/>
       <c r="E15" s="63" t="s">
         <v>155</v>
       </c>
@@ -7546,10 +7185,10 @@
       <c r="B16" s="67" t="s">
         <v>176</v>
       </c>
-      <c r="C16" s="193" t="s">
+      <c r="C16" s="166" t="s">
         <v>164</v>
       </c>
-      <c r="D16" s="194"/>
+      <c r="D16" s="167"/>
       <c r="E16" s="63" t="s">
         <v>155</v>
       </c>
@@ -7566,10 +7205,10 @@
       <c r="B17" s="67" t="s">
         <v>177</v>
       </c>
-      <c r="C17" s="193" t="s">
+      <c r="C17" s="166" t="s">
         <v>165</v>
       </c>
-      <c r="D17" s="194"/>
+      <c r="D17" s="167"/>
       <c r="E17" s="63" t="s">
         <v>100</v>
       </c>
@@ -7586,10 +7225,10 @@
       <c r="B18" s="72" t="s">
         <v>180</v>
       </c>
-      <c r="C18" s="193" t="s">
+      <c r="C18" s="166" t="s">
         <v>166</v>
       </c>
-      <c r="D18" s="194"/>
+      <c r="D18" s="167"/>
       <c r="E18" s="63" t="s">
         <v>155</v>
       </c>
@@ -7606,10 +7245,10 @@
       <c r="B19" s="72" t="s">
         <v>181</v>
       </c>
-      <c r="C19" s="193" t="s">
+      <c r="C19" s="166" t="s">
         <v>167</v>
       </c>
-      <c r="D19" s="194"/>
+      <c r="D19" s="167"/>
       <c r="E19" s="63" t="s">
         <v>155</v>
       </c>
@@ -7626,10 +7265,10 @@
       <c r="B20" s="72" t="s">
         <v>182</v>
       </c>
-      <c r="C20" s="193" t="s">
+      <c r="C20" s="166" t="s">
         <v>168</v>
       </c>
-      <c r="D20" s="194"/>
+      <c r="D20" s="167"/>
       <c r="E20" s="63" t="s">
         <v>155</v>
       </c>
@@ -7646,10 +7285,10 @@
       <c r="B21" s="72" t="s">
         <v>183</v>
       </c>
-      <c r="C21" s="193" t="s">
+      <c r="C21" s="166" t="s">
         <v>169</v>
       </c>
-      <c r="D21" s="194"/>
+      <c r="D21" s="167"/>
       <c r="E21" s="63" t="s">
         <v>155</v>
       </c>
@@ -7666,10 +7305,10 @@
       <c r="B22" s="72" t="s">
         <v>178</v>
       </c>
-      <c r="C22" s="193" t="s">
+      <c r="C22" s="166" t="s">
         <v>170</v>
       </c>
-      <c r="D22" s="194"/>
+      <c r="D22" s="167"/>
       <c r="E22" s="73" t="s">
         <v>80</v>
       </c>
@@ -7686,10 +7325,10 @@
       <c r="B23" s="72" t="s">
         <v>179</v>
       </c>
-      <c r="C23" s="193" t="s">
+      <c r="C23" s="166" t="s">
         <v>171</v>
       </c>
-      <c r="D23" s="194"/>
+      <c r="D23" s="167"/>
       <c r="E23" s="73" t="s">
         <v>184</v>
       </c>
@@ -7702,8 +7341,8 @@
     <row r="24" spans="1:8" ht="20.25" customHeight="1">
       <c r="A24" s="71"/>
       <c r="B24" s="72"/>
-      <c r="C24" s="193"/>
-      <c r="D24" s="194"/>
+      <c r="C24" s="166"/>
+      <c r="D24" s="167"/>
       <c r="E24" s="73"/>
       <c r="F24" s="73"/>
       <c r="G24" s="74"/>
@@ -7712,8 +7351,8 @@
     <row r="25" spans="1:8" ht="20.25" customHeight="1">
       <c r="A25" s="71"/>
       <c r="B25" s="72"/>
-      <c r="C25" s="193"/>
-      <c r="D25" s="194"/>
+      <c r="C25" s="166"/>
+      <c r="D25" s="167"/>
       <c r="E25" s="73"/>
       <c r="F25" s="73"/>
       <c r="G25" s="74"/>
@@ -7722,8 +7361,8 @@
     <row r="26" spans="1:8" ht="20.25" customHeight="1">
       <c r="A26" s="71"/>
       <c r="B26" s="72"/>
-      <c r="C26" s="193"/>
-      <c r="D26" s="194"/>
+      <c r="C26" s="166"/>
+      <c r="D26" s="167"/>
       <c r="E26" s="73"/>
       <c r="F26" s="73"/>
       <c r="G26" s="74"/>
@@ -7732,8 +7371,8 @@
     <row r="27" spans="1:8" ht="20.25" customHeight="1">
       <c r="A27" s="71"/>
       <c r="B27" s="72"/>
-      <c r="C27" s="193"/>
-      <c r="D27" s="194"/>
+      <c r="C27" s="166"/>
+      <c r="D27" s="167"/>
       <c r="E27" s="73"/>
       <c r="F27" s="73"/>
       <c r="G27" s="74"/>
@@ -7742,8 +7381,8 @@
     <row r="28" spans="1:8" ht="20.25" customHeight="1">
       <c r="A28" s="71"/>
       <c r="B28" s="72"/>
-      <c r="C28" s="193"/>
-      <c r="D28" s="194"/>
+      <c r="C28" s="166"/>
+      <c r="D28" s="167"/>
       <c r="E28" s="73"/>
       <c r="F28" s="73"/>
       <c r="G28" s="74"/>
@@ -7752,8 +7391,8 @@
     <row r="29" spans="1:8" ht="20.25" customHeight="1">
       <c r="A29" s="71"/>
       <c r="B29" s="72"/>
-      <c r="C29" s="193"/>
-      <c r="D29" s="194"/>
+      <c r="C29" s="166"/>
+      <c r="D29" s="167"/>
       <c r="E29" s="73"/>
       <c r="F29" s="73"/>
       <c r="G29" s="74"/>
@@ -7762,8 +7401,8 @@
     <row r="30" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A30" s="76"/>
       <c r="B30" s="77"/>
-      <c r="C30" s="172"/>
-      <c r="D30" s="174"/>
+      <c r="C30" s="180"/>
+      <c r="D30" s="181"/>
       <c r="E30" s="78"/>
       <c r="F30" s="78"/>
       <c r="G30" s="79"/>
@@ -7795,10 +7434,10 @@
       <c r="A33" s="53" t="s">
         <v>41</v>
       </c>
-      <c r="B33" s="180" t="s">
+      <c r="B33" s="182" t="s">
         <v>49</v>
       </c>
-      <c r="C33" s="182"/>
+      <c r="C33" s="183"/>
       <c r="D33" s="54" t="s">
         <v>50</v>
       </c>
@@ -7813,51 +7452,51 @@
     </row>
     <row r="34" spans="1:8" ht="20.25" customHeight="1">
       <c r="A34" s="61"/>
-      <c r="B34" s="195"/>
-      <c r="C34" s="196"/>
-      <c r="D34" s="185"/>
-      <c r="E34" s="186"/>
-      <c r="F34" s="187"/>
+      <c r="B34" s="184"/>
+      <c r="C34" s="185"/>
+      <c r="D34" s="186"/>
+      <c r="E34" s="187"/>
+      <c r="F34" s="188"/>
       <c r="G34" s="64"/>
       <c r="H34" s="65"/>
     </row>
     <row r="35" spans="1:8" ht="20.25" customHeight="1">
       <c r="A35" s="66"/>
-      <c r="B35" s="188"/>
-      <c r="C35" s="189"/>
-      <c r="D35" s="169"/>
-      <c r="E35" s="170"/>
-      <c r="F35" s="171"/>
+      <c r="B35" s="175"/>
+      <c r="C35" s="176"/>
+      <c r="D35" s="177"/>
+      <c r="E35" s="178"/>
+      <c r="F35" s="179"/>
       <c r="G35" s="69"/>
       <c r="H35" s="70"/>
     </row>
     <row r="36" spans="1:8" ht="20.25" customHeight="1">
       <c r="A36" s="66"/>
-      <c r="B36" s="188"/>
-      <c r="C36" s="189"/>
-      <c r="D36" s="169"/>
-      <c r="E36" s="170"/>
-      <c r="F36" s="171"/>
+      <c r="B36" s="175"/>
+      <c r="C36" s="176"/>
+      <c r="D36" s="177"/>
+      <c r="E36" s="178"/>
+      <c r="F36" s="179"/>
       <c r="G36" s="69"/>
       <c r="H36" s="70"/>
     </row>
     <row r="37" spans="1:8" ht="20.25" customHeight="1">
       <c r="A37" s="66"/>
-      <c r="B37" s="188"/>
-      <c r="C37" s="189"/>
-      <c r="D37" s="169"/>
-      <c r="E37" s="170"/>
-      <c r="F37" s="171"/>
+      <c r="B37" s="175"/>
+      <c r="C37" s="176"/>
+      <c r="D37" s="177"/>
+      <c r="E37" s="178"/>
+      <c r="F37" s="179"/>
       <c r="G37" s="69"/>
       <c r="H37" s="70"/>
     </row>
     <row r="38" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A38" s="76"/>
-      <c r="B38" s="190"/>
-      <c r="C38" s="191"/>
-      <c r="D38" s="172"/>
-      <c r="E38" s="173"/>
-      <c r="F38" s="174"/>
+      <c r="B38" s="189"/>
+      <c r="C38" s="190"/>
+      <c r="D38" s="180"/>
+      <c r="E38" s="191"/>
+      <c r="F38" s="181"/>
       <c r="G38" s="79"/>
       <c r="H38" s="80"/>
     </row>
@@ -7890,15 +7529,15 @@
       <c r="B41" s="57" t="s">
         <v>53</v>
       </c>
-      <c r="C41" s="180" t="s">
+      <c r="C41" s="182" t="s">
         <v>50</v>
       </c>
-      <c r="D41" s="181"/>
-      <c r="E41" s="182"/>
-      <c r="F41" s="180" t="s">
+      <c r="D41" s="192"/>
+      <c r="E41" s="183"/>
+      <c r="F41" s="182" t="s">
         <v>54</v>
       </c>
-      <c r="G41" s="192"/>
+      <c r="G41" s="193"/>
       <c r="H41" s="58" t="s">
         <v>55</v>
       </c>
@@ -7906,51 +7545,51 @@
     <row r="42" spans="1:8" ht="20.25" customHeight="1">
       <c r="A42" s="81"/>
       <c r="B42" s="82"/>
-      <c r="C42" s="185"/>
-      <c r="D42" s="186"/>
-      <c r="E42" s="187"/>
-      <c r="F42" s="185"/>
-      <c r="G42" s="187"/>
+      <c r="C42" s="186"/>
+      <c r="D42" s="187"/>
+      <c r="E42" s="188"/>
+      <c r="F42" s="186"/>
+      <c r="G42" s="188"/>
       <c r="H42" s="83"/>
     </row>
     <row r="43" spans="1:8" ht="20.25" customHeight="1">
       <c r="A43" s="84"/>
       <c r="B43" s="85"/>
-      <c r="C43" s="169"/>
-      <c r="D43" s="170"/>
-      <c r="E43" s="171"/>
-      <c r="F43" s="169"/>
-      <c r="G43" s="171"/>
+      <c r="C43" s="177"/>
+      <c r="D43" s="178"/>
+      <c r="E43" s="179"/>
+      <c r="F43" s="177"/>
+      <c r="G43" s="179"/>
       <c r="H43" s="86"/>
     </row>
     <row r="44" spans="1:8" ht="20.25" customHeight="1">
       <c r="A44" s="84"/>
       <c r="B44" s="85"/>
-      <c r="C44" s="169"/>
-      <c r="D44" s="170"/>
-      <c r="E44" s="171"/>
-      <c r="F44" s="169"/>
-      <c r="G44" s="171"/>
+      <c r="C44" s="177"/>
+      <c r="D44" s="178"/>
+      <c r="E44" s="179"/>
+      <c r="F44" s="177"/>
+      <c r="G44" s="179"/>
       <c r="H44" s="86"/>
     </row>
     <row r="45" spans="1:8" ht="20.25" customHeight="1">
       <c r="A45" s="84"/>
       <c r="B45" s="85"/>
-      <c r="C45" s="169"/>
-      <c r="D45" s="170"/>
-      <c r="E45" s="171"/>
-      <c r="F45" s="169"/>
-      <c r="G45" s="171"/>
+      <c r="C45" s="177"/>
+      <c r="D45" s="178"/>
+      <c r="E45" s="179"/>
+      <c r="F45" s="177"/>
+      <c r="G45" s="179"/>
       <c r="H45" s="86"/>
     </row>
     <row r="46" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A46" s="87"/>
       <c r="B46" s="88"/>
-      <c r="C46" s="172"/>
-      <c r="D46" s="173"/>
-      <c r="E46" s="174"/>
-      <c r="F46" s="175"/>
-      <c r="G46" s="176"/>
+      <c r="C46" s="180"/>
+      <c r="D46" s="191"/>
+      <c r="E46" s="181"/>
+      <c r="F46" s="194"/>
+      <c r="G46" s="195"/>
       <c r="H46" s="89"/>
     </row>
     <row r="47" spans="1:8" ht="20.25" customHeight="1">
@@ -7982,15 +7621,15 @@
       <c r="B49" s="57" t="s">
         <v>53</v>
       </c>
-      <c r="C49" s="180" t="s">
+      <c r="C49" s="182" t="s">
         <v>50</v>
       </c>
-      <c r="D49" s="181"/>
-      <c r="E49" s="182"/>
-      <c r="F49" s="183" t="s">
+      <c r="D49" s="192"/>
+      <c r="E49" s="183"/>
+      <c r="F49" s="171" t="s">
         <v>57</v>
       </c>
-      <c r="G49" s="184"/>
+      <c r="G49" s="196"/>
       <c r="H49" s="49" t="s">
         <v>58</v>
       </c>
@@ -8000,73 +7639,83 @@
         <v>1</v>
       </c>
       <c r="B50" s="95"/>
-      <c r="C50" s="177"/>
-      <c r="D50" s="178"/>
-      <c r="E50" s="179"/>
-      <c r="F50" s="177"/>
-      <c r="G50" s="179"/>
+      <c r="C50" s="197"/>
+      <c r="D50" s="198"/>
+      <c r="E50" s="199"/>
+      <c r="F50" s="197"/>
+      <c r="G50" s="199"/>
       <c r="H50" s="96"/>
     </row>
     <row r="51" spans="1:8" ht="20.25" customHeight="1">
       <c r="A51" s="84"/>
       <c r="B51" s="85"/>
-      <c r="C51" s="169"/>
-      <c r="D51" s="170"/>
-      <c r="E51" s="171"/>
-      <c r="F51" s="169"/>
-      <c r="G51" s="171"/>
+      <c r="C51" s="177"/>
+      <c r="D51" s="178"/>
+      <c r="E51" s="179"/>
+      <c r="F51" s="177"/>
+      <c r="G51" s="179"/>
       <c r="H51" s="86"/>
     </row>
     <row r="52" spans="1:8" ht="20.25" customHeight="1">
       <c r="A52" s="84"/>
       <c r="B52" s="85"/>
-      <c r="C52" s="169"/>
-      <c r="D52" s="170"/>
-      <c r="E52" s="171"/>
-      <c r="F52" s="169"/>
-      <c r="G52" s="171"/>
+      <c r="C52" s="177"/>
+      <c r="D52" s="178"/>
+      <c r="E52" s="179"/>
+      <c r="F52" s="177"/>
+      <c r="G52" s="179"/>
       <c r="H52" s="86"/>
     </row>
     <row r="53" spans="1:8" ht="20.25" customHeight="1">
       <c r="A53" s="84"/>
       <c r="B53" s="85"/>
-      <c r="C53" s="169"/>
-      <c r="D53" s="170"/>
-      <c r="E53" s="171"/>
-      <c r="F53" s="169"/>
-      <c r="G53" s="171"/>
+      <c r="C53" s="177"/>
+      <c r="D53" s="178"/>
+      <c r="E53" s="179"/>
+      <c r="F53" s="177"/>
+      <c r="G53" s="179"/>
       <c r="H53" s="86"/>
     </row>
     <row r="54" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A54" s="87"/>
       <c r="B54" s="88"/>
-      <c r="C54" s="172"/>
-      <c r="D54" s="173"/>
-      <c r="E54" s="174"/>
-      <c r="F54" s="175"/>
-      <c r="G54" s="176"/>
+      <c r="C54" s="180"/>
+      <c r="D54" s="191"/>
+      <c r="E54" s="181"/>
+      <c r="F54" s="194"/>
+      <c r="G54" s="195"/>
       <c r="H54" s="89"/>
     </row>
   </sheetData>
   <mergeCells count="59">
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="C54:E54"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="F41:G41"/>
     <mergeCell ref="B36:C36"/>
     <mergeCell ref="D36:F36"/>
     <mergeCell ref="C25:D25"/>
@@ -8080,34 +7729,24 @@
     <mergeCell ref="D34:F34"/>
     <mergeCell ref="B35:C35"/>
     <mergeCell ref="D35:F35"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="C44:E44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="C54:E54"/>
-    <mergeCell ref="F54:G54"/>
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="C51:E51"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="C52:E52"/>
-    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="1.0236220472440944" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -8137,16 +7776,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="14.4">
-      <c r="A1" s="119" t="s">
+      <c r="A1" s="114" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="120"/>
-      <c r="C1" s="120"/>
-      <c r="D1" s="120"/>
-      <c r="E1" s="120"/>
-      <c r="F1" s="120"/>
-      <c r="G1" s="120"/>
-      <c r="H1" s="121"/>
+      <c r="B1" s="115"/>
+      <c r="C1" s="115"/>
+      <c r="D1" s="115"/>
+      <c r="E1" s="115"/>
+      <c r="F1" s="115"/>
+      <c r="G1" s="115"/>
+      <c r="H1" s="116"/>
     </row>
     <row r="2" spans="1:8" ht="20.25" customHeight="1">
       <c r="A2" s="40" t="s">
@@ -8221,42 +7860,42 @@
         <v>38</v>
       </c>
       <c r="B6" s="45"/>
-      <c r="C6" s="197" t="s">
+      <c r="C6" s="168" t="s">
         <v>141</v>
       </c>
-      <c r="D6" s="198"/>
-      <c r="E6" s="198"/>
-      <c r="F6" s="198"/>
-      <c r="G6" s="198"/>
-      <c r="H6" s="199"/>
+      <c r="D6" s="169"/>
+      <c r="E6" s="169"/>
+      <c r="F6" s="169"/>
+      <c r="G6" s="169"/>
+      <c r="H6" s="170"/>
     </row>
     <row r="7" spans="1:8" ht="20.25" customHeight="1">
       <c r="A7" s="40" t="s">
         <v>31</v>
       </c>
       <c r="B7" s="45"/>
-      <c r="C7" s="197" t="s">
+      <c r="C7" s="168" t="s">
         <v>140</v>
       </c>
-      <c r="D7" s="198"/>
-      <c r="E7" s="198"/>
-      <c r="F7" s="198"/>
-      <c r="G7" s="198"/>
-      <c r="H7" s="199"/>
+      <c r="D7" s="169"/>
+      <c r="E7" s="169"/>
+      <c r="F7" s="169"/>
+      <c r="G7" s="169"/>
+      <c r="H7" s="170"/>
     </row>
     <row r="8" spans="1:8" ht="20.25" customHeight="1">
       <c r="A8" s="40" t="s">
         <v>39</v>
       </c>
       <c r="B8" s="45"/>
-      <c r="C8" s="197" t="s">
+      <c r="C8" s="168" t="s">
         <v>142</v>
       </c>
-      <c r="D8" s="198"/>
-      <c r="E8" s="198"/>
-      <c r="F8" s="198"/>
-      <c r="G8" s="198"/>
-      <c r="H8" s="199"/>
+      <c r="D8" s="169"/>
+      <c r="E8" s="169"/>
+      <c r="F8" s="169"/>
+      <c r="G8" s="169"/>
+      <c r="H8" s="170"/>
     </row>
     <row r="9" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A9" s="46" t="s">
@@ -8277,10 +7916,10 @@
       <c r="B10" s="48" t="s">
         <v>42</v>
       </c>
-      <c r="C10" s="183" t="s">
+      <c r="C10" s="171" t="s">
         <v>43</v>
       </c>
-      <c r="D10" s="200"/>
+      <c r="D10" s="172"/>
       <c r="E10" s="48" t="s">
         <v>44</v>
       </c>
@@ -8301,10 +7940,10 @@
       <c r="B11" s="62" t="s">
         <v>149</v>
       </c>
-      <c r="C11" s="201" t="s">
+      <c r="C11" s="173" t="s">
         <v>144</v>
       </c>
-      <c r="D11" s="202"/>
+      <c r="D11" s="174"/>
       <c r="E11" s="63" t="s">
         <v>100</v>
       </c>
@@ -8323,10 +7962,10 @@
       <c r="B12" s="67" t="s">
         <v>150</v>
       </c>
-      <c r="C12" s="193" t="s">
+      <c r="C12" s="166" t="s">
         <v>143</v>
       </c>
-      <c r="D12" s="194"/>
+      <c r="D12" s="167"/>
       <c r="E12" s="63" t="s">
         <v>100</v>
       </c>
@@ -8343,10 +7982,10 @@
       <c r="B13" s="67" t="s">
         <v>151</v>
       </c>
-      <c r="C13" s="193" t="s">
+      <c r="C13" s="166" t="s">
         <v>145</v>
       </c>
-      <c r="D13" s="194"/>
+      <c r="D13" s="167"/>
       <c r="E13" s="63" t="s">
         <v>155</v>
       </c>
@@ -8363,10 +8002,10 @@
       <c r="B14" s="72" t="s">
         <v>152</v>
       </c>
-      <c r="C14" s="193" t="s">
+      <c r="C14" s="166" t="s">
         <v>146</v>
       </c>
-      <c r="D14" s="194"/>
+      <c r="D14" s="167"/>
       <c r="E14" s="63" t="s">
         <v>155</v>
       </c>
@@ -8383,10 +8022,10 @@
       <c r="B15" s="72" t="s">
         <v>153</v>
       </c>
-      <c r="C15" s="193" t="s">
+      <c r="C15" s="166" t="s">
         <v>147</v>
       </c>
-      <c r="D15" s="194"/>
+      <c r="D15" s="167"/>
       <c r="E15" s="63" t="s">
         <v>155</v>
       </c>
@@ -8403,10 +8042,10 @@
       <c r="B16" s="72" t="s">
         <v>154</v>
       </c>
-      <c r="C16" s="193" t="s">
+      <c r="C16" s="166" t="s">
         <v>148</v>
       </c>
-      <c r="D16" s="194"/>
+      <c r="D16" s="167"/>
       <c r="E16" s="63" t="s">
         <v>155</v>
       </c>
@@ -8419,8 +8058,8 @@
     <row r="17" spans="1:8" ht="20.25" customHeight="1">
       <c r="A17" s="71"/>
       <c r="B17" s="72"/>
-      <c r="C17" s="193"/>
-      <c r="D17" s="194"/>
+      <c r="C17" s="166"/>
+      <c r="D17" s="167"/>
       <c r="E17" s="73"/>
       <c r="F17" s="73"/>
       <c r="G17" s="74"/>
@@ -8429,8 +8068,8 @@
     <row r="18" spans="1:8" ht="20.25" customHeight="1">
       <c r="A18" s="71"/>
       <c r="B18" s="72"/>
-      <c r="C18" s="193"/>
-      <c r="D18" s="194"/>
+      <c r="C18" s="166"/>
+      <c r="D18" s="167"/>
       <c r="E18" s="73"/>
       <c r="F18" s="73"/>
       <c r="G18" s="74"/>
@@ -8439,8 +8078,8 @@
     <row r="19" spans="1:8" ht="20.25" customHeight="1">
       <c r="A19" s="71"/>
       <c r="B19" s="72"/>
-      <c r="C19" s="193"/>
-      <c r="D19" s="194"/>
+      <c r="C19" s="166"/>
+      <c r="D19" s="167"/>
       <c r="E19" s="73"/>
       <c r="F19" s="73"/>
       <c r="G19" s="74"/>
@@ -8449,8 +8088,8 @@
     <row r="20" spans="1:8" ht="20.25" customHeight="1">
       <c r="A20" s="71"/>
       <c r="B20" s="72"/>
-      <c r="C20" s="193"/>
-      <c r="D20" s="194"/>
+      <c r="C20" s="166"/>
+      <c r="D20" s="167"/>
       <c r="E20" s="73"/>
       <c r="F20" s="73"/>
       <c r="G20" s="74"/>
@@ -8459,8 +8098,8 @@
     <row r="21" spans="1:8" ht="20.25" customHeight="1">
       <c r="A21" s="71"/>
       <c r="B21" s="72"/>
-      <c r="C21" s="193"/>
-      <c r="D21" s="194"/>
+      <c r="C21" s="166"/>
+      <c r="D21" s="167"/>
       <c r="E21" s="73"/>
       <c r="F21" s="73"/>
       <c r="G21" s="74"/>
@@ -8469,8 +8108,8 @@
     <row r="22" spans="1:8" ht="20.25" customHeight="1">
       <c r="A22" s="71"/>
       <c r="B22" s="72"/>
-      <c r="C22" s="193"/>
-      <c r="D22" s="194"/>
+      <c r="C22" s="166"/>
+      <c r="D22" s="167"/>
       <c r="E22" s="73"/>
       <c r="F22" s="73"/>
       <c r="G22" s="74"/>
@@ -8479,8 +8118,8 @@
     <row r="23" spans="1:8" ht="20.25" customHeight="1">
       <c r="A23" s="71"/>
       <c r="B23" s="72"/>
-      <c r="C23" s="193"/>
-      <c r="D23" s="194"/>
+      <c r="C23" s="166"/>
+      <c r="D23" s="167"/>
       <c r="E23" s="73"/>
       <c r="F23" s="73"/>
       <c r="G23" s="74"/>
@@ -8489,8 +8128,8 @@
     <row r="24" spans="1:8" ht="20.25" customHeight="1">
       <c r="A24" s="71"/>
       <c r="B24" s="72"/>
-      <c r="C24" s="193"/>
-      <c r="D24" s="194"/>
+      <c r="C24" s="166"/>
+      <c r="D24" s="167"/>
       <c r="E24" s="73"/>
       <c r="F24" s="73"/>
       <c r="G24" s="74"/>
@@ -8499,8 +8138,8 @@
     <row r="25" spans="1:8" ht="20.25" customHeight="1">
       <c r="A25" s="71"/>
       <c r="B25" s="72"/>
-      <c r="C25" s="193"/>
-      <c r="D25" s="194"/>
+      <c r="C25" s="166"/>
+      <c r="D25" s="167"/>
       <c r="E25" s="73"/>
       <c r="F25" s="73"/>
       <c r="G25" s="74"/>
@@ -8509,8 +8148,8 @@
     <row r="26" spans="1:8" ht="20.25" customHeight="1">
       <c r="A26" s="71"/>
       <c r="B26" s="72"/>
-      <c r="C26" s="193"/>
-      <c r="D26" s="194"/>
+      <c r="C26" s="166"/>
+      <c r="D26" s="167"/>
       <c r="E26" s="73"/>
       <c r="F26" s="73"/>
       <c r="G26" s="74"/>
@@ -8519,8 +8158,8 @@
     <row r="27" spans="1:8" ht="20.25" customHeight="1">
       <c r="A27" s="71"/>
       <c r="B27" s="72"/>
-      <c r="C27" s="193"/>
-      <c r="D27" s="194"/>
+      <c r="C27" s="166"/>
+      <c r="D27" s="167"/>
       <c r="E27" s="73"/>
       <c r="F27" s="73"/>
       <c r="G27" s="74"/>
@@ -8529,8 +8168,8 @@
     <row r="28" spans="1:8" ht="20.25" customHeight="1">
       <c r="A28" s="71"/>
       <c r="B28" s="72"/>
-      <c r="C28" s="193"/>
-      <c r="D28" s="194"/>
+      <c r="C28" s="166"/>
+      <c r="D28" s="167"/>
       <c r="E28" s="73"/>
       <c r="F28" s="73"/>
       <c r="G28" s="74"/>
@@ -8539,8 +8178,8 @@
     <row r="29" spans="1:8" ht="20.25" customHeight="1">
       <c r="A29" s="71"/>
       <c r="B29" s="72"/>
-      <c r="C29" s="193"/>
-      <c r="D29" s="194"/>
+      <c r="C29" s="166"/>
+      <c r="D29" s="167"/>
       <c r="E29" s="73"/>
       <c r="F29" s="73"/>
       <c r="G29" s="74"/>
@@ -8549,8 +8188,8 @@
     <row r="30" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A30" s="76"/>
       <c r="B30" s="77"/>
-      <c r="C30" s="172"/>
-      <c r="D30" s="174"/>
+      <c r="C30" s="180"/>
+      <c r="D30" s="181"/>
       <c r="E30" s="78"/>
       <c r="F30" s="78"/>
       <c r="G30" s="79"/>
@@ -8582,10 +8221,10 @@
       <c r="A33" s="53" t="s">
         <v>41</v>
       </c>
-      <c r="B33" s="180" t="s">
+      <c r="B33" s="182" t="s">
         <v>49</v>
       </c>
-      <c r="C33" s="182"/>
+      <c r="C33" s="183"/>
       <c r="D33" s="54" t="s">
         <v>50</v>
       </c>
@@ -8600,51 +8239,51 @@
     </row>
     <row r="34" spans="1:8" ht="20.25" customHeight="1">
       <c r="A34" s="61"/>
-      <c r="B34" s="195"/>
-      <c r="C34" s="196"/>
-      <c r="D34" s="185"/>
-      <c r="E34" s="186"/>
-      <c r="F34" s="187"/>
+      <c r="B34" s="184"/>
+      <c r="C34" s="185"/>
+      <c r="D34" s="186"/>
+      <c r="E34" s="187"/>
+      <c r="F34" s="188"/>
       <c r="G34" s="64"/>
       <c r="H34" s="65"/>
     </row>
     <row r="35" spans="1:8" ht="20.25" customHeight="1">
       <c r="A35" s="66"/>
-      <c r="B35" s="188"/>
-      <c r="C35" s="189"/>
-      <c r="D35" s="169"/>
-      <c r="E35" s="170"/>
-      <c r="F35" s="171"/>
+      <c r="B35" s="175"/>
+      <c r="C35" s="176"/>
+      <c r="D35" s="177"/>
+      <c r="E35" s="178"/>
+      <c r="F35" s="179"/>
       <c r="G35" s="69"/>
       <c r="H35" s="70"/>
     </row>
     <row r="36" spans="1:8" ht="20.25" customHeight="1">
       <c r="A36" s="66"/>
-      <c r="B36" s="188"/>
-      <c r="C36" s="189"/>
-      <c r="D36" s="169"/>
-      <c r="E36" s="170"/>
-      <c r="F36" s="171"/>
+      <c r="B36" s="175"/>
+      <c r="C36" s="176"/>
+      <c r="D36" s="177"/>
+      <c r="E36" s="178"/>
+      <c r="F36" s="179"/>
       <c r="G36" s="69"/>
       <c r="H36" s="70"/>
     </row>
     <row r="37" spans="1:8" ht="20.25" customHeight="1">
       <c r="A37" s="66"/>
-      <c r="B37" s="188"/>
-      <c r="C37" s="189"/>
-      <c r="D37" s="169"/>
-      <c r="E37" s="170"/>
-      <c r="F37" s="171"/>
+      <c r="B37" s="175"/>
+      <c r="C37" s="176"/>
+      <c r="D37" s="177"/>
+      <c r="E37" s="178"/>
+      <c r="F37" s="179"/>
       <c r="G37" s="69"/>
       <c r="H37" s="70"/>
     </row>
     <row r="38" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A38" s="76"/>
-      <c r="B38" s="190"/>
-      <c r="C38" s="191"/>
-      <c r="D38" s="172"/>
-      <c r="E38" s="173"/>
-      <c r="F38" s="174"/>
+      <c r="B38" s="189"/>
+      <c r="C38" s="190"/>
+      <c r="D38" s="180"/>
+      <c r="E38" s="191"/>
+      <c r="F38" s="181"/>
       <c r="G38" s="79"/>
       <c r="H38" s="80"/>
     </row>
@@ -8677,15 +8316,15 @@
       <c r="B41" s="57" t="s">
         <v>53</v>
       </c>
-      <c r="C41" s="180" t="s">
+      <c r="C41" s="182" t="s">
         <v>50</v>
       </c>
-      <c r="D41" s="181"/>
-      <c r="E41" s="182"/>
-      <c r="F41" s="180" t="s">
+      <c r="D41" s="192"/>
+      <c r="E41" s="183"/>
+      <c r="F41" s="182" t="s">
         <v>54</v>
       </c>
-      <c r="G41" s="192"/>
+      <c r="G41" s="193"/>
       <c r="H41" s="58" t="s">
         <v>55</v>
       </c>
@@ -8693,51 +8332,51 @@
     <row r="42" spans="1:8" ht="20.25" customHeight="1">
       <c r="A42" s="81"/>
       <c r="B42" s="82"/>
-      <c r="C42" s="185"/>
-      <c r="D42" s="186"/>
-      <c r="E42" s="187"/>
-      <c r="F42" s="185"/>
-      <c r="G42" s="187"/>
+      <c r="C42" s="186"/>
+      <c r="D42" s="187"/>
+      <c r="E42" s="188"/>
+      <c r="F42" s="186"/>
+      <c r="G42" s="188"/>
       <c r="H42" s="83"/>
     </row>
     <row r="43" spans="1:8" ht="20.25" customHeight="1">
       <c r="A43" s="84"/>
       <c r="B43" s="85"/>
-      <c r="C43" s="169"/>
-      <c r="D43" s="170"/>
-      <c r="E43" s="171"/>
-      <c r="F43" s="169"/>
-      <c r="G43" s="171"/>
+      <c r="C43" s="177"/>
+      <c r="D43" s="178"/>
+      <c r="E43" s="179"/>
+      <c r="F43" s="177"/>
+      <c r="G43" s="179"/>
       <c r="H43" s="86"/>
     </row>
     <row r="44" spans="1:8" ht="20.25" customHeight="1">
       <c r="A44" s="84"/>
       <c r="B44" s="85"/>
-      <c r="C44" s="169"/>
-      <c r="D44" s="170"/>
-      <c r="E44" s="171"/>
-      <c r="F44" s="169"/>
-      <c r="G44" s="171"/>
+      <c r="C44" s="177"/>
+      <c r="D44" s="178"/>
+      <c r="E44" s="179"/>
+      <c r="F44" s="177"/>
+      <c r="G44" s="179"/>
       <c r="H44" s="86"/>
     </row>
     <row r="45" spans="1:8" ht="20.25" customHeight="1">
       <c r="A45" s="84"/>
       <c r="B45" s="85"/>
-      <c r="C45" s="169"/>
-      <c r="D45" s="170"/>
-      <c r="E45" s="171"/>
-      <c r="F45" s="169"/>
-      <c r="G45" s="171"/>
+      <c r="C45" s="177"/>
+      <c r="D45" s="178"/>
+      <c r="E45" s="179"/>
+      <c r="F45" s="177"/>
+      <c r="G45" s="179"/>
       <c r="H45" s="86"/>
     </row>
     <row r="46" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A46" s="87"/>
       <c r="B46" s="88"/>
-      <c r="C46" s="172"/>
-      <c r="D46" s="173"/>
-      <c r="E46" s="174"/>
-      <c r="F46" s="175"/>
-      <c r="G46" s="176"/>
+      <c r="C46" s="180"/>
+      <c r="D46" s="191"/>
+      <c r="E46" s="181"/>
+      <c r="F46" s="194"/>
+      <c r="G46" s="195"/>
       <c r="H46" s="89"/>
     </row>
     <row r="47" spans="1:8" ht="20.25" customHeight="1">
@@ -8769,15 +8408,15 @@
       <c r="B49" s="57" t="s">
         <v>53</v>
       </c>
-      <c r="C49" s="180" t="s">
+      <c r="C49" s="182" t="s">
         <v>50</v>
       </c>
-      <c r="D49" s="181"/>
-      <c r="E49" s="182"/>
-      <c r="F49" s="183" t="s">
+      <c r="D49" s="192"/>
+      <c r="E49" s="183"/>
+      <c r="F49" s="171" t="s">
         <v>57</v>
       </c>
-      <c r="G49" s="184"/>
+      <c r="G49" s="196"/>
       <c r="H49" s="49" t="s">
         <v>58</v>
       </c>
@@ -8787,73 +8426,83 @@
         <v>1</v>
       </c>
       <c r="B50" s="95"/>
-      <c r="C50" s="177"/>
-      <c r="D50" s="178"/>
-      <c r="E50" s="179"/>
-      <c r="F50" s="177"/>
-      <c r="G50" s="179"/>
+      <c r="C50" s="197"/>
+      <c r="D50" s="198"/>
+      <c r="E50" s="199"/>
+      <c r="F50" s="197"/>
+      <c r="G50" s="199"/>
       <c r="H50" s="96"/>
     </row>
     <row r="51" spans="1:8" ht="20.25" customHeight="1">
       <c r="A51" s="84"/>
       <c r="B51" s="85"/>
-      <c r="C51" s="169"/>
-      <c r="D51" s="170"/>
-      <c r="E51" s="171"/>
-      <c r="F51" s="169"/>
-      <c r="G51" s="171"/>
+      <c r="C51" s="177"/>
+      <c r="D51" s="178"/>
+      <c r="E51" s="179"/>
+      <c r="F51" s="177"/>
+      <c r="G51" s="179"/>
       <c r="H51" s="86"/>
     </row>
     <row r="52" spans="1:8" ht="20.25" customHeight="1">
       <c r="A52" s="84"/>
       <c r="B52" s="85"/>
-      <c r="C52" s="169"/>
-      <c r="D52" s="170"/>
-      <c r="E52" s="171"/>
-      <c r="F52" s="169"/>
-      <c r="G52" s="171"/>
+      <c r="C52" s="177"/>
+      <c r="D52" s="178"/>
+      <c r="E52" s="179"/>
+      <c r="F52" s="177"/>
+      <c r="G52" s="179"/>
       <c r="H52" s="86"/>
     </row>
     <row r="53" spans="1:8" ht="20.25" customHeight="1">
       <c r="A53" s="84"/>
       <c r="B53" s="85"/>
-      <c r="C53" s="169"/>
-      <c r="D53" s="170"/>
-      <c r="E53" s="171"/>
-      <c r="F53" s="169"/>
-      <c r="G53" s="171"/>
+      <c r="C53" s="177"/>
+      <c r="D53" s="178"/>
+      <c r="E53" s="179"/>
+      <c r="F53" s="177"/>
+      <c r="G53" s="179"/>
       <c r="H53" s="86"/>
     </row>
     <row r="54" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A54" s="87"/>
       <c r="B54" s="88"/>
-      <c r="C54" s="172"/>
-      <c r="D54" s="173"/>
-      <c r="E54" s="174"/>
-      <c r="F54" s="175"/>
-      <c r="G54" s="176"/>
+      <c r="C54" s="180"/>
+      <c r="D54" s="191"/>
+      <c r="E54" s="181"/>
+      <c r="F54" s="194"/>
+      <c r="G54" s="195"/>
       <c r="H54" s="89"/>
     </row>
   </sheetData>
   <mergeCells count="59">
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="C54:E54"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="F41:G41"/>
     <mergeCell ref="B36:C36"/>
     <mergeCell ref="D36:F36"/>
     <mergeCell ref="C25:D25"/>
@@ -8867,34 +8516,24 @@
     <mergeCell ref="D34:F34"/>
     <mergeCell ref="B35:C35"/>
     <mergeCell ref="D35:F35"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="C44:E44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="C54:E54"/>
-    <mergeCell ref="F54:G54"/>
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="C51:E51"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="C52:E52"/>
-    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="1.0236220472440944" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -8924,16 +8563,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="14.4">
-      <c r="A1" s="119" t="s">
+      <c r="A1" s="114" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="120"/>
-      <c r="C1" s="120"/>
-      <c r="D1" s="120"/>
-      <c r="E1" s="120"/>
-      <c r="F1" s="120"/>
-      <c r="G1" s="120"/>
-      <c r="H1" s="121"/>
+      <c r="B1" s="115"/>
+      <c r="C1" s="115"/>
+      <c r="D1" s="115"/>
+      <c r="E1" s="115"/>
+      <c r="F1" s="115"/>
+      <c r="G1" s="115"/>
+      <c r="H1" s="116"/>
     </row>
     <row r="2" spans="1:8" ht="20.25" customHeight="1">
       <c r="A2" s="40" t="s">
@@ -9008,42 +8647,42 @@
         <v>38</v>
       </c>
       <c r="B6" s="45"/>
-      <c r="C6" s="197" t="s">
+      <c r="C6" s="168" t="s">
         <v>137</v>
       </c>
-      <c r="D6" s="198"/>
-      <c r="E6" s="198"/>
-      <c r="F6" s="198"/>
-      <c r="G6" s="198"/>
-      <c r="H6" s="199"/>
+      <c r="D6" s="169"/>
+      <c r="E6" s="169"/>
+      <c r="F6" s="169"/>
+      <c r="G6" s="169"/>
+      <c r="H6" s="170"/>
     </row>
     <row r="7" spans="1:8" ht="20.25" customHeight="1">
       <c r="A7" s="40" t="s">
         <v>31</v>
       </c>
       <c r="B7" s="45"/>
-      <c r="C7" s="197" t="s">
+      <c r="C7" s="168" t="s">
         <v>139</v>
       </c>
-      <c r="D7" s="198"/>
-      <c r="E7" s="198"/>
-      <c r="F7" s="198"/>
-      <c r="G7" s="198"/>
-      <c r="H7" s="199"/>
+      <c r="D7" s="169"/>
+      <c r="E7" s="169"/>
+      <c r="F7" s="169"/>
+      <c r="G7" s="169"/>
+      <c r="H7" s="170"/>
     </row>
     <row r="8" spans="1:8" ht="20.25" customHeight="1">
       <c r="A8" s="40" t="s">
         <v>39</v>
       </c>
       <c r="B8" s="45"/>
-      <c r="C8" s="197" t="s">
+      <c r="C8" s="168" t="s">
         <v>138</v>
       </c>
-      <c r="D8" s="198"/>
-      <c r="E8" s="198"/>
-      <c r="F8" s="198"/>
-      <c r="G8" s="198"/>
-      <c r="H8" s="199"/>
+      <c r="D8" s="169"/>
+      <c r="E8" s="169"/>
+      <c r="F8" s="169"/>
+      <c r="G8" s="169"/>
+      <c r="H8" s="170"/>
     </row>
     <row r="9" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A9" s="46" t="s">
@@ -9064,10 +8703,10 @@
       <c r="B10" s="48" t="s">
         <v>42</v>
       </c>
-      <c r="C10" s="183" t="s">
+      <c r="C10" s="171" t="s">
         <v>43</v>
       </c>
-      <c r="D10" s="200"/>
+      <c r="D10" s="172"/>
       <c r="E10" s="48" t="s">
         <v>44</v>
       </c>
@@ -9088,10 +8727,10 @@
       <c r="B11" s="62" t="s">
         <v>132</v>
       </c>
-      <c r="C11" s="201" t="s">
+      <c r="C11" s="173" t="s">
         <v>127</v>
       </c>
-      <c r="D11" s="202"/>
+      <c r="D11" s="174"/>
       <c r="E11" s="63" t="s">
         <v>100</v>
       </c>
@@ -9110,10 +8749,10 @@
       <c r="B12" s="67" t="s">
         <v>133</v>
       </c>
-      <c r="C12" s="193" t="s">
+      <c r="C12" s="166" t="s">
         <v>128</v>
       </c>
-      <c r="D12" s="194"/>
+      <c r="D12" s="167"/>
       <c r="E12" s="68" t="s">
         <v>101</v>
       </c>
@@ -9130,10 +8769,10 @@
       <c r="B13" s="67" t="s">
         <v>134</v>
       </c>
-      <c r="C13" s="193" t="s">
+      <c r="C13" s="166" t="s">
         <v>129</v>
       </c>
-      <c r="D13" s="194"/>
+      <c r="D13" s="167"/>
       <c r="E13" s="68" t="s">
         <v>101</v>
       </c>
@@ -9150,10 +8789,10 @@
       <c r="B14" s="72" t="s">
         <v>135</v>
       </c>
-      <c r="C14" s="193" t="s">
+      <c r="C14" s="166" t="s">
         <v>130</v>
       </c>
-      <c r="D14" s="194"/>
+      <c r="D14" s="167"/>
       <c r="E14" s="63" t="s">
         <v>100</v>
       </c>
@@ -9170,10 +8809,10 @@
       <c r="B15" s="72" t="s">
         <v>136</v>
       </c>
-      <c r="C15" s="193" t="s">
+      <c r="C15" s="166" t="s">
         <v>131</v>
       </c>
-      <c r="D15" s="194"/>
+      <c r="D15" s="167"/>
       <c r="E15" s="68" t="s">
         <v>101</v>
       </c>
@@ -9186,8 +8825,8 @@
     <row r="16" spans="1:8" ht="20.25" customHeight="1">
       <c r="A16" s="71"/>
       <c r="B16" s="72"/>
-      <c r="C16" s="193"/>
-      <c r="D16" s="194"/>
+      <c r="C16" s="166"/>
+      <c r="D16" s="167"/>
       <c r="E16" s="73"/>
       <c r="F16" s="73"/>
       <c r="G16" s="74"/>
@@ -9196,8 +8835,8 @@
     <row r="17" spans="1:8" ht="20.25" customHeight="1">
       <c r="A17" s="71"/>
       <c r="B17" s="72"/>
-      <c r="C17" s="193"/>
-      <c r="D17" s="194"/>
+      <c r="C17" s="166"/>
+      <c r="D17" s="167"/>
       <c r="E17" s="73"/>
       <c r="F17" s="73"/>
       <c r="G17" s="74"/>
@@ -9206,8 +8845,8 @@
     <row r="18" spans="1:8" ht="20.25" customHeight="1">
       <c r="A18" s="71"/>
       <c r="B18" s="72"/>
-      <c r="C18" s="193"/>
-      <c r="D18" s="194"/>
+      <c r="C18" s="166"/>
+      <c r="D18" s="167"/>
       <c r="E18" s="73"/>
       <c r="F18" s="73"/>
       <c r="G18" s="74"/>
@@ -9216,8 +8855,8 @@
     <row r="19" spans="1:8" ht="20.25" customHeight="1">
       <c r="A19" s="71"/>
       <c r="B19" s="72"/>
-      <c r="C19" s="193"/>
-      <c r="D19" s="194"/>
+      <c r="C19" s="166"/>
+      <c r="D19" s="167"/>
       <c r="E19" s="73"/>
       <c r="F19" s="73"/>
       <c r="G19" s="74"/>
@@ -9226,8 +8865,8 @@
     <row r="20" spans="1:8" ht="20.25" customHeight="1">
       <c r="A20" s="71"/>
       <c r="B20" s="72"/>
-      <c r="C20" s="193"/>
-      <c r="D20" s="194"/>
+      <c r="C20" s="166"/>
+      <c r="D20" s="167"/>
       <c r="E20" s="73"/>
       <c r="F20" s="73"/>
       <c r="G20" s="74"/>
@@ -9236,8 +8875,8 @@
     <row r="21" spans="1:8" ht="20.25" customHeight="1">
       <c r="A21" s="71"/>
       <c r="B21" s="72"/>
-      <c r="C21" s="193"/>
-      <c r="D21" s="194"/>
+      <c r="C21" s="166"/>
+      <c r="D21" s="167"/>
       <c r="E21" s="73"/>
       <c r="F21" s="73"/>
       <c r="G21" s="74"/>
@@ -9246,8 +8885,8 @@
     <row r="22" spans="1:8" ht="20.25" customHeight="1">
       <c r="A22" s="71"/>
       <c r="B22" s="72"/>
-      <c r="C22" s="193"/>
-      <c r="D22" s="194"/>
+      <c r="C22" s="166"/>
+      <c r="D22" s="167"/>
       <c r="E22" s="73"/>
       <c r="F22" s="73"/>
       <c r="G22" s="74"/>
@@ -9256,8 +8895,8 @@
     <row r="23" spans="1:8" ht="20.25" customHeight="1">
       <c r="A23" s="71"/>
       <c r="B23" s="72"/>
-      <c r="C23" s="193"/>
-      <c r="D23" s="194"/>
+      <c r="C23" s="166"/>
+      <c r="D23" s="167"/>
       <c r="E23" s="73"/>
       <c r="F23" s="73"/>
       <c r="G23" s="74"/>
@@ -9266,8 +8905,8 @@
     <row r="24" spans="1:8" ht="20.25" customHeight="1">
       <c r="A24" s="71"/>
       <c r="B24" s="72"/>
-      <c r="C24" s="193"/>
-      <c r="D24" s="194"/>
+      <c r="C24" s="166"/>
+      <c r="D24" s="167"/>
       <c r="E24" s="73"/>
       <c r="F24" s="73"/>
       <c r="G24" s="74"/>
@@ -9276,8 +8915,8 @@
     <row r="25" spans="1:8" ht="20.25" customHeight="1">
       <c r="A25" s="71"/>
       <c r="B25" s="72"/>
-      <c r="C25" s="193"/>
-      <c r="D25" s="194"/>
+      <c r="C25" s="166"/>
+      <c r="D25" s="167"/>
       <c r="E25" s="73"/>
       <c r="F25" s="73"/>
       <c r="G25" s="74"/>
@@ -9286,8 +8925,8 @@
     <row r="26" spans="1:8" ht="20.25" customHeight="1">
       <c r="A26" s="71"/>
       <c r="B26" s="72"/>
-      <c r="C26" s="193"/>
-      <c r="D26" s="194"/>
+      <c r="C26" s="166"/>
+      <c r="D26" s="167"/>
       <c r="E26" s="73"/>
       <c r="F26" s="73"/>
       <c r="G26" s="74"/>
@@ -9296,8 +8935,8 @@
     <row r="27" spans="1:8" ht="20.25" customHeight="1">
       <c r="A27" s="71"/>
       <c r="B27" s="72"/>
-      <c r="C27" s="193"/>
-      <c r="D27" s="194"/>
+      <c r="C27" s="166"/>
+      <c r="D27" s="167"/>
       <c r="E27" s="73"/>
       <c r="F27" s="73"/>
       <c r="G27" s="74"/>
@@ -9306,8 +8945,8 @@
     <row r="28" spans="1:8" ht="20.25" customHeight="1">
       <c r="A28" s="71"/>
       <c r="B28" s="72"/>
-      <c r="C28" s="193"/>
-      <c r="D28" s="194"/>
+      <c r="C28" s="166"/>
+      <c r="D28" s="167"/>
       <c r="E28" s="73"/>
       <c r="F28" s="73"/>
       <c r="G28" s="74"/>
@@ -9316,8 +8955,8 @@
     <row r="29" spans="1:8" ht="20.25" customHeight="1">
       <c r="A29" s="71"/>
       <c r="B29" s="72"/>
-      <c r="C29" s="193"/>
-      <c r="D29" s="194"/>
+      <c r="C29" s="166"/>
+      <c r="D29" s="167"/>
       <c r="E29" s="73"/>
       <c r="F29" s="73"/>
       <c r="G29" s="74"/>
@@ -9326,8 +8965,8 @@
     <row r="30" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A30" s="76"/>
       <c r="B30" s="77"/>
-      <c r="C30" s="172"/>
-      <c r="D30" s="174"/>
+      <c r="C30" s="180"/>
+      <c r="D30" s="181"/>
       <c r="E30" s="78"/>
       <c r="F30" s="78"/>
       <c r="G30" s="79"/>
@@ -9359,10 +8998,10 @@
       <c r="A33" s="53" t="s">
         <v>41</v>
       </c>
-      <c r="B33" s="180" t="s">
+      <c r="B33" s="182" t="s">
         <v>49</v>
       </c>
-      <c r="C33" s="182"/>
+      <c r="C33" s="183"/>
       <c r="D33" s="54" t="s">
         <v>50</v>
       </c>
@@ -9377,51 +9016,51 @@
     </row>
     <row r="34" spans="1:8" ht="20.25" customHeight="1">
       <c r="A34" s="61"/>
-      <c r="B34" s="195"/>
-      <c r="C34" s="196"/>
-      <c r="D34" s="185"/>
-      <c r="E34" s="186"/>
-      <c r="F34" s="187"/>
+      <c r="B34" s="184"/>
+      <c r="C34" s="185"/>
+      <c r="D34" s="186"/>
+      <c r="E34" s="187"/>
+      <c r="F34" s="188"/>
       <c r="G34" s="64"/>
       <c r="H34" s="65"/>
     </row>
     <row r="35" spans="1:8" ht="20.25" customHeight="1">
       <c r="A35" s="66"/>
-      <c r="B35" s="188"/>
-      <c r="C35" s="189"/>
-      <c r="D35" s="169"/>
-      <c r="E35" s="170"/>
-      <c r="F35" s="171"/>
+      <c r="B35" s="175"/>
+      <c r="C35" s="176"/>
+      <c r="D35" s="177"/>
+      <c r="E35" s="178"/>
+      <c r="F35" s="179"/>
       <c r="G35" s="69"/>
       <c r="H35" s="70"/>
     </row>
     <row r="36" spans="1:8" ht="20.25" customHeight="1">
       <c r="A36" s="66"/>
-      <c r="B36" s="188"/>
-      <c r="C36" s="189"/>
-      <c r="D36" s="169"/>
-      <c r="E36" s="170"/>
-      <c r="F36" s="171"/>
+      <c r="B36" s="175"/>
+      <c r="C36" s="176"/>
+      <c r="D36" s="177"/>
+      <c r="E36" s="178"/>
+      <c r="F36" s="179"/>
       <c r="G36" s="69"/>
       <c r="H36" s="70"/>
     </row>
     <row r="37" spans="1:8" ht="20.25" customHeight="1">
       <c r="A37" s="66"/>
-      <c r="B37" s="188"/>
-      <c r="C37" s="189"/>
-      <c r="D37" s="169"/>
-      <c r="E37" s="170"/>
-      <c r="F37" s="171"/>
+      <c r="B37" s="175"/>
+      <c r="C37" s="176"/>
+      <c r="D37" s="177"/>
+      <c r="E37" s="178"/>
+      <c r="F37" s="179"/>
       <c r="G37" s="69"/>
       <c r="H37" s="70"/>
     </row>
     <row r="38" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A38" s="76"/>
-      <c r="B38" s="190"/>
-      <c r="C38" s="191"/>
-      <c r="D38" s="172"/>
-      <c r="E38" s="173"/>
-      <c r="F38" s="174"/>
+      <c r="B38" s="189"/>
+      <c r="C38" s="190"/>
+      <c r="D38" s="180"/>
+      <c r="E38" s="191"/>
+      <c r="F38" s="181"/>
       <c r="G38" s="79"/>
       <c r="H38" s="80"/>
     </row>
@@ -9454,15 +9093,15 @@
       <c r="B41" s="57" t="s">
         <v>53</v>
       </c>
-      <c r="C41" s="180" t="s">
+      <c r="C41" s="182" t="s">
         <v>50</v>
       </c>
-      <c r="D41" s="181"/>
-      <c r="E41" s="182"/>
-      <c r="F41" s="180" t="s">
+      <c r="D41" s="192"/>
+      <c r="E41" s="183"/>
+      <c r="F41" s="182" t="s">
         <v>54</v>
       </c>
-      <c r="G41" s="192"/>
+      <c r="G41" s="193"/>
       <c r="H41" s="58" t="s">
         <v>55</v>
       </c>
@@ -9470,51 +9109,51 @@
     <row r="42" spans="1:8" ht="20.25" customHeight="1">
       <c r="A42" s="81"/>
       <c r="B42" s="82"/>
-      <c r="C42" s="185"/>
-      <c r="D42" s="186"/>
-      <c r="E42" s="187"/>
-      <c r="F42" s="185"/>
-      <c r="G42" s="187"/>
+      <c r="C42" s="186"/>
+      <c r="D42" s="187"/>
+      <c r="E42" s="188"/>
+      <c r="F42" s="186"/>
+      <c r="G42" s="188"/>
       <c r="H42" s="83"/>
     </row>
     <row r="43" spans="1:8" ht="20.25" customHeight="1">
       <c r="A43" s="84"/>
       <c r="B43" s="85"/>
-      <c r="C43" s="169"/>
-      <c r="D43" s="170"/>
-      <c r="E43" s="171"/>
-      <c r="F43" s="169"/>
-      <c r="G43" s="171"/>
+      <c r="C43" s="177"/>
+      <c r="D43" s="178"/>
+      <c r="E43" s="179"/>
+      <c r="F43" s="177"/>
+      <c r="G43" s="179"/>
       <c r="H43" s="86"/>
     </row>
     <row r="44" spans="1:8" ht="20.25" customHeight="1">
       <c r="A44" s="84"/>
       <c r="B44" s="85"/>
-      <c r="C44" s="169"/>
-      <c r="D44" s="170"/>
-      <c r="E44" s="171"/>
-      <c r="F44" s="169"/>
-      <c r="G44" s="171"/>
+      <c r="C44" s="177"/>
+      <c r="D44" s="178"/>
+      <c r="E44" s="179"/>
+      <c r="F44" s="177"/>
+      <c r="G44" s="179"/>
       <c r="H44" s="86"/>
     </row>
     <row r="45" spans="1:8" ht="20.25" customHeight="1">
       <c r="A45" s="84"/>
       <c r="B45" s="85"/>
-      <c r="C45" s="169"/>
-      <c r="D45" s="170"/>
-      <c r="E45" s="171"/>
-      <c r="F45" s="169"/>
-      <c r="G45" s="171"/>
+      <c r="C45" s="177"/>
+      <c r="D45" s="178"/>
+      <c r="E45" s="179"/>
+      <c r="F45" s="177"/>
+      <c r="G45" s="179"/>
       <c r="H45" s="86"/>
     </row>
     <row r="46" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A46" s="87"/>
       <c r="B46" s="88"/>
-      <c r="C46" s="172"/>
-      <c r="D46" s="173"/>
-      <c r="E46" s="174"/>
-      <c r="F46" s="175"/>
-      <c r="G46" s="176"/>
+      <c r="C46" s="180"/>
+      <c r="D46" s="191"/>
+      <c r="E46" s="181"/>
+      <c r="F46" s="194"/>
+      <c r="G46" s="195"/>
       <c r="H46" s="89"/>
     </row>
     <row r="47" spans="1:8" ht="20.25" customHeight="1">
@@ -9546,15 +9185,15 @@
       <c r="B49" s="57" t="s">
         <v>53</v>
       </c>
-      <c r="C49" s="180" t="s">
+      <c r="C49" s="182" t="s">
         <v>50</v>
       </c>
-      <c r="D49" s="181"/>
-      <c r="E49" s="182"/>
-      <c r="F49" s="183" t="s">
+      <c r="D49" s="192"/>
+      <c r="E49" s="183"/>
+      <c r="F49" s="171" t="s">
         <v>57</v>
       </c>
-      <c r="G49" s="184"/>
+      <c r="G49" s="196"/>
       <c r="H49" s="49" t="s">
         <v>58</v>
       </c>
@@ -9564,73 +9203,83 @@
         <v>1</v>
       </c>
       <c r="B50" s="95"/>
-      <c r="C50" s="177"/>
-      <c r="D50" s="178"/>
-      <c r="E50" s="179"/>
-      <c r="F50" s="177"/>
-      <c r="G50" s="179"/>
+      <c r="C50" s="197"/>
+      <c r="D50" s="198"/>
+      <c r="E50" s="199"/>
+      <c r="F50" s="197"/>
+      <c r="G50" s="199"/>
       <c r="H50" s="96"/>
     </row>
     <row r="51" spans="1:8" ht="20.25" customHeight="1">
       <c r="A51" s="84"/>
       <c r="B51" s="85"/>
-      <c r="C51" s="169"/>
-      <c r="D51" s="170"/>
-      <c r="E51" s="171"/>
-      <c r="F51" s="169"/>
-      <c r="G51" s="171"/>
+      <c r="C51" s="177"/>
+      <c r="D51" s="178"/>
+      <c r="E51" s="179"/>
+      <c r="F51" s="177"/>
+      <c r="G51" s="179"/>
       <c r="H51" s="86"/>
     </row>
     <row r="52" spans="1:8" ht="20.25" customHeight="1">
       <c r="A52" s="84"/>
       <c r="B52" s="85"/>
-      <c r="C52" s="169"/>
-      <c r="D52" s="170"/>
-      <c r="E52" s="171"/>
-      <c r="F52" s="169"/>
-      <c r="G52" s="171"/>
+      <c r="C52" s="177"/>
+      <c r="D52" s="178"/>
+      <c r="E52" s="179"/>
+      <c r="F52" s="177"/>
+      <c r="G52" s="179"/>
       <c r="H52" s="86"/>
     </row>
     <row r="53" spans="1:8" ht="20.25" customHeight="1">
       <c r="A53" s="84"/>
       <c r="B53" s="85"/>
-      <c r="C53" s="169"/>
-      <c r="D53" s="170"/>
-      <c r="E53" s="171"/>
-      <c r="F53" s="169"/>
-      <c r="G53" s="171"/>
+      <c r="C53" s="177"/>
+      <c r="D53" s="178"/>
+      <c r="E53" s="179"/>
+      <c r="F53" s="177"/>
+      <c r="G53" s="179"/>
       <c r="H53" s="86"/>
     </row>
     <row r="54" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A54" s="87"/>
       <c r="B54" s="88"/>
-      <c r="C54" s="172"/>
-      <c r="D54" s="173"/>
-      <c r="E54" s="174"/>
-      <c r="F54" s="175"/>
-      <c r="G54" s="176"/>
+      <c r="C54" s="180"/>
+      <c r="D54" s="191"/>
+      <c r="E54" s="181"/>
+      <c r="F54" s="194"/>
+      <c r="G54" s="195"/>
       <c r="H54" s="89"/>
     </row>
   </sheetData>
   <mergeCells count="59">
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="C54:E54"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="F41:G41"/>
     <mergeCell ref="B36:C36"/>
     <mergeCell ref="D36:F36"/>
     <mergeCell ref="C25:D25"/>
@@ -9644,34 +9293,24 @@
     <mergeCell ref="D34:F34"/>
     <mergeCell ref="B35:C35"/>
     <mergeCell ref="D35:F35"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="C44:E44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="C54:E54"/>
-    <mergeCell ref="F54:G54"/>
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="C51:E51"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="C52:E52"/>
-    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="1.0236220472440944" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -9701,16 +9340,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="14.4">
-      <c r="A1" s="119" t="s">
+      <c r="A1" s="114" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="120"/>
-      <c r="C1" s="120"/>
-      <c r="D1" s="120"/>
-      <c r="E1" s="120"/>
-      <c r="F1" s="120"/>
-      <c r="G1" s="120"/>
-      <c r="H1" s="121"/>
+      <c r="B1" s="115"/>
+      <c r="C1" s="115"/>
+      <c r="D1" s="115"/>
+      <c r="E1" s="115"/>
+      <c r="F1" s="115"/>
+      <c r="G1" s="115"/>
+      <c r="H1" s="116"/>
     </row>
     <row r="2" spans="1:8" ht="20.25" customHeight="1">
       <c r="A2" s="40" t="s">
@@ -9785,42 +9424,42 @@
         <v>38</v>
       </c>
       <c r="B6" s="45"/>
-      <c r="C6" s="197" t="s">
+      <c r="C6" s="168" t="s">
         <v>119</v>
       </c>
-      <c r="D6" s="198"/>
-      <c r="E6" s="198"/>
-      <c r="F6" s="198"/>
-      <c r="G6" s="198"/>
-      <c r="H6" s="199"/>
+      <c r="D6" s="169"/>
+      <c r="E6" s="169"/>
+      <c r="F6" s="169"/>
+      <c r="G6" s="169"/>
+      <c r="H6" s="170"/>
     </row>
     <row r="7" spans="1:8" ht="20.25" customHeight="1">
       <c r="A7" s="40" t="s">
         <v>31</v>
       </c>
       <c r="B7" s="45"/>
-      <c r="C7" s="197" t="s">
+      <c r="C7" s="168" t="s">
         <v>117</v>
       </c>
-      <c r="D7" s="198"/>
-      <c r="E7" s="198"/>
-      <c r="F7" s="198"/>
-      <c r="G7" s="198"/>
-      <c r="H7" s="199"/>
+      <c r="D7" s="169"/>
+      <c r="E7" s="169"/>
+      <c r="F7" s="169"/>
+      <c r="G7" s="169"/>
+      <c r="H7" s="170"/>
     </row>
     <row r="8" spans="1:8" ht="20.25" customHeight="1">
       <c r="A8" s="40" t="s">
         <v>39</v>
       </c>
       <c r="B8" s="45"/>
-      <c r="C8" s="197" t="s">
+      <c r="C8" s="168" t="s">
         <v>118</v>
       </c>
-      <c r="D8" s="198"/>
-      <c r="E8" s="198"/>
-      <c r="F8" s="198"/>
-      <c r="G8" s="198"/>
-      <c r="H8" s="199"/>
+      <c r="D8" s="169"/>
+      <c r="E8" s="169"/>
+      <c r="F8" s="169"/>
+      <c r="G8" s="169"/>
+      <c r="H8" s="170"/>
     </row>
     <row r="9" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A9" s="46" t="s">
@@ -9841,10 +9480,10 @@
       <c r="B10" s="48" t="s">
         <v>42</v>
       </c>
-      <c r="C10" s="183" t="s">
+      <c r="C10" s="171" t="s">
         <v>43</v>
       </c>
-      <c r="D10" s="200"/>
+      <c r="D10" s="172"/>
       <c r="E10" s="48" t="s">
         <v>44</v>
       </c>
@@ -9865,10 +9504,10 @@
       <c r="B11" s="62" t="s">
         <v>113</v>
       </c>
-      <c r="C11" s="201" t="s">
+      <c r="C11" s="173" t="s">
         <v>108</v>
       </c>
-      <c r="D11" s="202"/>
+      <c r="D11" s="174"/>
       <c r="E11" s="63" t="s">
         <v>115</v>
       </c>
@@ -9887,10 +9526,10 @@
       <c r="B12" s="67" t="s">
         <v>112</v>
       </c>
-      <c r="C12" s="193" t="s">
+      <c r="C12" s="166" t="s">
         <v>71</v>
       </c>
-      <c r="D12" s="194"/>
+      <c r="D12" s="167"/>
       <c r="E12" s="63" t="s">
         <v>115</v>
       </c>
@@ -9907,10 +9546,10 @@
       <c r="B13" s="67" t="s">
         <v>122</v>
       </c>
-      <c r="C13" s="193" t="s">
+      <c r="C13" s="166" t="s">
         <v>120</v>
       </c>
-      <c r="D13" s="194"/>
+      <c r="D13" s="167"/>
       <c r="E13" s="63" t="s">
         <v>115</v>
       </c>
@@ -9927,10 +9566,10 @@
       <c r="B14" s="72" t="s">
         <v>123</v>
       </c>
-      <c r="C14" s="193" t="s">
+      <c r="C14" s="166" t="s">
         <v>121</v>
       </c>
-      <c r="D14" s="194"/>
+      <c r="D14" s="167"/>
       <c r="E14" s="63" t="s">
         <v>124</v>
       </c>
@@ -9943,8 +9582,8 @@
     <row r="15" spans="1:8" ht="20.25" customHeight="1">
       <c r="A15" s="71"/>
       <c r="B15" s="72"/>
-      <c r="C15" s="193"/>
-      <c r="D15" s="194"/>
+      <c r="C15" s="166"/>
+      <c r="D15" s="167"/>
       <c r="E15" s="73"/>
       <c r="F15" s="73"/>
       <c r="G15" s="74"/>
@@ -9953,8 +9592,8 @@
     <row r="16" spans="1:8" ht="20.25" customHeight="1">
       <c r="A16" s="71"/>
       <c r="B16" s="72"/>
-      <c r="C16" s="193"/>
-      <c r="D16" s="194"/>
+      <c r="C16" s="166"/>
+      <c r="D16" s="167"/>
       <c r="E16" s="73"/>
       <c r="F16" s="73"/>
       <c r="G16" s="74"/>
@@ -9963,8 +9602,8 @@
     <row r="17" spans="1:8" ht="20.25" customHeight="1">
       <c r="A17" s="71"/>
       <c r="B17" s="72"/>
-      <c r="C17" s="193"/>
-      <c r="D17" s="194"/>
+      <c r="C17" s="166"/>
+      <c r="D17" s="167"/>
       <c r="E17" s="73"/>
       <c r="F17" s="73"/>
       <c r="G17" s="74"/>
@@ -9973,8 +9612,8 @@
     <row r="18" spans="1:8" ht="20.25" customHeight="1">
       <c r="A18" s="71"/>
       <c r="B18" s="72"/>
-      <c r="C18" s="193"/>
-      <c r="D18" s="194"/>
+      <c r="C18" s="166"/>
+      <c r="D18" s="167"/>
       <c r="E18" s="73"/>
       <c r="F18" s="73"/>
       <c r="G18" s="74"/>
@@ -9983,8 +9622,8 @@
     <row r="19" spans="1:8" ht="20.25" customHeight="1">
       <c r="A19" s="71"/>
       <c r="B19" s="72"/>
-      <c r="C19" s="193"/>
-      <c r="D19" s="194"/>
+      <c r="C19" s="166"/>
+      <c r="D19" s="167"/>
       <c r="E19" s="73"/>
       <c r="F19" s="73"/>
       <c r="G19" s="74"/>
@@ -9993,8 +9632,8 @@
     <row r="20" spans="1:8" ht="20.25" customHeight="1">
       <c r="A20" s="71"/>
       <c r="B20" s="72"/>
-      <c r="C20" s="193"/>
-      <c r="D20" s="194"/>
+      <c r="C20" s="166"/>
+      <c r="D20" s="167"/>
       <c r="E20" s="73"/>
       <c r="F20" s="73"/>
       <c r="G20" s="74"/>
@@ -10003,8 +9642,8 @@
     <row r="21" spans="1:8" ht="20.25" customHeight="1">
       <c r="A21" s="71"/>
       <c r="B21" s="72"/>
-      <c r="C21" s="193"/>
-      <c r="D21" s="194"/>
+      <c r="C21" s="166"/>
+      <c r="D21" s="167"/>
       <c r="E21" s="73"/>
       <c r="F21" s="73"/>
       <c r="G21" s="74"/>
@@ -10013,8 +9652,8 @@
     <row r="22" spans="1:8" ht="20.25" customHeight="1">
       <c r="A22" s="71"/>
       <c r="B22" s="72"/>
-      <c r="C22" s="193"/>
-      <c r="D22" s="194"/>
+      <c r="C22" s="166"/>
+      <c r="D22" s="167"/>
       <c r="E22" s="73"/>
       <c r="F22" s="73"/>
       <c r="G22" s="74"/>
@@ -10023,8 +9662,8 @@
     <row r="23" spans="1:8" ht="20.25" customHeight="1">
       <c r="A23" s="71"/>
       <c r="B23" s="72"/>
-      <c r="C23" s="193"/>
-      <c r="D23" s="194"/>
+      <c r="C23" s="166"/>
+      <c r="D23" s="167"/>
       <c r="E23" s="73"/>
       <c r="F23" s="73"/>
       <c r="G23" s="74"/>
@@ -10033,8 +9672,8 @@
     <row r="24" spans="1:8" ht="20.25" customHeight="1">
       <c r="A24" s="71"/>
       <c r="B24" s="72"/>
-      <c r="C24" s="193"/>
-      <c r="D24" s="194"/>
+      <c r="C24" s="166"/>
+      <c r="D24" s="167"/>
       <c r="E24" s="73"/>
       <c r="F24" s="73"/>
       <c r="G24" s="74"/>
@@ -10043,8 +9682,8 @@
     <row r="25" spans="1:8" ht="20.25" customHeight="1">
       <c r="A25" s="71"/>
       <c r="B25" s="72"/>
-      <c r="C25" s="193"/>
-      <c r="D25" s="194"/>
+      <c r="C25" s="166"/>
+      <c r="D25" s="167"/>
       <c r="E25" s="73"/>
       <c r="F25" s="73"/>
       <c r="G25" s="74"/>
@@ -10053,8 +9692,8 @@
     <row r="26" spans="1:8" ht="20.25" customHeight="1">
       <c r="A26" s="71"/>
       <c r="B26" s="72"/>
-      <c r="C26" s="193"/>
-      <c r="D26" s="194"/>
+      <c r="C26" s="166"/>
+      <c r="D26" s="167"/>
       <c r="E26" s="73"/>
       <c r="F26" s="73"/>
       <c r="G26" s="74"/>
@@ -10063,8 +9702,8 @@
     <row r="27" spans="1:8" ht="20.25" customHeight="1">
       <c r="A27" s="71"/>
       <c r="B27" s="72"/>
-      <c r="C27" s="193"/>
-      <c r="D27" s="194"/>
+      <c r="C27" s="166"/>
+      <c r="D27" s="167"/>
       <c r="E27" s="73"/>
       <c r="F27" s="73"/>
       <c r="G27" s="74"/>
@@ -10073,8 +9712,8 @@
     <row r="28" spans="1:8" ht="20.25" customHeight="1">
       <c r="A28" s="71"/>
       <c r="B28" s="72"/>
-      <c r="C28" s="193"/>
-      <c r="D28" s="194"/>
+      <c r="C28" s="166"/>
+      <c r="D28" s="167"/>
       <c r="E28" s="73"/>
       <c r="F28" s="73"/>
       <c r="G28" s="74"/>
@@ -10083,8 +9722,8 @@
     <row r="29" spans="1:8" ht="20.25" customHeight="1">
       <c r="A29" s="71"/>
       <c r="B29" s="72"/>
-      <c r="C29" s="193"/>
-      <c r="D29" s="194"/>
+      <c r="C29" s="166"/>
+      <c r="D29" s="167"/>
       <c r="E29" s="73"/>
       <c r="F29" s="73"/>
       <c r="G29" s="74"/>
@@ -10093,8 +9732,8 @@
     <row r="30" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A30" s="76"/>
       <c r="B30" s="77"/>
-      <c r="C30" s="172"/>
-      <c r="D30" s="174"/>
+      <c r="C30" s="180"/>
+      <c r="D30" s="181"/>
       <c r="E30" s="78"/>
       <c r="F30" s="78"/>
       <c r="G30" s="79"/>
@@ -10126,10 +9765,10 @@
       <c r="A33" s="53" t="s">
         <v>41</v>
       </c>
-      <c r="B33" s="180" t="s">
+      <c r="B33" s="182" t="s">
         <v>49</v>
       </c>
-      <c r="C33" s="182"/>
+      <c r="C33" s="183"/>
       <c r="D33" s="54" t="s">
         <v>50</v>
       </c>
@@ -10144,51 +9783,51 @@
     </row>
     <row r="34" spans="1:8" ht="20.25" customHeight="1">
       <c r="A34" s="61"/>
-      <c r="B34" s="195"/>
-      <c r="C34" s="196"/>
-      <c r="D34" s="185"/>
-      <c r="E34" s="186"/>
-      <c r="F34" s="187"/>
+      <c r="B34" s="184"/>
+      <c r="C34" s="185"/>
+      <c r="D34" s="186"/>
+      <c r="E34" s="187"/>
+      <c r="F34" s="188"/>
       <c r="G34" s="64"/>
       <c r="H34" s="65"/>
     </row>
     <row r="35" spans="1:8" ht="20.25" customHeight="1">
       <c r="A35" s="66"/>
-      <c r="B35" s="188"/>
-      <c r="C35" s="189"/>
-      <c r="D35" s="169"/>
-      <c r="E35" s="170"/>
-      <c r="F35" s="171"/>
+      <c r="B35" s="175"/>
+      <c r="C35" s="176"/>
+      <c r="D35" s="177"/>
+      <c r="E35" s="178"/>
+      <c r="F35" s="179"/>
       <c r="G35" s="69"/>
       <c r="H35" s="70"/>
     </row>
     <row r="36" spans="1:8" ht="20.25" customHeight="1">
       <c r="A36" s="66"/>
-      <c r="B36" s="188"/>
-      <c r="C36" s="189"/>
-      <c r="D36" s="169"/>
-      <c r="E36" s="170"/>
-      <c r="F36" s="171"/>
+      <c r="B36" s="175"/>
+      <c r="C36" s="176"/>
+      <c r="D36" s="177"/>
+      <c r="E36" s="178"/>
+      <c r="F36" s="179"/>
       <c r="G36" s="69"/>
       <c r="H36" s="70"/>
     </row>
     <row r="37" spans="1:8" ht="20.25" customHeight="1">
       <c r="A37" s="66"/>
-      <c r="B37" s="188"/>
-      <c r="C37" s="189"/>
-      <c r="D37" s="169"/>
-      <c r="E37" s="170"/>
-      <c r="F37" s="171"/>
+      <c r="B37" s="175"/>
+      <c r="C37" s="176"/>
+      <c r="D37" s="177"/>
+      <c r="E37" s="178"/>
+      <c r="F37" s="179"/>
       <c r="G37" s="69"/>
       <c r="H37" s="70"/>
     </row>
     <row r="38" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A38" s="76"/>
-      <c r="B38" s="190"/>
-      <c r="C38" s="191"/>
-      <c r="D38" s="172"/>
-      <c r="E38" s="173"/>
-      <c r="F38" s="174"/>
+      <c r="B38" s="189"/>
+      <c r="C38" s="190"/>
+      <c r="D38" s="180"/>
+      <c r="E38" s="191"/>
+      <c r="F38" s="181"/>
       <c r="G38" s="79"/>
       <c r="H38" s="80"/>
     </row>
@@ -10221,15 +9860,15 @@
       <c r="B41" s="57" t="s">
         <v>53</v>
       </c>
-      <c r="C41" s="180" t="s">
+      <c r="C41" s="182" t="s">
         <v>50</v>
       </c>
-      <c r="D41" s="181"/>
-      <c r="E41" s="182"/>
-      <c r="F41" s="180" t="s">
+      <c r="D41" s="192"/>
+      <c r="E41" s="183"/>
+      <c r="F41" s="182" t="s">
         <v>54</v>
       </c>
-      <c r="G41" s="192"/>
+      <c r="G41" s="193"/>
       <c r="H41" s="58" t="s">
         <v>55</v>
       </c>
@@ -10237,51 +9876,51 @@
     <row r="42" spans="1:8" ht="20.25" customHeight="1">
       <c r="A42" s="81"/>
       <c r="B42" s="82"/>
-      <c r="C42" s="185"/>
-      <c r="D42" s="186"/>
-      <c r="E42" s="187"/>
-      <c r="F42" s="185"/>
-      <c r="G42" s="187"/>
+      <c r="C42" s="186"/>
+      <c r="D42" s="187"/>
+      <c r="E42" s="188"/>
+      <c r="F42" s="186"/>
+      <c r="G42" s="188"/>
       <c r="H42" s="83"/>
     </row>
     <row r="43" spans="1:8" ht="20.25" customHeight="1">
       <c r="A43" s="84"/>
       <c r="B43" s="85"/>
-      <c r="C43" s="169"/>
-      <c r="D43" s="170"/>
-      <c r="E43" s="171"/>
-      <c r="F43" s="169"/>
-      <c r="G43" s="171"/>
+      <c r="C43" s="177"/>
+      <c r="D43" s="178"/>
+      <c r="E43" s="179"/>
+      <c r="F43" s="177"/>
+      <c r="G43" s="179"/>
       <c r="H43" s="86"/>
     </row>
     <row r="44" spans="1:8" ht="20.25" customHeight="1">
       <c r="A44" s="84"/>
       <c r="B44" s="85"/>
-      <c r="C44" s="169"/>
-      <c r="D44" s="170"/>
-      <c r="E44" s="171"/>
-      <c r="F44" s="169"/>
-      <c r="G44" s="171"/>
+      <c r="C44" s="177"/>
+      <c r="D44" s="178"/>
+      <c r="E44" s="179"/>
+      <c r="F44" s="177"/>
+      <c r="G44" s="179"/>
       <c r="H44" s="86"/>
     </row>
     <row r="45" spans="1:8" ht="20.25" customHeight="1">
       <c r="A45" s="84"/>
       <c r="B45" s="85"/>
-      <c r="C45" s="169"/>
-      <c r="D45" s="170"/>
-      <c r="E45" s="171"/>
-      <c r="F45" s="169"/>
-      <c r="G45" s="171"/>
+      <c r="C45" s="177"/>
+      <c r="D45" s="178"/>
+      <c r="E45" s="179"/>
+      <c r="F45" s="177"/>
+      <c r="G45" s="179"/>
       <c r="H45" s="86"/>
     </row>
     <row r="46" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A46" s="87"/>
       <c r="B46" s="88"/>
-      <c r="C46" s="172"/>
-      <c r="D46" s="173"/>
-      <c r="E46" s="174"/>
-      <c r="F46" s="175"/>
-      <c r="G46" s="176"/>
+      <c r="C46" s="180"/>
+      <c r="D46" s="191"/>
+      <c r="E46" s="181"/>
+      <c r="F46" s="194"/>
+      <c r="G46" s="195"/>
       <c r="H46" s="89"/>
     </row>
     <row r="47" spans="1:8" ht="20.25" customHeight="1">
@@ -10313,15 +9952,15 @@
       <c r="B49" s="57" t="s">
         <v>53</v>
       </c>
-      <c r="C49" s="180" t="s">
+      <c r="C49" s="182" t="s">
         <v>50</v>
       </c>
-      <c r="D49" s="181"/>
-      <c r="E49" s="182"/>
-      <c r="F49" s="183" t="s">
+      <c r="D49" s="192"/>
+      <c r="E49" s="183"/>
+      <c r="F49" s="171" t="s">
         <v>57</v>
       </c>
-      <c r="G49" s="184"/>
+      <c r="G49" s="196"/>
       <c r="H49" s="49" t="s">
         <v>58</v>
       </c>
@@ -10331,73 +9970,83 @@
         <v>1</v>
       </c>
       <c r="B50" s="95"/>
-      <c r="C50" s="177"/>
-      <c r="D50" s="178"/>
-      <c r="E50" s="179"/>
-      <c r="F50" s="177"/>
-      <c r="G50" s="179"/>
+      <c r="C50" s="197"/>
+      <c r="D50" s="198"/>
+      <c r="E50" s="199"/>
+      <c r="F50" s="197"/>
+      <c r="G50" s="199"/>
       <c r="H50" s="96"/>
     </row>
     <row r="51" spans="1:8" ht="20.25" customHeight="1">
       <c r="A51" s="84"/>
       <c r="B51" s="85"/>
-      <c r="C51" s="169"/>
-      <c r="D51" s="170"/>
-      <c r="E51" s="171"/>
-      <c r="F51" s="169"/>
-      <c r="G51" s="171"/>
+      <c r="C51" s="177"/>
+      <c r="D51" s="178"/>
+      <c r="E51" s="179"/>
+      <c r="F51" s="177"/>
+      <c r="G51" s="179"/>
       <c r="H51" s="86"/>
     </row>
     <row r="52" spans="1:8" ht="20.25" customHeight="1">
       <c r="A52" s="84"/>
       <c r="B52" s="85"/>
-      <c r="C52" s="169"/>
-      <c r="D52" s="170"/>
-      <c r="E52" s="171"/>
-      <c r="F52" s="169"/>
-      <c r="G52" s="171"/>
+      <c r="C52" s="177"/>
+      <c r="D52" s="178"/>
+      <c r="E52" s="179"/>
+      <c r="F52" s="177"/>
+      <c r="G52" s="179"/>
       <c r="H52" s="86"/>
     </row>
     <row r="53" spans="1:8" ht="20.25" customHeight="1">
       <c r="A53" s="84"/>
       <c r="B53" s="85"/>
-      <c r="C53" s="169"/>
-      <c r="D53" s="170"/>
-      <c r="E53" s="171"/>
-      <c r="F53" s="169"/>
-      <c r="G53" s="171"/>
+      <c r="C53" s="177"/>
+      <c r="D53" s="178"/>
+      <c r="E53" s="179"/>
+      <c r="F53" s="177"/>
+      <c r="G53" s="179"/>
       <c r="H53" s="86"/>
     </row>
     <row r="54" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A54" s="87"/>
       <c r="B54" s="88"/>
-      <c r="C54" s="172"/>
-      <c r="D54" s="173"/>
-      <c r="E54" s="174"/>
-      <c r="F54" s="175"/>
-      <c r="G54" s="176"/>
+      <c r="C54" s="180"/>
+      <c r="D54" s="191"/>
+      <c r="E54" s="181"/>
+      <c r="F54" s="194"/>
+      <c r="G54" s="195"/>
       <c r="H54" s="89"/>
     </row>
   </sheetData>
   <mergeCells count="59">
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="C54:E54"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="F41:G41"/>
     <mergeCell ref="B36:C36"/>
     <mergeCell ref="D36:F36"/>
     <mergeCell ref="C25:D25"/>
@@ -10411,34 +10060,24 @@
     <mergeCell ref="D34:F34"/>
     <mergeCell ref="B35:C35"/>
     <mergeCell ref="D35:F35"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="C44:E44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="C54:E54"/>
-    <mergeCell ref="F54:G54"/>
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="C51:E51"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="C52:E52"/>
-    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="1.0236220472440944" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -10468,16 +10107,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="14.4">
-      <c r="A1" s="119" t="s">
+      <c r="A1" s="114" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="120"/>
-      <c r="C1" s="120"/>
-      <c r="D1" s="120"/>
-      <c r="E1" s="120"/>
-      <c r="F1" s="120"/>
-      <c r="G1" s="120"/>
-      <c r="H1" s="121"/>
+      <c r="B1" s="115"/>
+      <c r="C1" s="115"/>
+      <c r="D1" s="115"/>
+      <c r="E1" s="115"/>
+      <c r="F1" s="115"/>
+      <c r="G1" s="115"/>
+      <c r="H1" s="116"/>
     </row>
     <row r="2" spans="1:8" ht="20.25" customHeight="1">
       <c r="A2" s="40" t="s">
@@ -10552,42 +10191,42 @@
         <v>38</v>
       </c>
       <c r="B6" s="45"/>
-      <c r="C6" s="197" t="s">
+      <c r="C6" s="168" t="s">
         <v>186</v>
       </c>
-      <c r="D6" s="198"/>
-      <c r="E6" s="198"/>
-      <c r="F6" s="198"/>
-      <c r="G6" s="198"/>
-      <c r="H6" s="199"/>
+      <c r="D6" s="169"/>
+      <c r="E6" s="169"/>
+      <c r="F6" s="169"/>
+      <c r="G6" s="169"/>
+      <c r="H6" s="170"/>
     </row>
     <row r="7" spans="1:8" ht="20.25" customHeight="1">
       <c r="A7" s="40" t="s">
         <v>31</v>
       </c>
       <c r="B7" s="45"/>
-      <c r="C7" s="197" t="s">
+      <c r="C7" s="168" t="s">
         <v>188</v>
       </c>
-      <c r="D7" s="198"/>
-      <c r="E7" s="198"/>
-      <c r="F7" s="198"/>
-      <c r="G7" s="198"/>
-      <c r="H7" s="199"/>
+      <c r="D7" s="169"/>
+      <c r="E7" s="169"/>
+      <c r="F7" s="169"/>
+      <c r="G7" s="169"/>
+      <c r="H7" s="170"/>
     </row>
     <row r="8" spans="1:8" ht="20.25" customHeight="1">
       <c r="A8" s="40" t="s">
         <v>39</v>
       </c>
       <c r="B8" s="45"/>
-      <c r="C8" s="197" t="s">
+      <c r="C8" s="168" t="s">
         <v>187</v>
       </c>
-      <c r="D8" s="198"/>
-      <c r="E8" s="198"/>
-      <c r="F8" s="198"/>
-      <c r="G8" s="198"/>
-      <c r="H8" s="199"/>
+      <c r="D8" s="169"/>
+      <c r="E8" s="169"/>
+      <c r="F8" s="169"/>
+      <c r="G8" s="169"/>
+      <c r="H8" s="170"/>
     </row>
     <row r="9" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A9" s="46" t="s">
@@ -10608,10 +10247,10 @@
       <c r="B10" s="48" t="s">
         <v>42</v>
       </c>
-      <c r="C10" s="183" t="s">
+      <c r="C10" s="171" t="s">
         <v>43</v>
       </c>
-      <c r="D10" s="200"/>
+      <c r="D10" s="172"/>
       <c r="E10" s="48" t="s">
         <v>44</v>
       </c>
@@ -10632,10 +10271,10 @@
       <c r="B11" s="62" t="s">
         <v>197</v>
       </c>
-      <c r="C11" s="201" t="s">
+      <c r="C11" s="173" t="s">
         <v>109</v>
       </c>
-      <c r="D11" s="202"/>
+      <c r="D11" s="174"/>
       <c r="E11" s="63" t="s">
         <v>207</v>
       </c>
@@ -10652,10 +10291,10 @@
       <c r="B12" s="67" t="s">
         <v>198</v>
       </c>
-      <c r="C12" s="193" t="s">
+      <c r="C12" s="166" t="s">
         <v>110</v>
       </c>
-      <c r="D12" s="194"/>
+      <c r="D12" s="167"/>
       <c r="E12" s="63" t="s">
         <v>207</v>
       </c>
@@ -10672,10 +10311,10 @@
       <c r="B13" s="67" t="s">
         <v>199</v>
       </c>
-      <c r="C13" s="193" t="s">
+      <c r="C13" s="166" t="s">
         <v>189</v>
       </c>
-      <c r="D13" s="194"/>
+      <c r="D13" s="167"/>
       <c r="E13" s="63" t="s">
         <v>207</v>
       </c>
@@ -10692,10 +10331,10 @@
       <c r="B14" s="72" t="s">
         <v>200</v>
       </c>
-      <c r="C14" s="193" t="s">
+      <c r="C14" s="166" t="s">
         <v>190</v>
       </c>
-      <c r="D14" s="194"/>
+      <c r="D14" s="167"/>
       <c r="E14" s="63" t="s">
         <v>208</v>
       </c>
@@ -10712,10 +10351,10 @@
       <c r="B15" s="72" t="s">
         <v>201</v>
       </c>
-      <c r="C15" s="193" t="s">
+      <c r="C15" s="166" t="s">
         <v>191</v>
       </c>
-      <c r="D15" s="194"/>
+      <c r="D15" s="167"/>
       <c r="E15" s="63" t="s">
         <v>209</v>
       </c>
@@ -10732,10 +10371,10 @@
       <c r="B16" s="72" t="s">
         <v>203</v>
       </c>
-      <c r="C16" s="193" t="s">
+      <c r="C16" s="166" t="s">
         <v>192</v>
       </c>
-      <c r="D16" s="194"/>
+      <c r="D16" s="167"/>
       <c r="E16" s="63" t="s">
         <v>209</v>
       </c>
@@ -10752,10 +10391,10 @@
       <c r="B17" s="72" t="s">
         <v>202</v>
       </c>
-      <c r="C17" s="193" t="s">
+      <c r="C17" s="166" t="s">
         <v>193</v>
       </c>
-      <c r="D17" s="194"/>
+      <c r="D17" s="167"/>
       <c r="E17" s="63" t="s">
         <v>209</v>
       </c>
@@ -10772,10 +10411,10 @@
       <c r="B18" s="72" t="s">
         <v>204</v>
       </c>
-      <c r="C18" s="193" t="s">
+      <c r="C18" s="166" t="s">
         <v>194</v>
       </c>
-      <c r="D18" s="194"/>
+      <c r="D18" s="167"/>
       <c r="E18" s="63" t="s">
         <v>209</v>
       </c>
@@ -10792,10 +10431,10 @@
       <c r="B19" s="72" t="s">
         <v>205</v>
       </c>
-      <c r="C19" s="193" t="s">
+      <c r="C19" s="166" t="s">
         <v>195</v>
       </c>
-      <c r="D19" s="194"/>
+      <c r="D19" s="167"/>
       <c r="E19" s="63" t="s">
         <v>209</v>
       </c>
@@ -10812,10 +10451,10 @@
       <c r="B20" s="72" t="s">
         <v>206</v>
       </c>
-      <c r="C20" s="193" t="s">
+      <c r="C20" s="166" t="s">
         <v>196</v>
       </c>
-      <c r="D20" s="194"/>
+      <c r="D20" s="167"/>
       <c r="E20" s="63" t="s">
         <v>209</v>
       </c>
@@ -10828,8 +10467,8 @@
     <row r="21" spans="1:8" ht="20.25" customHeight="1">
       <c r="A21" s="71"/>
       <c r="B21" s="72"/>
-      <c r="C21" s="193"/>
-      <c r="D21" s="194"/>
+      <c r="C21" s="166"/>
+      <c r="D21" s="167"/>
       <c r="E21" s="73"/>
       <c r="F21" s="73"/>
       <c r="G21" s="74"/>
@@ -10838,8 +10477,8 @@
     <row r="22" spans="1:8" ht="20.25" customHeight="1">
       <c r="A22" s="71"/>
       <c r="B22" s="72"/>
-      <c r="C22" s="193"/>
-      <c r="D22" s="194"/>
+      <c r="C22" s="166"/>
+      <c r="D22" s="167"/>
       <c r="E22" s="73"/>
       <c r="F22" s="73"/>
       <c r="G22" s="74"/>
@@ -10848,8 +10487,8 @@
     <row r="23" spans="1:8" ht="20.25" customHeight="1">
       <c r="A23" s="71"/>
       <c r="B23" s="72"/>
-      <c r="C23" s="193"/>
-      <c r="D23" s="194"/>
+      <c r="C23" s="166"/>
+      <c r="D23" s="167"/>
       <c r="E23" s="73"/>
       <c r="F23" s="73"/>
       <c r="G23" s="74"/>
@@ -10858,8 +10497,8 @@
     <row r="24" spans="1:8" ht="20.25" customHeight="1">
       <c r="A24" s="71"/>
       <c r="B24" s="72"/>
-      <c r="C24" s="193"/>
-      <c r="D24" s="194"/>
+      <c r="C24" s="166"/>
+      <c r="D24" s="167"/>
       <c r="E24" s="73"/>
       <c r="F24" s="73"/>
       <c r="G24" s="74"/>
@@ -10868,8 +10507,8 @@
     <row r="25" spans="1:8" ht="20.25" customHeight="1">
       <c r="A25" s="71"/>
       <c r="B25" s="72"/>
-      <c r="C25" s="193"/>
-      <c r="D25" s="194"/>
+      <c r="C25" s="166"/>
+      <c r="D25" s="167"/>
       <c r="E25" s="73"/>
       <c r="F25" s="73"/>
       <c r="G25" s="74"/>
@@ -10878,8 +10517,8 @@
     <row r="26" spans="1:8" ht="20.25" customHeight="1">
       <c r="A26" s="71"/>
       <c r="B26" s="72"/>
-      <c r="C26" s="193"/>
-      <c r="D26" s="194"/>
+      <c r="C26" s="166"/>
+      <c r="D26" s="167"/>
       <c r="E26" s="73"/>
       <c r="F26" s="73"/>
       <c r="G26" s="74"/>
@@ -10888,8 +10527,8 @@
     <row r="27" spans="1:8" ht="20.25" customHeight="1">
       <c r="A27" s="71"/>
       <c r="B27" s="72"/>
-      <c r="C27" s="193"/>
-      <c r="D27" s="194"/>
+      <c r="C27" s="166"/>
+      <c r="D27" s="167"/>
       <c r="E27" s="73"/>
       <c r="F27" s="73"/>
       <c r="G27" s="74"/>
@@ -10898,8 +10537,8 @@
     <row r="28" spans="1:8" ht="20.25" customHeight="1">
       <c r="A28" s="71"/>
       <c r="B28" s="72"/>
-      <c r="C28" s="193"/>
-      <c r="D28" s="194"/>
+      <c r="C28" s="166"/>
+      <c r="D28" s="167"/>
       <c r="E28" s="73"/>
       <c r="F28" s="73"/>
       <c r="G28" s="74"/>
@@ -10908,8 +10547,8 @@
     <row r="29" spans="1:8" ht="20.25" customHeight="1">
       <c r="A29" s="71"/>
       <c r="B29" s="72"/>
-      <c r="C29" s="193"/>
-      <c r="D29" s="194"/>
+      <c r="C29" s="166"/>
+      <c r="D29" s="167"/>
       <c r="E29" s="73"/>
       <c r="F29" s="73"/>
       <c r="G29" s="74"/>
@@ -10918,8 +10557,8 @@
     <row r="30" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A30" s="76"/>
       <c r="B30" s="77"/>
-      <c r="C30" s="172"/>
-      <c r="D30" s="174"/>
+      <c r="C30" s="180"/>
+      <c r="D30" s="181"/>
       <c r="E30" s="78"/>
       <c r="F30" s="78"/>
       <c r="G30" s="79"/>
@@ -10951,10 +10590,10 @@
       <c r="A33" s="53" t="s">
         <v>41</v>
       </c>
-      <c r="B33" s="180" t="s">
+      <c r="B33" s="182" t="s">
         <v>49</v>
       </c>
-      <c r="C33" s="182"/>
+      <c r="C33" s="183"/>
       <c r="D33" s="54" t="s">
         <v>50</v>
       </c>
@@ -10969,51 +10608,51 @@
     </row>
     <row r="34" spans="1:8" ht="20.25" customHeight="1">
       <c r="A34" s="61"/>
-      <c r="B34" s="195"/>
-      <c r="C34" s="196"/>
-      <c r="D34" s="185"/>
-      <c r="E34" s="186"/>
-      <c r="F34" s="187"/>
+      <c r="B34" s="184"/>
+      <c r="C34" s="185"/>
+      <c r="D34" s="186"/>
+      <c r="E34" s="187"/>
+      <c r="F34" s="188"/>
       <c r="G34" s="64"/>
       <c r="H34" s="65"/>
     </row>
     <row r="35" spans="1:8" ht="20.25" customHeight="1">
       <c r="A35" s="66"/>
-      <c r="B35" s="188"/>
-      <c r="C35" s="189"/>
-      <c r="D35" s="169"/>
-      <c r="E35" s="170"/>
-      <c r="F35" s="171"/>
+      <c r="B35" s="175"/>
+      <c r="C35" s="176"/>
+      <c r="D35" s="177"/>
+      <c r="E35" s="178"/>
+      <c r="F35" s="179"/>
       <c r="G35" s="69"/>
       <c r="H35" s="70"/>
     </row>
     <row r="36" spans="1:8" ht="20.25" customHeight="1">
       <c r="A36" s="66"/>
-      <c r="B36" s="188"/>
-      <c r="C36" s="189"/>
-      <c r="D36" s="169"/>
-      <c r="E36" s="170"/>
-      <c r="F36" s="171"/>
+      <c r="B36" s="175"/>
+      <c r="C36" s="176"/>
+      <c r="D36" s="177"/>
+      <c r="E36" s="178"/>
+      <c r="F36" s="179"/>
       <c r="G36" s="69"/>
       <c r="H36" s="70"/>
     </row>
     <row r="37" spans="1:8" ht="20.25" customHeight="1">
       <c r="A37" s="66"/>
-      <c r="B37" s="188"/>
-      <c r="C37" s="189"/>
-      <c r="D37" s="169"/>
-      <c r="E37" s="170"/>
-      <c r="F37" s="171"/>
+      <c r="B37" s="175"/>
+      <c r="C37" s="176"/>
+      <c r="D37" s="177"/>
+      <c r="E37" s="178"/>
+      <c r="F37" s="179"/>
       <c r="G37" s="69"/>
       <c r="H37" s="70"/>
     </row>
     <row r="38" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A38" s="76"/>
-      <c r="B38" s="190"/>
-      <c r="C38" s="191"/>
-      <c r="D38" s="172"/>
-      <c r="E38" s="173"/>
-      <c r="F38" s="174"/>
+      <c r="B38" s="189"/>
+      <c r="C38" s="190"/>
+      <c r="D38" s="180"/>
+      <c r="E38" s="191"/>
+      <c r="F38" s="181"/>
       <c r="G38" s="79"/>
       <c r="H38" s="80"/>
     </row>
@@ -11046,15 +10685,15 @@
       <c r="B41" s="57" t="s">
         <v>53</v>
       </c>
-      <c r="C41" s="180" t="s">
+      <c r="C41" s="182" t="s">
         <v>50</v>
       </c>
-      <c r="D41" s="181"/>
-      <c r="E41" s="182"/>
-      <c r="F41" s="180" t="s">
+      <c r="D41" s="192"/>
+      <c r="E41" s="183"/>
+      <c r="F41" s="182" t="s">
         <v>54</v>
       </c>
-      <c r="G41" s="192"/>
+      <c r="G41" s="193"/>
       <c r="H41" s="58" t="s">
         <v>55</v>
       </c>
@@ -11062,51 +10701,51 @@
     <row r="42" spans="1:8" ht="20.25" customHeight="1">
       <c r="A42" s="81"/>
       <c r="B42" s="82"/>
-      <c r="C42" s="185"/>
-      <c r="D42" s="186"/>
-      <c r="E42" s="187"/>
-      <c r="F42" s="185"/>
-      <c r="G42" s="187"/>
+      <c r="C42" s="186"/>
+      <c r="D42" s="187"/>
+      <c r="E42" s="188"/>
+      <c r="F42" s="186"/>
+      <c r="G42" s="188"/>
       <c r="H42" s="83"/>
     </row>
     <row r="43" spans="1:8" ht="20.25" customHeight="1">
       <c r="A43" s="84"/>
       <c r="B43" s="85"/>
-      <c r="C43" s="169"/>
-      <c r="D43" s="170"/>
-      <c r="E43" s="171"/>
-      <c r="F43" s="169"/>
-      <c r="G43" s="171"/>
+      <c r="C43" s="177"/>
+      <c r="D43" s="178"/>
+      <c r="E43" s="179"/>
+      <c r="F43" s="177"/>
+      <c r="G43" s="179"/>
       <c r="H43" s="86"/>
     </row>
     <row r="44" spans="1:8" ht="20.25" customHeight="1">
       <c r="A44" s="84"/>
       <c r="B44" s="85"/>
-      <c r="C44" s="169"/>
-      <c r="D44" s="170"/>
-      <c r="E44" s="171"/>
-      <c r="F44" s="169"/>
-      <c r="G44" s="171"/>
+      <c r="C44" s="177"/>
+      <c r="D44" s="178"/>
+      <c r="E44" s="179"/>
+      <c r="F44" s="177"/>
+      <c r="G44" s="179"/>
       <c r="H44" s="86"/>
     </row>
     <row r="45" spans="1:8" ht="20.25" customHeight="1">
       <c r="A45" s="84"/>
       <c r="B45" s="85"/>
-      <c r="C45" s="169"/>
-      <c r="D45" s="170"/>
-      <c r="E45" s="171"/>
-      <c r="F45" s="169"/>
-      <c r="G45" s="171"/>
+      <c r="C45" s="177"/>
+      <c r="D45" s="178"/>
+      <c r="E45" s="179"/>
+      <c r="F45" s="177"/>
+      <c r="G45" s="179"/>
       <c r="H45" s="86"/>
     </row>
     <row r="46" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A46" s="87"/>
       <c r="B46" s="88"/>
-      <c r="C46" s="172"/>
-      <c r="D46" s="173"/>
-      <c r="E46" s="174"/>
-      <c r="F46" s="175"/>
-      <c r="G46" s="176"/>
+      <c r="C46" s="180"/>
+      <c r="D46" s="191"/>
+      <c r="E46" s="181"/>
+      <c r="F46" s="194"/>
+      <c r="G46" s="195"/>
       <c r="H46" s="89"/>
     </row>
     <row r="47" spans="1:8" ht="20.25" customHeight="1">
@@ -11138,15 +10777,15 @@
       <c r="B49" s="57" t="s">
         <v>53</v>
       </c>
-      <c r="C49" s="180" t="s">
+      <c r="C49" s="182" t="s">
         <v>50</v>
       </c>
-      <c r="D49" s="181"/>
-      <c r="E49" s="182"/>
-      <c r="F49" s="183" t="s">
+      <c r="D49" s="192"/>
+      <c r="E49" s="183"/>
+      <c r="F49" s="171" t="s">
         <v>57</v>
       </c>
-      <c r="G49" s="184"/>
+      <c r="G49" s="196"/>
       <c r="H49" s="49" t="s">
         <v>58</v>
       </c>
@@ -11156,73 +10795,83 @@
         <v>1</v>
       </c>
       <c r="B50" s="95"/>
-      <c r="C50" s="177"/>
-      <c r="D50" s="178"/>
-      <c r="E50" s="179"/>
-      <c r="F50" s="177"/>
-      <c r="G50" s="179"/>
+      <c r="C50" s="197"/>
+      <c r="D50" s="198"/>
+      <c r="E50" s="199"/>
+      <c r="F50" s="197"/>
+      <c r="G50" s="199"/>
       <c r="H50" s="96"/>
     </row>
     <row r="51" spans="1:8" ht="20.25" customHeight="1">
       <c r="A51" s="84"/>
       <c r="B51" s="85"/>
-      <c r="C51" s="169"/>
-      <c r="D51" s="170"/>
-      <c r="E51" s="171"/>
-      <c r="F51" s="169"/>
-      <c r="G51" s="171"/>
+      <c r="C51" s="177"/>
+      <c r="D51" s="178"/>
+      <c r="E51" s="179"/>
+      <c r="F51" s="177"/>
+      <c r="G51" s="179"/>
       <c r="H51" s="86"/>
     </row>
     <row r="52" spans="1:8" ht="20.25" customHeight="1">
       <c r="A52" s="84"/>
       <c r="B52" s="85"/>
-      <c r="C52" s="169"/>
-      <c r="D52" s="170"/>
-      <c r="E52" s="171"/>
-      <c r="F52" s="169"/>
-      <c r="G52" s="171"/>
+      <c r="C52" s="177"/>
+      <c r="D52" s="178"/>
+      <c r="E52" s="179"/>
+      <c r="F52" s="177"/>
+      <c r="G52" s="179"/>
       <c r="H52" s="86"/>
     </row>
     <row r="53" spans="1:8" ht="20.25" customHeight="1">
       <c r="A53" s="84"/>
       <c r="B53" s="85"/>
-      <c r="C53" s="169"/>
-      <c r="D53" s="170"/>
-      <c r="E53" s="171"/>
-      <c r="F53" s="169"/>
-      <c r="G53" s="171"/>
+      <c r="C53" s="177"/>
+      <c r="D53" s="178"/>
+      <c r="E53" s="179"/>
+      <c r="F53" s="177"/>
+      <c r="G53" s="179"/>
       <c r="H53" s="86"/>
     </row>
     <row r="54" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A54" s="87"/>
       <c r="B54" s="88"/>
-      <c r="C54" s="172"/>
-      <c r="D54" s="173"/>
-      <c r="E54" s="174"/>
-      <c r="F54" s="175"/>
-      <c r="G54" s="176"/>
+      <c r="C54" s="180"/>
+      <c r="D54" s="191"/>
+      <c r="E54" s="181"/>
+      <c r="F54" s="194"/>
+      <c r="G54" s="195"/>
       <c r="H54" s="89"/>
     </row>
   </sheetData>
   <mergeCells count="59">
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="C54:E54"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="F41:G41"/>
     <mergeCell ref="B36:C36"/>
     <mergeCell ref="D36:F36"/>
     <mergeCell ref="C25:D25"/>
@@ -11236,34 +10885,24 @@
     <mergeCell ref="D34:F34"/>
     <mergeCell ref="B35:C35"/>
     <mergeCell ref="D35:F35"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="C44:E44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="C54:E54"/>
-    <mergeCell ref="F54:G54"/>
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="C51:E51"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="C52:E52"/>
-    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="1.0236220472440944" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -11293,16 +10932,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="14.4">
-      <c r="A1" s="119" t="s">
+      <c r="A1" s="114" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="120"/>
-      <c r="C1" s="120"/>
-      <c r="D1" s="120"/>
-      <c r="E1" s="120"/>
-      <c r="F1" s="120"/>
-      <c r="G1" s="120"/>
-      <c r="H1" s="121"/>
+      <c r="B1" s="115"/>
+      <c r="C1" s="115"/>
+      <c r="D1" s="115"/>
+      <c r="E1" s="115"/>
+      <c r="F1" s="115"/>
+      <c r="G1" s="115"/>
+      <c r="H1" s="116"/>
     </row>
     <row r="2" spans="1:8" ht="20.25" customHeight="1">
       <c r="A2" s="40" t="s">
@@ -11377,42 +11016,42 @@
         <v>38</v>
       </c>
       <c r="B6" s="45"/>
-      <c r="C6" s="197" t="s">
+      <c r="C6" s="168" t="s">
         <v>105</v>
       </c>
-      <c r="D6" s="198"/>
-      <c r="E6" s="198"/>
-      <c r="F6" s="198"/>
-      <c r="G6" s="198"/>
-      <c r="H6" s="199"/>
+      <c r="D6" s="169"/>
+      <c r="E6" s="169"/>
+      <c r="F6" s="169"/>
+      <c r="G6" s="169"/>
+      <c r="H6" s="170"/>
     </row>
     <row r="7" spans="1:8" ht="20.25" customHeight="1">
       <c r="A7" s="40" t="s">
         <v>31</v>
       </c>
       <c r="B7" s="45"/>
-      <c r="C7" s="197" t="s">
+      <c r="C7" s="168" t="s">
         <v>107</v>
       </c>
-      <c r="D7" s="198"/>
-      <c r="E7" s="198"/>
-      <c r="F7" s="198"/>
-      <c r="G7" s="198"/>
-      <c r="H7" s="199"/>
+      <c r="D7" s="169"/>
+      <c r="E7" s="169"/>
+      <c r="F7" s="169"/>
+      <c r="G7" s="169"/>
+      <c r="H7" s="170"/>
     </row>
     <row r="8" spans="1:8" ht="20.25" customHeight="1">
       <c r="A8" s="40" t="s">
         <v>39</v>
       </c>
       <c r="B8" s="45"/>
-      <c r="C8" s="197" t="s">
+      <c r="C8" s="168" t="s">
         <v>106</v>
       </c>
-      <c r="D8" s="198"/>
-      <c r="E8" s="198"/>
-      <c r="F8" s="198"/>
-      <c r="G8" s="198"/>
-      <c r="H8" s="199"/>
+      <c r="D8" s="169"/>
+      <c r="E8" s="169"/>
+      <c r="F8" s="169"/>
+      <c r="G8" s="169"/>
+      <c r="H8" s="170"/>
     </row>
     <row r="9" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A9" s="46" t="s">
@@ -11433,10 +11072,10 @@
       <c r="B10" s="48" t="s">
         <v>42</v>
       </c>
-      <c r="C10" s="183" t="s">
+      <c r="C10" s="171" t="s">
         <v>43</v>
       </c>
-      <c r="D10" s="200"/>
+      <c r="D10" s="172"/>
       <c r="E10" s="48" t="s">
         <v>44</v>
       </c>
@@ -11457,10 +11096,10 @@
       <c r="B11" s="62" t="s">
         <v>113</v>
       </c>
-      <c r="C11" s="201" t="s">
+      <c r="C11" s="173" t="s">
         <v>108</v>
       </c>
-      <c r="D11" s="202"/>
+      <c r="D11" s="174"/>
       <c r="E11" s="63" t="s">
         <v>115</v>
       </c>
@@ -11479,10 +11118,10 @@
       <c r="B12" s="67" t="s">
         <v>112</v>
       </c>
-      <c r="C12" s="193" t="s">
+      <c r="C12" s="166" t="s">
         <v>71</v>
       </c>
-      <c r="D12" s="194"/>
+      <c r="D12" s="167"/>
       <c r="E12" s="63" t="s">
         <v>115</v>
       </c>
@@ -11499,10 +11138,10 @@
       <c r="B13" s="67" t="s">
         <v>111</v>
       </c>
-      <c r="C13" s="193" t="s">
+      <c r="C13" s="166" t="s">
         <v>83</v>
       </c>
-      <c r="D13" s="194"/>
+      <c r="D13" s="167"/>
       <c r="E13" s="63" t="s">
         <v>115</v>
       </c>
@@ -11515,8 +11154,8 @@
     <row r="14" spans="1:8" ht="20.25" customHeight="1">
       <c r="A14" s="71"/>
       <c r="B14" s="72"/>
-      <c r="C14" s="193"/>
-      <c r="D14" s="194"/>
+      <c r="C14" s="166"/>
+      <c r="D14" s="167"/>
       <c r="E14" s="73"/>
       <c r="F14" s="73"/>
       <c r="G14" s="74"/>
@@ -11525,8 +11164,8 @@
     <row r="15" spans="1:8" ht="20.25" customHeight="1">
       <c r="A15" s="71"/>
       <c r="B15" s="72"/>
-      <c r="C15" s="193"/>
-      <c r="D15" s="194"/>
+      <c r="C15" s="166"/>
+      <c r="D15" s="167"/>
       <c r="E15" s="73"/>
       <c r="F15" s="73"/>
       <c r="G15" s="74"/>
@@ -11535,8 +11174,8 @@
     <row r="16" spans="1:8" ht="20.25" customHeight="1">
       <c r="A16" s="71"/>
       <c r="B16" s="72"/>
-      <c r="C16" s="193"/>
-      <c r="D16" s="194"/>
+      <c r="C16" s="166"/>
+      <c r="D16" s="167"/>
       <c r="E16" s="73"/>
       <c r="F16" s="73"/>
       <c r="G16" s="74"/>
@@ -11545,8 +11184,8 @@
     <row r="17" spans="1:8" ht="20.25" customHeight="1">
       <c r="A17" s="71"/>
       <c r="B17" s="72"/>
-      <c r="C17" s="193"/>
-      <c r="D17" s="194"/>
+      <c r="C17" s="166"/>
+      <c r="D17" s="167"/>
       <c r="E17" s="73"/>
       <c r="F17" s="73"/>
       <c r="G17" s="74"/>
@@ -11555,8 +11194,8 @@
     <row r="18" spans="1:8" ht="20.25" customHeight="1">
       <c r="A18" s="71"/>
       <c r="B18" s="72"/>
-      <c r="C18" s="193"/>
-      <c r="D18" s="194"/>
+      <c r="C18" s="166"/>
+      <c r="D18" s="167"/>
       <c r="E18" s="73"/>
       <c r="F18" s="73"/>
       <c r="G18" s="74"/>
@@ -11565,8 +11204,8 @@
     <row r="19" spans="1:8" ht="20.25" customHeight="1">
       <c r="A19" s="71"/>
       <c r="B19" s="72"/>
-      <c r="C19" s="193"/>
-      <c r="D19" s="194"/>
+      <c r="C19" s="166"/>
+      <c r="D19" s="167"/>
       <c r="E19" s="73"/>
       <c r="F19" s="73"/>
       <c r="G19" s="74"/>
@@ -11575,8 +11214,8 @@
     <row r="20" spans="1:8" ht="20.25" customHeight="1">
       <c r="A20" s="71"/>
       <c r="B20" s="72"/>
-      <c r="C20" s="193"/>
-      <c r="D20" s="194"/>
+      <c r="C20" s="166"/>
+      <c r="D20" s="167"/>
       <c r="E20" s="73"/>
       <c r="F20" s="73"/>
       <c r="G20" s="74"/>
@@ -11585,8 +11224,8 @@
     <row r="21" spans="1:8" ht="20.25" customHeight="1">
       <c r="A21" s="71"/>
       <c r="B21" s="72"/>
-      <c r="C21" s="193"/>
-      <c r="D21" s="194"/>
+      <c r="C21" s="166"/>
+      <c r="D21" s="167"/>
       <c r="E21" s="73"/>
       <c r="F21" s="73"/>
       <c r="G21" s="74"/>
@@ -11595,8 +11234,8 @@
     <row r="22" spans="1:8" ht="20.25" customHeight="1">
       <c r="A22" s="71"/>
       <c r="B22" s="72"/>
-      <c r="C22" s="193"/>
-      <c r="D22" s="194"/>
+      <c r="C22" s="166"/>
+      <c r="D22" s="167"/>
       <c r="E22" s="73"/>
       <c r="F22" s="73"/>
       <c r="G22" s="74"/>
@@ -11605,8 +11244,8 @@
     <row r="23" spans="1:8" ht="20.25" customHeight="1">
       <c r="A23" s="71"/>
       <c r="B23" s="72"/>
-      <c r="C23" s="193"/>
-      <c r="D23" s="194"/>
+      <c r="C23" s="166"/>
+      <c r="D23" s="167"/>
       <c r="E23" s="73"/>
       <c r="F23" s="73"/>
       <c r="G23" s="74"/>
@@ -11615,8 +11254,8 @@
     <row r="24" spans="1:8" ht="20.25" customHeight="1">
       <c r="A24" s="71"/>
       <c r="B24" s="72"/>
-      <c r="C24" s="193"/>
-      <c r="D24" s="194"/>
+      <c r="C24" s="166"/>
+      <c r="D24" s="167"/>
       <c r="E24" s="73"/>
       <c r="F24" s="73"/>
       <c r="G24" s="74"/>
@@ -11625,8 +11264,8 @@
     <row r="25" spans="1:8" ht="20.25" customHeight="1">
       <c r="A25" s="71"/>
       <c r="B25" s="72"/>
-      <c r="C25" s="193"/>
-      <c r="D25" s="194"/>
+      <c r="C25" s="166"/>
+      <c r="D25" s="167"/>
       <c r="E25" s="73"/>
       <c r="F25" s="73"/>
       <c r="G25" s="74"/>
@@ -11635,8 +11274,8 @@
     <row r="26" spans="1:8" ht="20.25" customHeight="1">
       <c r="A26" s="71"/>
       <c r="B26" s="72"/>
-      <c r="C26" s="193"/>
-      <c r="D26" s="194"/>
+      <c r="C26" s="166"/>
+      <c r="D26" s="167"/>
       <c r="E26" s="73"/>
       <c r="F26" s="73"/>
       <c r="G26" s="74"/>
@@ -11645,8 +11284,8 @@
     <row r="27" spans="1:8" ht="20.25" customHeight="1">
       <c r="A27" s="71"/>
       <c r="B27" s="72"/>
-      <c r="C27" s="193"/>
-      <c r="D27" s="194"/>
+      <c r="C27" s="166"/>
+      <c r="D27" s="167"/>
       <c r="E27" s="73"/>
       <c r="F27" s="73"/>
       <c r="G27" s="74"/>
@@ -11655,8 +11294,8 @@
     <row r="28" spans="1:8" ht="20.25" customHeight="1">
       <c r="A28" s="71"/>
       <c r="B28" s="72"/>
-      <c r="C28" s="193"/>
-      <c r="D28" s="194"/>
+      <c r="C28" s="166"/>
+      <c r="D28" s="167"/>
       <c r="E28" s="73"/>
       <c r="F28" s="73"/>
       <c r="G28" s="74"/>
@@ -11665,8 +11304,8 @@
     <row r="29" spans="1:8" ht="20.25" customHeight="1">
       <c r="A29" s="71"/>
       <c r="B29" s="72"/>
-      <c r="C29" s="193"/>
-      <c r="D29" s="194"/>
+      <c r="C29" s="166"/>
+      <c r="D29" s="167"/>
       <c r="E29" s="73"/>
       <c r="F29" s="73"/>
       <c r="G29" s="74"/>
@@ -11675,8 +11314,8 @@
     <row r="30" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A30" s="76"/>
       <c r="B30" s="77"/>
-      <c r="C30" s="172"/>
-      <c r="D30" s="174"/>
+      <c r="C30" s="180"/>
+      <c r="D30" s="181"/>
       <c r="E30" s="78"/>
       <c r="F30" s="78"/>
       <c r="G30" s="79"/>
@@ -11708,10 +11347,10 @@
       <c r="A33" s="53" t="s">
         <v>41</v>
       </c>
-      <c r="B33" s="180" t="s">
+      <c r="B33" s="182" t="s">
         <v>49</v>
       </c>
-      <c r="C33" s="182"/>
+      <c r="C33" s="183"/>
       <c r="D33" s="54" t="s">
         <v>50</v>
       </c>
@@ -11726,51 +11365,51 @@
     </row>
     <row r="34" spans="1:8" ht="20.25" customHeight="1">
       <c r="A34" s="61"/>
-      <c r="B34" s="195"/>
-      <c r="C34" s="196"/>
-      <c r="D34" s="185"/>
-      <c r="E34" s="186"/>
-      <c r="F34" s="187"/>
+      <c r="B34" s="184"/>
+      <c r="C34" s="185"/>
+      <c r="D34" s="186"/>
+      <c r="E34" s="187"/>
+      <c r="F34" s="188"/>
       <c r="G34" s="64"/>
       <c r="H34" s="65"/>
     </row>
     <row r="35" spans="1:8" ht="20.25" customHeight="1">
       <c r="A35" s="66"/>
-      <c r="B35" s="188"/>
-      <c r="C35" s="189"/>
-      <c r="D35" s="169"/>
-      <c r="E35" s="170"/>
-      <c r="F35" s="171"/>
+      <c r="B35" s="175"/>
+      <c r="C35" s="176"/>
+      <c r="D35" s="177"/>
+      <c r="E35" s="178"/>
+      <c r="F35" s="179"/>
       <c r="G35" s="69"/>
       <c r="H35" s="70"/>
     </row>
     <row r="36" spans="1:8" ht="20.25" customHeight="1">
       <c r="A36" s="66"/>
-      <c r="B36" s="188"/>
-      <c r="C36" s="189"/>
-      <c r="D36" s="169"/>
-      <c r="E36" s="170"/>
-      <c r="F36" s="171"/>
+      <c r="B36" s="175"/>
+      <c r="C36" s="176"/>
+      <c r="D36" s="177"/>
+      <c r="E36" s="178"/>
+      <c r="F36" s="179"/>
       <c r="G36" s="69"/>
       <c r="H36" s="70"/>
     </row>
     <row r="37" spans="1:8" ht="20.25" customHeight="1">
       <c r="A37" s="66"/>
-      <c r="B37" s="188"/>
-      <c r="C37" s="189"/>
-      <c r="D37" s="169"/>
-      <c r="E37" s="170"/>
-      <c r="F37" s="171"/>
+      <c r="B37" s="175"/>
+      <c r="C37" s="176"/>
+      <c r="D37" s="177"/>
+      <c r="E37" s="178"/>
+      <c r="F37" s="179"/>
       <c r="G37" s="69"/>
       <c r="H37" s="70"/>
     </row>
     <row r="38" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A38" s="76"/>
-      <c r="B38" s="190"/>
-      <c r="C38" s="191"/>
-      <c r="D38" s="172"/>
-      <c r="E38" s="173"/>
-      <c r="F38" s="174"/>
+      <c r="B38" s="189"/>
+      <c r="C38" s="190"/>
+      <c r="D38" s="180"/>
+      <c r="E38" s="191"/>
+      <c r="F38" s="181"/>
       <c r="G38" s="79"/>
       <c r="H38" s="80"/>
     </row>
@@ -11803,15 +11442,15 @@
       <c r="B41" s="57" t="s">
         <v>53</v>
       </c>
-      <c r="C41" s="180" t="s">
+      <c r="C41" s="182" t="s">
         <v>50</v>
       </c>
-      <c r="D41" s="181"/>
-      <c r="E41" s="182"/>
-      <c r="F41" s="180" t="s">
+      <c r="D41" s="192"/>
+      <c r="E41" s="183"/>
+      <c r="F41" s="182" t="s">
         <v>54</v>
       </c>
-      <c r="G41" s="192"/>
+      <c r="G41" s="193"/>
       <c r="H41" s="58" t="s">
         <v>55</v>
       </c>
@@ -11819,51 +11458,51 @@
     <row r="42" spans="1:8" ht="20.25" customHeight="1">
       <c r="A42" s="81"/>
       <c r="B42" s="82"/>
-      <c r="C42" s="185"/>
-      <c r="D42" s="186"/>
-      <c r="E42" s="187"/>
-      <c r="F42" s="185"/>
-      <c r="G42" s="187"/>
+      <c r="C42" s="186"/>
+      <c r="D42" s="187"/>
+      <c r="E42" s="188"/>
+      <c r="F42" s="186"/>
+      <c r="G42" s="188"/>
       <c r="H42" s="83"/>
     </row>
     <row r="43" spans="1:8" ht="20.25" customHeight="1">
       <c r="A43" s="84"/>
       <c r="B43" s="85"/>
-      <c r="C43" s="169"/>
-      <c r="D43" s="170"/>
-      <c r="E43" s="171"/>
-      <c r="F43" s="169"/>
-      <c r="G43" s="171"/>
+      <c r="C43" s="177"/>
+      <c r="D43" s="178"/>
+      <c r="E43" s="179"/>
+      <c r="F43" s="177"/>
+      <c r="G43" s="179"/>
       <c r="H43" s="86"/>
     </row>
     <row r="44" spans="1:8" ht="20.25" customHeight="1">
       <c r="A44" s="84"/>
       <c r="B44" s="85"/>
-      <c r="C44" s="169"/>
-      <c r="D44" s="170"/>
-      <c r="E44" s="171"/>
-      <c r="F44" s="169"/>
-      <c r="G44" s="171"/>
+      <c r="C44" s="177"/>
+      <c r="D44" s="178"/>
+      <c r="E44" s="179"/>
+      <c r="F44" s="177"/>
+      <c r="G44" s="179"/>
       <c r="H44" s="86"/>
     </row>
     <row r="45" spans="1:8" ht="20.25" customHeight="1">
       <c r="A45" s="84"/>
       <c r="B45" s="85"/>
-      <c r="C45" s="169"/>
-      <c r="D45" s="170"/>
-      <c r="E45" s="171"/>
-      <c r="F45" s="169"/>
-      <c r="G45" s="171"/>
+      <c r="C45" s="177"/>
+      <c r="D45" s="178"/>
+      <c r="E45" s="179"/>
+      <c r="F45" s="177"/>
+      <c r="G45" s="179"/>
       <c r="H45" s="86"/>
     </row>
     <row r="46" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A46" s="87"/>
       <c r="B46" s="88"/>
-      <c r="C46" s="172"/>
-      <c r="D46" s="173"/>
-      <c r="E46" s="174"/>
-      <c r="F46" s="175"/>
-      <c r="G46" s="176"/>
+      <c r="C46" s="180"/>
+      <c r="D46" s="191"/>
+      <c r="E46" s="181"/>
+      <c r="F46" s="194"/>
+      <c r="G46" s="195"/>
       <c r="H46" s="89"/>
     </row>
     <row r="47" spans="1:8" ht="20.25" customHeight="1">
@@ -11895,15 +11534,15 @@
       <c r="B49" s="57" t="s">
         <v>53</v>
       </c>
-      <c r="C49" s="180" t="s">
+      <c r="C49" s="182" t="s">
         <v>50</v>
       </c>
-      <c r="D49" s="181"/>
-      <c r="E49" s="182"/>
-      <c r="F49" s="183" t="s">
+      <c r="D49" s="192"/>
+      <c r="E49" s="183"/>
+      <c r="F49" s="171" t="s">
         <v>57</v>
       </c>
-      <c r="G49" s="184"/>
+      <c r="G49" s="196"/>
       <c r="H49" s="49" t="s">
         <v>58</v>
       </c>
@@ -11913,73 +11552,83 @@
         <v>1</v>
       </c>
       <c r="B50" s="95"/>
-      <c r="C50" s="177"/>
-      <c r="D50" s="178"/>
-      <c r="E50" s="179"/>
-      <c r="F50" s="177"/>
-      <c r="G50" s="179"/>
+      <c r="C50" s="197"/>
+      <c r="D50" s="198"/>
+      <c r="E50" s="199"/>
+      <c r="F50" s="197"/>
+      <c r="G50" s="199"/>
       <c r="H50" s="96"/>
     </row>
     <row r="51" spans="1:8" ht="20.25" customHeight="1">
       <c r="A51" s="84"/>
       <c r="B51" s="85"/>
-      <c r="C51" s="169"/>
-      <c r="D51" s="170"/>
-      <c r="E51" s="171"/>
-      <c r="F51" s="169"/>
-      <c r="G51" s="171"/>
+      <c r="C51" s="177"/>
+      <c r="D51" s="178"/>
+      <c r="E51" s="179"/>
+      <c r="F51" s="177"/>
+      <c r="G51" s="179"/>
       <c r="H51" s="86"/>
     </row>
     <row r="52" spans="1:8" ht="20.25" customHeight="1">
       <c r="A52" s="84"/>
       <c r="B52" s="85"/>
-      <c r="C52" s="169"/>
-      <c r="D52" s="170"/>
-      <c r="E52" s="171"/>
-      <c r="F52" s="169"/>
-      <c r="G52" s="171"/>
+      <c r="C52" s="177"/>
+      <c r="D52" s="178"/>
+      <c r="E52" s="179"/>
+      <c r="F52" s="177"/>
+      <c r="G52" s="179"/>
       <c r="H52" s="86"/>
     </row>
     <row r="53" spans="1:8" ht="20.25" customHeight="1">
       <c r="A53" s="84"/>
       <c r="B53" s="85"/>
-      <c r="C53" s="169"/>
-      <c r="D53" s="170"/>
-      <c r="E53" s="171"/>
-      <c r="F53" s="169"/>
-      <c r="G53" s="171"/>
+      <c r="C53" s="177"/>
+      <c r="D53" s="178"/>
+      <c r="E53" s="179"/>
+      <c r="F53" s="177"/>
+      <c r="G53" s="179"/>
       <c r="H53" s="86"/>
     </row>
     <row r="54" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A54" s="87"/>
       <c r="B54" s="88"/>
-      <c r="C54" s="172"/>
-      <c r="D54" s="173"/>
-      <c r="E54" s="174"/>
-      <c r="F54" s="175"/>
-      <c r="G54" s="176"/>
+      <c r="C54" s="180"/>
+      <c r="D54" s="191"/>
+      <c r="E54" s="181"/>
+      <c r="F54" s="194"/>
+      <c r="G54" s="195"/>
       <c r="H54" s="89"/>
     </row>
   </sheetData>
   <mergeCells count="59">
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="C54:E54"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="F41:G41"/>
     <mergeCell ref="B36:C36"/>
     <mergeCell ref="D36:F36"/>
     <mergeCell ref="C25:D25"/>
@@ -11993,34 +11642,24 @@
     <mergeCell ref="D34:F34"/>
     <mergeCell ref="B35:C35"/>
     <mergeCell ref="D35:F35"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="C44:E44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="C54:E54"/>
-    <mergeCell ref="F54:G54"/>
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="C51:E51"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="C52:E52"/>
-    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="1.0236220472440944" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -12050,16 +11689,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="14.4">
-      <c r="A1" s="119" t="s">
+      <c r="A1" s="114" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="120"/>
-      <c r="C1" s="120"/>
-      <c r="D1" s="120"/>
-      <c r="E1" s="120"/>
-      <c r="F1" s="120"/>
-      <c r="G1" s="120"/>
-      <c r="H1" s="121"/>
+      <c r="B1" s="115"/>
+      <c r="C1" s="115"/>
+      <c r="D1" s="115"/>
+      <c r="E1" s="115"/>
+      <c r="F1" s="115"/>
+      <c r="G1" s="115"/>
+      <c r="H1" s="116"/>
     </row>
     <row r="2" spans="1:8" ht="20.25" customHeight="1">
       <c r="A2" s="40" t="s">
@@ -12134,42 +11773,42 @@
         <v>38</v>
       </c>
       <c r="B6" s="45"/>
-      <c r="C6" s="197" t="s">
+      <c r="C6" s="168" t="s">
         <v>102</v>
       </c>
-      <c r="D6" s="198"/>
-      <c r="E6" s="198"/>
-      <c r="F6" s="198"/>
-      <c r="G6" s="198"/>
-      <c r="H6" s="199"/>
+      <c r="D6" s="169"/>
+      <c r="E6" s="169"/>
+      <c r="F6" s="169"/>
+      <c r="G6" s="169"/>
+      <c r="H6" s="170"/>
     </row>
     <row r="7" spans="1:8" ht="20.25" customHeight="1">
       <c r="A7" s="40" t="s">
         <v>31</v>
       </c>
       <c r="B7" s="45"/>
-      <c r="C7" s="197" t="s">
+      <c r="C7" s="168" t="s">
         <v>103</v>
       </c>
-      <c r="D7" s="198"/>
-      <c r="E7" s="198"/>
-      <c r="F7" s="198"/>
-      <c r="G7" s="198"/>
-      <c r="H7" s="199"/>
+      <c r="D7" s="169"/>
+      <c r="E7" s="169"/>
+      <c r="F7" s="169"/>
+      <c r="G7" s="169"/>
+      <c r="H7" s="170"/>
     </row>
     <row r="8" spans="1:8" ht="20.25" customHeight="1">
       <c r="A8" s="40" t="s">
         <v>39</v>
       </c>
       <c r="B8" s="45"/>
-      <c r="C8" s="197" t="s">
+      <c r="C8" s="168" t="s">
         <v>104</v>
       </c>
-      <c r="D8" s="198"/>
-      <c r="E8" s="198"/>
-      <c r="F8" s="198"/>
-      <c r="G8" s="198"/>
-      <c r="H8" s="199"/>
+      <c r="D8" s="169"/>
+      <c r="E8" s="169"/>
+      <c r="F8" s="169"/>
+      <c r="G8" s="169"/>
+      <c r="H8" s="170"/>
     </row>
     <row r="9" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A9" s="46" t="s">
@@ -12190,10 +11829,10 @@
       <c r="B10" s="48" t="s">
         <v>42</v>
       </c>
-      <c r="C10" s="183" t="s">
+      <c r="C10" s="171" t="s">
         <v>43</v>
       </c>
-      <c r="D10" s="200"/>
+      <c r="D10" s="172"/>
       <c r="E10" s="48" t="s">
         <v>44</v>
       </c>
@@ -12214,10 +11853,10 @@
       <c r="B11" s="62" t="s">
         <v>91</v>
       </c>
-      <c r="C11" s="193" t="s">
+      <c r="C11" s="166" t="s">
         <v>84</v>
       </c>
-      <c r="D11" s="194"/>
+      <c r="D11" s="167"/>
       <c r="E11" s="63" t="s">
         <v>100</v>
       </c>
@@ -12236,10 +11875,10 @@
       <c r="B12" s="62" t="s">
         <v>92</v>
       </c>
-      <c r="C12" s="193" t="s">
+      <c r="C12" s="166" t="s">
         <v>85</v>
       </c>
-      <c r="D12" s="194"/>
+      <c r="D12" s="167"/>
       <c r="E12" s="63" t="s">
         <v>101</v>
       </c>
@@ -12256,10 +11895,10 @@
       <c r="B13" s="62" t="s">
         <v>93</v>
       </c>
-      <c r="C13" s="193" t="s">
+      <c r="C13" s="166" t="s">
         <v>86</v>
       </c>
-      <c r="D13" s="194"/>
+      <c r="D13" s="167"/>
       <c r="E13" s="63" t="s">
         <v>100</v>
       </c>
@@ -12276,10 +11915,10 @@
       <c r="B14" s="62" t="s">
         <v>96</v>
       </c>
-      <c r="C14" s="193" t="s">
+      <c r="C14" s="166" t="s">
         <v>87</v>
       </c>
-      <c r="D14" s="194"/>
+      <c r="D14" s="167"/>
       <c r="E14" s="63" t="s">
         <v>100</v>
       </c>
@@ -12296,10 +11935,10 @@
       <c r="B15" s="62" t="s">
         <v>97</v>
       </c>
-      <c r="C15" s="193" t="s">
+      <c r="C15" s="166" t="s">
         <v>88</v>
       </c>
-      <c r="D15" s="194"/>
+      <c r="D15" s="167"/>
       <c r="E15" s="63" t="s">
         <v>100</v>
       </c>
@@ -12316,10 +11955,10 @@
       <c r="B16" s="62" t="s">
         <v>94</v>
       </c>
-      <c r="C16" s="193" t="s">
+      <c r="C16" s="166" t="s">
         <v>89</v>
       </c>
-      <c r="D16" s="194"/>
+      <c r="D16" s="167"/>
       <c r="E16" s="63" t="s">
         <v>100</v>
       </c>
@@ -12336,10 +11975,10 @@
       <c r="B17" s="62" t="s">
         <v>95</v>
       </c>
-      <c r="C17" s="193" t="s">
+      <c r="C17" s="166" t="s">
         <v>90</v>
       </c>
-      <c r="D17" s="194"/>
+      <c r="D17" s="167"/>
       <c r="E17" s="63" t="s">
         <v>101</v>
       </c>
@@ -12352,8 +11991,8 @@
     <row r="18" spans="1:8" ht="20.25" customHeight="1">
       <c r="A18" s="71"/>
       <c r="B18" s="72"/>
-      <c r="C18" s="193"/>
-      <c r="D18" s="194"/>
+      <c r="C18" s="166"/>
+      <c r="D18" s="167"/>
       <c r="E18" s="73"/>
       <c r="F18" s="73"/>
       <c r="G18" s="74"/>
@@ -12362,8 +12001,8 @@
     <row r="19" spans="1:8" ht="20.25" customHeight="1">
       <c r="A19" s="71"/>
       <c r="B19" s="72"/>
-      <c r="C19" s="193"/>
-      <c r="D19" s="194"/>
+      <c r="C19" s="166"/>
+      <c r="D19" s="167"/>
       <c r="E19" s="73"/>
       <c r="F19" s="73"/>
       <c r="G19" s="74"/>
@@ -12372,8 +12011,8 @@
     <row r="20" spans="1:8" ht="20.25" customHeight="1">
       <c r="A20" s="71"/>
       <c r="B20" s="72"/>
-      <c r="C20" s="193"/>
-      <c r="D20" s="194"/>
+      <c r="C20" s="166"/>
+      <c r="D20" s="167"/>
       <c r="E20" s="73"/>
       <c r="F20" s="73"/>
       <c r="G20" s="74"/>
@@ -12382,8 +12021,8 @@
     <row r="21" spans="1:8" ht="20.25" customHeight="1">
       <c r="A21" s="71"/>
       <c r="B21" s="72"/>
-      <c r="C21" s="193"/>
-      <c r="D21" s="194"/>
+      <c r="C21" s="166"/>
+      <c r="D21" s="167"/>
       <c r="E21" s="73"/>
       <c r="F21" s="73"/>
       <c r="G21" s="74"/>
@@ -12392,8 +12031,8 @@
     <row r="22" spans="1:8" ht="20.25" customHeight="1">
       <c r="A22" s="71"/>
       <c r="B22" s="72"/>
-      <c r="C22" s="193"/>
-      <c r="D22" s="194"/>
+      <c r="C22" s="166"/>
+      <c r="D22" s="167"/>
       <c r="E22" s="73"/>
       <c r="F22" s="73"/>
       <c r="G22" s="74"/>
@@ -12402,8 +12041,8 @@
     <row r="23" spans="1:8" ht="20.25" customHeight="1">
       <c r="A23" s="71"/>
       <c r="B23" s="72"/>
-      <c r="C23" s="193"/>
-      <c r="D23" s="194"/>
+      <c r="C23" s="166"/>
+      <c r="D23" s="167"/>
       <c r="E23" s="73"/>
       <c r="F23" s="73"/>
       <c r="G23" s="74"/>
@@ -12412,8 +12051,8 @@
     <row r="24" spans="1:8" ht="20.25" customHeight="1">
       <c r="A24" s="71"/>
       <c r="B24" s="72"/>
-      <c r="C24" s="193"/>
-      <c r="D24" s="194"/>
+      <c r="C24" s="166"/>
+      <c r="D24" s="167"/>
       <c r="E24" s="73"/>
       <c r="F24" s="73"/>
       <c r="G24" s="74"/>
@@ -12422,8 +12061,8 @@
     <row r="25" spans="1:8" ht="20.25" customHeight="1">
       <c r="A25" s="71"/>
       <c r="B25" s="72"/>
-      <c r="C25" s="193"/>
-      <c r="D25" s="194"/>
+      <c r="C25" s="166"/>
+      <c r="D25" s="167"/>
       <c r="E25" s="73"/>
       <c r="F25" s="73"/>
       <c r="G25" s="74"/>
@@ -12432,8 +12071,8 @@
     <row r="26" spans="1:8" ht="20.25" customHeight="1">
       <c r="A26" s="71"/>
       <c r="B26" s="72"/>
-      <c r="C26" s="193"/>
-      <c r="D26" s="194"/>
+      <c r="C26" s="166"/>
+      <c r="D26" s="167"/>
       <c r="E26" s="73"/>
       <c r="F26" s="73"/>
       <c r="G26" s="74"/>
@@ -12442,8 +12081,8 @@
     <row r="27" spans="1:8" ht="20.25" customHeight="1">
       <c r="A27" s="71"/>
       <c r="B27" s="72"/>
-      <c r="C27" s="193"/>
-      <c r="D27" s="194"/>
+      <c r="C27" s="166"/>
+      <c r="D27" s="167"/>
       <c r="E27" s="73"/>
       <c r="F27" s="73"/>
       <c r="G27" s="74"/>
@@ -12452,8 +12091,8 @@
     <row r="28" spans="1:8" ht="20.25" customHeight="1">
       <c r="A28" s="71"/>
       <c r="B28" s="72"/>
-      <c r="C28" s="193"/>
-      <c r="D28" s="194"/>
+      <c r="C28" s="166"/>
+      <c r="D28" s="167"/>
       <c r="E28" s="73"/>
       <c r="F28" s="73"/>
       <c r="G28" s="74"/>
@@ -12462,8 +12101,8 @@
     <row r="29" spans="1:8" ht="20.25" customHeight="1">
       <c r="A29" s="71"/>
       <c r="B29" s="72"/>
-      <c r="C29" s="193"/>
-      <c r="D29" s="194"/>
+      <c r="C29" s="166"/>
+      <c r="D29" s="167"/>
       <c r="E29" s="73"/>
       <c r="F29" s="73"/>
       <c r="G29" s="74"/>
@@ -12472,8 +12111,8 @@
     <row r="30" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A30" s="76"/>
       <c r="B30" s="77"/>
-      <c r="C30" s="172"/>
-      <c r="D30" s="174"/>
+      <c r="C30" s="180"/>
+      <c r="D30" s="181"/>
       <c r="E30" s="78"/>
       <c r="F30" s="78"/>
       <c r="G30" s="79"/>
@@ -12505,10 +12144,10 @@
       <c r="A33" s="53" t="s">
         <v>41</v>
       </c>
-      <c r="B33" s="180" t="s">
+      <c r="B33" s="182" t="s">
         <v>49</v>
       </c>
-      <c r="C33" s="182"/>
+      <c r="C33" s="183"/>
       <c r="D33" s="54" t="s">
         <v>50</v>
       </c>
@@ -12523,51 +12162,51 @@
     </row>
     <row r="34" spans="1:8" ht="20.25" customHeight="1">
       <c r="A34" s="61"/>
-      <c r="B34" s="195"/>
-      <c r="C34" s="196"/>
-      <c r="D34" s="185"/>
-      <c r="E34" s="186"/>
-      <c r="F34" s="187"/>
+      <c r="B34" s="184"/>
+      <c r="C34" s="185"/>
+      <c r="D34" s="186"/>
+      <c r="E34" s="187"/>
+      <c r="F34" s="188"/>
       <c r="G34" s="64"/>
       <c r="H34" s="65"/>
     </row>
     <row r="35" spans="1:8" ht="20.25" customHeight="1">
       <c r="A35" s="66"/>
-      <c r="B35" s="188"/>
-      <c r="C35" s="189"/>
-      <c r="D35" s="169"/>
-      <c r="E35" s="170"/>
-      <c r="F35" s="171"/>
+      <c r="B35" s="175"/>
+      <c r="C35" s="176"/>
+      <c r="D35" s="177"/>
+      <c r="E35" s="178"/>
+      <c r="F35" s="179"/>
       <c r="G35" s="69"/>
       <c r="H35" s="70"/>
     </row>
     <row r="36" spans="1:8" ht="20.25" customHeight="1">
       <c r="A36" s="66"/>
-      <c r="B36" s="188"/>
-      <c r="C36" s="189"/>
-      <c r="D36" s="169"/>
-      <c r="E36" s="170"/>
-      <c r="F36" s="171"/>
+      <c r="B36" s="175"/>
+      <c r="C36" s="176"/>
+      <c r="D36" s="177"/>
+      <c r="E36" s="178"/>
+      <c r="F36" s="179"/>
       <c r="G36" s="69"/>
       <c r="H36" s="70"/>
     </row>
     <row r="37" spans="1:8" ht="20.25" customHeight="1">
       <c r="A37" s="66"/>
-      <c r="B37" s="188"/>
-      <c r="C37" s="189"/>
-      <c r="D37" s="169"/>
-      <c r="E37" s="170"/>
-      <c r="F37" s="171"/>
+      <c r="B37" s="175"/>
+      <c r="C37" s="176"/>
+      <c r="D37" s="177"/>
+      <c r="E37" s="178"/>
+      <c r="F37" s="179"/>
       <c r="G37" s="69"/>
       <c r="H37" s="70"/>
     </row>
     <row r="38" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A38" s="76"/>
-      <c r="B38" s="190"/>
-      <c r="C38" s="191"/>
-      <c r="D38" s="172"/>
-      <c r="E38" s="173"/>
-      <c r="F38" s="174"/>
+      <c r="B38" s="189"/>
+      <c r="C38" s="190"/>
+      <c r="D38" s="180"/>
+      <c r="E38" s="191"/>
+      <c r="F38" s="181"/>
       <c r="G38" s="79"/>
       <c r="H38" s="80"/>
     </row>
@@ -12600,15 +12239,15 @@
       <c r="B41" s="57" t="s">
         <v>53</v>
       </c>
-      <c r="C41" s="180" t="s">
+      <c r="C41" s="182" t="s">
         <v>50</v>
       </c>
-      <c r="D41" s="181"/>
-      <c r="E41" s="182"/>
-      <c r="F41" s="180" t="s">
+      <c r="D41" s="192"/>
+      <c r="E41" s="183"/>
+      <c r="F41" s="182" t="s">
         <v>54</v>
       </c>
-      <c r="G41" s="192"/>
+      <c r="G41" s="193"/>
       <c r="H41" s="58" t="s">
         <v>55</v>
       </c>
@@ -12616,51 +12255,51 @@
     <row r="42" spans="1:8" ht="20.25" customHeight="1">
       <c r="A42" s="81"/>
       <c r="B42" s="82"/>
-      <c r="C42" s="185"/>
-      <c r="D42" s="186"/>
-      <c r="E42" s="187"/>
-      <c r="F42" s="185"/>
-      <c r="G42" s="187"/>
+      <c r="C42" s="186"/>
+      <c r="D42" s="187"/>
+      <c r="E42" s="188"/>
+      <c r="F42" s="186"/>
+      <c r="G42" s="188"/>
       <c r="H42" s="83"/>
     </row>
     <row r="43" spans="1:8" ht="20.25" customHeight="1">
       <c r="A43" s="84"/>
       <c r="B43" s="85"/>
-      <c r="C43" s="169"/>
-      <c r="D43" s="170"/>
-      <c r="E43" s="171"/>
-      <c r="F43" s="169"/>
-      <c r="G43" s="171"/>
+      <c r="C43" s="177"/>
+      <c r="D43" s="178"/>
+      <c r="E43" s="179"/>
+      <c r="F43" s="177"/>
+      <c r="G43" s="179"/>
       <c r="H43" s="86"/>
     </row>
     <row r="44" spans="1:8" ht="20.25" customHeight="1">
       <c r="A44" s="84"/>
       <c r="B44" s="85"/>
-      <c r="C44" s="169"/>
-      <c r="D44" s="170"/>
-      <c r="E44" s="171"/>
-      <c r="F44" s="169"/>
-      <c r="G44" s="171"/>
+      <c r="C44" s="177"/>
+      <c r="D44" s="178"/>
+      <c r="E44" s="179"/>
+      <c r="F44" s="177"/>
+      <c r="G44" s="179"/>
       <c r="H44" s="86"/>
     </row>
     <row r="45" spans="1:8" ht="20.25" customHeight="1">
       <c r="A45" s="84"/>
       <c r="B45" s="85"/>
-      <c r="C45" s="169"/>
-      <c r="D45" s="170"/>
-      <c r="E45" s="171"/>
-      <c r="F45" s="169"/>
-      <c r="G45" s="171"/>
+      <c r="C45" s="177"/>
+      <c r="D45" s="178"/>
+      <c r="E45" s="179"/>
+      <c r="F45" s="177"/>
+      <c r="G45" s="179"/>
       <c r="H45" s="86"/>
     </row>
     <row r="46" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A46" s="87"/>
       <c r="B46" s="88"/>
-      <c r="C46" s="172"/>
-      <c r="D46" s="173"/>
-      <c r="E46" s="174"/>
-      <c r="F46" s="175"/>
-      <c r="G46" s="176"/>
+      <c r="C46" s="180"/>
+      <c r="D46" s="191"/>
+      <c r="E46" s="181"/>
+      <c r="F46" s="194"/>
+      <c r="G46" s="195"/>
       <c r="H46" s="89"/>
     </row>
     <row r="47" spans="1:8" ht="20.25" customHeight="1">
@@ -12692,15 +12331,15 @@
       <c r="B49" s="57" t="s">
         <v>53</v>
       </c>
-      <c r="C49" s="180" t="s">
+      <c r="C49" s="182" t="s">
         <v>50</v>
       </c>
-      <c r="D49" s="181"/>
-      <c r="E49" s="182"/>
-      <c r="F49" s="183" t="s">
+      <c r="D49" s="192"/>
+      <c r="E49" s="183"/>
+      <c r="F49" s="171" t="s">
         <v>57</v>
       </c>
-      <c r="G49" s="184"/>
+      <c r="G49" s="196"/>
       <c r="H49" s="49" t="s">
         <v>58</v>
       </c>
@@ -12710,66 +12349,87 @@
         <v>1</v>
       </c>
       <c r="B50" s="95"/>
-      <c r="C50" s="177"/>
-      <c r="D50" s="178"/>
-      <c r="E50" s="179"/>
-      <c r="F50" s="177"/>
-      <c r="G50" s="179"/>
+      <c r="C50" s="197"/>
+      <c r="D50" s="198"/>
+      <c r="E50" s="199"/>
+      <c r="F50" s="197"/>
+      <c r="G50" s="199"/>
       <c r="H50" s="96"/>
     </row>
     <row r="51" spans="1:8" ht="20.25" customHeight="1">
       <c r="A51" s="84"/>
       <c r="B51" s="85"/>
-      <c r="C51" s="169"/>
-      <c r="D51" s="170"/>
-      <c r="E51" s="171"/>
-      <c r="F51" s="169"/>
-      <c r="G51" s="171"/>
+      <c r="C51" s="177"/>
+      <c r="D51" s="178"/>
+      <c r="E51" s="179"/>
+      <c r="F51" s="177"/>
+      <c r="G51" s="179"/>
       <c r="H51" s="86"/>
     </row>
     <row r="52" spans="1:8" ht="20.25" customHeight="1">
       <c r="A52" s="84"/>
       <c r="B52" s="85"/>
-      <c r="C52" s="169"/>
-      <c r="D52" s="170"/>
-      <c r="E52" s="171"/>
-      <c r="F52" s="169"/>
-      <c r="G52" s="171"/>
+      <c r="C52" s="177"/>
+      <c r="D52" s="178"/>
+      <c r="E52" s="179"/>
+      <c r="F52" s="177"/>
+      <c r="G52" s="179"/>
       <c r="H52" s="86"/>
     </row>
     <row r="53" spans="1:8" ht="20.25" customHeight="1">
       <c r="A53" s="84"/>
       <c r="B53" s="85"/>
-      <c r="C53" s="169"/>
-      <c r="D53" s="170"/>
-      <c r="E53" s="171"/>
-      <c r="F53" s="169"/>
-      <c r="G53" s="171"/>
+      <c r="C53" s="177"/>
+      <c r="D53" s="178"/>
+      <c r="E53" s="179"/>
+      <c r="F53" s="177"/>
+      <c r="G53" s="179"/>
       <c r="H53" s="86"/>
     </row>
     <row r="54" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A54" s="87"/>
       <c r="B54" s="88"/>
-      <c r="C54" s="172"/>
-      <c r="D54" s="173"/>
-      <c r="E54" s="174"/>
-      <c r="F54" s="175"/>
-      <c r="G54" s="176"/>
+      <c r="C54" s="180"/>
+      <c r="D54" s="191"/>
+      <c r="E54" s="181"/>
+      <c r="F54" s="194"/>
+      <c r="G54" s="195"/>
       <c r="H54" s="89"/>
     </row>
   </sheetData>
   <mergeCells count="59">
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
     <mergeCell ref="C19:D19"/>
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="F54:G54"/>
@@ -12786,38 +12446,17 @@
     <mergeCell ref="C53:E53"/>
     <mergeCell ref="C54:E54"/>
     <mergeCell ref="F43:G43"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="C44:E44"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="D36:F36"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="1.0236220472440944" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -12831,6 +12470,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="af97f005-77d1-4ca0-aa66-92d9fef63111">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="5693f406-aeca-4321-a656-3a9a02e36084" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101007081BF80CDABE2409E7AC03002E0EC18" ma:contentTypeVersion="11" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="3180883bc47af021c7778a69e39c0ee7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="af97f005-77d1-4ca0-aa66-92d9fef63111" xmlns:ns3="5693f406-aeca-4321-a656-3a9a02e36084" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b1356b8793e215cabb5557499de2766e" ns2:_="" ns3:_="">
     <xsd:import namespace="af97f005-77d1-4ca0-aa66-92d9fef63111"/>
@@ -13041,27 +12700,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="af97f005-77d1-4ca0-aa66-92d9fef63111">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="5693f406-aeca-4321-a656-3a9a02e36084" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5020C763-C603-467C-AD36-0246E9729C04}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E88CC585-B0E8-405F-BB8E-E31E808CF427}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="af97f005-77d1-4ca0-aa66-92d9fef63111"/>
+    <ds:schemaRef ds:uri="5693f406-aeca-4321-a656-3a9a02e36084"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D71B8487-6482-4850-BCD4-781B077E4CE1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -13078,23 +12736,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E88CC585-B0E8-405F-BB8E-E31E808CF427}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="af97f005-77d1-4ca0-aa66-92d9fef63111"/>
-    <ds:schemaRef ds:uri="5693f406-aeca-4321-a656-3a9a02e36084"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5020C763-C603-467C-AD36-0246E9729C04}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/設計書/データベース設計書.xlsx
+++ b/設計書/データベース設計書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\SD3D_2023_Scrum1\設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{913DDA70-CDDB-4B27-8B10-43F9CC6BCEFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EFEFF66-711A-4336-A1B5-CF721641C937}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="12" r:id="rId1"/>
@@ -2560,7 +2560,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="214">
+  <cellXfs count="213">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2885,13 +2885,97 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="38" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="38" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="29" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="38" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="39" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="37" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="34" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="35" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="14" fillId="0" borderId="29" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2912,86 +2996,11 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="38" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="38" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="29" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="38" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="39" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="37" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="34" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="35" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -3011,10 +3020,76 @@
     <xf numFmtId="0" fontId="15" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -3023,6 +3098,12 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3032,9 +3113,6 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="15" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3044,79 +3122,31 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3127,39 +3157,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="24">
@@ -3206,60 +3203,43 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>144267</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>22411</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>107577</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>1591235</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>29711</xdr:rowOff>
+      <xdr:colOff>1828799</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>18056</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="図 3">
+        <xdr:cNvPr id="3" name="図 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0EB94681-A40A-94FE-078C-FC17BEC646C2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
+      <xdr:spPr>
         <a:xfrm>
-          <a:off x="144267" y="6476999"/>
-          <a:ext cx="8719586" cy="4086241"/>
+          <a:off x="0" y="6329083"/>
+          <a:ext cx="8390964" cy="5827185"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -3993,21 +3973,21 @@
       <c r="R3" s="12"/>
       <c r="S3" s="12"/>
       <c r="T3" s="12"/>
-      <c r="U3" s="122" t="s">
+      <c r="U3" s="139" t="s">
         <v>0</v>
       </c>
-      <c r="V3" s="124"/>
-      <c r="W3" s="148">
+      <c r="V3" s="140"/>
+      <c r="W3" s="141">
         <v>45306</v>
       </c>
-      <c r="X3" s="123"/>
-      <c r="Y3" s="123"/>
-      <c r="Z3" s="123"/>
-      <c r="AA3" s="123"/>
-      <c r="AB3" s="123"/>
-      <c r="AC3" s="123"/>
-      <c r="AD3" s="123"/>
-      <c r="AE3" s="124"/>
+      <c r="X3" s="142"/>
+      <c r="Y3" s="142"/>
+      <c r="Z3" s="142"/>
+      <c r="AA3" s="142"/>
+      <c r="AB3" s="142"/>
+      <c r="AC3" s="142"/>
+      <c r="AD3" s="142"/>
+      <c r="AE3" s="140"/>
       <c r="AF3" s="12"/>
     </row>
     <row r="4" spans="1:176" ht="15.75" customHeight="1">
@@ -4119,20 +4099,20 @@
       <c r="C7" s="35"/>
       <c r="D7" s="35"/>
       <c r="E7" s="36"/>
-      <c r="F7" s="133" t="s">
+      <c r="F7" s="124" t="s">
         <v>4</v>
       </c>
-      <c r="G7" s="134"/>
-      <c r="H7" s="134"/>
-      <c r="I7" s="134"/>
-      <c r="J7" s="134"/>
-      <c r="K7" s="134"/>
-      <c r="L7" s="134"/>
-      <c r="M7" s="134"/>
-      <c r="N7" s="134"/>
-      <c r="O7" s="134"/>
-      <c r="P7" s="134"/>
-      <c r="Q7" s="135"/>
+      <c r="G7" s="125"/>
+      <c r="H7" s="125"/>
+      <c r="I7" s="125"/>
+      <c r="J7" s="125"/>
+      <c r="K7" s="125"/>
+      <c r="L7" s="125"/>
+      <c r="M7" s="125"/>
+      <c r="N7" s="125"/>
+      <c r="O7" s="125"/>
+      <c r="P7" s="125"/>
+      <c r="Q7" s="126"/>
       <c r="R7" s="12"/>
       <c r="S7" s="12"/>
       <c r="T7" s="12"/>
@@ -4150,82 +4130,82 @@
     </row>
     <row r="8" spans="1:176" ht="15.75" customHeight="1">
       <c r="A8" s="12"/>
-      <c r="B8" s="136" t="s">
+      <c r="B8" s="127" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="137"/>
-      <c r="D8" s="137"/>
-      <c r="E8" s="138"/>
-      <c r="F8" s="142" t="s">
+      <c r="C8" s="128"/>
+      <c r="D8" s="128"/>
+      <c r="E8" s="129"/>
+      <c r="F8" s="133" t="s">
         <v>63</v>
       </c>
-      <c r="G8" s="143"/>
-      <c r="H8" s="143"/>
-      <c r="I8" s="143"/>
-      <c r="J8" s="143"/>
-      <c r="K8" s="143"/>
-      <c r="L8" s="143"/>
-      <c r="M8" s="143"/>
-      <c r="N8" s="143"/>
-      <c r="O8" s="143"/>
-      <c r="P8" s="143"/>
-      <c r="Q8" s="144"/>
+      <c r="G8" s="134"/>
+      <c r="H8" s="134"/>
+      <c r="I8" s="134"/>
+      <c r="J8" s="134"/>
+      <c r="K8" s="134"/>
+      <c r="L8" s="134"/>
+      <c r="M8" s="134"/>
+      <c r="N8" s="134"/>
+      <c r="O8" s="134"/>
+      <c r="P8" s="134"/>
+      <c r="Q8" s="135"/>
       <c r="R8" s="12"/>
       <c r="S8" s="12"/>
       <c r="T8" s="12"/>
       <c r="U8" s="12"/>
       <c r="V8" s="12"/>
-      <c r="W8" s="132" t="s">
+      <c r="W8" s="123" t="s">
         <v>6</v>
       </c>
-      <c r="X8" s="132"/>
-      <c r="Y8" s="132"/>
-      <c r="Z8" s="132" t="s">
+      <c r="X8" s="123"/>
+      <c r="Y8" s="123"/>
+      <c r="Z8" s="123" t="s">
         <v>7</v>
       </c>
-      <c r="AA8" s="132"/>
-      <c r="AB8" s="132"/>
-      <c r="AC8" s="132" t="s">
+      <c r="AA8" s="123"/>
+      <c r="AB8" s="123"/>
+      <c r="AC8" s="123" t="s">
         <v>8</v>
       </c>
-      <c r="AD8" s="132"/>
-      <c r="AE8" s="132"/>
+      <c r="AD8" s="123"/>
+      <c r="AE8" s="123"/>
       <c r="AF8" s="12"/>
     </row>
     <row r="9" spans="1:176" ht="15.75" customHeight="1">
       <c r="A9" s="12"/>
-      <c r="B9" s="139"/>
-      <c r="C9" s="140"/>
-      <c r="D9" s="140"/>
-      <c r="E9" s="141"/>
-      <c r="F9" s="145"/>
-      <c r="G9" s="146"/>
-      <c r="H9" s="146"/>
-      <c r="I9" s="146"/>
-      <c r="J9" s="146"/>
-      <c r="K9" s="146"/>
-      <c r="L9" s="146"/>
-      <c r="M9" s="146"/>
-      <c r="N9" s="146"/>
-      <c r="O9" s="146"/>
-      <c r="P9" s="146"/>
-      <c r="Q9" s="147"/>
+      <c r="B9" s="130"/>
+      <c r="C9" s="131"/>
+      <c r="D9" s="131"/>
+      <c r="E9" s="132"/>
+      <c r="F9" s="136"/>
+      <c r="G9" s="137"/>
+      <c r="H9" s="137"/>
+      <c r="I9" s="137"/>
+      <c r="J9" s="137"/>
+      <c r="K9" s="137"/>
+      <c r="L9" s="137"/>
+      <c r="M9" s="137"/>
+      <c r="N9" s="137"/>
+      <c r="O9" s="137"/>
+      <c r="P9" s="137"/>
+      <c r="Q9" s="138"/>
       <c r="R9" s="12"/>
       <c r="S9" s="12"/>
       <c r="T9" s="12"/>
       <c r="U9" s="12"/>
       <c r="V9" s="12"/>
-      <c r="W9" s="149"/>
-      <c r="X9" s="150"/>
-      <c r="Y9" s="151"/>
-      <c r="Z9" s="149"/>
-      <c r="AA9" s="150"/>
-      <c r="AB9" s="151"/>
-      <c r="AC9" s="149" t="s">
+      <c r="W9" s="143"/>
+      <c r="X9" s="144"/>
+      <c r="Y9" s="145"/>
+      <c r="Z9" s="143"/>
+      <c r="AA9" s="144"/>
+      <c r="AB9" s="145"/>
+      <c r="AC9" s="143" t="s">
         <v>239</v>
       </c>
-      <c r="AD9" s="150"/>
-      <c r="AE9" s="151"/>
+      <c r="AD9" s="144"/>
+      <c r="AE9" s="145"/>
       <c r="AF9" s="12"/>
     </row>
     <row r="10" spans="1:176" ht="15.75" customHeight="1">
@@ -4251,15 +4231,15 @@
       <c r="T10" s="12"/>
       <c r="U10" s="12"/>
       <c r="V10" s="12"/>
-      <c r="W10" s="152"/>
-      <c r="X10" s="153"/>
-      <c r="Y10" s="154"/>
-      <c r="Z10" s="152"/>
-      <c r="AA10" s="153"/>
-      <c r="AB10" s="154"/>
-      <c r="AC10" s="152"/>
-      <c r="AD10" s="153"/>
-      <c r="AE10" s="154"/>
+      <c r="W10" s="146"/>
+      <c r="X10" s="147"/>
+      <c r="Y10" s="148"/>
+      <c r="Z10" s="146"/>
+      <c r="AA10" s="147"/>
+      <c r="AB10" s="148"/>
+      <c r="AC10" s="146"/>
+      <c r="AD10" s="147"/>
+      <c r="AE10" s="148"/>
       <c r="AF10" s="12"/>
     </row>
     <row r="11" spans="1:176" ht="15.75" customHeight="1">
@@ -4285,15 +4265,15 @@
       <c r="T11" s="12"/>
       <c r="U11" s="12"/>
       <c r="V11" s="12"/>
-      <c r="W11" s="152"/>
-      <c r="X11" s="153"/>
-      <c r="Y11" s="154"/>
-      <c r="Z11" s="152"/>
-      <c r="AA11" s="153"/>
-      <c r="AB11" s="154"/>
-      <c r="AC11" s="152"/>
-      <c r="AD11" s="153"/>
-      <c r="AE11" s="154"/>
+      <c r="W11" s="146"/>
+      <c r="X11" s="147"/>
+      <c r="Y11" s="148"/>
+      <c r="Z11" s="146"/>
+      <c r="AA11" s="147"/>
+      <c r="AB11" s="148"/>
+      <c r="AC11" s="146"/>
+      <c r="AD11" s="147"/>
+      <c r="AE11" s="148"/>
       <c r="AF11" s="12"/>
     </row>
     <row r="12" spans="1:176" ht="15.75" customHeight="1">
@@ -4319,15 +4299,15 @@
       <c r="T12" s="16"/>
       <c r="U12" s="16"/>
       <c r="V12" s="16"/>
-      <c r="W12" s="155"/>
-      <c r="X12" s="156"/>
-      <c r="Y12" s="157"/>
-      <c r="Z12" s="155"/>
-      <c r="AA12" s="156"/>
-      <c r="AB12" s="157"/>
-      <c r="AC12" s="155"/>
-      <c r="AD12" s="156"/>
-      <c r="AE12" s="157"/>
+      <c r="W12" s="149"/>
+      <c r="X12" s="150"/>
+      <c r="Y12" s="151"/>
+      <c r="Z12" s="149"/>
+      <c r="AA12" s="150"/>
+      <c r="AB12" s="151"/>
+      <c r="AC12" s="149"/>
+      <c r="AD12" s="150"/>
+      <c r="AE12" s="151"/>
       <c r="AF12" s="12"/>
     </row>
     <row r="13" spans="1:176" ht="15.75" customHeight="1">
@@ -4422,106 +4402,106 @@
     </row>
     <row r="16" spans="1:176" ht="15" customHeight="1">
       <c r="A16" s="12"/>
-      <c r="B16" s="131" t="s">
+      <c r="B16" s="152" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="131"/>
-      <c r="D16" s="131"/>
-      <c r="E16" s="131"/>
-      <c r="F16" s="131"/>
-      <c r="G16" s="131"/>
-      <c r="H16" s="131"/>
-      <c r="I16" s="131"/>
-      <c r="J16" s="131"/>
-      <c r="K16" s="131"/>
-      <c r="L16" s="131"/>
-      <c r="M16" s="131"/>
-      <c r="N16" s="131"/>
-      <c r="O16" s="131"/>
-      <c r="P16" s="131"/>
-      <c r="Q16" s="131"/>
-      <c r="R16" s="131"/>
-      <c r="S16" s="131"/>
-      <c r="T16" s="131"/>
-      <c r="U16" s="131"/>
-      <c r="V16" s="131"/>
-      <c r="W16" s="131"/>
-      <c r="X16" s="131"/>
-      <c r="Y16" s="131"/>
-      <c r="Z16" s="131"/>
-      <c r="AA16" s="131"/>
-      <c r="AB16" s="131"/>
-      <c r="AC16" s="131"/>
-      <c r="AD16" s="131"/>
-      <c r="AE16" s="131"/>
+      <c r="C16" s="152"/>
+      <c r="D16" s="152"/>
+      <c r="E16" s="152"/>
+      <c r="F16" s="152"/>
+      <c r="G16" s="152"/>
+      <c r="H16" s="152"/>
+      <c r="I16" s="152"/>
+      <c r="J16" s="152"/>
+      <c r="K16" s="152"/>
+      <c r="L16" s="152"/>
+      <c r="M16" s="152"/>
+      <c r="N16" s="152"/>
+      <c r="O16" s="152"/>
+      <c r="P16" s="152"/>
+      <c r="Q16" s="152"/>
+      <c r="R16" s="152"/>
+      <c r="S16" s="152"/>
+      <c r="T16" s="152"/>
+      <c r="U16" s="152"/>
+      <c r="V16" s="152"/>
+      <c r="W16" s="152"/>
+      <c r="X16" s="152"/>
+      <c r="Y16" s="152"/>
+      <c r="Z16" s="152"/>
+      <c r="AA16" s="152"/>
+      <c r="AB16" s="152"/>
+      <c r="AC16" s="152"/>
+      <c r="AD16" s="152"/>
+      <c r="AE16" s="152"/>
       <c r="AF16" s="12"/>
     </row>
     <row r="17" spans="1:32" ht="15" customHeight="1">
       <c r="A17" s="12"/>
-      <c r="B17" s="131"/>
-      <c r="C17" s="131"/>
-      <c r="D17" s="131"/>
-      <c r="E17" s="131"/>
-      <c r="F17" s="131"/>
-      <c r="G17" s="131"/>
-      <c r="H17" s="131"/>
-      <c r="I17" s="131"/>
-      <c r="J17" s="131"/>
-      <c r="K17" s="131"/>
-      <c r="L17" s="131"/>
-      <c r="M17" s="131"/>
-      <c r="N17" s="131"/>
-      <c r="O17" s="131"/>
-      <c r="P17" s="131"/>
-      <c r="Q17" s="131"/>
-      <c r="R17" s="131"/>
-      <c r="S17" s="131"/>
-      <c r="T17" s="131"/>
-      <c r="U17" s="131"/>
-      <c r="V17" s="131"/>
-      <c r="W17" s="131"/>
-      <c r="X17" s="131"/>
-      <c r="Y17" s="131"/>
-      <c r="Z17" s="131"/>
-      <c r="AA17" s="131"/>
-      <c r="AB17" s="131"/>
-      <c r="AC17" s="131"/>
-      <c r="AD17" s="131"/>
-      <c r="AE17" s="131"/>
+      <c r="B17" s="152"/>
+      <c r="C17" s="152"/>
+      <c r="D17" s="152"/>
+      <c r="E17" s="152"/>
+      <c r="F17" s="152"/>
+      <c r="G17" s="152"/>
+      <c r="H17" s="152"/>
+      <c r="I17" s="152"/>
+      <c r="J17" s="152"/>
+      <c r="K17" s="152"/>
+      <c r="L17" s="152"/>
+      <c r="M17" s="152"/>
+      <c r="N17" s="152"/>
+      <c r="O17" s="152"/>
+      <c r="P17" s="152"/>
+      <c r="Q17" s="152"/>
+      <c r="R17" s="152"/>
+      <c r="S17" s="152"/>
+      <c r="T17" s="152"/>
+      <c r="U17" s="152"/>
+      <c r="V17" s="152"/>
+      <c r="W17" s="152"/>
+      <c r="X17" s="152"/>
+      <c r="Y17" s="152"/>
+      <c r="Z17" s="152"/>
+      <c r="AA17" s="152"/>
+      <c r="AB17" s="152"/>
+      <c r="AC17" s="152"/>
+      <c r="AD17" s="152"/>
+      <c r="AE17" s="152"/>
       <c r="AF17" s="12"/>
     </row>
     <row r="18" spans="1:32" ht="15" customHeight="1">
       <c r="A18" s="12"/>
-      <c r="B18" s="131"/>
-      <c r="C18" s="131"/>
-      <c r="D18" s="131"/>
-      <c r="E18" s="131"/>
-      <c r="F18" s="131"/>
-      <c r="G18" s="131"/>
-      <c r="H18" s="131"/>
-      <c r="I18" s="131"/>
-      <c r="J18" s="131"/>
-      <c r="K18" s="131"/>
-      <c r="L18" s="131"/>
-      <c r="M18" s="131"/>
-      <c r="N18" s="131"/>
-      <c r="O18" s="131"/>
-      <c r="P18" s="131"/>
-      <c r="Q18" s="131"/>
-      <c r="R18" s="131"/>
-      <c r="S18" s="131"/>
-      <c r="T18" s="131"/>
-      <c r="U18" s="131"/>
-      <c r="V18" s="131"/>
-      <c r="W18" s="131"/>
-      <c r="X18" s="131"/>
-      <c r="Y18" s="131"/>
-      <c r="Z18" s="131"/>
-      <c r="AA18" s="131"/>
-      <c r="AB18" s="131"/>
-      <c r="AC18" s="131"/>
-      <c r="AD18" s="131"/>
-      <c r="AE18" s="131"/>
+      <c r="B18" s="152"/>
+      <c r="C18" s="152"/>
+      <c r="D18" s="152"/>
+      <c r="E18" s="152"/>
+      <c r="F18" s="152"/>
+      <c r="G18" s="152"/>
+      <c r="H18" s="152"/>
+      <c r="I18" s="152"/>
+      <c r="J18" s="152"/>
+      <c r="K18" s="152"/>
+      <c r="L18" s="152"/>
+      <c r="M18" s="152"/>
+      <c r="N18" s="152"/>
+      <c r="O18" s="152"/>
+      <c r="P18" s="152"/>
+      <c r="Q18" s="152"/>
+      <c r="R18" s="152"/>
+      <c r="S18" s="152"/>
+      <c r="T18" s="152"/>
+      <c r="U18" s="152"/>
+      <c r="V18" s="152"/>
+      <c r="W18" s="152"/>
+      <c r="X18" s="152"/>
+      <c r="Y18" s="152"/>
+      <c r="Z18" s="152"/>
+      <c r="AA18" s="152"/>
+      <c r="AB18" s="152"/>
+      <c r="AC18" s="152"/>
+      <c r="AD18" s="152"/>
+      <c r="AE18" s="152"/>
       <c r="AF18" s="12"/>
     </row>
     <row r="19" spans="1:32" ht="15" customHeight="1">
@@ -4660,392 +4640,392 @@
     </row>
     <row r="23" spans="1:32" s="39" customFormat="1" ht="29.25" customHeight="1">
       <c r="A23" s="37"/>
-      <c r="B23" s="122" t="s">
+      <c r="B23" s="139" t="s">
         <v>11</v>
       </c>
-      <c r="C23" s="123"/>
-      <c r="D23" s="123"/>
-      <c r="E23" s="124"/>
-      <c r="F23" s="122" t="s">
+      <c r="C23" s="142"/>
+      <c r="D23" s="142"/>
+      <c r="E23" s="140"/>
+      <c r="F23" s="139" t="s">
         <v>12</v>
       </c>
-      <c r="G23" s="123"/>
-      <c r="H23" s="123"/>
-      <c r="I23" s="124"/>
-      <c r="J23" s="122" t="s">
+      <c r="G23" s="142"/>
+      <c r="H23" s="142"/>
+      <c r="I23" s="140"/>
+      <c r="J23" s="139" t="s">
         <v>13</v>
       </c>
-      <c r="K23" s="123"/>
-      <c r="L23" s="123"/>
-      <c r="M23" s="123"/>
-      <c r="N23" s="123"/>
-      <c r="O23" s="123"/>
-      <c r="P23" s="123"/>
-      <c r="Q23" s="123"/>
-      <c r="R23" s="123"/>
-      <c r="S23" s="123"/>
-      <c r="T23" s="123"/>
-      <c r="U23" s="123"/>
-      <c r="V23" s="123"/>
-      <c r="W23" s="123"/>
-      <c r="X23" s="123"/>
-      <c r="Y23" s="123"/>
-      <c r="Z23" s="123"/>
-      <c r="AA23" s="123"/>
-      <c r="AB23" s="124"/>
-      <c r="AC23" s="122" t="s">
+      <c r="K23" s="142"/>
+      <c r="L23" s="142"/>
+      <c r="M23" s="142"/>
+      <c r="N23" s="142"/>
+      <c r="O23" s="142"/>
+      <c r="P23" s="142"/>
+      <c r="Q23" s="142"/>
+      <c r="R23" s="142"/>
+      <c r="S23" s="142"/>
+      <c r="T23" s="142"/>
+      <c r="U23" s="142"/>
+      <c r="V23" s="142"/>
+      <c r="W23" s="142"/>
+      <c r="X23" s="142"/>
+      <c r="Y23" s="142"/>
+      <c r="Z23" s="142"/>
+      <c r="AA23" s="142"/>
+      <c r="AB23" s="140"/>
+      <c r="AC23" s="139" t="s">
         <v>8</v>
       </c>
-      <c r="AD23" s="123"/>
-      <c r="AE23" s="124"/>
+      <c r="AD23" s="142"/>
+      <c r="AE23" s="140"/>
       <c r="AF23" s="37"/>
     </row>
     <row r="24" spans="1:32" ht="29.25" customHeight="1">
       <c r="A24" s="12"/>
-      <c r="B24" s="122" t="s">
+      <c r="B24" s="139" t="s">
         <v>14</v>
       </c>
-      <c r="C24" s="123"/>
-      <c r="D24" s="123"/>
-      <c r="E24" s="124"/>
-      <c r="F24" s="125">
+      <c r="C24" s="142"/>
+      <c r="D24" s="142"/>
+      <c r="E24" s="140"/>
+      <c r="F24" s="153">
         <v>45306</v>
       </c>
-      <c r="G24" s="126"/>
-      <c r="H24" s="126"/>
-      <c r="I24" s="127"/>
-      <c r="J24" s="128" t="s">
+      <c r="G24" s="154"/>
+      <c r="H24" s="154"/>
+      <c r="I24" s="155"/>
+      <c r="J24" s="156" t="s">
         <v>15</v>
       </c>
-      <c r="K24" s="129"/>
-      <c r="L24" s="129"/>
-      <c r="M24" s="129"/>
-      <c r="N24" s="129"/>
-      <c r="O24" s="129"/>
-      <c r="P24" s="129"/>
-      <c r="Q24" s="129"/>
-      <c r="R24" s="129"/>
-      <c r="S24" s="129"/>
-      <c r="T24" s="129"/>
-      <c r="U24" s="129"/>
-      <c r="V24" s="129"/>
-      <c r="W24" s="129"/>
-      <c r="X24" s="129"/>
-      <c r="Y24" s="129"/>
-      <c r="Z24" s="129"/>
-      <c r="AA24" s="129"/>
-      <c r="AB24" s="130"/>
-      <c r="AC24" s="122" t="s">
+      <c r="K24" s="157"/>
+      <c r="L24" s="157"/>
+      <c r="M24" s="157"/>
+      <c r="N24" s="157"/>
+      <c r="O24" s="157"/>
+      <c r="P24" s="157"/>
+      <c r="Q24" s="157"/>
+      <c r="R24" s="157"/>
+      <c r="S24" s="157"/>
+      <c r="T24" s="157"/>
+      <c r="U24" s="157"/>
+      <c r="V24" s="157"/>
+      <c r="W24" s="157"/>
+      <c r="X24" s="157"/>
+      <c r="Y24" s="157"/>
+      <c r="Z24" s="157"/>
+      <c r="AA24" s="157"/>
+      <c r="AB24" s="158"/>
+      <c r="AC24" s="139" t="s">
         <v>239</v>
       </c>
-      <c r="AD24" s="123"/>
-      <c r="AE24" s="124"/>
+      <c r="AD24" s="142"/>
+      <c r="AE24" s="140"/>
       <c r="AF24" s="12"/>
     </row>
     <row r="25" spans="1:32" ht="29.25" customHeight="1">
       <c r="A25" s="12"/>
-      <c r="B25" s="122"/>
-      <c r="C25" s="123"/>
-      <c r="D25" s="123"/>
-      <c r="E25" s="124"/>
-      <c r="F25" s="125"/>
-      <c r="G25" s="126"/>
-      <c r="H25" s="126"/>
-      <c r="I25" s="127"/>
-      <c r="J25" s="128"/>
-      <c r="K25" s="129"/>
-      <c r="L25" s="129"/>
-      <c r="M25" s="129"/>
-      <c r="N25" s="129"/>
-      <c r="O25" s="129"/>
-      <c r="P25" s="129"/>
-      <c r="Q25" s="129"/>
-      <c r="R25" s="129"/>
-      <c r="S25" s="129"/>
-      <c r="T25" s="129"/>
-      <c r="U25" s="129"/>
-      <c r="V25" s="129"/>
-      <c r="W25" s="129"/>
-      <c r="X25" s="129"/>
-      <c r="Y25" s="129"/>
-      <c r="Z25" s="129"/>
-      <c r="AA25" s="129"/>
-      <c r="AB25" s="130"/>
-      <c r="AC25" s="122"/>
-      <c r="AD25" s="123"/>
-      <c r="AE25" s="124"/>
+      <c r="B25" s="139"/>
+      <c r="C25" s="142"/>
+      <c r="D25" s="142"/>
+      <c r="E25" s="140"/>
+      <c r="F25" s="153"/>
+      <c r="G25" s="154"/>
+      <c r="H25" s="154"/>
+      <c r="I25" s="155"/>
+      <c r="J25" s="156"/>
+      <c r="K25" s="157"/>
+      <c r="L25" s="157"/>
+      <c r="M25" s="157"/>
+      <c r="N25" s="157"/>
+      <c r="O25" s="157"/>
+      <c r="P25" s="157"/>
+      <c r="Q25" s="157"/>
+      <c r="R25" s="157"/>
+      <c r="S25" s="157"/>
+      <c r="T25" s="157"/>
+      <c r="U25" s="157"/>
+      <c r="V25" s="157"/>
+      <c r="W25" s="157"/>
+      <c r="X25" s="157"/>
+      <c r="Y25" s="157"/>
+      <c r="Z25" s="157"/>
+      <c r="AA25" s="157"/>
+      <c r="AB25" s="158"/>
+      <c r="AC25" s="139"/>
+      <c r="AD25" s="142"/>
+      <c r="AE25" s="140"/>
       <c r="AF25" s="12"/>
     </row>
     <row r="26" spans="1:32" ht="29.25" customHeight="1">
       <c r="A26" s="12"/>
-      <c r="B26" s="122"/>
-      <c r="C26" s="123"/>
-      <c r="D26" s="123"/>
-      <c r="E26" s="124"/>
-      <c r="F26" s="125"/>
-      <c r="G26" s="126"/>
-      <c r="H26" s="126"/>
-      <c r="I26" s="127"/>
-      <c r="J26" s="128"/>
-      <c r="K26" s="129"/>
-      <c r="L26" s="129"/>
-      <c r="M26" s="129"/>
-      <c r="N26" s="129"/>
-      <c r="O26" s="129"/>
-      <c r="P26" s="129"/>
-      <c r="Q26" s="129"/>
-      <c r="R26" s="129"/>
-      <c r="S26" s="129"/>
-      <c r="T26" s="129"/>
-      <c r="U26" s="129"/>
-      <c r="V26" s="129"/>
-      <c r="W26" s="129"/>
-      <c r="X26" s="129"/>
-      <c r="Y26" s="129"/>
-      <c r="Z26" s="129"/>
-      <c r="AA26" s="129"/>
-      <c r="AB26" s="130"/>
-      <c r="AC26" s="122"/>
-      <c r="AD26" s="123"/>
-      <c r="AE26" s="124"/>
+      <c r="B26" s="139"/>
+      <c r="C26" s="142"/>
+      <c r="D26" s="142"/>
+      <c r="E26" s="140"/>
+      <c r="F26" s="153"/>
+      <c r="G26" s="154"/>
+      <c r="H26" s="154"/>
+      <c r="I26" s="155"/>
+      <c r="J26" s="156"/>
+      <c r="K26" s="157"/>
+      <c r="L26" s="157"/>
+      <c r="M26" s="157"/>
+      <c r="N26" s="157"/>
+      <c r="O26" s="157"/>
+      <c r="P26" s="157"/>
+      <c r="Q26" s="157"/>
+      <c r="R26" s="157"/>
+      <c r="S26" s="157"/>
+      <c r="T26" s="157"/>
+      <c r="U26" s="157"/>
+      <c r="V26" s="157"/>
+      <c r="W26" s="157"/>
+      <c r="X26" s="157"/>
+      <c r="Y26" s="157"/>
+      <c r="Z26" s="157"/>
+      <c r="AA26" s="157"/>
+      <c r="AB26" s="158"/>
+      <c r="AC26" s="139"/>
+      <c r="AD26" s="142"/>
+      <c r="AE26" s="140"/>
       <c r="AF26" s="12"/>
     </row>
     <row r="27" spans="1:32" ht="29.25" customHeight="1">
       <c r="A27" s="12"/>
-      <c r="B27" s="122"/>
-      <c r="C27" s="123"/>
-      <c r="D27" s="123"/>
-      <c r="E27" s="124"/>
-      <c r="F27" s="125"/>
-      <c r="G27" s="126"/>
-      <c r="H27" s="126"/>
-      <c r="I27" s="127"/>
-      <c r="J27" s="128"/>
-      <c r="K27" s="129"/>
-      <c r="L27" s="129"/>
-      <c r="M27" s="129"/>
-      <c r="N27" s="129"/>
-      <c r="O27" s="129"/>
-      <c r="P27" s="129"/>
-      <c r="Q27" s="129"/>
-      <c r="R27" s="129"/>
-      <c r="S27" s="129"/>
-      <c r="T27" s="129"/>
-      <c r="U27" s="129"/>
-      <c r="V27" s="129"/>
-      <c r="W27" s="129"/>
-      <c r="X27" s="129"/>
-      <c r="Y27" s="129"/>
-      <c r="Z27" s="129"/>
-      <c r="AA27" s="129"/>
-      <c r="AB27" s="130"/>
-      <c r="AC27" s="122"/>
-      <c r="AD27" s="123"/>
-      <c r="AE27" s="124"/>
+      <c r="B27" s="139"/>
+      <c r="C27" s="142"/>
+      <c r="D27" s="142"/>
+      <c r="E27" s="140"/>
+      <c r="F27" s="153"/>
+      <c r="G27" s="154"/>
+      <c r="H27" s="154"/>
+      <c r="I27" s="155"/>
+      <c r="J27" s="156"/>
+      <c r="K27" s="157"/>
+      <c r="L27" s="157"/>
+      <c r="M27" s="157"/>
+      <c r="N27" s="157"/>
+      <c r="O27" s="157"/>
+      <c r="P27" s="157"/>
+      <c r="Q27" s="157"/>
+      <c r="R27" s="157"/>
+      <c r="S27" s="157"/>
+      <c r="T27" s="157"/>
+      <c r="U27" s="157"/>
+      <c r="V27" s="157"/>
+      <c r="W27" s="157"/>
+      <c r="X27" s="157"/>
+      <c r="Y27" s="157"/>
+      <c r="Z27" s="157"/>
+      <c r="AA27" s="157"/>
+      <c r="AB27" s="158"/>
+      <c r="AC27" s="139"/>
+      <c r="AD27" s="142"/>
+      <c r="AE27" s="140"/>
       <c r="AF27" s="12"/>
     </row>
     <row r="28" spans="1:32" ht="29.25" customHeight="1">
       <c r="A28" s="12"/>
-      <c r="B28" s="122"/>
-      <c r="C28" s="123"/>
-      <c r="D28" s="123"/>
-      <c r="E28" s="124"/>
-      <c r="F28" s="125"/>
-      <c r="G28" s="126"/>
-      <c r="H28" s="126"/>
-      <c r="I28" s="127"/>
-      <c r="J28" s="128"/>
-      <c r="K28" s="129"/>
-      <c r="L28" s="129"/>
-      <c r="M28" s="129"/>
-      <c r="N28" s="129"/>
-      <c r="O28" s="129"/>
-      <c r="P28" s="129"/>
-      <c r="Q28" s="129"/>
-      <c r="R28" s="129"/>
-      <c r="S28" s="129"/>
-      <c r="T28" s="129"/>
-      <c r="U28" s="129"/>
-      <c r="V28" s="129"/>
-      <c r="W28" s="129"/>
-      <c r="X28" s="129"/>
-      <c r="Y28" s="129"/>
-      <c r="Z28" s="129"/>
-      <c r="AA28" s="129"/>
-      <c r="AB28" s="130"/>
-      <c r="AC28" s="122"/>
-      <c r="AD28" s="123"/>
-      <c r="AE28" s="124"/>
+      <c r="B28" s="139"/>
+      <c r="C28" s="142"/>
+      <c r="D28" s="142"/>
+      <c r="E28" s="140"/>
+      <c r="F28" s="153"/>
+      <c r="G28" s="154"/>
+      <c r="H28" s="154"/>
+      <c r="I28" s="155"/>
+      <c r="J28" s="156"/>
+      <c r="K28" s="157"/>
+      <c r="L28" s="157"/>
+      <c r="M28" s="157"/>
+      <c r="N28" s="157"/>
+      <c r="O28" s="157"/>
+      <c r="P28" s="157"/>
+      <c r="Q28" s="157"/>
+      <c r="R28" s="157"/>
+      <c r="S28" s="157"/>
+      <c r="T28" s="157"/>
+      <c r="U28" s="157"/>
+      <c r="V28" s="157"/>
+      <c r="W28" s="157"/>
+      <c r="X28" s="157"/>
+      <c r="Y28" s="157"/>
+      <c r="Z28" s="157"/>
+      <c r="AA28" s="157"/>
+      <c r="AB28" s="158"/>
+      <c r="AC28" s="139"/>
+      <c r="AD28" s="142"/>
+      <c r="AE28" s="140"/>
       <c r="AF28" s="12"/>
     </row>
     <row r="29" spans="1:32" ht="29.25" customHeight="1">
       <c r="A29" s="12"/>
-      <c r="B29" s="122"/>
-      <c r="C29" s="123"/>
-      <c r="D29" s="123"/>
-      <c r="E29" s="124"/>
-      <c r="F29" s="125"/>
-      <c r="G29" s="126"/>
-      <c r="H29" s="126"/>
-      <c r="I29" s="127"/>
-      <c r="J29" s="128"/>
-      <c r="K29" s="129"/>
-      <c r="L29" s="129"/>
-      <c r="M29" s="129"/>
-      <c r="N29" s="129"/>
-      <c r="O29" s="129"/>
-      <c r="P29" s="129"/>
-      <c r="Q29" s="129"/>
-      <c r="R29" s="129"/>
-      <c r="S29" s="129"/>
-      <c r="T29" s="129"/>
-      <c r="U29" s="129"/>
-      <c r="V29" s="129"/>
-      <c r="W29" s="129"/>
-      <c r="X29" s="129"/>
-      <c r="Y29" s="129"/>
-      <c r="Z29" s="129"/>
-      <c r="AA29" s="129"/>
-      <c r="AB29" s="130"/>
-      <c r="AC29" s="122"/>
-      <c r="AD29" s="123"/>
-      <c r="AE29" s="124"/>
+      <c r="B29" s="139"/>
+      <c r="C29" s="142"/>
+      <c r="D29" s="142"/>
+      <c r="E29" s="140"/>
+      <c r="F29" s="153"/>
+      <c r="G29" s="154"/>
+      <c r="H29" s="154"/>
+      <c r="I29" s="155"/>
+      <c r="J29" s="156"/>
+      <c r="K29" s="157"/>
+      <c r="L29" s="157"/>
+      <c r="M29" s="157"/>
+      <c r="N29" s="157"/>
+      <c r="O29" s="157"/>
+      <c r="P29" s="157"/>
+      <c r="Q29" s="157"/>
+      <c r="R29" s="157"/>
+      <c r="S29" s="157"/>
+      <c r="T29" s="157"/>
+      <c r="U29" s="157"/>
+      <c r="V29" s="157"/>
+      <c r="W29" s="157"/>
+      <c r="X29" s="157"/>
+      <c r="Y29" s="157"/>
+      <c r="Z29" s="157"/>
+      <c r="AA29" s="157"/>
+      <c r="AB29" s="158"/>
+      <c r="AC29" s="139"/>
+      <c r="AD29" s="142"/>
+      <c r="AE29" s="140"/>
       <c r="AF29" s="12"/>
     </row>
     <row r="30" spans="1:32" ht="29.25" customHeight="1">
       <c r="A30" s="12"/>
-      <c r="B30" s="122"/>
-      <c r="C30" s="123"/>
-      <c r="D30" s="123"/>
-      <c r="E30" s="124"/>
-      <c r="F30" s="125"/>
-      <c r="G30" s="126"/>
-      <c r="H30" s="126"/>
-      <c r="I30" s="127"/>
-      <c r="J30" s="128"/>
-      <c r="K30" s="129"/>
-      <c r="L30" s="129"/>
-      <c r="M30" s="129"/>
-      <c r="N30" s="129"/>
-      <c r="O30" s="129"/>
-      <c r="P30" s="129"/>
-      <c r="Q30" s="129"/>
-      <c r="R30" s="129"/>
-      <c r="S30" s="129"/>
-      <c r="T30" s="129"/>
-      <c r="U30" s="129"/>
-      <c r="V30" s="129"/>
-      <c r="W30" s="129"/>
-      <c r="X30" s="129"/>
-      <c r="Y30" s="129"/>
-      <c r="Z30" s="129"/>
-      <c r="AA30" s="129"/>
-      <c r="AB30" s="130"/>
-      <c r="AC30" s="122"/>
-      <c r="AD30" s="123"/>
-      <c r="AE30" s="124"/>
+      <c r="B30" s="139"/>
+      <c r="C30" s="142"/>
+      <c r="D30" s="142"/>
+      <c r="E30" s="140"/>
+      <c r="F30" s="153"/>
+      <c r="G30" s="154"/>
+      <c r="H30" s="154"/>
+      <c r="I30" s="155"/>
+      <c r="J30" s="156"/>
+      <c r="K30" s="157"/>
+      <c r="L30" s="157"/>
+      <c r="M30" s="157"/>
+      <c r="N30" s="157"/>
+      <c r="O30" s="157"/>
+      <c r="P30" s="157"/>
+      <c r="Q30" s="157"/>
+      <c r="R30" s="157"/>
+      <c r="S30" s="157"/>
+      <c r="T30" s="157"/>
+      <c r="U30" s="157"/>
+      <c r="V30" s="157"/>
+      <c r="W30" s="157"/>
+      <c r="X30" s="157"/>
+      <c r="Y30" s="157"/>
+      <c r="Z30" s="157"/>
+      <c r="AA30" s="157"/>
+      <c r="AB30" s="158"/>
+      <c r="AC30" s="139"/>
+      <c r="AD30" s="142"/>
+      <c r="AE30" s="140"/>
       <c r="AF30" s="12"/>
     </row>
     <row r="31" spans="1:32" ht="29.25" customHeight="1">
       <c r="A31" s="12"/>
-      <c r="B31" s="122"/>
-      <c r="C31" s="123"/>
-      <c r="D31" s="123"/>
-      <c r="E31" s="124"/>
-      <c r="F31" s="125"/>
-      <c r="G31" s="126"/>
-      <c r="H31" s="126"/>
-      <c r="I31" s="127"/>
-      <c r="J31" s="128"/>
-      <c r="K31" s="129"/>
-      <c r="L31" s="129"/>
-      <c r="M31" s="129"/>
-      <c r="N31" s="129"/>
-      <c r="O31" s="129"/>
-      <c r="P31" s="129"/>
-      <c r="Q31" s="129"/>
-      <c r="R31" s="129"/>
-      <c r="S31" s="129"/>
-      <c r="T31" s="129"/>
-      <c r="U31" s="129"/>
-      <c r="V31" s="129"/>
-      <c r="W31" s="129"/>
-      <c r="X31" s="129"/>
-      <c r="Y31" s="129"/>
-      <c r="Z31" s="129"/>
-      <c r="AA31" s="129"/>
-      <c r="AB31" s="130"/>
-      <c r="AC31" s="122"/>
-      <c r="AD31" s="123"/>
-      <c r="AE31" s="124"/>
+      <c r="B31" s="139"/>
+      <c r="C31" s="142"/>
+      <c r="D31" s="142"/>
+      <c r="E31" s="140"/>
+      <c r="F31" s="153"/>
+      <c r="G31" s="154"/>
+      <c r="H31" s="154"/>
+      <c r="I31" s="155"/>
+      <c r="J31" s="156"/>
+      <c r="K31" s="157"/>
+      <c r="L31" s="157"/>
+      <c r="M31" s="157"/>
+      <c r="N31" s="157"/>
+      <c r="O31" s="157"/>
+      <c r="P31" s="157"/>
+      <c r="Q31" s="157"/>
+      <c r="R31" s="157"/>
+      <c r="S31" s="157"/>
+      <c r="T31" s="157"/>
+      <c r="U31" s="157"/>
+      <c r="V31" s="157"/>
+      <c r="W31" s="157"/>
+      <c r="X31" s="157"/>
+      <c r="Y31" s="157"/>
+      <c r="Z31" s="157"/>
+      <c r="AA31" s="157"/>
+      <c r="AB31" s="158"/>
+      <c r="AC31" s="139"/>
+      <c r="AD31" s="142"/>
+      <c r="AE31" s="140"/>
       <c r="AF31" s="12"/>
     </row>
     <row r="32" spans="1:32" ht="29.25" customHeight="1">
       <c r="A32" s="12"/>
-      <c r="B32" s="122"/>
-      <c r="C32" s="123"/>
-      <c r="D32" s="123"/>
-      <c r="E32" s="124"/>
-      <c r="F32" s="125"/>
-      <c r="G32" s="126"/>
-      <c r="H32" s="126"/>
-      <c r="I32" s="127"/>
-      <c r="J32" s="128"/>
-      <c r="K32" s="129"/>
-      <c r="L32" s="129"/>
-      <c r="M32" s="129"/>
-      <c r="N32" s="129"/>
-      <c r="O32" s="129"/>
-      <c r="P32" s="129"/>
-      <c r="Q32" s="129"/>
-      <c r="R32" s="129"/>
-      <c r="S32" s="129"/>
-      <c r="T32" s="129"/>
-      <c r="U32" s="129"/>
-      <c r="V32" s="129"/>
-      <c r="W32" s="129"/>
-      <c r="X32" s="129"/>
-      <c r="Y32" s="129"/>
-      <c r="Z32" s="129"/>
-      <c r="AA32" s="129"/>
-      <c r="AB32" s="130"/>
-      <c r="AC32" s="122"/>
-      <c r="AD32" s="123"/>
-      <c r="AE32" s="124"/>
+      <c r="B32" s="139"/>
+      <c r="C32" s="142"/>
+      <c r="D32" s="142"/>
+      <c r="E32" s="140"/>
+      <c r="F32" s="153"/>
+      <c r="G32" s="154"/>
+      <c r="H32" s="154"/>
+      <c r="I32" s="155"/>
+      <c r="J32" s="156"/>
+      <c r="K32" s="157"/>
+      <c r="L32" s="157"/>
+      <c r="M32" s="157"/>
+      <c r="N32" s="157"/>
+      <c r="O32" s="157"/>
+      <c r="P32" s="157"/>
+      <c r="Q32" s="157"/>
+      <c r="R32" s="157"/>
+      <c r="S32" s="157"/>
+      <c r="T32" s="157"/>
+      <c r="U32" s="157"/>
+      <c r="V32" s="157"/>
+      <c r="W32" s="157"/>
+      <c r="X32" s="157"/>
+      <c r="Y32" s="157"/>
+      <c r="Z32" s="157"/>
+      <c r="AA32" s="157"/>
+      <c r="AB32" s="158"/>
+      <c r="AC32" s="139"/>
+      <c r="AD32" s="142"/>
+      <c r="AE32" s="140"/>
       <c r="AF32" s="12"/>
     </row>
     <row r="33" spans="1:32" ht="29.25" customHeight="1">
       <c r="A33" s="12"/>
-      <c r="B33" s="122"/>
-      <c r="C33" s="123"/>
-      <c r="D33" s="123"/>
-      <c r="E33" s="124"/>
-      <c r="F33" s="125"/>
-      <c r="G33" s="126"/>
-      <c r="H33" s="126"/>
-      <c r="I33" s="127"/>
-      <c r="J33" s="128"/>
-      <c r="K33" s="129"/>
-      <c r="L33" s="129"/>
-      <c r="M33" s="129"/>
-      <c r="N33" s="129"/>
-      <c r="O33" s="129"/>
-      <c r="P33" s="129"/>
-      <c r="Q33" s="129"/>
-      <c r="R33" s="129"/>
-      <c r="S33" s="129"/>
-      <c r="T33" s="129"/>
-      <c r="U33" s="129"/>
-      <c r="V33" s="129"/>
-      <c r="W33" s="129"/>
-      <c r="X33" s="129"/>
-      <c r="Y33" s="129"/>
-      <c r="Z33" s="129"/>
-      <c r="AA33" s="129"/>
-      <c r="AB33" s="130"/>
-      <c r="AC33" s="122"/>
-      <c r="AD33" s="123"/>
-      <c r="AE33" s="124"/>
+      <c r="B33" s="139"/>
+      <c r="C33" s="142"/>
+      <c r="D33" s="142"/>
+      <c r="E33" s="140"/>
+      <c r="F33" s="153"/>
+      <c r="G33" s="154"/>
+      <c r="H33" s="154"/>
+      <c r="I33" s="155"/>
+      <c r="J33" s="156"/>
+      <c r="K33" s="157"/>
+      <c r="L33" s="157"/>
+      <c r="M33" s="157"/>
+      <c r="N33" s="157"/>
+      <c r="O33" s="157"/>
+      <c r="P33" s="157"/>
+      <c r="Q33" s="157"/>
+      <c r="R33" s="157"/>
+      <c r="S33" s="157"/>
+      <c r="T33" s="157"/>
+      <c r="U33" s="157"/>
+      <c r="V33" s="157"/>
+      <c r="W33" s="157"/>
+      <c r="X33" s="157"/>
+      <c r="Y33" s="157"/>
+      <c r="Z33" s="157"/>
+      <c r="AA33" s="157"/>
+      <c r="AB33" s="158"/>
+      <c r="AC33" s="139"/>
+      <c r="AD33" s="142"/>
+      <c r="AE33" s="140"/>
       <c r="AF33" s="12"/>
     </row>
     <row r="34" spans="1:32" ht="15" customHeight="1">
@@ -5083,6 +5063,51 @@
     </row>
   </sheetData>
   <mergeCells count="56">
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="F32:I32"/>
+    <mergeCell ref="J32:AB32"/>
+    <mergeCell ref="AC32:AE32"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="F33:I33"/>
+    <mergeCell ref="J33:AB33"/>
+    <mergeCell ref="AC33:AE33"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="F30:I30"/>
+    <mergeCell ref="J30:AB30"/>
+    <mergeCell ref="AC30:AE30"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="F31:I31"/>
+    <mergeCell ref="J31:AB31"/>
+    <mergeCell ref="AC31:AE31"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="F28:I28"/>
+    <mergeCell ref="J28:AB28"/>
+    <mergeCell ref="AC28:AE28"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="F29:I29"/>
+    <mergeCell ref="J29:AB29"/>
+    <mergeCell ref="AC29:AE29"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="F26:I26"/>
+    <mergeCell ref="J26:AB26"/>
+    <mergeCell ref="AC26:AE26"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="F27:I27"/>
+    <mergeCell ref="J27:AB27"/>
+    <mergeCell ref="AC27:AE27"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="J24:AB24"/>
+    <mergeCell ref="AC24:AE24"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="J25:AB25"/>
+    <mergeCell ref="AC25:AE25"/>
+    <mergeCell ref="B16:AE18"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="J23:AB23"/>
+    <mergeCell ref="AC23:AE23"/>
     <mergeCell ref="AC8:AE8"/>
     <mergeCell ref="F7:Q7"/>
     <mergeCell ref="B8:E9"/>
@@ -5094,51 +5119,6 @@
     <mergeCell ref="AC9:AE12"/>
     <mergeCell ref="Z9:AB12"/>
     <mergeCell ref="W9:Y12"/>
-    <mergeCell ref="B16:AE18"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="J23:AB23"/>
-    <mergeCell ref="AC23:AE23"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="J24:AB24"/>
-    <mergeCell ref="AC24:AE24"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="J25:AB25"/>
-    <mergeCell ref="AC25:AE25"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="F26:I26"/>
-    <mergeCell ref="J26:AB26"/>
-    <mergeCell ref="AC26:AE26"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="F27:I27"/>
-    <mergeCell ref="J27:AB27"/>
-    <mergeCell ref="AC27:AE27"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="F28:I28"/>
-    <mergeCell ref="J28:AB28"/>
-    <mergeCell ref="AC28:AE28"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="F29:I29"/>
-    <mergeCell ref="J29:AB29"/>
-    <mergeCell ref="AC29:AE29"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="F30:I30"/>
-    <mergeCell ref="J30:AB30"/>
-    <mergeCell ref="AC30:AE30"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="F31:I31"/>
-    <mergeCell ref="J31:AB31"/>
-    <mergeCell ref="AC31:AE31"/>
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="F32:I32"/>
-    <mergeCell ref="J32:AB32"/>
-    <mergeCell ref="AC32:AE32"/>
-    <mergeCell ref="B33:E33"/>
-    <mergeCell ref="F33:I33"/>
-    <mergeCell ref="J33:AB33"/>
-    <mergeCell ref="AC33:AE33"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>
@@ -5261,42 +5241,42 @@
         <v>38</v>
       </c>
       <c r="B6" s="45"/>
-      <c r="C6" s="168" t="s">
+      <c r="C6" s="195" t="s">
         <v>69</v>
       </c>
-      <c r="D6" s="169"/>
-      <c r="E6" s="169"/>
-      <c r="F6" s="169"/>
-      <c r="G6" s="169"/>
-      <c r="H6" s="170"/>
+      <c r="D6" s="196"/>
+      <c r="E6" s="196"/>
+      <c r="F6" s="196"/>
+      <c r="G6" s="196"/>
+      <c r="H6" s="197"/>
     </row>
     <row r="7" spans="1:8" ht="20.25" customHeight="1">
       <c r="A7" s="40" t="s">
         <v>31</v>
       </c>
       <c r="B7" s="45"/>
-      <c r="C7" s="168" t="s">
+      <c r="C7" s="195" t="s">
         <v>70</v>
       </c>
-      <c r="D7" s="169"/>
-      <c r="E7" s="169"/>
-      <c r="F7" s="169"/>
-      <c r="G7" s="169"/>
-      <c r="H7" s="170"/>
+      <c r="D7" s="196"/>
+      <c r="E7" s="196"/>
+      <c r="F7" s="196"/>
+      <c r="G7" s="196"/>
+      <c r="H7" s="197"/>
     </row>
     <row r="8" spans="1:8" ht="20.25" customHeight="1">
       <c r="A8" s="40" t="s">
         <v>39</v>
       </c>
       <c r="B8" s="45"/>
-      <c r="C8" s="168" t="s">
+      <c r="C8" s="195" t="s">
         <v>78</v>
       </c>
-      <c r="D8" s="169"/>
-      <c r="E8" s="169"/>
-      <c r="F8" s="169"/>
-      <c r="G8" s="169"/>
-      <c r="H8" s="170"/>
+      <c r="D8" s="196"/>
+      <c r="E8" s="196"/>
+      <c r="F8" s="196"/>
+      <c r="G8" s="196"/>
+      <c r="H8" s="197"/>
     </row>
     <row r="9" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A9" s="46" t="s">
@@ -5317,10 +5297,10 @@
       <c r="B10" s="48" t="s">
         <v>42</v>
       </c>
-      <c r="C10" s="171" t="s">
+      <c r="C10" s="181" t="s">
         <v>43</v>
       </c>
-      <c r="D10" s="172"/>
+      <c r="D10" s="198"/>
       <c r="E10" s="48" t="s">
         <v>44</v>
       </c>
@@ -5341,10 +5321,10 @@
       <c r="B11" s="62" t="s">
         <v>65</v>
       </c>
-      <c r="C11" s="173" t="s">
+      <c r="C11" s="199" t="s">
         <v>72</v>
       </c>
-      <c r="D11" s="174"/>
+      <c r="D11" s="200"/>
       <c r="E11" s="63" t="s">
         <v>79</v>
       </c>
@@ -5363,10 +5343,10 @@
       <c r="B12" s="67" t="s">
         <v>66</v>
       </c>
-      <c r="C12" s="166" t="s">
+      <c r="C12" s="191" t="s">
         <v>73</v>
       </c>
-      <c r="D12" s="167"/>
+      <c r="D12" s="192"/>
       <c r="E12" s="68" t="s">
         <v>81</v>
       </c>
@@ -5383,10 +5363,10 @@
       <c r="B13" s="67" t="s">
         <v>67</v>
       </c>
-      <c r="C13" s="166" t="s">
+      <c r="C13" s="191" t="s">
         <v>74</v>
       </c>
-      <c r="D13" s="167"/>
+      <c r="D13" s="192"/>
       <c r="E13" s="68" t="s">
         <v>81</v>
       </c>
@@ -5403,10 +5383,10 @@
       <c r="B14" s="72" t="s">
         <v>68</v>
       </c>
-      <c r="C14" s="166" t="s">
+      <c r="C14" s="191" t="s">
         <v>75</v>
       </c>
-      <c r="D14" s="167"/>
+      <c r="D14" s="192"/>
       <c r="E14" s="68" t="s">
         <v>82</v>
       </c>
@@ -5419,8 +5399,8 @@
     <row r="15" spans="1:8" ht="20.25" customHeight="1">
       <c r="A15" s="71"/>
       <c r="B15" s="72"/>
-      <c r="C15" s="166"/>
-      <c r="D15" s="167"/>
+      <c r="C15" s="191"/>
+      <c r="D15" s="192"/>
       <c r="E15" s="73"/>
       <c r="F15" s="73"/>
       <c r="G15" s="74"/>
@@ -5429,8 +5409,8 @@
     <row r="16" spans="1:8" ht="20.25" customHeight="1">
       <c r="A16" s="71"/>
       <c r="B16" s="72"/>
-      <c r="C16" s="166"/>
-      <c r="D16" s="167"/>
+      <c r="C16" s="191"/>
+      <c r="D16" s="192"/>
       <c r="E16" s="73"/>
       <c r="F16" s="73"/>
       <c r="G16" s="74"/>
@@ -5439,8 +5419,8 @@
     <row r="17" spans="1:8" ht="20.25" customHeight="1">
       <c r="A17" s="71"/>
       <c r="B17" s="72"/>
-      <c r="C17" s="166"/>
-      <c r="D17" s="167"/>
+      <c r="C17" s="191"/>
+      <c r="D17" s="192"/>
       <c r="E17" s="73"/>
       <c r="F17" s="73"/>
       <c r="G17" s="74"/>
@@ -5449,8 +5429,8 @@
     <row r="18" spans="1:8" ht="20.25" customHeight="1">
       <c r="A18" s="71"/>
       <c r="B18" s="72"/>
-      <c r="C18" s="166"/>
-      <c r="D18" s="167"/>
+      <c r="C18" s="191"/>
+      <c r="D18" s="192"/>
       <c r="E18" s="73"/>
       <c r="F18" s="73"/>
       <c r="G18" s="74"/>
@@ -5459,8 +5439,8 @@
     <row r="19" spans="1:8" ht="20.25" customHeight="1">
       <c r="A19" s="71"/>
       <c r="B19" s="72"/>
-      <c r="C19" s="166"/>
-      <c r="D19" s="167"/>
+      <c r="C19" s="191"/>
+      <c r="D19" s="192"/>
       <c r="E19" s="73"/>
       <c r="F19" s="73"/>
       <c r="G19" s="74"/>
@@ -5469,8 +5449,8 @@
     <row r="20" spans="1:8" ht="20.25" customHeight="1">
       <c r="A20" s="71"/>
       <c r="B20" s="72"/>
-      <c r="C20" s="166"/>
-      <c r="D20" s="167"/>
+      <c r="C20" s="191"/>
+      <c r="D20" s="192"/>
       <c r="E20" s="73"/>
       <c r="F20" s="73"/>
       <c r="G20" s="74"/>
@@ -5479,8 +5459,8 @@
     <row r="21" spans="1:8" ht="20.25" customHeight="1">
       <c r="A21" s="71"/>
       <c r="B21" s="72"/>
-      <c r="C21" s="166"/>
-      <c r="D21" s="167"/>
+      <c r="C21" s="191"/>
+      <c r="D21" s="192"/>
       <c r="E21" s="73"/>
       <c r="F21" s="73"/>
       <c r="G21" s="74"/>
@@ -5489,8 +5469,8 @@
     <row r="22" spans="1:8" ht="20.25" customHeight="1">
       <c r="A22" s="71"/>
       <c r="B22" s="72"/>
-      <c r="C22" s="166"/>
-      <c r="D22" s="167"/>
+      <c r="C22" s="191"/>
+      <c r="D22" s="192"/>
       <c r="E22" s="73"/>
       <c r="F22" s="73"/>
       <c r="G22" s="74"/>
@@ -5499,8 +5479,8 @@
     <row r="23" spans="1:8" ht="20.25" customHeight="1">
       <c r="A23" s="71"/>
       <c r="B23" s="72"/>
-      <c r="C23" s="166"/>
-      <c r="D23" s="167"/>
+      <c r="C23" s="191"/>
+      <c r="D23" s="192"/>
       <c r="E23" s="73"/>
       <c r="F23" s="73"/>
       <c r="G23" s="74"/>
@@ -5509,8 +5489,8 @@
     <row r="24" spans="1:8" ht="20.25" customHeight="1">
       <c r="A24" s="71"/>
       <c r="B24" s="72"/>
-      <c r="C24" s="166"/>
-      <c r="D24" s="167"/>
+      <c r="C24" s="191"/>
+      <c r="D24" s="192"/>
       <c r="E24" s="73"/>
       <c r="F24" s="73"/>
       <c r="G24" s="74"/>
@@ -5519,8 +5499,8 @@
     <row r="25" spans="1:8" ht="20.25" customHeight="1">
       <c r="A25" s="71"/>
       <c r="B25" s="72"/>
-      <c r="C25" s="166"/>
-      <c r="D25" s="167"/>
+      <c r="C25" s="191"/>
+      <c r="D25" s="192"/>
       <c r="E25" s="73"/>
       <c r="F25" s="73"/>
       <c r="G25" s="74"/>
@@ -5529,8 +5509,8 @@
     <row r="26" spans="1:8" ht="20.25" customHeight="1">
       <c r="A26" s="71"/>
       <c r="B26" s="72"/>
-      <c r="C26" s="166"/>
-      <c r="D26" s="167"/>
+      <c r="C26" s="191"/>
+      <c r="D26" s="192"/>
       <c r="E26" s="73"/>
       <c r="F26" s="73"/>
       <c r="G26" s="74"/>
@@ -5539,8 +5519,8 @@
     <row r="27" spans="1:8" ht="20.25" customHeight="1">
       <c r="A27" s="71"/>
       <c r="B27" s="72"/>
-      <c r="C27" s="166"/>
-      <c r="D27" s="167"/>
+      <c r="C27" s="191"/>
+      <c r="D27" s="192"/>
       <c r="E27" s="73"/>
       <c r="F27" s="73"/>
       <c r="G27" s="74"/>
@@ -5549,8 +5529,8 @@
     <row r="28" spans="1:8" ht="20.25" customHeight="1">
       <c r="A28" s="71"/>
       <c r="B28" s="72"/>
-      <c r="C28" s="166"/>
-      <c r="D28" s="167"/>
+      <c r="C28" s="191"/>
+      <c r="D28" s="192"/>
       <c r="E28" s="73"/>
       <c r="F28" s="73"/>
       <c r="G28" s="74"/>
@@ -5559,8 +5539,8 @@
     <row r="29" spans="1:8" ht="20.25" customHeight="1">
       <c r="A29" s="71"/>
       <c r="B29" s="72"/>
-      <c r="C29" s="166"/>
-      <c r="D29" s="167"/>
+      <c r="C29" s="191"/>
+      <c r="D29" s="192"/>
       <c r="E29" s="73"/>
       <c r="F29" s="73"/>
       <c r="G29" s="74"/>
@@ -5569,8 +5549,8 @@
     <row r="30" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A30" s="76"/>
       <c r="B30" s="77"/>
-      <c r="C30" s="180"/>
-      <c r="D30" s="181"/>
+      <c r="C30" s="170"/>
+      <c r="D30" s="172"/>
       <c r="E30" s="78"/>
       <c r="F30" s="78"/>
       <c r="G30" s="79"/>
@@ -5602,10 +5582,10 @@
       <c r="A33" s="53" t="s">
         <v>41</v>
       </c>
-      <c r="B33" s="182" t="s">
+      <c r="B33" s="178" t="s">
         <v>49</v>
       </c>
-      <c r="C33" s="183"/>
+      <c r="C33" s="180"/>
       <c r="D33" s="54" t="s">
         <v>50</v>
       </c>
@@ -5620,51 +5600,51 @@
     </row>
     <row r="34" spans="1:8" ht="20.25" customHeight="1">
       <c r="A34" s="61"/>
-      <c r="B34" s="184"/>
-      <c r="C34" s="185"/>
-      <c r="D34" s="186"/>
-      <c r="E34" s="187"/>
-      <c r="F34" s="188"/>
+      <c r="B34" s="193"/>
+      <c r="C34" s="194"/>
+      <c r="D34" s="183"/>
+      <c r="E34" s="184"/>
+      <c r="F34" s="185"/>
       <c r="G34" s="64"/>
       <c r="H34" s="65"/>
     </row>
     <row r="35" spans="1:8" ht="20.25" customHeight="1">
       <c r="A35" s="66"/>
-      <c r="B35" s="175"/>
-      <c r="C35" s="176"/>
-      <c r="D35" s="177"/>
-      <c r="E35" s="178"/>
-      <c r="F35" s="179"/>
+      <c r="B35" s="186"/>
+      <c r="C35" s="187"/>
+      <c r="D35" s="167"/>
+      <c r="E35" s="168"/>
+      <c r="F35" s="169"/>
       <c r="G35" s="69"/>
       <c r="H35" s="70"/>
     </row>
     <row r="36" spans="1:8" ht="20.25" customHeight="1">
       <c r="A36" s="66"/>
-      <c r="B36" s="175"/>
-      <c r="C36" s="176"/>
-      <c r="D36" s="177"/>
-      <c r="E36" s="178"/>
-      <c r="F36" s="179"/>
+      <c r="B36" s="186"/>
+      <c r="C36" s="187"/>
+      <c r="D36" s="167"/>
+      <c r="E36" s="168"/>
+      <c r="F36" s="169"/>
       <c r="G36" s="69"/>
       <c r="H36" s="70"/>
     </row>
     <row r="37" spans="1:8" ht="20.25" customHeight="1">
       <c r="A37" s="66"/>
-      <c r="B37" s="175"/>
-      <c r="C37" s="176"/>
-      <c r="D37" s="177"/>
-      <c r="E37" s="178"/>
-      <c r="F37" s="179"/>
+      <c r="B37" s="186"/>
+      <c r="C37" s="187"/>
+      <c r="D37" s="167"/>
+      <c r="E37" s="168"/>
+      <c r="F37" s="169"/>
       <c r="G37" s="69"/>
       <c r="H37" s="70"/>
     </row>
     <row r="38" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A38" s="76"/>
-      <c r="B38" s="189"/>
-      <c r="C38" s="190"/>
-      <c r="D38" s="180"/>
-      <c r="E38" s="191"/>
-      <c r="F38" s="181"/>
+      <c r="B38" s="188"/>
+      <c r="C38" s="189"/>
+      <c r="D38" s="170"/>
+      <c r="E38" s="171"/>
+      <c r="F38" s="172"/>
       <c r="G38" s="79"/>
       <c r="H38" s="80"/>
     </row>
@@ -5697,15 +5677,15 @@
       <c r="B41" s="57" t="s">
         <v>53</v>
       </c>
-      <c r="C41" s="182" t="s">
+      <c r="C41" s="178" t="s">
         <v>50</v>
       </c>
-      <c r="D41" s="192"/>
-      <c r="E41" s="183"/>
-      <c r="F41" s="182" t="s">
+      <c r="D41" s="179"/>
+      <c r="E41" s="180"/>
+      <c r="F41" s="178" t="s">
         <v>54</v>
       </c>
-      <c r="G41" s="193"/>
+      <c r="G41" s="190"/>
       <c r="H41" s="58" t="s">
         <v>55</v>
       </c>
@@ -5713,51 +5693,51 @@
     <row r="42" spans="1:8" ht="20.25" customHeight="1">
       <c r="A42" s="81"/>
       <c r="B42" s="82"/>
-      <c r="C42" s="186"/>
-      <c r="D42" s="187"/>
-      <c r="E42" s="188"/>
-      <c r="F42" s="186"/>
-      <c r="G42" s="188"/>
+      <c r="C42" s="183"/>
+      <c r="D42" s="184"/>
+      <c r="E42" s="185"/>
+      <c r="F42" s="183"/>
+      <c r="G42" s="185"/>
       <c r="H42" s="83"/>
     </row>
     <row r="43" spans="1:8" ht="20.25" customHeight="1">
       <c r="A43" s="84"/>
       <c r="B43" s="85"/>
-      <c r="C43" s="177"/>
-      <c r="D43" s="178"/>
-      <c r="E43" s="179"/>
-      <c r="F43" s="177"/>
-      <c r="G43" s="179"/>
+      <c r="C43" s="167"/>
+      <c r="D43" s="168"/>
+      <c r="E43" s="169"/>
+      <c r="F43" s="167"/>
+      <c r="G43" s="169"/>
       <c r="H43" s="86"/>
     </row>
     <row r="44" spans="1:8" ht="20.25" customHeight="1">
       <c r="A44" s="84"/>
       <c r="B44" s="85"/>
-      <c r="C44" s="177"/>
-      <c r="D44" s="178"/>
-      <c r="E44" s="179"/>
-      <c r="F44" s="177"/>
-      <c r="G44" s="179"/>
+      <c r="C44" s="167"/>
+      <c r="D44" s="168"/>
+      <c r="E44" s="169"/>
+      <c r="F44" s="167"/>
+      <c r="G44" s="169"/>
       <c r="H44" s="86"/>
     </row>
     <row r="45" spans="1:8" ht="20.25" customHeight="1">
       <c r="A45" s="84"/>
       <c r="B45" s="85"/>
-      <c r="C45" s="177"/>
-      <c r="D45" s="178"/>
-      <c r="E45" s="179"/>
-      <c r="F45" s="177"/>
-      <c r="G45" s="179"/>
+      <c r="C45" s="167"/>
+      <c r="D45" s="168"/>
+      <c r="E45" s="169"/>
+      <c r="F45" s="167"/>
+      <c r="G45" s="169"/>
       <c r="H45" s="86"/>
     </row>
     <row r="46" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A46" s="87"/>
       <c r="B46" s="88"/>
-      <c r="C46" s="180"/>
-      <c r="D46" s="191"/>
-      <c r="E46" s="181"/>
-      <c r="F46" s="194"/>
-      <c r="G46" s="195"/>
+      <c r="C46" s="170"/>
+      <c r="D46" s="171"/>
+      <c r="E46" s="172"/>
+      <c r="F46" s="173"/>
+      <c r="G46" s="174"/>
       <c r="H46" s="89"/>
     </row>
     <row r="47" spans="1:8" ht="20.25" customHeight="1">
@@ -5789,15 +5769,15 @@
       <c r="B49" s="57" t="s">
         <v>53</v>
       </c>
-      <c r="C49" s="182" t="s">
+      <c r="C49" s="178" t="s">
         <v>50</v>
       </c>
-      <c r="D49" s="192"/>
-      <c r="E49" s="183"/>
-      <c r="F49" s="171" t="s">
+      <c r="D49" s="179"/>
+      <c r="E49" s="180"/>
+      <c r="F49" s="181" t="s">
         <v>57</v>
       </c>
-      <c r="G49" s="196"/>
+      <c r="G49" s="182"/>
       <c r="H49" s="49" t="s">
         <v>58</v>
       </c>
@@ -5807,83 +5787,73 @@
         <v>1</v>
       </c>
       <c r="B50" s="95"/>
-      <c r="C50" s="197"/>
-      <c r="D50" s="198"/>
-      <c r="E50" s="199"/>
-      <c r="F50" s="197"/>
-      <c r="G50" s="199"/>
+      <c r="C50" s="175"/>
+      <c r="D50" s="176"/>
+      <c r="E50" s="177"/>
+      <c r="F50" s="175"/>
+      <c r="G50" s="177"/>
       <c r="H50" s="96"/>
     </row>
     <row r="51" spans="1:8" ht="20.25" customHeight="1">
       <c r="A51" s="84"/>
       <c r="B51" s="85"/>
-      <c r="C51" s="177"/>
-      <c r="D51" s="178"/>
-      <c r="E51" s="179"/>
-      <c r="F51" s="177"/>
-      <c r="G51" s="179"/>
+      <c r="C51" s="167"/>
+      <c r="D51" s="168"/>
+      <c r="E51" s="169"/>
+      <c r="F51" s="167"/>
+      <c r="G51" s="169"/>
       <c r="H51" s="86"/>
     </row>
     <row r="52" spans="1:8" ht="20.25" customHeight="1">
       <c r="A52" s="84"/>
       <c r="B52" s="85"/>
-      <c r="C52" s="177"/>
-      <c r="D52" s="178"/>
-      <c r="E52" s="179"/>
-      <c r="F52" s="177"/>
-      <c r="G52" s="179"/>
+      <c r="C52" s="167"/>
+      <c r="D52" s="168"/>
+      <c r="E52" s="169"/>
+      <c r="F52" s="167"/>
+      <c r="G52" s="169"/>
       <c r="H52" s="86"/>
     </row>
     <row r="53" spans="1:8" ht="20.25" customHeight="1">
       <c r="A53" s="84"/>
       <c r="B53" s="85"/>
-      <c r="C53" s="177"/>
-      <c r="D53" s="178"/>
-      <c r="E53" s="179"/>
-      <c r="F53" s="177"/>
-      <c r="G53" s="179"/>
+      <c r="C53" s="167"/>
+      <c r="D53" s="168"/>
+      <c r="E53" s="169"/>
+      <c r="F53" s="167"/>
+      <c r="G53" s="169"/>
       <c r="H53" s="86"/>
     </row>
     <row r="54" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A54" s="87"/>
       <c r="B54" s="88"/>
-      <c r="C54" s="180"/>
-      <c r="D54" s="191"/>
-      <c r="E54" s="181"/>
-      <c r="F54" s="194"/>
-      <c r="G54" s="195"/>
+      <c r="C54" s="170"/>
+      <c r="D54" s="171"/>
+      <c r="E54" s="172"/>
+      <c r="F54" s="173"/>
+      <c r="G54" s="174"/>
       <c r="H54" s="89"/>
     </row>
   </sheetData>
   <mergeCells count="59">
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="C54:E54"/>
-    <mergeCell ref="F54:G54"/>
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="C51:E51"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="C52:E52"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="C44:E44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
     <mergeCell ref="B36:C36"/>
     <mergeCell ref="D36:F36"/>
     <mergeCell ref="C25:D25"/>
@@ -5897,24 +5867,34 @@
     <mergeCell ref="D34:F34"/>
     <mergeCell ref="B35:C35"/>
     <mergeCell ref="D35:F35"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="C54:E54"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="F52:G52"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="1.0236220472440944" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -5927,9 +5907,9 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N17"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
@@ -5979,10 +5959,10 @@
       <c r="K2" s="100" t="s">
         <v>21</v>
       </c>
-      <c r="L2" s="206">
+      <c r="L2" s="204">
         <v>45307</v>
       </c>
-      <c r="M2" s="207"/>
+      <c r="M2" s="205"/>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="101" t="s">
@@ -6004,8 +5984,8 @@
       <c r="K3" s="100" t="s">
         <v>27</v>
       </c>
-      <c r="L3" s="208"/>
-      <c r="M3" s="207"/>
+      <c r="L3" s="206"/>
+      <c r="M3" s="205"/>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="98" t="s">
@@ -6025,10 +6005,10 @@
       <c r="K4" s="100" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="208" t="s">
+      <c r="L4" s="206" t="s">
         <v>14</v>
       </c>
-      <c r="M4" s="207"/>
+      <c r="M4" s="205"/>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="18"/>
@@ -6088,16 +6068,16 @@
     <row r="9" spans="1:14" ht="21.75" customHeight="1">
       <c r="A9" s="105"/>
       <c r="F9" s="106"/>
-      <c r="G9" s="200" t="s">
+      <c r="G9" s="210" t="s">
         <v>61</v>
       </c>
-      <c r="H9" s="201"/>
-      <c r="I9" s="201"/>
-      <c r="J9" s="201"/>
-      <c r="K9" s="201"/>
-      <c r="L9" s="201"/>
-      <c r="M9" s="201"/>
-      <c r="N9" s="202"/>
+      <c r="H9" s="211"/>
+      <c r="I9" s="211"/>
+      <c r="J9" s="211"/>
+      <c r="K9" s="211"/>
+      <c r="L9" s="211"/>
+      <c r="M9" s="211"/>
+      <c r="N9" s="212"/>
     </row>
     <row r="10" spans="1:14" ht="21.75" customHeight="1">
       <c r="A10" s="105"/>
@@ -6133,15 +6113,15 @@
     </row>
     <row r="11" spans="1:14" ht="22.5" customHeight="1">
       <c r="A11" s="105"/>
-      <c r="B11" s="209" t="s">
+      <c r="B11" s="201" t="s">
         <v>62</v>
       </c>
-      <c r="C11" s="203" t="s">
+      <c r="C11" s="207" t="s">
         <v>242</v>
       </c>
-      <c r="D11" s="204"/>
-      <c r="E11" s="204"/>
-      <c r="F11" s="205"/>
+      <c r="D11" s="208"/>
+      <c r="E11" s="208"/>
+      <c r="F11" s="209"/>
       <c r="G11" s="109" t="s">
         <v>252</v>
       </c>
@@ -6169,13 +6149,13 @@
     </row>
     <row r="12" spans="1:14" ht="22.5" customHeight="1">
       <c r="A12" s="105"/>
-      <c r="B12" s="210"/>
-      <c r="C12" s="203" t="s">
+      <c r="B12" s="202"/>
+      <c r="C12" s="207" t="s">
         <v>243</v>
       </c>
-      <c r="D12" s="204"/>
-      <c r="E12" s="204"/>
-      <c r="F12" s="205"/>
+      <c r="D12" s="208"/>
+      <c r="E12" s="208"/>
+      <c r="F12" s="209"/>
       <c r="G12" s="109" t="s">
         <v>252</v>
       </c>
@@ -6203,13 +6183,13 @@
     </row>
     <row r="13" spans="1:14" ht="22.5" customHeight="1">
       <c r="A13" s="105"/>
-      <c r="B13" s="210"/>
-      <c r="C13" s="203" t="s">
+      <c r="B13" s="202"/>
+      <c r="C13" s="207" t="s">
         <v>244</v>
       </c>
-      <c r="D13" s="204"/>
-      <c r="E13" s="204"/>
-      <c r="F13" s="205"/>
+      <c r="D13" s="208"/>
+      <c r="E13" s="208"/>
+      <c r="F13" s="209"/>
       <c r="G13" s="109" t="s">
         <v>250</v>
       </c>
@@ -6237,13 +6217,13 @@
     </row>
     <row r="14" spans="1:14" ht="22.5" customHeight="1">
       <c r="A14" s="105"/>
-      <c r="B14" s="210"/>
-      <c r="C14" s="203" t="s">
+      <c r="B14" s="202"/>
+      <c r="C14" s="207" t="s">
         <v>245</v>
       </c>
-      <c r="D14" s="204"/>
-      <c r="E14" s="204"/>
-      <c r="F14" s="205"/>
+      <c r="D14" s="208"/>
+      <c r="E14" s="208"/>
+      <c r="F14" s="209"/>
       <c r="G14" s="109" t="s">
         <v>250</v>
       </c>
@@ -6271,13 +6251,13 @@
     </row>
     <row r="15" spans="1:14" ht="22.5" customHeight="1">
       <c r="A15" s="105"/>
-      <c r="B15" s="211"/>
-      <c r="C15" s="203" t="s">
+      <c r="B15" s="203"/>
+      <c r="C15" s="207" t="s">
         <v>246</v>
       </c>
-      <c r="D15" s="204"/>
-      <c r="E15" s="204"/>
-      <c r="F15" s="205"/>
+      <c r="D15" s="208"/>
+      <c r="E15" s="208"/>
+      <c r="F15" s="209"/>
       <c r="G15" s="109" t="s">
         <v>252</v>
       </c>
@@ -6305,23 +6285,7 @@
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="105"/>
-      <c r="N16" s="213"/>
-    </row>
-    <row r="17" spans="1:14">
-      <c r="A17" s="212"/>
-      <c r="B17" s="212"/>
-      <c r="C17" s="212"/>
-      <c r="D17" s="212"/>
-      <c r="E17" s="212"/>
-      <c r="F17" s="212"/>
-      <c r="G17" s="212"/>
-      <c r="H17" s="212"/>
-      <c r="I17" s="212"/>
-      <c r="J17" s="212"/>
-      <c r="K17" s="212"/>
-      <c r="L17" s="212"/>
-      <c r="M17" s="212"/>
-      <c r="N17" s="212"/>
+      <c r="N16" s="122"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -6349,8 +6313,8 @@
   </sheetPr>
   <dimension ref="A1:F74"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I71" sqref="I71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.8"/>
@@ -6375,10 +6339,10 @@
       <c r="F1" s="113"/>
     </row>
     <row r="2" spans="1:6" ht="18" customHeight="1">
-      <c r="A2" s="164" t="s">
+      <c r="A2" s="159" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="165"/>
+      <c r="B2" s="160"/>
       <c r="C2" s="30" t="s">
         <v>212</v>
       </c>
@@ -6391,10 +6355,10 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="18" customHeight="1">
-      <c r="A3" s="164" t="s">
+      <c r="A3" s="159" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="165"/>
+      <c r="B3" s="160"/>
       <c r="C3" s="30" t="s">
         <v>20</v>
       </c>
@@ -6407,10 +6371,10 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="18" customHeight="1">
-      <c r="A4" s="164" t="s">
+      <c r="A4" s="159" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="165"/>
+      <c r="B4" s="160"/>
       <c r="C4" s="30" t="s">
         <v>213</v>
       </c>
@@ -6423,10 +6387,10 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="18" customHeight="1">
-      <c r="A5" s="164" t="s">
+      <c r="A5" s="159" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="165"/>
+      <c r="B5" s="160"/>
       <c r="C5" s="30" t="s">
         <v>24</v>
       </c>
@@ -6437,10 +6401,10 @@
       <c r="F5" s="91"/>
     </row>
     <row r="6" spans="1:6" ht="18" customHeight="1">
-      <c r="A6" s="164" t="s">
+      <c r="A6" s="159" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="165"/>
+      <c r="B6" s="160"/>
       <c r="C6" s="30" t="s">
         <v>211</v>
       </c>
@@ -6481,10 +6445,10 @@
       <c r="D9" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="E9" s="162" t="s">
+      <c r="E9" s="165" t="s">
         <v>33</v>
       </c>
-      <c r="F9" s="163"/>
+      <c r="F9" s="166"/>
     </row>
     <row r="10" spans="1:6" ht="33.75" customHeight="1">
       <c r="A10" s="59">
@@ -6499,10 +6463,10 @@
       <c r="D10" s="60" t="s">
         <v>34</v>
       </c>
-      <c r="E10" s="158" t="s">
+      <c r="E10" s="161" t="s">
         <v>230</v>
       </c>
-      <c r="F10" s="159"/>
+      <c r="F10" s="162"/>
     </row>
     <row r="11" spans="1:6" ht="33.75" customHeight="1">
       <c r="A11" s="59">
@@ -6517,10 +6481,10 @@
       <c r="D11" s="60" t="s">
         <v>34</v>
       </c>
-      <c r="E11" s="158" t="s">
+      <c r="E11" s="161" t="s">
         <v>231</v>
       </c>
-      <c r="F11" s="159"/>
+      <c r="F11" s="162"/>
     </row>
     <row r="12" spans="1:6" ht="33.75" customHeight="1">
       <c r="A12" s="59">
@@ -6535,10 +6499,10 @@
       <c r="D12" s="60" t="s">
         <v>34</v>
       </c>
-      <c r="E12" s="158" t="s">
+      <c r="E12" s="161" t="s">
         <v>232</v>
       </c>
-      <c r="F12" s="159"/>
+      <c r="F12" s="162"/>
     </row>
     <row r="13" spans="1:6" ht="33.75" customHeight="1">
       <c r="A13" s="59">
@@ -6553,10 +6517,10 @@
       <c r="D13" s="60" t="s">
         <v>34</v>
       </c>
-      <c r="E13" s="158" t="s">
+      <c r="E13" s="161" t="s">
         <v>233</v>
       </c>
-      <c r="F13" s="159"/>
+      <c r="F13" s="162"/>
     </row>
     <row r="14" spans="1:6" ht="33.75" customHeight="1">
       <c r="A14" s="59">
@@ -6571,10 +6535,10 @@
       <c r="D14" s="60" t="s">
         <v>34</v>
       </c>
-      <c r="E14" s="158" t="s">
+      <c r="E14" s="161" t="s">
         <v>235</v>
       </c>
-      <c r="F14" s="159"/>
+      <c r="F14" s="162"/>
     </row>
     <row r="15" spans="1:6" ht="33.75" customHeight="1">
       <c r="A15" s="59">
@@ -6589,10 +6553,10 @@
       <c r="D15" s="60" t="s">
         <v>34</v>
       </c>
-      <c r="E15" s="160" t="s">
+      <c r="E15" s="163" t="s">
         <v>236</v>
       </c>
-      <c r="F15" s="161"/>
+      <c r="F15" s="164"/>
     </row>
     <row r="16" spans="1:6" ht="33.75" customHeight="1">
       <c r="A16" s="59">
@@ -6607,10 +6571,10 @@
       <c r="D16" s="60" t="s">
         <v>34</v>
       </c>
-      <c r="E16" s="160" t="s">
+      <c r="E16" s="163" t="s">
         <v>237</v>
       </c>
-      <c r="F16" s="161"/>
+      <c r="F16" s="164"/>
     </row>
     <row r="17" spans="1:6" ht="33.75" customHeight="1">
       <c r="A17" s="8">
@@ -6625,10 +6589,10 @@
       <c r="D17" s="119" t="s">
         <v>35</v>
       </c>
-      <c r="E17" s="160" t="s">
+      <c r="E17" s="163" t="s">
         <v>234</v>
       </c>
-      <c r="F17" s="161"/>
+      <c r="F17" s="164"/>
     </row>
     <row r="18" spans="1:6" ht="29.25" customHeight="1">
       <c r="A18" s="29" t="s">
@@ -6870,11 +6834,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
     <mergeCell ref="E14:F14"/>
     <mergeCell ref="E15:F15"/>
     <mergeCell ref="E16:F16"/>
@@ -6884,6 +6843,11 @@
     <mergeCell ref="E11:F11"/>
     <mergeCell ref="E12:F12"/>
     <mergeCell ref="E13:F13"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="1.0236220472440944" right="0.62992125984251968" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -7003,42 +6967,42 @@
         <v>38</v>
       </c>
       <c r="B6" s="45"/>
-      <c r="C6" s="168" t="s">
+      <c r="C6" s="195" t="s">
         <v>156</v>
       </c>
-      <c r="D6" s="169"/>
-      <c r="E6" s="169"/>
-      <c r="F6" s="169"/>
-      <c r="G6" s="169"/>
-      <c r="H6" s="170"/>
+      <c r="D6" s="196"/>
+      <c r="E6" s="196"/>
+      <c r="F6" s="196"/>
+      <c r="G6" s="196"/>
+      <c r="H6" s="197"/>
     </row>
     <row r="7" spans="1:8" ht="20.25" customHeight="1">
       <c r="A7" s="40" t="s">
         <v>31</v>
       </c>
       <c r="B7" s="45"/>
-      <c r="C7" s="168" t="s">
+      <c r="C7" s="195" t="s">
         <v>157</v>
       </c>
-      <c r="D7" s="169"/>
-      <c r="E7" s="169"/>
-      <c r="F7" s="169"/>
-      <c r="G7" s="169"/>
-      <c r="H7" s="170"/>
+      <c r="D7" s="196"/>
+      <c r="E7" s="196"/>
+      <c r="F7" s="196"/>
+      <c r="G7" s="196"/>
+      <c r="H7" s="197"/>
     </row>
     <row r="8" spans="1:8" ht="20.25" customHeight="1">
       <c r="A8" s="40" t="s">
         <v>39</v>
       </c>
       <c r="B8" s="45"/>
-      <c r="C8" s="168" t="s">
+      <c r="C8" s="195" t="s">
         <v>158</v>
       </c>
-      <c r="D8" s="169"/>
-      <c r="E8" s="169"/>
-      <c r="F8" s="169"/>
-      <c r="G8" s="169"/>
-      <c r="H8" s="170"/>
+      <c r="D8" s="196"/>
+      <c r="E8" s="196"/>
+      <c r="F8" s="196"/>
+      <c r="G8" s="196"/>
+      <c r="H8" s="197"/>
     </row>
     <row r="9" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A9" s="46" t="s">
@@ -7059,10 +7023,10 @@
       <c r="B10" s="48" t="s">
         <v>42</v>
       </c>
-      <c r="C10" s="171" t="s">
+      <c r="C10" s="181" t="s">
         <v>43</v>
       </c>
-      <c r="D10" s="172"/>
+      <c r="D10" s="198"/>
       <c r="E10" s="48" t="s">
         <v>44</v>
       </c>
@@ -7083,10 +7047,10 @@
       <c r="B11" s="62" t="s">
         <v>150</v>
       </c>
-      <c r="C11" s="173" t="s">
+      <c r="C11" s="199" t="s">
         <v>159</v>
       </c>
-      <c r="D11" s="174"/>
+      <c r="D11" s="200"/>
       <c r="E11" s="63" t="s">
         <v>100</v>
       </c>
@@ -7105,10 +7069,10 @@
       <c r="B12" s="67" t="s">
         <v>173</v>
       </c>
-      <c r="C12" s="166" t="s">
+      <c r="C12" s="191" t="s">
         <v>160</v>
       </c>
-      <c r="D12" s="167"/>
+      <c r="D12" s="192"/>
       <c r="E12" s="63" t="s">
         <v>101</v>
       </c>
@@ -7125,10 +7089,10 @@
       <c r="B13" s="67" t="s">
         <v>172</v>
       </c>
-      <c r="C13" s="166" t="s">
+      <c r="C13" s="191" t="s">
         <v>161</v>
       </c>
-      <c r="D13" s="167"/>
+      <c r="D13" s="192"/>
       <c r="E13" s="63" t="s">
         <v>155</v>
       </c>
@@ -7145,10 +7109,10 @@
       <c r="B14" s="67" t="s">
         <v>174</v>
       </c>
-      <c r="C14" s="166" t="s">
+      <c r="C14" s="191" t="s">
         <v>162</v>
       </c>
-      <c r="D14" s="167"/>
+      <c r="D14" s="192"/>
       <c r="E14" s="63" t="s">
         <v>155</v>
       </c>
@@ -7165,10 +7129,10 @@
       <c r="B15" s="67" t="s">
         <v>175</v>
       </c>
-      <c r="C15" s="166" t="s">
+      <c r="C15" s="191" t="s">
         <v>163</v>
       </c>
-      <c r="D15" s="167"/>
+      <c r="D15" s="192"/>
       <c r="E15" s="63" t="s">
         <v>155</v>
       </c>
@@ -7185,10 +7149,10 @@
       <c r="B16" s="67" t="s">
         <v>176</v>
       </c>
-      <c r="C16" s="166" t="s">
+      <c r="C16" s="191" t="s">
         <v>164</v>
       </c>
-      <c r="D16" s="167"/>
+      <c r="D16" s="192"/>
       <c r="E16" s="63" t="s">
         <v>155</v>
       </c>
@@ -7205,10 +7169,10 @@
       <c r="B17" s="67" t="s">
         <v>177</v>
       </c>
-      <c r="C17" s="166" t="s">
+      <c r="C17" s="191" t="s">
         <v>165</v>
       </c>
-      <c r="D17" s="167"/>
+      <c r="D17" s="192"/>
       <c r="E17" s="63" t="s">
         <v>100</v>
       </c>
@@ -7225,10 +7189,10 @@
       <c r="B18" s="72" t="s">
         <v>180</v>
       </c>
-      <c r="C18" s="166" t="s">
+      <c r="C18" s="191" t="s">
         <v>166</v>
       </c>
-      <c r="D18" s="167"/>
+      <c r="D18" s="192"/>
       <c r="E18" s="63" t="s">
         <v>155</v>
       </c>
@@ -7245,10 +7209,10 @@
       <c r="B19" s="72" t="s">
         <v>181</v>
       </c>
-      <c r="C19" s="166" t="s">
+      <c r="C19" s="191" t="s">
         <v>167</v>
       </c>
-      <c r="D19" s="167"/>
+      <c r="D19" s="192"/>
       <c r="E19" s="63" t="s">
         <v>155</v>
       </c>
@@ -7265,10 +7229,10 @@
       <c r="B20" s="72" t="s">
         <v>182</v>
       </c>
-      <c r="C20" s="166" t="s">
+      <c r="C20" s="191" t="s">
         <v>168</v>
       </c>
-      <c r="D20" s="167"/>
+      <c r="D20" s="192"/>
       <c r="E20" s="63" t="s">
         <v>155</v>
       </c>
@@ -7285,10 +7249,10 @@
       <c r="B21" s="72" t="s">
         <v>183</v>
       </c>
-      <c r="C21" s="166" t="s">
+      <c r="C21" s="191" t="s">
         <v>169</v>
       </c>
-      <c r="D21" s="167"/>
+      <c r="D21" s="192"/>
       <c r="E21" s="63" t="s">
         <v>155</v>
       </c>
@@ -7305,10 +7269,10 @@
       <c r="B22" s="72" t="s">
         <v>178</v>
       </c>
-      <c r="C22" s="166" t="s">
+      <c r="C22" s="191" t="s">
         <v>170</v>
       </c>
-      <c r="D22" s="167"/>
+      <c r="D22" s="192"/>
       <c r="E22" s="73" t="s">
         <v>80</v>
       </c>
@@ -7325,10 +7289,10 @@
       <c r="B23" s="72" t="s">
         <v>179</v>
       </c>
-      <c r="C23" s="166" t="s">
+      <c r="C23" s="191" t="s">
         <v>171</v>
       </c>
-      <c r="D23" s="167"/>
+      <c r="D23" s="192"/>
       <c r="E23" s="73" t="s">
         <v>184</v>
       </c>
@@ -7341,8 +7305,8 @@
     <row r="24" spans="1:8" ht="20.25" customHeight="1">
       <c r="A24" s="71"/>
       <c r="B24" s="72"/>
-      <c r="C24" s="166"/>
-      <c r="D24" s="167"/>
+      <c r="C24" s="191"/>
+      <c r="D24" s="192"/>
       <c r="E24" s="73"/>
       <c r="F24" s="73"/>
       <c r="G24" s="74"/>
@@ -7351,8 +7315,8 @@
     <row r="25" spans="1:8" ht="20.25" customHeight="1">
       <c r="A25" s="71"/>
       <c r="B25" s="72"/>
-      <c r="C25" s="166"/>
-      <c r="D25" s="167"/>
+      <c r="C25" s="191"/>
+      <c r="D25" s="192"/>
       <c r="E25" s="73"/>
       <c r="F25" s="73"/>
       <c r="G25" s="74"/>
@@ -7361,8 +7325,8 @@
     <row r="26" spans="1:8" ht="20.25" customHeight="1">
       <c r="A26" s="71"/>
       <c r="B26" s="72"/>
-      <c r="C26" s="166"/>
-      <c r="D26" s="167"/>
+      <c r="C26" s="191"/>
+      <c r="D26" s="192"/>
       <c r="E26" s="73"/>
       <c r="F26" s="73"/>
       <c r="G26" s="74"/>
@@ -7371,8 +7335,8 @@
     <row r="27" spans="1:8" ht="20.25" customHeight="1">
       <c r="A27" s="71"/>
       <c r="B27" s="72"/>
-      <c r="C27" s="166"/>
-      <c r="D27" s="167"/>
+      <c r="C27" s="191"/>
+      <c r="D27" s="192"/>
       <c r="E27" s="73"/>
       <c r="F27" s="73"/>
       <c r="G27" s="74"/>
@@ -7381,8 +7345,8 @@
     <row r="28" spans="1:8" ht="20.25" customHeight="1">
       <c r="A28" s="71"/>
       <c r="B28" s="72"/>
-      <c r="C28" s="166"/>
-      <c r="D28" s="167"/>
+      <c r="C28" s="191"/>
+      <c r="D28" s="192"/>
       <c r="E28" s="73"/>
       <c r="F28" s="73"/>
       <c r="G28" s="74"/>
@@ -7391,8 +7355,8 @@
     <row r="29" spans="1:8" ht="20.25" customHeight="1">
       <c r="A29" s="71"/>
       <c r="B29" s="72"/>
-      <c r="C29" s="166"/>
-      <c r="D29" s="167"/>
+      <c r="C29" s="191"/>
+      <c r="D29" s="192"/>
       <c r="E29" s="73"/>
       <c r="F29" s="73"/>
       <c r="G29" s="74"/>
@@ -7401,8 +7365,8 @@
     <row r="30" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A30" s="76"/>
       <c r="B30" s="77"/>
-      <c r="C30" s="180"/>
-      <c r="D30" s="181"/>
+      <c r="C30" s="170"/>
+      <c r="D30" s="172"/>
       <c r="E30" s="78"/>
       <c r="F30" s="78"/>
       <c r="G30" s="79"/>
@@ -7434,10 +7398,10 @@
       <c r="A33" s="53" t="s">
         <v>41</v>
       </c>
-      <c r="B33" s="182" t="s">
+      <c r="B33" s="178" t="s">
         <v>49</v>
       </c>
-      <c r="C33" s="183"/>
+      <c r="C33" s="180"/>
       <c r="D33" s="54" t="s">
         <v>50</v>
       </c>
@@ -7452,51 +7416,51 @@
     </row>
     <row r="34" spans="1:8" ht="20.25" customHeight="1">
       <c r="A34" s="61"/>
-      <c r="B34" s="184"/>
-      <c r="C34" s="185"/>
-      <c r="D34" s="186"/>
-      <c r="E34" s="187"/>
-      <c r="F34" s="188"/>
+      <c r="B34" s="193"/>
+      <c r="C34" s="194"/>
+      <c r="D34" s="183"/>
+      <c r="E34" s="184"/>
+      <c r="F34" s="185"/>
       <c r="G34" s="64"/>
       <c r="H34" s="65"/>
     </row>
     <row r="35" spans="1:8" ht="20.25" customHeight="1">
       <c r="A35" s="66"/>
-      <c r="B35" s="175"/>
-      <c r="C35" s="176"/>
-      <c r="D35" s="177"/>
-      <c r="E35" s="178"/>
-      <c r="F35" s="179"/>
+      <c r="B35" s="186"/>
+      <c r="C35" s="187"/>
+      <c r="D35" s="167"/>
+      <c r="E35" s="168"/>
+      <c r="F35" s="169"/>
       <c r="G35" s="69"/>
       <c r="H35" s="70"/>
     </row>
     <row r="36" spans="1:8" ht="20.25" customHeight="1">
       <c r="A36" s="66"/>
-      <c r="B36" s="175"/>
-      <c r="C36" s="176"/>
-      <c r="D36" s="177"/>
-      <c r="E36" s="178"/>
-      <c r="F36" s="179"/>
+      <c r="B36" s="186"/>
+      <c r="C36" s="187"/>
+      <c r="D36" s="167"/>
+      <c r="E36" s="168"/>
+      <c r="F36" s="169"/>
       <c r="G36" s="69"/>
       <c r="H36" s="70"/>
     </row>
     <row r="37" spans="1:8" ht="20.25" customHeight="1">
       <c r="A37" s="66"/>
-      <c r="B37" s="175"/>
-      <c r="C37" s="176"/>
-      <c r="D37" s="177"/>
-      <c r="E37" s="178"/>
-      <c r="F37" s="179"/>
+      <c r="B37" s="186"/>
+      <c r="C37" s="187"/>
+      <c r="D37" s="167"/>
+      <c r="E37" s="168"/>
+      <c r="F37" s="169"/>
       <c r="G37" s="69"/>
       <c r="H37" s="70"/>
     </row>
     <row r="38" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A38" s="76"/>
-      <c r="B38" s="189"/>
-      <c r="C38" s="190"/>
-      <c r="D38" s="180"/>
-      <c r="E38" s="191"/>
-      <c r="F38" s="181"/>
+      <c r="B38" s="188"/>
+      <c r="C38" s="189"/>
+      <c r="D38" s="170"/>
+      <c r="E38" s="171"/>
+      <c r="F38" s="172"/>
       <c r="G38" s="79"/>
       <c r="H38" s="80"/>
     </row>
@@ -7529,15 +7493,15 @@
       <c r="B41" s="57" t="s">
         <v>53</v>
       </c>
-      <c r="C41" s="182" t="s">
+      <c r="C41" s="178" t="s">
         <v>50</v>
       </c>
-      <c r="D41" s="192"/>
-      <c r="E41" s="183"/>
-      <c r="F41" s="182" t="s">
+      <c r="D41" s="179"/>
+      <c r="E41" s="180"/>
+      <c r="F41" s="178" t="s">
         <v>54</v>
       </c>
-      <c r="G41" s="193"/>
+      <c r="G41" s="190"/>
       <c r="H41" s="58" t="s">
         <v>55</v>
       </c>
@@ -7545,51 +7509,51 @@
     <row r="42" spans="1:8" ht="20.25" customHeight="1">
       <c r="A42" s="81"/>
       <c r="B42" s="82"/>
-      <c r="C42" s="186"/>
-      <c r="D42" s="187"/>
-      <c r="E42" s="188"/>
-      <c r="F42" s="186"/>
-      <c r="G42" s="188"/>
+      <c r="C42" s="183"/>
+      <c r="D42" s="184"/>
+      <c r="E42" s="185"/>
+      <c r="F42" s="183"/>
+      <c r="G42" s="185"/>
       <c r="H42" s="83"/>
     </row>
     <row r="43" spans="1:8" ht="20.25" customHeight="1">
       <c r="A43" s="84"/>
       <c r="B43" s="85"/>
-      <c r="C43" s="177"/>
-      <c r="D43" s="178"/>
-      <c r="E43" s="179"/>
-      <c r="F43" s="177"/>
-      <c r="G43" s="179"/>
+      <c r="C43" s="167"/>
+      <c r="D43" s="168"/>
+      <c r="E43" s="169"/>
+      <c r="F43" s="167"/>
+      <c r="G43" s="169"/>
       <c r="H43" s="86"/>
     </row>
     <row r="44" spans="1:8" ht="20.25" customHeight="1">
       <c r="A44" s="84"/>
       <c r="B44" s="85"/>
-      <c r="C44" s="177"/>
-      <c r="D44" s="178"/>
-      <c r="E44" s="179"/>
-      <c r="F44" s="177"/>
-      <c r="G44" s="179"/>
+      <c r="C44" s="167"/>
+      <c r="D44" s="168"/>
+      <c r="E44" s="169"/>
+      <c r="F44" s="167"/>
+      <c r="G44" s="169"/>
       <c r="H44" s="86"/>
     </row>
     <row r="45" spans="1:8" ht="20.25" customHeight="1">
       <c r="A45" s="84"/>
       <c r="B45" s="85"/>
-      <c r="C45" s="177"/>
-      <c r="D45" s="178"/>
-      <c r="E45" s="179"/>
-      <c r="F45" s="177"/>
-      <c r="G45" s="179"/>
+      <c r="C45" s="167"/>
+      <c r="D45" s="168"/>
+      <c r="E45" s="169"/>
+      <c r="F45" s="167"/>
+      <c r="G45" s="169"/>
       <c r="H45" s="86"/>
     </row>
     <row r="46" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A46" s="87"/>
       <c r="B46" s="88"/>
-      <c r="C46" s="180"/>
-      <c r="D46" s="191"/>
-      <c r="E46" s="181"/>
-      <c r="F46" s="194"/>
-      <c r="G46" s="195"/>
+      <c r="C46" s="170"/>
+      <c r="D46" s="171"/>
+      <c r="E46" s="172"/>
+      <c r="F46" s="173"/>
+      <c r="G46" s="174"/>
       <c r="H46" s="89"/>
     </row>
     <row r="47" spans="1:8" ht="20.25" customHeight="1">
@@ -7621,15 +7585,15 @@
       <c r="B49" s="57" t="s">
         <v>53</v>
       </c>
-      <c r="C49" s="182" t="s">
+      <c r="C49" s="178" t="s">
         <v>50</v>
       </c>
-      <c r="D49" s="192"/>
-      <c r="E49" s="183"/>
-      <c r="F49" s="171" t="s">
+      <c r="D49" s="179"/>
+      <c r="E49" s="180"/>
+      <c r="F49" s="181" t="s">
         <v>57</v>
       </c>
-      <c r="G49" s="196"/>
+      <c r="G49" s="182"/>
       <c r="H49" s="49" t="s">
         <v>58</v>
       </c>
@@ -7639,83 +7603,73 @@
         <v>1</v>
       </c>
       <c r="B50" s="95"/>
-      <c r="C50" s="197"/>
-      <c r="D50" s="198"/>
-      <c r="E50" s="199"/>
-      <c r="F50" s="197"/>
-      <c r="G50" s="199"/>
+      <c r="C50" s="175"/>
+      <c r="D50" s="176"/>
+      <c r="E50" s="177"/>
+      <c r="F50" s="175"/>
+      <c r="G50" s="177"/>
       <c r="H50" s="96"/>
     </row>
     <row r="51" spans="1:8" ht="20.25" customHeight="1">
       <c r="A51" s="84"/>
       <c r="B51" s="85"/>
-      <c r="C51" s="177"/>
-      <c r="D51" s="178"/>
-      <c r="E51" s="179"/>
-      <c r="F51" s="177"/>
-      <c r="G51" s="179"/>
+      <c r="C51" s="167"/>
+      <c r="D51" s="168"/>
+      <c r="E51" s="169"/>
+      <c r="F51" s="167"/>
+      <c r="G51" s="169"/>
       <c r="H51" s="86"/>
     </row>
     <row r="52" spans="1:8" ht="20.25" customHeight="1">
       <c r="A52" s="84"/>
       <c r="B52" s="85"/>
-      <c r="C52" s="177"/>
-      <c r="D52" s="178"/>
-      <c r="E52" s="179"/>
-      <c r="F52" s="177"/>
-      <c r="G52" s="179"/>
+      <c r="C52" s="167"/>
+      <c r="D52" s="168"/>
+      <c r="E52" s="169"/>
+      <c r="F52" s="167"/>
+      <c r="G52" s="169"/>
       <c r="H52" s="86"/>
     </row>
     <row r="53" spans="1:8" ht="20.25" customHeight="1">
       <c r="A53" s="84"/>
       <c r="B53" s="85"/>
-      <c r="C53" s="177"/>
-      <c r="D53" s="178"/>
-      <c r="E53" s="179"/>
-      <c r="F53" s="177"/>
-      <c r="G53" s="179"/>
+      <c r="C53" s="167"/>
+      <c r="D53" s="168"/>
+      <c r="E53" s="169"/>
+      <c r="F53" s="167"/>
+      <c r="G53" s="169"/>
       <c r="H53" s="86"/>
     </row>
     <row r="54" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A54" s="87"/>
       <c r="B54" s="88"/>
-      <c r="C54" s="180"/>
-      <c r="D54" s="191"/>
-      <c r="E54" s="181"/>
-      <c r="F54" s="194"/>
-      <c r="G54" s="195"/>
+      <c r="C54" s="170"/>
+      <c r="D54" s="171"/>
+      <c r="E54" s="172"/>
+      <c r="F54" s="173"/>
+      <c r="G54" s="174"/>
       <c r="H54" s="89"/>
     </row>
   </sheetData>
   <mergeCells count="59">
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="C54:E54"/>
-    <mergeCell ref="F54:G54"/>
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="C51:E51"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="C52:E52"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="C44:E44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
     <mergeCell ref="B36:C36"/>
     <mergeCell ref="D36:F36"/>
     <mergeCell ref="C25:D25"/>
@@ -7729,24 +7683,34 @@
     <mergeCell ref="D34:F34"/>
     <mergeCell ref="B35:C35"/>
     <mergeCell ref="D35:F35"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="C54:E54"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="F52:G52"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="1.0236220472440944" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -7860,42 +7824,42 @@
         <v>38</v>
       </c>
       <c r="B6" s="45"/>
-      <c r="C6" s="168" t="s">
+      <c r="C6" s="195" t="s">
         <v>141</v>
       </c>
-      <c r="D6" s="169"/>
-      <c r="E6" s="169"/>
-      <c r="F6" s="169"/>
-      <c r="G6" s="169"/>
-      <c r="H6" s="170"/>
+      <c r="D6" s="196"/>
+      <c r="E6" s="196"/>
+      <c r="F6" s="196"/>
+      <c r="G6" s="196"/>
+      <c r="H6" s="197"/>
     </row>
     <row r="7" spans="1:8" ht="20.25" customHeight="1">
       <c r="A7" s="40" t="s">
         <v>31</v>
       </c>
       <c r="B7" s="45"/>
-      <c r="C7" s="168" t="s">
+      <c r="C7" s="195" t="s">
         <v>140</v>
       </c>
-      <c r="D7" s="169"/>
-      <c r="E7" s="169"/>
-      <c r="F7" s="169"/>
-      <c r="G7" s="169"/>
-      <c r="H7" s="170"/>
+      <c r="D7" s="196"/>
+      <c r="E7" s="196"/>
+      <c r="F7" s="196"/>
+      <c r="G7" s="196"/>
+      <c r="H7" s="197"/>
     </row>
     <row r="8" spans="1:8" ht="20.25" customHeight="1">
       <c r="A8" s="40" t="s">
         <v>39</v>
       </c>
       <c r="B8" s="45"/>
-      <c r="C8" s="168" t="s">
+      <c r="C8" s="195" t="s">
         <v>142</v>
       </c>
-      <c r="D8" s="169"/>
-      <c r="E8" s="169"/>
-      <c r="F8" s="169"/>
-      <c r="G8" s="169"/>
-      <c r="H8" s="170"/>
+      <c r="D8" s="196"/>
+      <c r="E8" s="196"/>
+      <c r="F8" s="196"/>
+      <c r="G8" s="196"/>
+      <c r="H8" s="197"/>
     </row>
     <row r="9" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A9" s="46" t="s">
@@ -7916,10 +7880,10 @@
       <c r="B10" s="48" t="s">
         <v>42</v>
       </c>
-      <c r="C10" s="171" t="s">
+      <c r="C10" s="181" t="s">
         <v>43</v>
       </c>
-      <c r="D10" s="172"/>
+      <c r="D10" s="198"/>
       <c r="E10" s="48" t="s">
         <v>44</v>
       </c>
@@ -7940,10 +7904,10 @@
       <c r="B11" s="62" t="s">
         <v>149</v>
       </c>
-      <c r="C11" s="173" t="s">
+      <c r="C11" s="199" t="s">
         <v>144</v>
       </c>
-      <c r="D11" s="174"/>
+      <c r="D11" s="200"/>
       <c r="E11" s="63" t="s">
         <v>100</v>
       </c>
@@ -7962,10 +7926,10 @@
       <c r="B12" s="67" t="s">
         <v>150</v>
       </c>
-      <c r="C12" s="166" t="s">
+      <c r="C12" s="191" t="s">
         <v>143</v>
       </c>
-      <c r="D12" s="167"/>
+      <c r="D12" s="192"/>
       <c r="E12" s="63" t="s">
         <v>100</v>
       </c>
@@ -7982,10 +7946,10 @@
       <c r="B13" s="67" t="s">
         <v>151</v>
       </c>
-      <c r="C13" s="166" t="s">
+      <c r="C13" s="191" t="s">
         <v>145</v>
       </c>
-      <c r="D13" s="167"/>
+      <c r="D13" s="192"/>
       <c r="E13" s="63" t="s">
         <v>155</v>
       </c>
@@ -8002,10 +7966,10 @@
       <c r="B14" s="72" t="s">
         <v>152</v>
       </c>
-      <c r="C14" s="166" t="s">
+      <c r="C14" s="191" t="s">
         <v>146</v>
       </c>
-      <c r="D14" s="167"/>
+      <c r="D14" s="192"/>
       <c r="E14" s="63" t="s">
         <v>155</v>
       </c>
@@ -8022,10 +7986,10 @@
       <c r="B15" s="72" t="s">
         <v>153</v>
       </c>
-      <c r="C15" s="166" t="s">
+      <c r="C15" s="191" t="s">
         <v>147</v>
       </c>
-      <c r="D15" s="167"/>
+      <c r="D15" s="192"/>
       <c r="E15" s="63" t="s">
         <v>155</v>
       </c>
@@ -8042,10 +8006,10 @@
       <c r="B16" s="72" t="s">
         <v>154</v>
       </c>
-      <c r="C16" s="166" t="s">
+      <c r="C16" s="191" t="s">
         <v>148</v>
       </c>
-      <c r="D16" s="167"/>
+      <c r="D16" s="192"/>
       <c r="E16" s="63" t="s">
         <v>155</v>
       </c>
@@ -8058,8 +8022,8 @@
     <row r="17" spans="1:8" ht="20.25" customHeight="1">
       <c r="A17" s="71"/>
       <c r="B17" s="72"/>
-      <c r="C17" s="166"/>
-      <c r="D17" s="167"/>
+      <c r="C17" s="191"/>
+      <c r="D17" s="192"/>
       <c r="E17" s="73"/>
       <c r="F17" s="73"/>
       <c r="G17" s="74"/>
@@ -8068,8 +8032,8 @@
     <row r="18" spans="1:8" ht="20.25" customHeight="1">
       <c r="A18" s="71"/>
       <c r="B18" s="72"/>
-      <c r="C18" s="166"/>
-      <c r="D18" s="167"/>
+      <c r="C18" s="191"/>
+      <c r="D18" s="192"/>
       <c r="E18" s="73"/>
       <c r="F18" s="73"/>
       <c r="G18" s="74"/>
@@ -8078,8 +8042,8 @@
     <row r="19" spans="1:8" ht="20.25" customHeight="1">
       <c r="A19" s="71"/>
       <c r="B19" s="72"/>
-      <c r="C19" s="166"/>
-      <c r="D19" s="167"/>
+      <c r="C19" s="191"/>
+      <c r="D19" s="192"/>
       <c r="E19" s="73"/>
       <c r="F19" s="73"/>
       <c r="G19" s="74"/>
@@ -8088,8 +8052,8 @@
     <row r="20" spans="1:8" ht="20.25" customHeight="1">
       <c r="A20" s="71"/>
       <c r="B20" s="72"/>
-      <c r="C20" s="166"/>
-      <c r="D20" s="167"/>
+      <c r="C20" s="191"/>
+      <c r="D20" s="192"/>
       <c r="E20" s="73"/>
       <c r="F20" s="73"/>
       <c r="G20" s="74"/>
@@ -8098,8 +8062,8 @@
     <row r="21" spans="1:8" ht="20.25" customHeight="1">
       <c r="A21" s="71"/>
       <c r="B21" s="72"/>
-      <c r="C21" s="166"/>
-      <c r="D21" s="167"/>
+      <c r="C21" s="191"/>
+      <c r="D21" s="192"/>
       <c r="E21" s="73"/>
       <c r="F21" s="73"/>
       <c r="G21" s="74"/>
@@ -8108,8 +8072,8 @@
     <row r="22" spans="1:8" ht="20.25" customHeight="1">
       <c r="A22" s="71"/>
       <c r="B22" s="72"/>
-      <c r="C22" s="166"/>
-      <c r="D22" s="167"/>
+      <c r="C22" s="191"/>
+      <c r="D22" s="192"/>
       <c r="E22" s="73"/>
       <c r="F22" s="73"/>
       <c r="G22" s="74"/>
@@ -8118,8 +8082,8 @@
     <row r="23" spans="1:8" ht="20.25" customHeight="1">
       <c r="A23" s="71"/>
       <c r="B23" s="72"/>
-      <c r="C23" s="166"/>
-      <c r="D23" s="167"/>
+      <c r="C23" s="191"/>
+      <c r="D23" s="192"/>
       <c r="E23" s="73"/>
       <c r="F23" s="73"/>
       <c r="G23" s="74"/>
@@ -8128,8 +8092,8 @@
     <row r="24" spans="1:8" ht="20.25" customHeight="1">
       <c r="A24" s="71"/>
       <c r="B24" s="72"/>
-      <c r="C24" s="166"/>
-      <c r="D24" s="167"/>
+      <c r="C24" s="191"/>
+      <c r="D24" s="192"/>
       <c r="E24" s="73"/>
       <c r="F24" s="73"/>
       <c r="G24" s="74"/>
@@ -8138,8 +8102,8 @@
     <row r="25" spans="1:8" ht="20.25" customHeight="1">
       <c r="A25" s="71"/>
       <c r="B25" s="72"/>
-      <c r="C25" s="166"/>
-      <c r="D25" s="167"/>
+      <c r="C25" s="191"/>
+      <c r="D25" s="192"/>
       <c r="E25" s="73"/>
       <c r="F25" s="73"/>
       <c r="G25" s="74"/>
@@ -8148,8 +8112,8 @@
     <row r="26" spans="1:8" ht="20.25" customHeight="1">
       <c r="A26" s="71"/>
       <c r="B26" s="72"/>
-      <c r="C26" s="166"/>
-      <c r="D26" s="167"/>
+      <c r="C26" s="191"/>
+      <c r="D26" s="192"/>
       <c r="E26" s="73"/>
       <c r="F26" s="73"/>
       <c r="G26" s="74"/>
@@ -8158,8 +8122,8 @@
     <row r="27" spans="1:8" ht="20.25" customHeight="1">
       <c r="A27" s="71"/>
       <c r="B27" s="72"/>
-      <c r="C27" s="166"/>
-      <c r="D27" s="167"/>
+      <c r="C27" s="191"/>
+      <c r="D27" s="192"/>
       <c r="E27" s="73"/>
       <c r="F27" s="73"/>
       <c r="G27" s="74"/>
@@ -8168,8 +8132,8 @@
     <row r="28" spans="1:8" ht="20.25" customHeight="1">
       <c r="A28" s="71"/>
       <c r="B28" s="72"/>
-      <c r="C28" s="166"/>
-      <c r="D28" s="167"/>
+      <c r="C28" s="191"/>
+      <c r="D28" s="192"/>
       <c r="E28" s="73"/>
       <c r="F28" s="73"/>
       <c r="G28" s="74"/>
@@ -8178,8 +8142,8 @@
     <row r="29" spans="1:8" ht="20.25" customHeight="1">
       <c r="A29" s="71"/>
       <c r="B29" s="72"/>
-      <c r="C29" s="166"/>
-      <c r="D29" s="167"/>
+      <c r="C29" s="191"/>
+      <c r="D29" s="192"/>
       <c r="E29" s="73"/>
       <c r="F29" s="73"/>
       <c r="G29" s="74"/>
@@ -8188,8 +8152,8 @@
     <row r="30" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A30" s="76"/>
       <c r="B30" s="77"/>
-      <c r="C30" s="180"/>
-      <c r="D30" s="181"/>
+      <c r="C30" s="170"/>
+      <c r="D30" s="172"/>
       <c r="E30" s="78"/>
       <c r="F30" s="78"/>
       <c r="G30" s="79"/>
@@ -8221,10 +8185,10 @@
       <c r="A33" s="53" t="s">
         <v>41</v>
       </c>
-      <c r="B33" s="182" t="s">
+      <c r="B33" s="178" t="s">
         <v>49</v>
       </c>
-      <c r="C33" s="183"/>
+      <c r="C33" s="180"/>
       <c r="D33" s="54" t="s">
         <v>50</v>
       </c>
@@ -8239,51 +8203,51 @@
     </row>
     <row r="34" spans="1:8" ht="20.25" customHeight="1">
       <c r="A34" s="61"/>
-      <c r="B34" s="184"/>
-      <c r="C34" s="185"/>
-      <c r="D34" s="186"/>
-      <c r="E34" s="187"/>
-      <c r="F34" s="188"/>
+      <c r="B34" s="193"/>
+      <c r="C34" s="194"/>
+      <c r="D34" s="183"/>
+      <c r="E34" s="184"/>
+      <c r="F34" s="185"/>
       <c r="G34" s="64"/>
       <c r="H34" s="65"/>
     </row>
     <row r="35" spans="1:8" ht="20.25" customHeight="1">
       <c r="A35" s="66"/>
-      <c r="B35" s="175"/>
-      <c r="C35" s="176"/>
-      <c r="D35" s="177"/>
-      <c r="E35" s="178"/>
-      <c r="F35" s="179"/>
+      <c r="B35" s="186"/>
+      <c r="C35" s="187"/>
+      <c r="D35" s="167"/>
+      <c r="E35" s="168"/>
+      <c r="F35" s="169"/>
       <c r="G35" s="69"/>
       <c r="H35" s="70"/>
     </row>
     <row r="36" spans="1:8" ht="20.25" customHeight="1">
       <c r="A36" s="66"/>
-      <c r="B36" s="175"/>
-      <c r="C36" s="176"/>
-      <c r="D36" s="177"/>
-      <c r="E36" s="178"/>
-      <c r="F36" s="179"/>
+      <c r="B36" s="186"/>
+      <c r="C36" s="187"/>
+      <c r="D36" s="167"/>
+      <c r="E36" s="168"/>
+      <c r="F36" s="169"/>
       <c r="G36" s="69"/>
       <c r="H36" s="70"/>
     </row>
     <row r="37" spans="1:8" ht="20.25" customHeight="1">
       <c r="A37" s="66"/>
-      <c r="B37" s="175"/>
-      <c r="C37" s="176"/>
-      <c r="D37" s="177"/>
-      <c r="E37" s="178"/>
-      <c r="F37" s="179"/>
+      <c r="B37" s="186"/>
+      <c r="C37" s="187"/>
+      <c r="D37" s="167"/>
+      <c r="E37" s="168"/>
+      <c r="F37" s="169"/>
       <c r="G37" s="69"/>
       <c r="H37" s="70"/>
     </row>
     <row r="38" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A38" s="76"/>
-      <c r="B38" s="189"/>
-      <c r="C38" s="190"/>
-      <c r="D38" s="180"/>
-      <c r="E38" s="191"/>
-      <c r="F38" s="181"/>
+      <c r="B38" s="188"/>
+      <c r="C38" s="189"/>
+      <c r="D38" s="170"/>
+      <c r="E38" s="171"/>
+      <c r="F38" s="172"/>
       <c r="G38" s="79"/>
       <c r="H38" s="80"/>
     </row>
@@ -8316,15 +8280,15 @@
       <c r="B41" s="57" t="s">
         <v>53</v>
       </c>
-      <c r="C41" s="182" t="s">
+      <c r="C41" s="178" t="s">
         <v>50</v>
       </c>
-      <c r="D41" s="192"/>
-      <c r="E41" s="183"/>
-      <c r="F41" s="182" t="s">
+      <c r="D41" s="179"/>
+      <c r="E41" s="180"/>
+      <c r="F41" s="178" t="s">
         <v>54</v>
       </c>
-      <c r="G41" s="193"/>
+      <c r="G41" s="190"/>
       <c r="H41" s="58" t="s">
         <v>55</v>
       </c>
@@ -8332,51 +8296,51 @@
     <row r="42" spans="1:8" ht="20.25" customHeight="1">
       <c r="A42" s="81"/>
       <c r="B42" s="82"/>
-      <c r="C42" s="186"/>
-      <c r="D42" s="187"/>
-      <c r="E42" s="188"/>
-      <c r="F42" s="186"/>
-      <c r="G42" s="188"/>
+      <c r="C42" s="183"/>
+      <c r="D42" s="184"/>
+      <c r="E42" s="185"/>
+      <c r="F42" s="183"/>
+      <c r="G42" s="185"/>
       <c r="H42" s="83"/>
     </row>
     <row r="43" spans="1:8" ht="20.25" customHeight="1">
       <c r="A43" s="84"/>
       <c r="B43" s="85"/>
-      <c r="C43" s="177"/>
-      <c r="D43" s="178"/>
-      <c r="E43" s="179"/>
-      <c r="F43" s="177"/>
-      <c r="G43" s="179"/>
+      <c r="C43" s="167"/>
+      <c r="D43" s="168"/>
+      <c r="E43" s="169"/>
+      <c r="F43" s="167"/>
+      <c r="G43" s="169"/>
       <c r="H43" s="86"/>
     </row>
     <row r="44" spans="1:8" ht="20.25" customHeight="1">
       <c r="A44" s="84"/>
       <c r="B44" s="85"/>
-      <c r="C44" s="177"/>
-      <c r="D44" s="178"/>
-      <c r="E44" s="179"/>
-      <c r="F44" s="177"/>
-      <c r="G44" s="179"/>
+      <c r="C44" s="167"/>
+      <c r="D44" s="168"/>
+      <c r="E44" s="169"/>
+      <c r="F44" s="167"/>
+      <c r="G44" s="169"/>
       <c r="H44" s="86"/>
     </row>
     <row r="45" spans="1:8" ht="20.25" customHeight="1">
       <c r="A45" s="84"/>
       <c r="B45" s="85"/>
-      <c r="C45" s="177"/>
-      <c r="D45" s="178"/>
-      <c r="E45" s="179"/>
-      <c r="F45" s="177"/>
-      <c r="G45" s="179"/>
+      <c r="C45" s="167"/>
+      <c r="D45" s="168"/>
+      <c r="E45" s="169"/>
+      <c r="F45" s="167"/>
+      <c r="G45" s="169"/>
       <c r="H45" s="86"/>
     </row>
     <row r="46" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A46" s="87"/>
       <c r="B46" s="88"/>
-      <c r="C46" s="180"/>
-      <c r="D46" s="191"/>
-      <c r="E46" s="181"/>
-      <c r="F46" s="194"/>
-      <c r="G46" s="195"/>
+      <c r="C46" s="170"/>
+      <c r="D46" s="171"/>
+      <c r="E46" s="172"/>
+      <c r="F46" s="173"/>
+      <c r="G46" s="174"/>
       <c r="H46" s="89"/>
     </row>
     <row r="47" spans="1:8" ht="20.25" customHeight="1">
@@ -8408,15 +8372,15 @@
       <c r="B49" s="57" t="s">
         <v>53</v>
       </c>
-      <c r="C49" s="182" t="s">
+      <c r="C49" s="178" t="s">
         <v>50</v>
       </c>
-      <c r="D49" s="192"/>
-      <c r="E49" s="183"/>
-      <c r="F49" s="171" t="s">
+      <c r="D49" s="179"/>
+      <c r="E49" s="180"/>
+      <c r="F49" s="181" t="s">
         <v>57</v>
       </c>
-      <c r="G49" s="196"/>
+      <c r="G49" s="182"/>
       <c r="H49" s="49" t="s">
         <v>58</v>
       </c>
@@ -8426,83 +8390,73 @@
         <v>1</v>
       </c>
       <c r="B50" s="95"/>
-      <c r="C50" s="197"/>
-      <c r="D50" s="198"/>
-      <c r="E50" s="199"/>
-      <c r="F50" s="197"/>
-      <c r="G50" s="199"/>
+      <c r="C50" s="175"/>
+      <c r="D50" s="176"/>
+      <c r="E50" s="177"/>
+      <c r="F50" s="175"/>
+      <c r="G50" s="177"/>
       <c r="H50" s="96"/>
     </row>
     <row r="51" spans="1:8" ht="20.25" customHeight="1">
       <c r="A51" s="84"/>
       <c r="B51" s="85"/>
-      <c r="C51" s="177"/>
-      <c r="D51" s="178"/>
-      <c r="E51" s="179"/>
-      <c r="F51" s="177"/>
-      <c r="G51" s="179"/>
+      <c r="C51" s="167"/>
+      <c r="D51" s="168"/>
+      <c r="E51" s="169"/>
+      <c r="F51" s="167"/>
+      <c r="G51" s="169"/>
       <c r="H51" s="86"/>
     </row>
     <row r="52" spans="1:8" ht="20.25" customHeight="1">
       <c r="A52" s="84"/>
       <c r="B52" s="85"/>
-      <c r="C52" s="177"/>
-      <c r="D52" s="178"/>
-      <c r="E52" s="179"/>
-      <c r="F52" s="177"/>
-      <c r="G52" s="179"/>
+      <c r="C52" s="167"/>
+      <c r="D52" s="168"/>
+      <c r="E52" s="169"/>
+      <c r="F52" s="167"/>
+      <c r="G52" s="169"/>
       <c r="H52" s="86"/>
     </row>
     <row r="53" spans="1:8" ht="20.25" customHeight="1">
       <c r="A53" s="84"/>
       <c r="B53" s="85"/>
-      <c r="C53" s="177"/>
-      <c r="D53" s="178"/>
-      <c r="E53" s="179"/>
-      <c r="F53" s="177"/>
-      <c r="G53" s="179"/>
+      <c r="C53" s="167"/>
+      <c r="D53" s="168"/>
+      <c r="E53" s="169"/>
+      <c r="F53" s="167"/>
+      <c r="G53" s="169"/>
       <c r="H53" s="86"/>
     </row>
     <row r="54" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A54" s="87"/>
       <c r="B54" s="88"/>
-      <c r="C54" s="180"/>
-      <c r="D54" s="191"/>
-      <c r="E54" s="181"/>
-      <c r="F54" s="194"/>
-      <c r="G54" s="195"/>
+      <c r="C54" s="170"/>
+      <c r="D54" s="171"/>
+      <c r="E54" s="172"/>
+      <c r="F54" s="173"/>
+      <c r="G54" s="174"/>
       <c r="H54" s="89"/>
     </row>
   </sheetData>
   <mergeCells count="59">
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="C54:E54"/>
-    <mergeCell ref="F54:G54"/>
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="C51:E51"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="C52:E52"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="C44:E44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
     <mergeCell ref="B36:C36"/>
     <mergeCell ref="D36:F36"/>
     <mergeCell ref="C25:D25"/>
@@ -8516,24 +8470,34 @@
     <mergeCell ref="D34:F34"/>
     <mergeCell ref="B35:C35"/>
     <mergeCell ref="D35:F35"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="C54:E54"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="F52:G52"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="1.0236220472440944" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -8647,42 +8611,42 @@
         <v>38</v>
       </c>
       <c r="B6" s="45"/>
-      <c r="C6" s="168" t="s">
+      <c r="C6" s="195" t="s">
         <v>137</v>
       </c>
-      <c r="D6" s="169"/>
-      <c r="E6" s="169"/>
-      <c r="F6" s="169"/>
-      <c r="G6" s="169"/>
-      <c r="H6" s="170"/>
+      <c r="D6" s="196"/>
+      <c r="E6" s="196"/>
+      <c r="F6" s="196"/>
+      <c r="G6" s="196"/>
+      <c r="H6" s="197"/>
     </row>
     <row r="7" spans="1:8" ht="20.25" customHeight="1">
       <c r="A7" s="40" t="s">
         <v>31</v>
       </c>
       <c r="B7" s="45"/>
-      <c r="C7" s="168" t="s">
+      <c r="C7" s="195" t="s">
         <v>139</v>
       </c>
-      <c r="D7" s="169"/>
-      <c r="E7" s="169"/>
-      <c r="F7" s="169"/>
-      <c r="G7" s="169"/>
-      <c r="H7" s="170"/>
+      <c r="D7" s="196"/>
+      <c r="E7" s="196"/>
+      <c r="F7" s="196"/>
+      <c r="G7" s="196"/>
+      <c r="H7" s="197"/>
     </row>
     <row r="8" spans="1:8" ht="20.25" customHeight="1">
       <c r="A8" s="40" t="s">
         <v>39</v>
       </c>
       <c r="B8" s="45"/>
-      <c r="C8" s="168" t="s">
+      <c r="C8" s="195" t="s">
         <v>138</v>
       </c>
-      <c r="D8" s="169"/>
-      <c r="E8" s="169"/>
-      <c r="F8" s="169"/>
-      <c r="G8" s="169"/>
-      <c r="H8" s="170"/>
+      <c r="D8" s="196"/>
+      <c r="E8" s="196"/>
+      <c r="F8" s="196"/>
+      <c r="G8" s="196"/>
+      <c r="H8" s="197"/>
     </row>
     <row r="9" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A9" s="46" t="s">
@@ -8703,10 +8667,10 @@
       <c r="B10" s="48" t="s">
         <v>42</v>
       </c>
-      <c r="C10" s="171" t="s">
+      <c r="C10" s="181" t="s">
         <v>43</v>
       </c>
-      <c r="D10" s="172"/>
+      <c r="D10" s="198"/>
       <c r="E10" s="48" t="s">
         <v>44</v>
       </c>
@@ -8727,10 +8691,10 @@
       <c r="B11" s="62" t="s">
         <v>132</v>
       </c>
-      <c r="C11" s="173" t="s">
+      <c r="C11" s="199" t="s">
         <v>127</v>
       </c>
-      <c r="D11" s="174"/>
+      <c r="D11" s="200"/>
       <c r="E11" s="63" t="s">
         <v>100</v>
       </c>
@@ -8749,10 +8713,10 @@
       <c r="B12" s="67" t="s">
         <v>133</v>
       </c>
-      <c r="C12" s="166" t="s">
+      <c r="C12" s="191" t="s">
         <v>128</v>
       </c>
-      <c r="D12" s="167"/>
+      <c r="D12" s="192"/>
       <c r="E12" s="68" t="s">
         <v>101</v>
       </c>
@@ -8769,10 +8733,10 @@
       <c r="B13" s="67" t="s">
         <v>134</v>
       </c>
-      <c r="C13" s="166" t="s">
+      <c r="C13" s="191" t="s">
         <v>129</v>
       </c>
-      <c r="D13" s="167"/>
+      <c r="D13" s="192"/>
       <c r="E13" s="68" t="s">
         <v>101</v>
       </c>
@@ -8789,10 +8753,10 @@
       <c r="B14" s="72" t="s">
         <v>135</v>
       </c>
-      <c r="C14" s="166" t="s">
+      <c r="C14" s="191" t="s">
         <v>130</v>
       </c>
-      <c r="D14" s="167"/>
+      <c r="D14" s="192"/>
       <c r="E14" s="63" t="s">
         <v>100</v>
       </c>
@@ -8809,10 +8773,10 @@
       <c r="B15" s="72" t="s">
         <v>136</v>
       </c>
-      <c r="C15" s="166" t="s">
+      <c r="C15" s="191" t="s">
         <v>131</v>
       </c>
-      <c r="D15" s="167"/>
+      <c r="D15" s="192"/>
       <c r="E15" s="68" t="s">
         <v>101</v>
       </c>
@@ -8825,8 +8789,8 @@
     <row r="16" spans="1:8" ht="20.25" customHeight="1">
       <c r="A16" s="71"/>
       <c r="B16" s="72"/>
-      <c r="C16" s="166"/>
-      <c r="D16" s="167"/>
+      <c r="C16" s="191"/>
+      <c r="D16" s="192"/>
       <c r="E16" s="73"/>
       <c r="F16" s="73"/>
       <c r="G16" s="74"/>
@@ -8835,8 +8799,8 @@
     <row r="17" spans="1:8" ht="20.25" customHeight="1">
       <c r="A17" s="71"/>
       <c r="B17" s="72"/>
-      <c r="C17" s="166"/>
-      <c r="D17" s="167"/>
+      <c r="C17" s="191"/>
+      <c r="D17" s="192"/>
       <c r="E17" s="73"/>
       <c r="F17" s="73"/>
       <c r="G17" s="74"/>
@@ -8845,8 +8809,8 @@
     <row r="18" spans="1:8" ht="20.25" customHeight="1">
       <c r="A18" s="71"/>
       <c r="B18" s="72"/>
-      <c r="C18" s="166"/>
-      <c r="D18" s="167"/>
+      <c r="C18" s="191"/>
+      <c r="D18" s="192"/>
       <c r="E18" s="73"/>
       <c r="F18" s="73"/>
       <c r="G18" s="74"/>
@@ -8855,8 +8819,8 @@
     <row r="19" spans="1:8" ht="20.25" customHeight="1">
       <c r="A19" s="71"/>
       <c r="B19" s="72"/>
-      <c r="C19" s="166"/>
-      <c r="D19" s="167"/>
+      <c r="C19" s="191"/>
+      <c r="D19" s="192"/>
       <c r="E19" s="73"/>
       <c r="F19" s="73"/>
       <c r="G19" s="74"/>
@@ -8865,8 +8829,8 @@
     <row r="20" spans="1:8" ht="20.25" customHeight="1">
       <c r="A20" s="71"/>
       <c r="B20" s="72"/>
-      <c r="C20" s="166"/>
-      <c r="D20" s="167"/>
+      <c r="C20" s="191"/>
+      <c r="D20" s="192"/>
       <c r="E20" s="73"/>
       <c r="F20" s="73"/>
       <c r="G20" s="74"/>
@@ -8875,8 +8839,8 @@
     <row r="21" spans="1:8" ht="20.25" customHeight="1">
       <c r="A21" s="71"/>
       <c r="B21" s="72"/>
-      <c r="C21" s="166"/>
-      <c r="D21" s="167"/>
+      <c r="C21" s="191"/>
+      <c r="D21" s="192"/>
       <c r="E21" s="73"/>
       <c r="F21" s="73"/>
       <c r="G21" s="74"/>
@@ -8885,8 +8849,8 @@
     <row r="22" spans="1:8" ht="20.25" customHeight="1">
       <c r="A22" s="71"/>
       <c r="B22" s="72"/>
-      <c r="C22" s="166"/>
-      <c r="D22" s="167"/>
+      <c r="C22" s="191"/>
+      <c r="D22" s="192"/>
       <c r="E22" s="73"/>
       <c r="F22" s="73"/>
       <c r="G22" s="74"/>
@@ -8895,8 +8859,8 @@
     <row r="23" spans="1:8" ht="20.25" customHeight="1">
       <c r="A23" s="71"/>
       <c r="B23" s="72"/>
-      <c r="C23" s="166"/>
-      <c r="D23" s="167"/>
+      <c r="C23" s="191"/>
+      <c r="D23" s="192"/>
       <c r="E23" s="73"/>
       <c r="F23" s="73"/>
       <c r="G23" s="74"/>
@@ -8905,8 +8869,8 @@
     <row r="24" spans="1:8" ht="20.25" customHeight="1">
       <c r="A24" s="71"/>
       <c r="B24" s="72"/>
-      <c r="C24" s="166"/>
-      <c r="D24" s="167"/>
+      <c r="C24" s="191"/>
+      <c r="D24" s="192"/>
       <c r="E24" s="73"/>
       <c r="F24" s="73"/>
       <c r="G24" s="74"/>
@@ -8915,8 +8879,8 @@
     <row r="25" spans="1:8" ht="20.25" customHeight="1">
       <c r="A25" s="71"/>
       <c r="B25" s="72"/>
-      <c r="C25" s="166"/>
-      <c r="D25" s="167"/>
+      <c r="C25" s="191"/>
+      <c r="D25" s="192"/>
       <c r="E25" s="73"/>
       <c r="F25" s="73"/>
       <c r="G25" s="74"/>
@@ -8925,8 +8889,8 @@
     <row r="26" spans="1:8" ht="20.25" customHeight="1">
       <c r="A26" s="71"/>
       <c r="B26" s="72"/>
-      <c r="C26" s="166"/>
-      <c r="D26" s="167"/>
+      <c r="C26" s="191"/>
+      <c r="D26" s="192"/>
       <c r="E26" s="73"/>
       <c r="F26" s="73"/>
       <c r="G26" s="74"/>
@@ -8935,8 +8899,8 @@
     <row r="27" spans="1:8" ht="20.25" customHeight="1">
       <c r="A27" s="71"/>
       <c r="B27" s="72"/>
-      <c r="C27" s="166"/>
-      <c r="D27" s="167"/>
+      <c r="C27" s="191"/>
+      <c r="D27" s="192"/>
       <c r="E27" s="73"/>
       <c r="F27" s="73"/>
       <c r="G27" s="74"/>
@@ -8945,8 +8909,8 @@
     <row r="28" spans="1:8" ht="20.25" customHeight="1">
       <c r="A28" s="71"/>
       <c r="B28" s="72"/>
-      <c r="C28" s="166"/>
-      <c r="D28" s="167"/>
+      <c r="C28" s="191"/>
+      <c r="D28" s="192"/>
       <c r="E28" s="73"/>
       <c r="F28" s="73"/>
       <c r="G28" s="74"/>
@@ -8955,8 +8919,8 @@
     <row r="29" spans="1:8" ht="20.25" customHeight="1">
       <c r="A29" s="71"/>
       <c r="B29" s="72"/>
-      <c r="C29" s="166"/>
-      <c r="D29" s="167"/>
+      <c r="C29" s="191"/>
+      <c r="D29" s="192"/>
       <c r="E29" s="73"/>
       <c r="F29" s="73"/>
       <c r="G29" s="74"/>
@@ -8965,8 +8929,8 @@
     <row r="30" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A30" s="76"/>
       <c r="B30" s="77"/>
-      <c r="C30" s="180"/>
-      <c r="D30" s="181"/>
+      <c r="C30" s="170"/>
+      <c r="D30" s="172"/>
       <c r="E30" s="78"/>
       <c r="F30" s="78"/>
       <c r="G30" s="79"/>
@@ -8998,10 +8962,10 @@
       <c r="A33" s="53" t="s">
         <v>41</v>
       </c>
-      <c r="B33" s="182" t="s">
+      <c r="B33" s="178" t="s">
         <v>49</v>
       </c>
-      <c r="C33" s="183"/>
+      <c r="C33" s="180"/>
       <c r="D33" s="54" t="s">
         <v>50</v>
       </c>
@@ -9016,51 +8980,51 @@
     </row>
     <row r="34" spans="1:8" ht="20.25" customHeight="1">
       <c r="A34" s="61"/>
-      <c r="B34" s="184"/>
-      <c r="C34" s="185"/>
-      <c r="D34" s="186"/>
-      <c r="E34" s="187"/>
-      <c r="F34" s="188"/>
+      <c r="B34" s="193"/>
+      <c r="C34" s="194"/>
+      <c r="D34" s="183"/>
+      <c r="E34" s="184"/>
+      <c r="F34" s="185"/>
       <c r="G34" s="64"/>
       <c r="H34" s="65"/>
     </row>
     <row r="35" spans="1:8" ht="20.25" customHeight="1">
       <c r="A35" s="66"/>
-      <c r="B35" s="175"/>
-      <c r="C35" s="176"/>
-      <c r="D35" s="177"/>
-      <c r="E35" s="178"/>
-      <c r="F35" s="179"/>
+      <c r="B35" s="186"/>
+      <c r="C35" s="187"/>
+      <c r="D35" s="167"/>
+      <c r="E35" s="168"/>
+      <c r="F35" s="169"/>
       <c r="G35" s="69"/>
       <c r="H35" s="70"/>
     </row>
     <row r="36" spans="1:8" ht="20.25" customHeight="1">
       <c r="A36" s="66"/>
-      <c r="B36" s="175"/>
-      <c r="C36" s="176"/>
-      <c r="D36" s="177"/>
-      <c r="E36" s="178"/>
-      <c r="F36" s="179"/>
+      <c r="B36" s="186"/>
+      <c r="C36" s="187"/>
+      <c r="D36" s="167"/>
+      <c r="E36" s="168"/>
+      <c r="F36" s="169"/>
       <c r="G36" s="69"/>
       <c r="H36" s="70"/>
     </row>
     <row r="37" spans="1:8" ht="20.25" customHeight="1">
       <c r="A37" s="66"/>
-      <c r="B37" s="175"/>
-      <c r="C37" s="176"/>
-      <c r="D37" s="177"/>
-      <c r="E37" s="178"/>
-      <c r="F37" s="179"/>
+      <c r="B37" s="186"/>
+      <c r="C37" s="187"/>
+      <c r="D37" s="167"/>
+      <c r="E37" s="168"/>
+      <c r="F37" s="169"/>
       <c r="G37" s="69"/>
       <c r="H37" s="70"/>
     </row>
     <row r="38" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A38" s="76"/>
-      <c r="B38" s="189"/>
-      <c r="C38" s="190"/>
-      <c r="D38" s="180"/>
-      <c r="E38" s="191"/>
-      <c r="F38" s="181"/>
+      <c r="B38" s="188"/>
+      <c r="C38" s="189"/>
+      <c r="D38" s="170"/>
+      <c r="E38" s="171"/>
+      <c r="F38" s="172"/>
       <c r="G38" s="79"/>
       <c r="H38" s="80"/>
     </row>
@@ -9093,15 +9057,15 @@
       <c r="B41" s="57" t="s">
         <v>53</v>
       </c>
-      <c r="C41" s="182" t="s">
+      <c r="C41" s="178" t="s">
         <v>50</v>
       </c>
-      <c r="D41" s="192"/>
-      <c r="E41" s="183"/>
-      <c r="F41" s="182" t="s">
+      <c r="D41" s="179"/>
+      <c r="E41" s="180"/>
+      <c r="F41" s="178" t="s">
         <v>54</v>
       </c>
-      <c r="G41" s="193"/>
+      <c r="G41" s="190"/>
       <c r="H41" s="58" t="s">
         <v>55</v>
       </c>
@@ -9109,51 +9073,51 @@
     <row r="42" spans="1:8" ht="20.25" customHeight="1">
       <c r="A42" s="81"/>
       <c r="B42" s="82"/>
-      <c r="C42" s="186"/>
-      <c r="D42" s="187"/>
-      <c r="E42" s="188"/>
-      <c r="F42" s="186"/>
-      <c r="G42" s="188"/>
+      <c r="C42" s="183"/>
+      <c r="D42" s="184"/>
+      <c r="E42" s="185"/>
+      <c r="F42" s="183"/>
+      <c r="G42" s="185"/>
       <c r="H42" s="83"/>
     </row>
     <row r="43" spans="1:8" ht="20.25" customHeight="1">
       <c r="A43" s="84"/>
       <c r="B43" s="85"/>
-      <c r="C43" s="177"/>
-      <c r="D43" s="178"/>
-      <c r="E43" s="179"/>
-      <c r="F43" s="177"/>
-      <c r="G43" s="179"/>
+      <c r="C43" s="167"/>
+      <c r="D43" s="168"/>
+      <c r="E43" s="169"/>
+      <c r="F43" s="167"/>
+      <c r="G43" s="169"/>
       <c r="H43" s="86"/>
     </row>
     <row r="44" spans="1:8" ht="20.25" customHeight="1">
       <c r="A44" s="84"/>
       <c r="B44" s="85"/>
-      <c r="C44" s="177"/>
-      <c r="D44" s="178"/>
-      <c r="E44" s="179"/>
-      <c r="F44" s="177"/>
-      <c r="G44" s="179"/>
+      <c r="C44" s="167"/>
+      <c r="D44" s="168"/>
+      <c r="E44" s="169"/>
+      <c r="F44" s="167"/>
+      <c r="G44" s="169"/>
       <c r="H44" s="86"/>
     </row>
     <row r="45" spans="1:8" ht="20.25" customHeight="1">
       <c r="A45" s="84"/>
       <c r="B45" s="85"/>
-      <c r="C45" s="177"/>
-      <c r="D45" s="178"/>
-      <c r="E45" s="179"/>
-      <c r="F45" s="177"/>
-      <c r="G45" s="179"/>
+      <c r="C45" s="167"/>
+      <c r="D45" s="168"/>
+      <c r="E45" s="169"/>
+      <c r="F45" s="167"/>
+      <c r="G45" s="169"/>
       <c r="H45" s="86"/>
     </row>
     <row r="46" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A46" s="87"/>
       <c r="B46" s="88"/>
-      <c r="C46" s="180"/>
-      <c r="D46" s="191"/>
-      <c r="E46" s="181"/>
-      <c r="F46" s="194"/>
-      <c r="G46" s="195"/>
+      <c r="C46" s="170"/>
+      <c r="D46" s="171"/>
+      <c r="E46" s="172"/>
+      <c r="F46" s="173"/>
+      <c r="G46" s="174"/>
       <c r="H46" s="89"/>
     </row>
     <row r="47" spans="1:8" ht="20.25" customHeight="1">
@@ -9185,15 +9149,15 @@
       <c r="B49" s="57" t="s">
         <v>53</v>
       </c>
-      <c r="C49" s="182" t="s">
+      <c r="C49" s="178" t="s">
         <v>50</v>
       </c>
-      <c r="D49" s="192"/>
-      <c r="E49" s="183"/>
-      <c r="F49" s="171" t="s">
+      <c r="D49" s="179"/>
+      <c r="E49" s="180"/>
+      <c r="F49" s="181" t="s">
         <v>57</v>
       </c>
-      <c r="G49" s="196"/>
+      <c r="G49" s="182"/>
       <c r="H49" s="49" t="s">
         <v>58</v>
       </c>
@@ -9203,83 +9167,73 @@
         <v>1</v>
       </c>
       <c r="B50" s="95"/>
-      <c r="C50" s="197"/>
-      <c r="D50" s="198"/>
-      <c r="E50" s="199"/>
-      <c r="F50" s="197"/>
-      <c r="G50" s="199"/>
+      <c r="C50" s="175"/>
+      <c r="D50" s="176"/>
+      <c r="E50" s="177"/>
+      <c r="F50" s="175"/>
+      <c r="G50" s="177"/>
       <c r="H50" s="96"/>
     </row>
     <row r="51" spans="1:8" ht="20.25" customHeight="1">
       <c r="A51" s="84"/>
       <c r="B51" s="85"/>
-      <c r="C51" s="177"/>
-      <c r="D51" s="178"/>
-      <c r="E51" s="179"/>
-      <c r="F51" s="177"/>
-      <c r="G51" s="179"/>
+      <c r="C51" s="167"/>
+      <c r="D51" s="168"/>
+      <c r="E51" s="169"/>
+      <c r="F51" s="167"/>
+      <c r="G51" s="169"/>
       <c r="H51" s="86"/>
     </row>
     <row r="52" spans="1:8" ht="20.25" customHeight="1">
       <c r="A52" s="84"/>
       <c r="B52" s="85"/>
-      <c r="C52" s="177"/>
-      <c r="D52" s="178"/>
-      <c r="E52" s="179"/>
-      <c r="F52" s="177"/>
-      <c r="G52" s="179"/>
+      <c r="C52" s="167"/>
+      <c r="D52" s="168"/>
+      <c r="E52" s="169"/>
+      <c r="F52" s="167"/>
+      <c r="G52" s="169"/>
       <c r="H52" s="86"/>
     </row>
     <row r="53" spans="1:8" ht="20.25" customHeight="1">
       <c r="A53" s="84"/>
       <c r="B53" s="85"/>
-      <c r="C53" s="177"/>
-      <c r="D53" s="178"/>
-      <c r="E53" s="179"/>
-      <c r="F53" s="177"/>
-      <c r="G53" s="179"/>
+      <c r="C53" s="167"/>
+      <c r="D53" s="168"/>
+      <c r="E53" s="169"/>
+      <c r="F53" s="167"/>
+      <c r="G53" s="169"/>
       <c r="H53" s="86"/>
     </row>
     <row r="54" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A54" s="87"/>
       <c r="B54" s="88"/>
-      <c r="C54" s="180"/>
-      <c r="D54" s="191"/>
-      <c r="E54" s="181"/>
-      <c r="F54" s="194"/>
-      <c r="G54" s="195"/>
+      <c r="C54" s="170"/>
+      <c r="D54" s="171"/>
+      <c r="E54" s="172"/>
+      <c r="F54" s="173"/>
+      <c r="G54" s="174"/>
       <c r="H54" s="89"/>
     </row>
   </sheetData>
   <mergeCells count="59">
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="C54:E54"/>
-    <mergeCell ref="F54:G54"/>
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="C51:E51"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="C52:E52"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="C44:E44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
     <mergeCell ref="B36:C36"/>
     <mergeCell ref="D36:F36"/>
     <mergeCell ref="C25:D25"/>
@@ -9293,24 +9247,34 @@
     <mergeCell ref="D34:F34"/>
     <mergeCell ref="B35:C35"/>
     <mergeCell ref="D35:F35"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="C54:E54"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="F52:G52"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="1.0236220472440944" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -9424,42 +9388,42 @@
         <v>38</v>
       </c>
       <c r="B6" s="45"/>
-      <c r="C6" s="168" t="s">
+      <c r="C6" s="195" t="s">
         <v>119</v>
       </c>
-      <c r="D6" s="169"/>
-      <c r="E6" s="169"/>
-      <c r="F6" s="169"/>
-      <c r="G6" s="169"/>
-      <c r="H6" s="170"/>
+      <c r="D6" s="196"/>
+      <c r="E6" s="196"/>
+      <c r="F6" s="196"/>
+      <c r="G6" s="196"/>
+      <c r="H6" s="197"/>
     </row>
     <row r="7" spans="1:8" ht="20.25" customHeight="1">
       <c r="A7" s="40" t="s">
         <v>31</v>
       </c>
       <c r="B7" s="45"/>
-      <c r="C7" s="168" t="s">
+      <c r="C7" s="195" t="s">
         <v>117</v>
       </c>
-      <c r="D7" s="169"/>
-      <c r="E7" s="169"/>
-      <c r="F7" s="169"/>
-      <c r="G7" s="169"/>
-      <c r="H7" s="170"/>
+      <c r="D7" s="196"/>
+      <c r="E7" s="196"/>
+      <c r="F7" s="196"/>
+      <c r="G7" s="196"/>
+      <c r="H7" s="197"/>
     </row>
     <row r="8" spans="1:8" ht="20.25" customHeight="1">
       <c r="A8" s="40" t="s">
         <v>39</v>
       </c>
       <c r="B8" s="45"/>
-      <c r="C8" s="168" t="s">
+      <c r="C8" s="195" t="s">
         <v>118</v>
       </c>
-      <c r="D8" s="169"/>
-      <c r="E8" s="169"/>
-      <c r="F8" s="169"/>
-      <c r="G8" s="169"/>
-      <c r="H8" s="170"/>
+      <c r="D8" s="196"/>
+      <c r="E8" s="196"/>
+      <c r="F8" s="196"/>
+      <c r="G8" s="196"/>
+      <c r="H8" s="197"/>
     </row>
     <row r="9" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A9" s="46" t="s">
@@ -9480,10 +9444,10 @@
       <c r="B10" s="48" t="s">
         <v>42</v>
       </c>
-      <c r="C10" s="171" t="s">
+      <c r="C10" s="181" t="s">
         <v>43</v>
       </c>
-      <c r="D10" s="172"/>
+      <c r="D10" s="198"/>
       <c r="E10" s="48" t="s">
         <v>44</v>
       </c>
@@ -9504,10 +9468,10 @@
       <c r="B11" s="62" t="s">
         <v>113</v>
       </c>
-      <c r="C11" s="173" t="s">
+      <c r="C11" s="199" t="s">
         <v>108</v>
       </c>
-      <c r="D11" s="174"/>
+      <c r="D11" s="200"/>
       <c r="E11" s="63" t="s">
         <v>115</v>
       </c>
@@ -9526,10 +9490,10 @@
       <c r="B12" s="67" t="s">
         <v>112</v>
       </c>
-      <c r="C12" s="166" t="s">
+      <c r="C12" s="191" t="s">
         <v>71</v>
       </c>
-      <c r="D12" s="167"/>
+      <c r="D12" s="192"/>
       <c r="E12" s="63" t="s">
         <v>115</v>
       </c>
@@ -9546,10 +9510,10 @@
       <c r="B13" s="67" t="s">
         <v>122</v>
       </c>
-      <c r="C13" s="166" t="s">
+      <c r="C13" s="191" t="s">
         <v>120</v>
       </c>
-      <c r="D13" s="167"/>
+      <c r="D13" s="192"/>
       <c r="E13" s="63" t="s">
         <v>115</v>
       </c>
@@ -9566,10 +9530,10 @@
       <c r="B14" s="72" t="s">
         <v>123</v>
       </c>
-      <c r="C14" s="166" t="s">
+      <c r="C14" s="191" t="s">
         <v>121</v>
       </c>
-      <c r="D14" s="167"/>
+      <c r="D14" s="192"/>
       <c r="E14" s="63" t="s">
         <v>124</v>
       </c>
@@ -9582,8 +9546,8 @@
     <row r="15" spans="1:8" ht="20.25" customHeight="1">
       <c r="A15" s="71"/>
       <c r="B15" s="72"/>
-      <c r="C15" s="166"/>
-      <c r="D15" s="167"/>
+      <c r="C15" s="191"/>
+      <c r="D15" s="192"/>
       <c r="E15" s="73"/>
       <c r="F15" s="73"/>
       <c r="G15" s="74"/>
@@ -9592,8 +9556,8 @@
     <row r="16" spans="1:8" ht="20.25" customHeight="1">
       <c r="A16" s="71"/>
       <c r="B16" s="72"/>
-      <c r="C16" s="166"/>
-      <c r="D16" s="167"/>
+      <c r="C16" s="191"/>
+      <c r="D16" s="192"/>
       <c r="E16" s="73"/>
       <c r="F16" s="73"/>
       <c r="G16" s="74"/>
@@ -9602,8 +9566,8 @@
     <row r="17" spans="1:8" ht="20.25" customHeight="1">
       <c r="A17" s="71"/>
       <c r="B17" s="72"/>
-      <c r="C17" s="166"/>
-      <c r="D17" s="167"/>
+      <c r="C17" s="191"/>
+      <c r="D17" s="192"/>
       <c r="E17" s="73"/>
       <c r="F17" s="73"/>
       <c r="G17" s="74"/>
@@ -9612,8 +9576,8 @@
     <row r="18" spans="1:8" ht="20.25" customHeight="1">
       <c r="A18" s="71"/>
       <c r="B18" s="72"/>
-      <c r="C18" s="166"/>
-      <c r="D18" s="167"/>
+      <c r="C18" s="191"/>
+      <c r="D18" s="192"/>
       <c r="E18" s="73"/>
       <c r="F18" s="73"/>
       <c r="G18" s="74"/>
@@ -9622,8 +9586,8 @@
     <row r="19" spans="1:8" ht="20.25" customHeight="1">
       <c r="A19" s="71"/>
       <c r="B19" s="72"/>
-      <c r="C19" s="166"/>
-      <c r="D19" s="167"/>
+      <c r="C19" s="191"/>
+      <c r="D19" s="192"/>
       <c r="E19" s="73"/>
       <c r="F19" s="73"/>
       <c r="G19" s="74"/>
@@ -9632,8 +9596,8 @@
     <row r="20" spans="1:8" ht="20.25" customHeight="1">
       <c r="A20" s="71"/>
       <c r="B20" s="72"/>
-      <c r="C20" s="166"/>
-      <c r="D20" s="167"/>
+      <c r="C20" s="191"/>
+      <c r="D20" s="192"/>
       <c r="E20" s="73"/>
       <c r="F20" s="73"/>
       <c r="G20" s="74"/>
@@ -9642,8 +9606,8 @@
     <row r="21" spans="1:8" ht="20.25" customHeight="1">
       <c r="A21" s="71"/>
       <c r="B21" s="72"/>
-      <c r="C21" s="166"/>
-      <c r="D21" s="167"/>
+      <c r="C21" s="191"/>
+      <c r="D21" s="192"/>
       <c r="E21" s="73"/>
       <c r="F21" s="73"/>
       <c r="G21" s="74"/>
@@ -9652,8 +9616,8 @@
     <row r="22" spans="1:8" ht="20.25" customHeight="1">
       <c r="A22" s="71"/>
       <c r="B22" s="72"/>
-      <c r="C22" s="166"/>
-      <c r="D22" s="167"/>
+      <c r="C22" s="191"/>
+      <c r="D22" s="192"/>
       <c r="E22" s="73"/>
       <c r="F22" s="73"/>
       <c r="G22" s="74"/>
@@ -9662,8 +9626,8 @@
     <row r="23" spans="1:8" ht="20.25" customHeight="1">
       <c r="A23" s="71"/>
       <c r="B23" s="72"/>
-      <c r="C23" s="166"/>
-      <c r="D23" s="167"/>
+      <c r="C23" s="191"/>
+      <c r="D23" s="192"/>
       <c r="E23" s="73"/>
       <c r="F23" s="73"/>
       <c r="G23" s="74"/>
@@ -9672,8 +9636,8 @@
     <row r="24" spans="1:8" ht="20.25" customHeight="1">
       <c r="A24" s="71"/>
       <c r="B24" s="72"/>
-      <c r="C24" s="166"/>
-      <c r="D24" s="167"/>
+      <c r="C24" s="191"/>
+      <c r="D24" s="192"/>
       <c r="E24" s="73"/>
       <c r="F24" s="73"/>
       <c r="G24" s="74"/>
@@ -9682,8 +9646,8 @@
     <row r="25" spans="1:8" ht="20.25" customHeight="1">
       <c r="A25" s="71"/>
       <c r="B25" s="72"/>
-      <c r="C25" s="166"/>
-      <c r="D25" s="167"/>
+      <c r="C25" s="191"/>
+      <c r="D25" s="192"/>
       <c r="E25" s="73"/>
       <c r="F25" s="73"/>
       <c r="G25" s="74"/>
@@ -9692,8 +9656,8 @@
     <row r="26" spans="1:8" ht="20.25" customHeight="1">
       <c r="A26" s="71"/>
       <c r="B26" s="72"/>
-      <c r="C26" s="166"/>
-      <c r="D26" s="167"/>
+      <c r="C26" s="191"/>
+      <c r="D26" s="192"/>
       <c r="E26" s="73"/>
       <c r="F26" s="73"/>
       <c r="G26" s="74"/>
@@ -9702,8 +9666,8 @@
     <row r="27" spans="1:8" ht="20.25" customHeight="1">
       <c r="A27" s="71"/>
       <c r="B27" s="72"/>
-      <c r="C27" s="166"/>
-      <c r="D27" s="167"/>
+      <c r="C27" s="191"/>
+      <c r="D27" s="192"/>
       <c r="E27" s="73"/>
       <c r="F27" s="73"/>
       <c r="G27" s="74"/>
@@ -9712,8 +9676,8 @@
     <row r="28" spans="1:8" ht="20.25" customHeight="1">
       <c r="A28" s="71"/>
       <c r="B28" s="72"/>
-      <c r="C28" s="166"/>
-      <c r="D28" s="167"/>
+      <c r="C28" s="191"/>
+      <c r="D28" s="192"/>
       <c r="E28" s="73"/>
       <c r="F28" s="73"/>
       <c r="G28" s="74"/>
@@ -9722,8 +9686,8 @@
     <row r="29" spans="1:8" ht="20.25" customHeight="1">
       <c r="A29" s="71"/>
       <c r="B29" s="72"/>
-      <c r="C29" s="166"/>
-      <c r="D29" s="167"/>
+      <c r="C29" s="191"/>
+      <c r="D29" s="192"/>
       <c r="E29" s="73"/>
       <c r="F29" s="73"/>
       <c r="G29" s="74"/>
@@ -9732,8 +9696,8 @@
     <row r="30" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A30" s="76"/>
       <c r="B30" s="77"/>
-      <c r="C30" s="180"/>
-      <c r="D30" s="181"/>
+      <c r="C30" s="170"/>
+      <c r="D30" s="172"/>
       <c r="E30" s="78"/>
       <c r="F30" s="78"/>
       <c r="G30" s="79"/>
@@ -9765,10 +9729,10 @@
       <c r="A33" s="53" t="s">
         <v>41</v>
       </c>
-      <c r="B33" s="182" t="s">
+      <c r="B33" s="178" t="s">
         <v>49</v>
       </c>
-      <c r="C33" s="183"/>
+      <c r="C33" s="180"/>
       <c r="D33" s="54" t="s">
         <v>50</v>
       </c>
@@ -9783,51 +9747,51 @@
     </row>
     <row r="34" spans="1:8" ht="20.25" customHeight="1">
       <c r="A34" s="61"/>
-      <c r="B34" s="184"/>
-      <c r="C34" s="185"/>
-      <c r="D34" s="186"/>
-      <c r="E34" s="187"/>
-      <c r="F34" s="188"/>
+      <c r="B34" s="193"/>
+      <c r="C34" s="194"/>
+      <c r="D34" s="183"/>
+      <c r="E34" s="184"/>
+      <c r="F34" s="185"/>
       <c r="G34" s="64"/>
       <c r="H34" s="65"/>
     </row>
     <row r="35" spans="1:8" ht="20.25" customHeight="1">
       <c r="A35" s="66"/>
-      <c r="B35" s="175"/>
-      <c r="C35" s="176"/>
-      <c r="D35" s="177"/>
-      <c r="E35" s="178"/>
-      <c r="F35" s="179"/>
+      <c r="B35" s="186"/>
+      <c r="C35" s="187"/>
+      <c r="D35" s="167"/>
+      <c r="E35" s="168"/>
+      <c r="F35" s="169"/>
       <c r="G35" s="69"/>
       <c r="H35" s="70"/>
     </row>
     <row r="36" spans="1:8" ht="20.25" customHeight="1">
       <c r="A36" s="66"/>
-      <c r="B36" s="175"/>
-      <c r="C36" s="176"/>
-      <c r="D36" s="177"/>
-      <c r="E36" s="178"/>
-      <c r="F36" s="179"/>
+      <c r="B36" s="186"/>
+      <c r="C36" s="187"/>
+      <c r="D36" s="167"/>
+      <c r="E36" s="168"/>
+      <c r="F36" s="169"/>
       <c r="G36" s="69"/>
       <c r="H36" s="70"/>
     </row>
     <row r="37" spans="1:8" ht="20.25" customHeight="1">
       <c r="A37" s="66"/>
-      <c r="B37" s="175"/>
-      <c r="C37" s="176"/>
-      <c r="D37" s="177"/>
-      <c r="E37" s="178"/>
-      <c r="F37" s="179"/>
+      <c r="B37" s="186"/>
+      <c r="C37" s="187"/>
+      <c r="D37" s="167"/>
+      <c r="E37" s="168"/>
+      <c r="F37" s="169"/>
       <c r="G37" s="69"/>
       <c r="H37" s="70"/>
     </row>
     <row r="38" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A38" s="76"/>
-      <c r="B38" s="189"/>
-      <c r="C38" s="190"/>
-      <c r="D38" s="180"/>
-      <c r="E38" s="191"/>
-      <c r="F38" s="181"/>
+      <c r="B38" s="188"/>
+      <c r="C38" s="189"/>
+      <c r="D38" s="170"/>
+      <c r="E38" s="171"/>
+      <c r="F38" s="172"/>
       <c r="G38" s="79"/>
       <c r="H38" s="80"/>
     </row>
@@ -9860,15 +9824,15 @@
       <c r="B41" s="57" t="s">
         <v>53</v>
       </c>
-      <c r="C41" s="182" t="s">
+      <c r="C41" s="178" t="s">
         <v>50</v>
       </c>
-      <c r="D41" s="192"/>
-      <c r="E41" s="183"/>
-      <c r="F41" s="182" t="s">
+      <c r="D41" s="179"/>
+      <c r="E41" s="180"/>
+      <c r="F41" s="178" t="s">
         <v>54</v>
       </c>
-      <c r="G41" s="193"/>
+      <c r="G41" s="190"/>
       <c r="H41" s="58" t="s">
         <v>55</v>
       </c>
@@ -9876,51 +9840,51 @@
     <row r="42" spans="1:8" ht="20.25" customHeight="1">
       <c r="A42" s="81"/>
       <c r="B42" s="82"/>
-      <c r="C42" s="186"/>
-      <c r="D42" s="187"/>
-      <c r="E42" s="188"/>
-      <c r="F42" s="186"/>
-      <c r="G42" s="188"/>
+      <c r="C42" s="183"/>
+      <c r="D42" s="184"/>
+      <c r="E42" s="185"/>
+      <c r="F42" s="183"/>
+      <c r="G42" s="185"/>
       <c r="H42" s="83"/>
     </row>
     <row r="43" spans="1:8" ht="20.25" customHeight="1">
       <c r="A43" s="84"/>
       <c r="B43" s="85"/>
-      <c r="C43" s="177"/>
-      <c r="D43" s="178"/>
-      <c r="E43" s="179"/>
-      <c r="F43" s="177"/>
-      <c r="G43" s="179"/>
+      <c r="C43" s="167"/>
+      <c r="D43" s="168"/>
+      <c r="E43" s="169"/>
+      <c r="F43" s="167"/>
+      <c r="G43" s="169"/>
       <c r="H43" s="86"/>
     </row>
     <row r="44" spans="1:8" ht="20.25" customHeight="1">
       <c r="A44" s="84"/>
       <c r="B44" s="85"/>
-      <c r="C44" s="177"/>
-      <c r="D44" s="178"/>
-      <c r="E44" s="179"/>
-      <c r="F44" s="177"/>
-      <c r="G44" s="179"/>
+      <c r="C44" s="167"/>
+      <c r="D44" s="168"/>
+      <c r="E44" s="169"/>
+      <c r="F44" s="167"/>
+      <c r="G44" s="169"/>
       <c r="H44" s="86"/>
     </row>
     <row r="45" spans="1:8" ht="20.25" customHeight="1">
       <c r="A45" s="84"/>
       <c r="B45" s="85"/>
-      <c r="C45" s="177"/>
-      <c r="D45" s="178"/>
-      <c r="E45" s="179"/>
-      <c r="F45" s="177"/>
-      <c r="G45" s="179"/>
+      <c r="C45" s="167"/>
+      <c r="D45" s="168"/>
+      <c r="E45" s="169"/>
+      <c r="F45" s="167"/>
+      <c r="G45" s="169"/>
       <c r="H45" s="86"/>
     </row>
     <row r="46" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A46" s="87"/>
       <c r="B46" s="88"/>
-      <c r="C46" s="180"/>
-      <c r="D46" s="191"/>
-      <c r="E46" s="181"/>
-      <c r="F46" s="194"/>
-      <c r="G46" s="195"/>
+      <c r="C46" s="170"/>
+      <c r="D46" s="171"/>
+      <c r="E46" s="172"/>
+      <c r="F46" s="173"/>
+      <c r="G46" s="174"/>
       <c r="H46" s="89"/>
     </row>
     <row r="47" spans="1:8" ht="20.25" customHeight="1">
@@ -9952,15 +9916,15 @@
       <c r="B49" s="57" t="s">
         <v>53</v>
       </c>
-      <c r="C49" s="182" t="s">
+      <c r="C49" s="178" t="s">
         <v>50</v>
       </c>
-      <c r="D49" s="192"/>
-      <c r="E49" s="183"/>
-      <c r="F49" s="171" t="s">
+      <c r="D49" s="179"/>
+      <c r="E49" s="180"/>
+      <c r="F49" s="181" t="s">
         <v>57</v>
       </c>
-      <c r="G49" s="196"/>
+      <c r="G49" s="182"/>
       <c r="H49" s="49" t="s">
         <v>58</v>
       </c>
@@ -9970,83 +9934,73 @@
         <v>1</v>
       </c>
       <c r="B50" s="95"/>
-      <c r="C50" s="197"/>
-      <c r="D50" s="198"/>
-      <c r="E50" s="199"/>
-      <c r="F50" s="197"/>
-      <c r="G50" s="199"/>
+      <c r="C50" s="175"/>
+      <c r="D50" s="176"/>
+      <c r="E50" s="177"/>
+      <c r="F50" s="175"/>
+      <c r="G50" s="177"/>
       <c r="H50" s="96"/>
     </row>
     <row r="51" spans="1:8" ht="20.25" customHeight="1">
       <c r="A51" s="84"/>
       <c r="B51" s="85"/>
-      <c r="C51" s="177"/>
-      <c r="D51" s="178"/>
-      <c r="E51" s="179"/>
-      <c r="F51" s="177"/>
-      <c r="G51" s="179"/>
+      <c r="C51" s="167"/>
+      <c r="D51" s="168"/>
+      <c r="E51" s="169"/>
+      <c r="F51" s="167"/>
+      <c r="G51" s="169"/>
       <c r="H51" s="86"/>
     </row>
     <row r="52" spans="1:8" ht="20.25" customHeight="1">
       <c r="A52" s="84"/>
       <c r="B52" s="85"/>
-      <c r="C52" s="177"/>
-      <c r="D52" s="178"/>
-      <c r="E52" s="179"/>
-      <c r="F52" s="177"/>
-      <c r="G52" s="179"/>
+      <c r="C52" s="167"/>
+      <c r="D52" s="168"/>
+      <c r="E52" s="169"/>
+      <c r="F52" s="167"/>
+      <c r="G52" s="169"/>
       <c r="H52" s="86"/>
     </row>
     <row r="53" spans="1:8" ht="20.25" customHeight="1">
       <c r="A53" s="84"/>
       <c r="B53" s="85"/>
-      <c r="C53" s="177"/>
-      <c r="D53" s="178"/>
-      <c r="E53" s="179"/>
-      <c r="F53" s="177"/>
-      <c r="G53" s="179"/>
+      <c r="C53" s="167"/>
+      <c r="D53" s="168"/>
+      <c r="E53" s="169"/>
+      <c r="F53" s="167"/>
+      <c r="G53" s="169"/>
       <c r="H53" s="86"/>
     </row>
     <row r="54" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A54" s="87"/>
       <c r="B54" s="88"/>
-      <c r="C54" s="180"/>
-      <c r="D54" s="191"/>
-      <c r="E54" s="181"/>
-      <c r="F54" s="194"/>
-      <c r="G54" s="195"/>
+      <c r="C54" s="170"/>
+      <c r="D54" s="171"/>
+      <c r="E54" s="172"/>
+      <c r="F54" s="173"/>
+      <c r="G54" s="174"/>
       <c r="H54" s="89"/>
     </row>
   </sheetData>
   <mergeCells count="59">
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="C54:E54"/>
-    <mergeCell ref="F54:G54"/>
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="C51:E51"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="C52:E52"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="C44:E44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
     <mergeCell ref="B36:C36"/>
     <mergeCell ref="D36:F36"/>
     <mergeCell ref="C25:D25"/>
@@ -10060,24 +10014,34 @@
     <mergeCell ref="D34:F34"/>
     <mergeCell ref="B35:C35"/>
     <mergeCell ref="D35:F35"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="C54:E54"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="F52:G52"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="1.0236220472440944" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -10191,42 +10155,42 @@
         <v>38</v>
       </c>
       <c r="B6" s="45"/>
-      <c r="C6" s="168" t="s">
+      <c r="C6" s="195" t="s">
         <v>186</v>
       </c>
-      <c r="D6" s="169"/>
-      <c r="E6" s="169"/>
-      <c r="F6" s="169"/>
-      <c r="G6" s="169"/>
-      <c r="H6" s="170"/>
+      <c r="D6" s="196"/>
+      <c r="E6" s="196"/>
+      <c r="F6" s="196"/>
+      <c r="G6" s="196"/>
+      <c r="H6" s="197"/>
     </row>
     <row r="7" spans="1:8" ht="20.25" customHeight="1">
       <c r="A7" s="40" t="s">
         <v>31</v>
       </c>
       <c r="B7" s="45"/>
-      <c r="C7" s="168" t="s">
+      <c r="C7" s="195" t="s">
         <v>188</v>
       </c>
-      <c r="D7" s="169"/>
-      <c r="E7" s="169"/>
-      <c r="F7" s="169"/>
-      <c r="G7" s="169"/>
-      <c r="H7" s="170"/>
+      <c r="D7" s="196"/>
+      <c r="E7" s="196"/>
+      <c r="F7" s="196"/>
+      <c r="G7" s="196"/>
+      <c r="H7" s="197"/>
     </row>
     <row r="8" spans="1:8" ht="20.25" customHeight="1">
       <c r="A8" s="40" t="s">
         <v>39</v>
       </c>
       <c r="B8" s="45"/>
-      <c r="C8" s="168" t="s">
+      <c r="C8" s="195" t="s">
         <v>187</v>
       </c>
-      <c r="D8" s="169"/>
-      <c r="E8" s="169"/>
-      <c r="F8" s="169"/>
-      <c r="G8" s="169"/>
-      <c r="H8" s="170"/>
+      <c r="D8" s="196"/>
+      <c r="E8" s="196"/>
+      <c r="F8" s="196"/>
+      <c r="G8" s="196"/>
+      <c r="H8" s="197"/>
     </row>
     <row r="9" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A9" s="46" t="s">
@@ -10247,10 +10211,10 @@
       <c r="B10" s="48" t="s">
         <v>42</v>
       </c>
-      <c r="C10" s="171" t="s">
+      <c r="C10" s="181" t="s">
         <v>43</v>
       </c>
-      <c r="D10" s="172"/>
+      <c r="D10" s="198"/>
       <c r="E10" s="48" t="s">
         <v>44</v>
       </c>
@@ -10271,10 +10235,10 @@
       <c r="B11" s="62" t="s">
         <v>197</v>
       </c>
-      <c r="C11" s="173" t="s">
+      <c r="C11" s="199" t="s">
         <v>109</v>
       </c>
-      <c r="D11" s="174"/>
+      <c r="D11" s="200"/>
       <c r="E11" s="63" t="s">
         <v>207</v>
       </c>
@@ -10291,10 +10255,10 @@
       <c r="B12" s="67" t="s">
         <v>198</v>
       </c>
-      <c r="C12" s="166" t="s">
+      <c r="C12" s="191" t="s">
         <v>110</v>
       </c>
-      <c r="D12" s="167"/>
+      <c r="D12" s="192"/>
       <c r="E12" s="63" t="s">
         <v>207</v>
       </c>
@@ -10311,10 +10275,10 @@
       <c r="B13" s="67" t="s">
         <v>199</v>
       </c>
-      <c r="C13" s="166" t="s">
+      <c r="C13" s="191" t="s">
         <v>189</v>
       </c>
-      <c r="D13" s="167"/>
+      <c r="D13" s="192"/>
       <c r="E13" s="63" t="s">
         <v>207</v>
       </c>
@@ -10331,10 +10295,10 @@
       <c r="B14" s="72" t="s">
         <v>200</v>
       </c>
-      <c r="C14" s="166" t="s">
+      <c r="C14" s="191" t="s">
         <v>190</v>
       </c>
-      <c r="D14" s="167"/>
+      <c r="D14" s="192"/>
       <c r="E14" s="63" t="s">
         <v>208</v>
       </c>
@@ -10351,10 +10315,10 @@
       <c r="B15" s="72" t="s">
         <v>201</v>
       </c>
-      <c r="C15" s="166" t="s">
+      <c r="C15" s="191" t="s">
         <v>191</v>
       </c>
-      <c r="D15" s="167"/>
+      <c r="D15" s="192"/>
       <c r="E15" s="63" t="s">
         <v>209</v>
       </c>
@@ -10371,10 +10335,10 @@
       <c r="B16" s="72" t="s">
         <v>203</v>
       </c>
-      <c r="C16" s="166" t="s">
+      <c r="C16" s="191" t="s">
         <v>192</v>
       </c>
-      <c r="D16" s="167"/>
+      <c r="D16" s="192"/>
       <c r="E16" s="63" t="s">
         <v>209</v>
       </c>
@@ -10391,10 +10355,10 @@
       <c r="B17" s="72" t="s">
         <v>202</v>
       </c>
-      <c r="C17" s="166" t="s">
+      <c r="C17" s="191" t="s">
         <v>193</v>
       </c>
-      <c r="D17" s="167"/>
+      <c r="D17" s="192"/>
       <c r="E17" s="63" t="s">
         <v>209</v>
       </c>
@@ -10411,10 +10375,10 @@
       <c r="B18" s="72" t="s">
         <v>204</v>
       </c>
-      <c r="C18" s="166" t="s">
+      <c r="C18" s="191" t="s">
         <v>194</v>
       </c>
-      <c r="D18" s="167"/>
+      <c r="D18" s="192"/>
       <c r="E18" s="63" t="s">
         <v>209</v>
       </c>
@@ -10431,10 +10395,10 @@
       <c r="B19" s="72" t="s">
         <v>205</v>
       </c>
-      <c r="C19" s="166" t="s">
+      <c r="C19" s="191" t="s">
         <v>195</v>
       </c>
-      <c r="D19" s="167"/>
+      <c r="D19" s="192"/>
       <c r="E19" s="63" t="s">
         <v>209</v>
       </c>
@@ -10451,10 +10415,10 @@
       <c r="B20" s="72" t="s">
         <v>206</v>
       </c>
-      <c r="C20" s="166" t="s">
+      <c r="C20" s="191" t="s">
         <v>196</v>
       </c>
-      <c r="D20" s="167"/>
+      <c r="D20" s="192"/>
       <c r="E20" s="63" t="s">
         <v>209</v>
       </c>
@@ -10467,8 +10431,8 @@
     <row r="21" spans="1:8" ht="20.25" customHeight="1">
       <c r="A21" s="71"/>
       <c r="B21" s="72"/>
-      <c r="C21" s="166"/>
-      <c r="D21" s="167"/>
+      <c r="C21" s="191"/>
+      <c r="D21" s="192"/>
       <c r="E21" s="73"/>
       <c r="F21" s="73"/>
       <c r="G21" s="74"/>
@@ -10477,8 +10441,8 @@
     <row r="22" spans="1:8" ht="20.25" customHeight="1">
       <c r="A22" s="71"/>
       <c r="B22" s="72"/>
-      <c r="C22" s="166"/>
-      <c r="D22" s="167"/>
+      <c r="C22" s="191"/>
+      <c r="D22" s="192"/>
       <c r="E22" s="73"/>
       <c r="F22" s="73"/>
       <c r="G22" s="74"/>
@@ -10487,8 +10451,8 @@
     <row r="23" spans="1:8" ht="20.25" customHeight="1">
       <c r="A23" s="71"/>
       <c r="B23" s="72"/>
-      <c r="C23" s="166"/>
-      <c r="D23" s="167"/>
+      <c r="C23" s="191"/>
+      <c r="D23" s="192"/>
       <c r="E23" s="73"/>
       <c r="F23" s="73"/>
       <c r="G23" s="74"/>
@@ -10497,8 +10461,8 @@
     <row r="24" spans="1:8" ht="20.25" customHeight="1">
       <c r="A24" s="71"/>
       <c r="B24" s="72"/>
-      <c r="C24" s="166"/>
-      <c r="D24" s="167"/>
+      <c r="C24" s="191"/>
+      <c r="D24" s="192"/>
       <c r="E24" s="73"/>
       <c r="F24" s="73"/>
       <c r="G24" s="74"/>
@@ -10507,8 +10471,8 @@
     <row r="25" spans="1:8" ht="20.25" customHeight="1">
       <c r="A25" s="71"/>
       <c r="B25" s="72"/>
-      <c r="C25" s="166"/>
-      <c r="D25" s="167"/>
+      <c r="C25" s="191"/>
+      <c r="D25" s="192"/>
       <c r="E25" s="73"/>
       <c r="F25" s="73"/>
       <c r="G25" s="74"/>
@@ -10517,8 +10481,8 @@
     <row r="26" spans="1:8" ht="20.25" customHeight="1">
       <c r="A26" s="71"/>
       <c r="B26" s="72"/>
-      <c r="C26" s="166"/>
-      <c r="D26" s="167"/>
+      <c r="C26" s="191"/>
+      <c r="D26" s="192"/>
       <c r="E26" s="73"/>
       <c r="F26" s="73"/>
       <c r="G26" s="74"/>
@@ -10527,8 +10491,8 @@
     <row r="27" spans="1:8" ht="20.25" customHeight="1">
       <c r="A27" s="71"/>
       <c r="B27" s="72"/>
-      <c r="C27" s="166"/>
-      <c r="D27" s="167"/>
+      <c r="C27" s="191"/>
+      <c r="D27" s="192"/>
       <c r="E27" s="73"/>
       <c r="F27" s="73"/>
       <c r="G27" s="74"/>
@@ -10537,8 +10501,8 @@
     <row r="28" spans="1:8" ht="20.25" customHeight="1">
       <c r="A28" s="71"/>
       <c r="B28" s="72"/>
-      <c r="C28" s="166"/>
-      <c r="D28" s="167"/>
+      <c r="C28" s="191"/>
+      <c r="D28" s="192"/>
       <c r="E28" s="73"/>
       <c r="F28" s="73"/>
       <c r="G28" s="74"/>
@@ -10547,8 +10511,8 @@
     <row r="29" spans="1:8" ht="20.25" customHeight="1">
       <c r="A29" s="71"/>
       <c r="B29" s="72"/>
-      <c r="C29" s="166"/>
-      <c r="D29" s="167"/>
+      <c r="C29" s="191"/>
+      <c r="D29" s="192"/>
       <c r="E29" s="73"/>
       <c r="F29" s="73"/>
       <c r="G29" s="74"/>
@@ -10557,8 +10521,8 @@
     <row r="30" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A30" s="76"/>
       <c r="B30" s="77"/>
-      <c r="C30" s="180"/>
-      <c r="D30" s="181"/>
+      <c r="C30" s="170"/>
+      <c r="D30" s="172"/>
       <c r="E30" s="78"/>
       <c r="F30" s="78"/>
       <c r="G30" s="79"/>
@@ -10590,10 +10554,10 @@
       <c r="A33" s="53" t="s">
         <v>41</v>
       </c>
-      <c r="B33" s="182" t="s">
+      <c r="B33" s="178" t="s">
         <v>49</v>
       </c>
-      <c r="C33" s="183"/>
+      <c r="C33" s="180"/>
       <c r="D33" s="54" t="s">
         <v>50</v>
       </c>
@@ -10608,51 +10572,51 @@
     </row>
     <row r="34" spans="1:8" ht="20.25" customHeight="1">
       <c r="A34" s="61"/>
-      <c r="B34" s="184"/>
-      <c r="C34" s="185"/>
-      <c r="D34" s="186"/>
-      <c r="E34" s="187"/>
-      <c r="F34" s="188"/>
+      <c r="B34" s="193"/>
+      <c r="C34" s="194"/>
+      <c r="D34" s="183"/>
+      <c r="E34" s="184"/>
+      <c r="F34" s="185"/>
       <c r="G34" s="64"/>
       <c r="H34" s="65"/>
     </row>
     <row r="35" spans="1:8" ht="20.25" customHeight="1">
       <c r="A35" s="66"/>
-      <c r="B35" s="175"/>
-      <c r="C35" s="176"/>
-      <c r="D35" s="177"/>
-      <c r="E35" s="178"/>
-      <c r="F35" s="179"/>
+      <c r="B35" s="186"/>
+      <c r="C35" s="187"/>
+      <c r="D35" s="167"/>
+      <c r="E35" s="168"/>
+      <c r="F35" s="169"/>
       <c r="G35" s="69"/>
       <c r="H35" s="70"/>
     </row>
     <row r="36" spans="1:8" ht="20.25" customHeight="1">
       <c r="A36" s="66"/>
-      <c r="B36" s="175"/>
-      <c r="C36" s="176"/>
-      <c r="D36" s="177"/>
-      <c r="E36" s="178"/>
-      <c r="F36" s="179"/>
+      <c r="B36" s="186"/>
+      <c r="C36" s="187"/>
+      <c r="D36" s="167"/>
+      <c r="E36" s="168"/>
+      <c r="F36" s="169"/>
       <c r="G36" s="69"/>
       <c r="H36" s="70"/>
     </row>
     <row r="37" spans="1:8" ht="20.25" customHeight="1">
       <c r="A37" s="66"/>
-      <c r="B37" s="175"/>
-      <c r="C37" s="176"/>
-      <c r="D37" s="177"/>
-      <c r="E37" s="178"/>
-      <c r="F37" s="179"/>
+      <c r="B37" s="186"/>
+      <c r="C37" s="187"/>
+      <c r="D37" s="167"/>
+      <c r="E37" s="168"/>
+      <c r="F37" s="169"/>
       <c r="G37" s="69"/>
       <c r="H37" s="70"/>
     </row>
     <row r="38" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A38" s="76"/>
-      <c r="B38" s="189"/>
-      <c r="C38" s="190"/>
-      <c r="D38" s="180"/>
-      <c r="E38" s="191"/>
-      <c r="F38" s="181"/>
+      <c r="B38" s="188"/>
+      <c r="C38" s="189"/>
+      <c r="D38" s="170"/>
+      <c r="E38" s="171"/>
+      <c r="F38" s="172"/>
       <c r="G38" s="79"/>
       <c r="H38" s="80"/>
     </row>
@@ -10685,15 +10649,15 @@
       <c r="B41" s="57" t="s">
         <v>53</v>
       </c>
-      <c r="C41" s="182" t="s">
+      <c r="C41" s="178" t="s">
         <v>50</v>
       </c>
-      <c r="D41" s="192"/>
-      <c r="E41" s="183"/>
-      <c r="F41" s="182" t="s">
+      <c r="D41" s="179"/>
+      <c r="E41" s="180"/>
+      <c r="F41" s="178" t="s">
         <v>54</v>
       </c>
-      <c r="G41" s="193"/>
+      <c r="G41" s="190"/>
       <c r="H41" s="58" t="s">
         <v>55</v>
       </c>
@@ -10701,51 +10665,51 @@
     <row r="42" spans="1:8" ht="20.25" customHeight="1">
       <c r="A42" s="81"/>
       <c r="B42" s="82"/>
-      <c r="C42" s="186"/>
-      <c r="D42" s="187"/>
-      <c r="E42" s="188"/>
-      <c r="F42" s="186"/>
-      <c r="G42" s="188"/>
+      <c r="C42" s="183"/>
+      <c r="D42" s="184"/>
+      <c r="E42" s="185"/>
+      <c r="F42" s="183"/>
+      <c r="G42" s="185"/>
       <c r="H42" s="83"/>
     </row>
     <row r="43" spans="1:8" ht="20.25" customHeight="1">
       <c r="A43" s="84"/>
       <c r="B43" s="85"/>
-      <c r="C43" s="177"/>
-      <c r="D43" s="178"/>
-      <c r="E43" s="179"/>
-      <c r="F43" s="177"/>
-      <c r="G43" s="179"/>
+      <c r="C43" s="167"/>
+      <c r="D43" s="168"/>
+      <c r="E43" s="169"/>
+      <c r="F43" s="167"/>
+      <c r="G43" s="169"/>
       <c r="H43" s="86"/>
     </row>
     <row r="44" spans="1:8" ht="20.25" customHeight="1">
       <c r="A44" s="84"/>
       <c r="B44" s="85"/>
-      <c r="C44" s="177"/>
-      <c r="D44" s="178"/>
-      <c r="E44" s="179"/>
-      <c r="F44" s="177"/>
-      <c r="G44" s="179"/>
+      <c r="C44" s="167"/>
+      <c r="D44" s="168"/>
+      <c r="E44" s="169"/>
+      <c r="F44" s="167"/>
+      <c r="G44" s="169"/>
       <c r="H44" s="86"/>
     </row>
     <row r="45" spans="1:8" ht="20.25" customHeight="1">
       <c r="A45" s="84"/>
       <c r="B45" s="85"/>
-      <c r="C45" s="177"/>
-      <c r="D45" s="178"/>
-      <c r="E45" s="179"/>
-      <c r="F45" s="177"/>
-      <c r="G45" s="179"/>
+      <c r="C45" s="167"/>
+      <c r="D45" s="168"/>
+      <c r="E45" s="169"/>
+      <c r="F45" s="167"/>
+      <c r="G45" s="169"/>
       <c r="H45" s="86"/>
     </row>
     <row r="46" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A46" s="87"/>
       <c r="B46" s="88"/>
-      <c r="C46" s="180"/>
-      <c r="D46" s="191"/>
-      <c r="E46" s="181"/>
-      <c r="F46" s="194"/>
-      <c r="G46" s="195"/>
+      <c r="C46" s="170"/>
+      <c r="D46" s="171"/>
+      <c r="E46" s="172"/>
+      <c r="F46" s="173"/>
+      <c r="G46" s="174"/>
       <c r="H46" s="89"/>
     </row>
     <row r="47" spans="1:8" ht="20.25" customHeight="1">
@@ -10777,15 +10741,15 @@
       <c r="B49" s="57" t="s">
         <v>53</v>
       </c>
-      <c r="C49" s="182" t="s">
+      <c r="C49" s="178" t="s">
         <v>50</v>
       </c>
-      <c r="D49" s="192"/>
-      <c r="E49" s="183"/>
-      <c r="F49" s="171" t="s">
+      <c r="D49" s="179"/>
+      <c r="E49" s="180"/>
+      <c r="F49" s="181" t="s">
         <v>57</v>
       </c>
-      <c r="G49" s="196"/>
+      <c r="G49" s="182"/>
       <c r="H49" s="49" t="s">
         <v>58</v>
       </c>
@@ -10795,83 +10759,73 @@
         <v>1</v>
       </c>
       <c r="B50" s="95"/>
-      <c r="C50" s="197"/>
-      <c r="D50" s="198"/>
-      <c r="E50" s="199"/>
-      <c r="F50" s="197"/>
-      <c r="G50" s="199"/>
+      <c r="C50" s="175"/>
+      <c r="D50" s="176"/>
+      <c r="E50" s="177"/>
+      <c r="F50" s="175"/>
+      <c r="G50" s="177"/>
       <c r="H50" s="96"/>
     </row>
     <row r="51" spans="1:8" ht="20.25" customHeight="1">
       <c r="A51" s="84"/>
       <c r="B51" s="85"/>
-      <c r="C51" s="177"/>
-      <c r="D51" s="178"/>
-      <c r="E51" s="179"/>
-      <c r="F51" s="177"/>
-      <c r="G51" s="179"/>
+      <c r="C51" s="167"/>
+      <c r="D51" s="168"/>
+      <c r="E51" s="169"/>
+      <c r="F51" s="167"/>
+      <c r="G51" s="169"/>
       <c r="H51" s="86"/>
     </row>
     <row r="52" spans="1:8" ht="20.25" customHeight="1">
       <c r="A52" s="84"/>
       <c r="B52" s="85"/>
-      <c r="C52" s="177"/>
-      <c r="D52" s="178"/>
-      <c r="E52" s="179"/>
-      <c r="F52" s="177"/>
-      <c r="G52" s="179"/>
+      <c r="C52" s="167"/>
+      <c r="D52" s="168"/>
+      <c r="E52" s="169"/>
+      <c r="F52" s="167"/>
+      <c r="G52" s="169"/>
       <c r="H52" s="86"/>
     </row>
     <row r="53" spans="1:8" ht="20.25" customHeight="1">
       <c r="A53" s="84"/>
       <c r="B53" s="85"/>
-      <c r="C53" s="177"/>
-      <c r="D53" s="178"/>
-      <c r="E53" s="179"/>
-      <c r="F53" s="177"/>
-      <c r="G53" s="179"/>
+      <c r="C53" s="167"/>
+      <c r="D53" s="168"/>
+      <c r="E53" s="169"/>
+      <c r="F53" s="167"/>
+      <c r="G53" s="169"/>
       <c r="H53" s="86"/>
     </row>
     <row r="54" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A54" s="87"/>
       <c r="B54" s="88"/>
-      <c r="C54" s="180"/>
-      <c r="D54" s="191"/>
-      <c r="E54" s="181"/>
-      <c r="F54" s="194"/>
-      <c r="G54" s="195"/>
+      <c r="C54" s="170"/>
+      <c r="D54" s="171"/>
+      <c r="E54" s="172"/>
+      <c r="F54" s="173"/>
+      <c r="G54" s="174"/>
       <c r="H54" s="89"/>
     </row>
   </sheetData>
   <mergeCells count="59">
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="C54:E54"/>
-    <mergeCell ref="F54:G54"/>
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="C51:E51"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="C52:E52"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="C44:E44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
     <mergeCell ref="B36:C36"/>
     <mergeCell ref="D36:F36"/>
     <mergeCell ref="C25:D25"/>
@@ -10885,24 +10839,34 @@
     <mergeCell ref="D34:F34"/>
     <mergeCell ref="B35:C35"/>
     <mergeCell ref="D35:F35"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="C54:E54"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="F52:G52"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="1.0236220472440944" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -11016,42 +10980,42 @@
         <v>38</v>
       </c>
       <c r="B6" s="45"/>
-      <c r="C6" s="168" t="s">
+      <c r="C6" s="195" t="s">
         <v>105</v>
       </c>
-      <c r="D6" s="169"/>
-      <c r="E6" s="169"/>
-      <c r="F6" s="169"/>
-      <c r="G6" s="169"/>
-      <c r="H6" s="170"/>
+      <c r="D6" s="196"/>
+      <c r="E6" s="196"/>
+      <c r="F6" s="196"/>
+      <c r="G6" s="196"/>
+      <c r="H6" s="197"/>
     </row>
     <row r="7" spans="1:8" ht="20.25" customHeight="1">
       <c r="A7" s="40" t="s">
         <v>31</v>
       </c>
       <c r="B7" s="45"/>
-      <c r="C7" s="168" t="s">
+      <c r="C7" s="195" t="s">
         <v>107</v>
       </c>
-      <c r="D7" s="169"/>
-      <c r="E7" s="169"/>
-      <c r="F7" s="169"/>
-      <c r="G7" s="169"/>
-      <c r="H7" s="170"/>
+      <c r="D7" s="196"/>
+      <c r="E7" s="196"/>
+      <c r="F7" s="196"/>
+      <c r="G7" s="196"/>
+      <c r="H7" s="197"/>
     </row>
     <row r="8" spans="1:8" ht="20.25" customHeight="1">
       <c r="A8" s="40" t="s">
         <v>39</v>
       </c>
       <c r="B8" s="45"/>
-      <c r="C8" s="168" t="s">
+      <c r="C8" s="195" t="s">
         <v>106</v>
       </c>
-      <c r="D8" s="169"/>
-      <c r="E8" s="169"/>
-      <c r="F8" s="169"/>
-      <c r="G8" s="169"/>
-      <c r="H8" s="170"/>
+      <c r="D8" s="196"/>
+      <c r="E8" s="196"/>
+      <c r="F8" s="196"/>
+      <c r="G8" s="196"/>
+      <c r="H8" s="197"/>
     </row>
     <row r="9" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A9" s="46" t="s">
@@ -11072,10 +11036,10 @@
       <c r="B10" s="48" t="s">
         <v>42</v>
       </c>
-      <c r="C10" s="171" t="s">
+      <c r="C10" s="181" t="s">
         <v>43</v>
       </c>
-      <c r="D10" s="172"/>
+      <c r="D10" s="198"/>
       <c r="E10" s="48" t="s">
         <v>44</v>
       </c>
@@ -11096,10 +11060,10 @@
       <c r="B11" s="62" t="s">
         <v>113</v>
       </c>
-      <c r="C11" s="173" t="s">
+      <c r="C11" s="199" t="s">
         <v>108</v>
       </c>
-      <c r="D11" s="174"/>
+      <c r="D11" s="200"/>
       <c r="E11" s="63" t="s">
         <v>115</v>
       </c>
@@ -11118,10 +11082,10 @@
       <c r="B12" s="67" t="s">
         <v>112</v>
       </c>
-      <c r="C12" s="166" t="s">
+      <c r="C12" s="191" t="s">
         <v>71</v>
       </c>
-      <c r="D12" s="167"/>
+      <c r="D12" s="192"/>
       <c r="E12" s="63" t="s">
         <v>115</v>
       </c>
@@ -11138,10 +11102,10 @@
       <c r="B13" s="67" t="s">
         <v>111</v>
       </c>
-      <c r="C13" s="166" t="s">
+      <c r="C13" s="191" t="s">
         <v>83</v>
       </c>
-      <c r="D13" s="167"/>
+      <c r="D13" s="192"/>
       <c r="E13" s="63" t="s">
         <v>115</v>
       </c>
@@ -11154,8 +11118,8 @@
     <row r="14" spans="1:8" ht="20.25" customHeight="1">
       <c r="A14" s="71"/>
       <c r="B14" s="72"/>
-      <c r="C14" s="166"/>
-      <c r="D14" s="167"/>
+      <c r="C14" s="191"/>
+      <c r="D14" s="192"/>
       <c r="E14" s="73"/>
       <c r="F14" s="73"/>
       <c r="G14" s="74"/>
@@ -11164,8 +11128,8 @@
     <row r="15" spans="1:8" ht="20.25" customHeight="1">
       <c r="A15" s="71"/>
       <c r="B15" s="72"/>
-      <c r="C15" s="166"/>
-      <c r="D15" s="167"/>
+      <c r="C15" s="191"/>
+      <c r="D15" s="192"/>
       <c r="E15" s="73"/>
       <c r="F15" s="73"/>
       <c r="G15" s="74"/>
@@ -11174,8 +11138,8 @@
     <row r="16" spans="1:8" ht="20.25" customHeight="1">
       <c r="A16" s="71"/>
       <c r="B16" s="72"/>
-      <c r="C16" s="166"/>
-      <c r="D16" s="167"/>
+      <c r="C16" s="191"/>
+      <c r="D16" s="192"/>
       <c r="E16" s="73"/>
       <c r="F16" s="73"/>
       <c r="G16" s="74"/>
@@ -11184,8 +11148,8 @@
     <row r="17" spans="1:8" ht="20.25" customHeight="1">
       <c r="A17" s="71"/>
       <c r="B17" s="72"/>
-      <c r="C17" s="166"/>
-      <c r="D17" s="167"/>
+      <c r="C17" s="191"/>
+      <c r="D17" s="192"/>
       <c r="E17" s="73"/>
       <c r="F17" s="73"/>
       <c r="G17" s="74"/>
@@ -11194,8 +11158,8 @@
     <row r="18" spans="1:8" ht="20.25" customHeight="1">
       <c r="A18" s="71"/>
       <c r="B18" s="72"/>
-      <c r="C18" s="166"/>
-      <c r="D18" s="167"/>
+      <c r="C18" s="191"/>
+      <c r="D18" s="192"/>
       <c r="E18" s="73"/>
       <c r="F18" s="73"/>
       <c r="G18" s="74"/>
@@ -11204,8 +11168,8 @@
     <row r="19" spans="1:8" ht="20.25" customHeight="1">
       <c r="A19" s="71"/>
       <c r="B19" s="72"/>
-      <c r="C19" s="166"/>
-      <c r="D19" s="167"/>
+      <c r="C19" s="191"/>
+      <c r="D19" s="192"/>
       <c r="E19" s="73"/>
       <c r="F19" s="73"/>
       <c r="G19" s="74"/>
@@ -11214,8 +11178,8 @@
     <row r="20" spans="1:8" ht="20.25" customHeight="1">
       <c r="A20" s="71"/>
       <c r="B20" s="72"/>
-      <c r="C20" s="166"/>
-      <c r="D20" s="167"/>
+      <c r="C20" s="191"/>
+      <c r="D20" s="192"/>
       <c r="E20" s="73"/>
       <c r="F20" s="73"/>
       <c r="G20" s="74"/>
@@ -11224,8 +11188,8 @@
     <row r="21" spans="1:8" ht="20.25" customHeight="1">
       <c r="A21" s="71"/>
       <c r="B21" s="72"/>
-      <c r="C21" s="166"/>
-      <c r="D21" s="167"/>
+      <c r="C21" s="191"/>
+      <c r="D21" s="192"/>
       <c r="E21" s="73"/>
       <c r="F21" s="73"/>
       <c r="G21" s="74"/>
@@ -11234,8 +11198,8 @@
     <row r="22" spans="1:8" ht="20.25" customHeight="1">
       <c r="A22" s="71"/>
       <c r="B22" s="72"/>
-      <c r="C22" s="166"/>
-      <c r="D22" s="167"/>
+      <c r="C22" s="191"/>
+      <c r="D22" s="192"/>
       <c r="E22" s="73"/>
       <c r="F22" s="73"/>
       <c r="G22" s="74"/>
@@ -11244,8 +11208,8 @@
     <row r="23" spans="1:8" ht="20.25" customHeight="1">
       <c r="A23" s="71"/>
       <c r="B23" s="72"/>
-      <c r="C23" s="166"/>
-      <c r="D23" s="167"/>
+      <c r="C23" s="191"/>
+      <c r="D23" s="192"/>
       <c r="E23" s="73"/>
       <c r="F23" s="73"/>
       <c r="G23" s="74"/>
@@ -11254,8 +11218,8 @@
     <row r="24" spans="1:8" ht="20.25" customHeight="1">
       <c r="A24" s="71"/>
       <c r="B24" s="72"/>
-      <c r="C24" s="166"/>
-      <c r="D24" s="167"/>
+      <c r="C24" s="191"/>
+      <c r="D24" s="192"/>
       <c r="E24" s="73"/>
       <c r="F24" s="73"/>
       <c r="G24" s="74"/>
@@ -11264,8 +11228,8 @@
     <row r="25" spans="1:8" ht="20.25" customHeight="1">
       <c r="A25" s="71"/>
       <c r="B25" s="72"/>
-      <c r="C25" s="166"/>
-      <c r="D25" s="167"/>
+      <c r="C25" s="191"/>
+      <c r="D25" s="192"/>
       <c r="E25" s="73"/>
       <c r="F25" s="73"/>
       <c r="G25" s="74"/>
@@ -11274,8 +11238,8 @@
     <row r="26" spans="1:8" ht="20.25" customHeight="1">
       <c r="A26" s="71"/>
       <c r="B26" s="72"/>
-      <c r="C26" s="166"/>
-      <c r="D26" s="167"/>
+      <c r="C26" s="191"/>
+      <c r="D26" s="192"/>
       <c r="E26" s="73"/>
       <c r="F26" s="73"/>
       <c r="G26" s="74"/>
@@ -11284,8 +11248,8 @@
     <row r="27" spans="1:8" ht="20.25" customHeight="1">
       <c r="A27" s="71"/>
       <c r="B27" s="72"/>
-      <c r="C27" s="166"/>
-      <c r="D27" s="167"/>
+      <c r="C27" s="191"/>
+      <c r="D27" s="192"/>
       <c r="E27" s="73"/>
       <c r="F27" s="73"/>
       <c r="G27" s="74"/>
@@ -11294,8 +11258,8 @@
     <row r="28" spans="1:8" ht="20.25" customHeight="1">
       <c r="A28" s="71"/>
       <c r="B28" s="72"/>
-      <c r="C28" s="166"/>
-      <c r="D28" s="167"/>
+      <c r="C28" s="191"/>
+      <c r="D28" s="192"/>
       <c r="E28" s="73"/>
       <c r="F28" s="73"/>
       <c r="G28" s="74"/>
@@ -11304,8 +11268,8 @@
     <row r="29" spans="1:8" ht="20.25" customHeight="1">
       <c r="A29" s="71"/>
       <c r="B29" s="72"/>
-      <c r="C29" s="166"/>
-      <c r="D29" s="167"/>
+      <c r="C29" s="191"/>
+      <c r="D29" s="192"/>
       <c r="E29" s="73"/>
       <c r="F29" s="73"/>
       <c r="G29" s="74"/>
@@ -11314,8 +11278,8 @@
     <row r="30" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A30" s="76"/>
       <c r="B30" s="77"/>
-      <c r="C30" s="180"/>
-      <c r="D30" s="181"/>
+      <c r="C30" s="170"/>
+      <c r="D30" s="172"/>
       <c r="E30" s="78"/>
       <c r="F30" s="78"/>
       <c r="G30" s="79"/>
@@ -11347,10 +11311,10 @@
       <c r="A33" s="53" t="s">
         <v>41</v>
       </c>
-      <c r="B33" s="182" t="s">
+      <c r="B33" s="178" t="s">
         <v>49</v>
       </c>
-      <c r="C33" s="183"/>
+      <c r="C33" s="180"/>
       <c r="D33" s="54" t="s">
         <v>50</v>
       </c>
@@ -11365,51 +11329,51 @@
     </row>
     <row r="34" spans="1:8" ht="20.25" customHeight="1">
       <c r="A34" s="61"/>
-      <c r="B34" s="184"/>
-      <c r="C34" s="185"/>
-      <c r="D34" s="186"/>
-      <c r="E34" s="187"/>
-      <c r="F34" s="188"/>
+      <c r="B34" s="193"/>
+      <c r="C34" s="194"/>
+      <c r="D34" s="183"/>
+      <c r="E34" s="184"/>
+      <c r="F34" s="185"/>
       <c r="G34" s="64"/>
       <c r="H34" s="65"/>
     </row>
     <row r="35" spans="1:8" ht="20.25" customHeight="1">
       <c r="A35" s="66"/>
-      <c r="B35" s="175"/>
-      <c r="C35" s="176"/>
-      <c r="D35" s="177"/>
-      <c r="E35" s="178"/>
-      <c r="F35" s="179"/>
+      <c r="B35" s="186"/>
+      <c r="C35" s="187"/>
+      <c r="D35" s="167"/>
+      <c r="E35" s="168"/>
+      <c r="F35" s="169"/>
       <c r="G35" s="69"/>
       <c r="H35" s="70"/>
     </row>
     <row r="36" spans="1:8" ht="20.25" customHeight="1">
       <c r="A36" s="66"/>
-      <c r="B36" s="175"/>
-      <c r="C36" s="176"/>
-      <c r="D36" s="177"/>
-      <c r="E36" s="178"/>
-      <c r="F36" s="179"/>
+      <c r="B36" s="186"/>
+      <c r="C36" s="187"/>
+      <c r="D36" s="167"/>
+      <c r="E36" s="168"/>
+      <c r="F36" s="169"/>
       <c r="G36" s="69"/>
       <c r="H36" s="70"/>
     </row>
     <row r="37" spans="1:8" ht="20.25" customHeight="1">
       <c r="A37" s="66"/>
-      <c r="B37" s="175"/>
-      <c r="C37" s="176"/>
-      <c r="D37" s="177"/>
-      <c r="E37" s="178"/>
-      <c r="F37" s="179"/>
+      <c r="B37" s="186"/>
+      <c r="C37" s="187"/>
+      <c r="D37" s="167"/>
+      <c r="E37" s="168"/>
+      <c r="F37" s="169"/>
       <c r="G37" s="69"/>
       <c r="H37" s="70"/>
     </row>
     <row r="38" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A38" s="76"/>
-      <c r="B38" s="189"/>
-      <c r="C38" s="190"/>
-      <c r="D38" s="180"/>
-      <c r="E38" s="191"/>
-      <c r="F38" s="181"/>
+      <c r="B38" s="188"/>
+      <c r="C38" s="189"/>
+      <c r="D38" s="170"/>
+      <c r="E38" s="171"/>
+      <c r="F38" s="172"/>
       <c r="G38" s="79"/>
       <c r="H38" s="80"/>
     </row>
@@ -11442,15 +11406,15 @@
       <c r="B41" s="57" t="s">
         <v>53</v>
       </c>
-      <c r="C41" s="182" t="s">
+      <c r="C41" s="178" t="s">
         <v>50</v>
       </c>
-      <c r="D41" s="192"/>
-      <c r="E41" s="183"/>
-      <c r="F41" s="182" t="s">
+      <c r="D41" s="179"/>
+      <c r="E41" s="180"/>
+      <c r="F41" s="178" t="s">
         <v>54</v>
       </c>
-      <c r="G41" s="193"/>
+      <c r="G41" s="190"/>
       <c r="H41" s="58" t="s">
         <v>55</v>
       </c>
@@ -11458,51 +11422,51 @@
     <row r="42" spans="1:8" ht="20.25" customHeight="1">
       <c r="A42" s="81"/>
       <c r="B42" s="82"/>
-      <c r="C42" s="186"/>
-      <c r="D42" s="187"/>
-      <c r="E42" s="188"/>
-      <c r="F42" s="186"/>
-      <c r="G42" s="188"/>
+      <c r="C42" s="183"/>
+      <c r="D42" s="184"/>
+      <c r="E42" s="185"/>
+      <c r="F42" s="183"/>
+      <c r="G42" s="185"/>
       <c r="H42" s="83"/>
     </row>
     <row r="43" spans="1:8" ht="20.25" customHeight="1">
       <c r="A43" s="84"/>
       <c r="B43" s="85"/>
-      <c r="C43" s="177"/>
-      <c r="D43" s="178"/>
-      <c r="E43" s="179"/>
-      <c r="F43" s="177"/>
-      <c r="G43" s="179"/>
+      <c r="C43" s="167"/>
+      <c r="D43" s="168"/>
+      <c r="E43" s="169"/>
+      <c r="F43" s="167"/>
+      <c r="G43" s="169"/>
       <c r="H43" s="86"/>
     </row>
     <row r="44" spans="1:8" ht="20.25" customHeight="1">
       <c r="A44" s="84"/>
       <c r="B44" s="85"/>
-      <c r="C44" s="177"/>
-      <c r="D44" s="178"/>
-      <c r="E44" s="179"/>
-      <c r="F44" s="177"/>
-      <c r="G44" s="179"/>
+      <c r="C44" s="167"/>
+      <c r="D44" s="168"/>
+      <c r="E44" s="169"/>
+      <c r="F44" s="167"/>
+      <c r="G44" s="169"/>
       <c r="H44" s="86"/>
     </row>
     <row r="45" spans="1:8" ht="20.25" customHeight="1">
       <c r="A45" s="84"/>
       <c r="B45" s="85"/>
-      <c r="C45" s="177"/>
-      <c r="D45" s="178"/>
-      <c r="E45" s="179"/>
-      <c r="F45" s="177"/>
-      <c r="G45" s="179"/>
+      <c r="C45" s="167"/>
+      <c r="D45" s="168"/>
+      <c r="E45" s="169"/>
+      <c r="F45" s="167"/>
+      <c r="G45" s="169"/>
       <c r="H45" s="86"/>
     </row>
     <row r="46" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A46" s="87"/>
       <c r="B46" s="88"/>
-      <c r="C46" s="180"/>
-      <c r="D46" s="191"/>
-      <c r="E46" s="181"/>
-      <c r="F46" s="194"/>
-      <c r="G46" s="195"/>
+      <c r="C46" s="170"/>
+      <c r="D46" s="171"/>
+      <c r="E46" s="172"/>
+      <c r="F46" s="173"/>
+      <c r="G46" s="174"/>
       <c r="H46" s="89"/>
     </row>
     <row r="47" spans="1:8" ht="20.25" customHeight="1">
@@ -11534,15 +11498,15 @@
       <c r="B49" s="57" t="s">
         <v>53</v>
       </c>
-      <c r="C49" s="182" t="s">
+      <c r="C49" s="178" t="s">
         <v>50</v>
       </c>
-      <c r="D49" s="192"/>
-      <c r="E49" s="183"/>
-      <c r="F49" s="171" t="s">
+      <c r="D49" s="179"/>
+      <c r="E49" s="180"/>
+      <c r="F49" s="181" t="s">
         <v>57</v>
       </c>
-      <c r="G49" s="196"/>
+      <c r="G49" s="182"/>
       <c r="H49" s="49" t="s">
         <v>58</v>
       </c>
@@ -11552,83 +11516,73 @@
         <v>1</v>
       </c>
       <c r="B50" s="95"/>
-      <c r="C50" s="197"/>
-      <c r="D50" s="198"/>
-      <c r="E50" s="199"/>
-      <c r="F50" s="197"/>
-      <c r="G50" s="199"/>
+      <c r="C50" s="175"/>
+      <c r="D50" s="176"/>
+      <c r="E50" s="177"/>
+      <c r="F50" s="175"/>
+      <c r="G50" s="177"/>
       <c r="H50" s="96"/>
     </row>
     <row r="51" spans="1:8" ht="20.25" customHeight="1">
       <c r="A51" s="84"/>
       <c r="B51" s="85"/>
-      <c r="C51" s="177"/>
-      <c r="D51" s="178"/>
-      <c r="E51" s="179"/>
-      <c r="F51" s="177"/>
-      <c r="G51" s="179"/>
+      <c r="C51" s="167"/>
+      <c r="D51" s="168"/>
+      <c r="E51" s="169"/>
+      <c r="F51" s="167"/>
+      <c r="G51" s="169"/>
       <c r="H51" s="86"/>
     </row>
     <row r="52" spans="1:8" ht="20.25" customHeight="1">
       <c r="A52" s="84"/>
       <c r="B52" s="85"/>
-      <c r="C52" s="177"/>
-      <c r="D52" s="178"/>
-      <c r="E52" s="179"/>
-      <c r="F52" s="177"/>
-      <c r="G52" s="179"/>
+      <c r="C52" s="167"/>
+      <c r="D52" s="168"/>
+      <c r="E52" s="169"/>
+      <c r="F52" s="167"/>
+      <c r="G52" s="169"/>
       <c r="H52" s="86"/>
     </row>
     <row r="53" spans="1:8" ht="20.25" customHeight="1">
       <c r="A53" s="84"/>
       <c r="B53" s="85"/>
-      <c r="C53" s="177"/>
-      <c r="D53" s="178"/>
-      <c r="E53" s="179"/>
-      <c r="F53" s="177"/>
-      <c r="G53" s="179"/>
+      <c r="C53" s="167"/>
+      <c r="D53" s="168"/>
+      <c r="E53" s="169"/>
+      <c r="F53" s="167"/>
+      <c r="G53" s="169"/>
       <c r="H53" s="86"/>
     </row>
     <row r="54" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A54" s="87"/>
       <c r="B54" s="88"/>
-      <c r="C54" s="180"/>
-      <c r="D54" s="191"/>
-      <c r="E54" s="181"/>
-      <c r="F54" s="194"/>
-      <c r="G54" s="195"/>
+      <c r="C54" s="170"/>
+      <c r="D54" s="171"/>
+      <c r="E54" s="172"/>
+      <c r="F54" s="173"/>
+      <c r="G54" s="174"/>
       <c r="H54" s="89"/>
     </row>
   </sheetData>
   <mergeCells count="59">
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="C54:E54"/>
-    <mergeCell ref="F54:G54"/>
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="C51:E51"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="C52:E52"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="C44:E44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
     <mergeCell ref="B36:C36"/>
     <mergeCell ref="D36:F36"/>
     <mergeCell ref="C25:D25"/>
@@ -11642,24 +11596,34 @@
     <mergeCell ref="D34:F34"/>
     <mergeCell ref="B35:C35"/>
     <mergeCell ref="D35:F35"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="C54:E54"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="F52:G52"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="1.0236220472440944" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -11773,42 +11737,42 @@
         <v>38</v>
       </c>
       <c r="B6" s="45"/>
-      <c r="C6" s="168" t="s">
+      <c r="C6" s="195" t="s">
         <v>102</v>
       </c>
-      <c r="D6" s="169"/>
-      <c r="E6" s="169"/>
-      <c r="F6" s="169"/>
-      <c r="G6" s="169"/>
-      <c r="H6" s="170"/>
+      <c r="D6" s="196"/>
+      <c r="E6" s="196"/>
+      <c r="F6" s="196"/>
+      <c r="G6" s="196"/>
+      <c r="H6" s="197"/>
     </row>
     <row r="7" spans="1:8" ht="20.25" customHeight="1">
       <c r="A7" s="40" t="s">
         <v>31</v>
       </c>
       <c r="B7" s="45"/>
-      <c r="C7" s="168" t="s">
+      <c r="C7" s="195" t="s">
         <v>103</v>
       </c>
-      <c r="D7" s="169"/>
-      <c r="E7" s="169"/>
-      <c r="F7" s="169"/>
-      <c r="G7" s="169"/>
-      <c r="H7" s="170"/>
+      <c r="D7" s="196"/>
+      <c r="E7" s="196"/>
+      <c r="F7" s="196"/>
+      <c r="G7" s="196"/>
+      <c r="H7" s="197"/>
     </row>
     <row r="8" spans="1:8" ht="20.25" customHeight="1">
       <c r="A8" s="40" t="s">
         <v>39</v>
       </c>
       <c r="B8" s="45"/>
-      <c r="C8" s="168" t="s">
+      <c r="C8" s="195" t="s">
         <v>104</v>
       </c>
-      <c r="D8" s="169"/>
-      <c r="E8" s="169"/>
-      <c r="F8" s="169"/>
-      <c r="G8" s="169"/>
-      <c r="H8" s="170"/>
+      <c r="D8" s="196"/>
+      <c r="E8" s="196"/>
+      <c r="F8" s="196"/>
+      <c r="G8" s="196"/>
+      <c r="H8" s="197"/>
     </row>
     <row r="9" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A9" s="46" t="s">
@@ -11829,10 +11793,10 @@
       <c r="B10" s="48" t="s">
         <v>42</v>
       </c>
-      <c r="C10" s="171" t="s">
+      <c r="C10" s="181" t="s">
         <v>43</v>
       </c>
-      <c r="D10" s="172"/>
+      <c r="D10" s="198"/>
       <c r="E10" s="48" t="s">
         <v>44</v>
       </c>
@@ -11853,10 +11817,10 @@
       <c r="B11" s="62" t="s">
         <v>91</v>
       </c>
-      <c r="C11" s="166" t="s">
+      <c r="C11" s="191" t="s">
         <v>84</v>
       </c>
-      <c r="D11" s="167"/>
+      <c r="D11" s="192"/>
       <c r="E11" s="63" t="s">
         <v>100</v>
       </c>
@@ -11875,10 +11839,10 @@
       <c r="B12" s="62" t="s">
         <v>92</v>
       </c>
-      <c r="C12" s="166" t="s">
+      <c r="C12" s="191" t="s">
         <v>85</v>
       </c>
-      <c r="D12" s="167"/>
+      <c r="D12" s="192"/>
       <c r="E12" s="63" t="s">
         <v>101</v>
       </c>
@@ -11895,10 +11859,10 @@
       <c r="B13" s="62" t="s">
         <v>93</v>
       </c>
-      <c r="C13" s="166" t="s">
+      <c r="C13" s="191" t="s">
         <v>86</v>
       </c>
-      <c r="D13" s="167"/>
+      <c r="D13" s="192"/>
       <c r="E13" s="63" t="s">
         <v>100</v>
       </c>
@@ -11915,10 +11879,10 @@
       <c r="B14" s="62" t="s">
         <v>96</v>
       </c>
-      <c r="C14" s="166" t="s">
+      <c r="C14" s="191" t="s">
         <v>87</v>
       </c>
-      <c r="D14" s="167"/>
+      <c r="D14" s="192"/>
       <c r="E14" s="63" t="s">
         <v>100</v>
       </c>
@@ -11935,10 +11899,10 @@
       <c r="B15" s="62" t="s">
         <v>97</v>
       </c>
-      <c r="C15" s="166" t="s">
+      <c r="C15" s="191" t="s">
         <v>88</v>
       </c>
-      <c r="D15" s="167"/>
+      <c r="D15" s="192"/>
       <c r="E15" s="63" t="s">
         <v>100</v>
       </c>
@@ -11955,10 +11919,10 @@
       <c r="B16" s="62" t="s">
         <v>94</v>
       </c>
-      <c r="C16" s="166" t="s">
+      <c r="C16" s="191" t="s">
         <v>89</v>
       </c>
-      <c r="D16" s="167"/>
+      <c r="D16" s="192"/>
       <c r="E16" s="63" t="s">
         <v>100</v>
       </c>
@@ -11975,10 +11939,10 @@
       <c r="B17" s="62" t="s">
         <v>95</v>
       </c>
-      <c r="C17" s="166" t="s">
+      <c r="C17" s="191" t="s">
         <v>90</v>
       </c>
-      <c r="D17" s="167"/>
+      <c r="D17" s="192"/>
       <c r="E17" s="63" t="s">
         <v>101</v>
       </c>
@@ -11991,8 +11955,8 @@
     <row r="18" spans="1:8" ht="20.25" customHeight="1">
       <c r="A18" s="71"/>
       <c r="B18" s="72"/>
-      <c r="C18" s="166"/>
-      <c r="D18" s="167"/>
+      <c r="C18" s="191"/>
+      <c r="D18" s="192"/>
       <c r="E18" s="73"/>
       <c r="F18" s="73"/>
       <c r="G18" s="74"/>
@@ -12001,8 +11965,8 @@
     <row r="19" spans="1:8" ht="20.25" customHeight="1">
       <c r="A19" s="71"/>
       <c r="B19" s="72"/>
-      <c r="C19" s="166"/>
-      <c r="D19" s="167"/>
+      <c r="C19" s="191"/>
+      <c r="D19" s="192"/>
       <c r="E19" s="73"/>
       <c r="F19" s="73"/>
       <c r="G19" s="74"/>
@@ -12011,8 +11975,8 @@
     <row r="20" spans="1:8" ht="20.25" customHeight="1">
       <c r="A20" s="71"/>
       <c r="B20" s="72"/>
-      <c r="C20" s="166"/>
-      <c r="D20" s="167"/>
+      <c r="C20" s="191"/>
+      <c r="D20" s="192"/>
       <c r="E20" s="73"/>
       <c r="F20" s="73"/>
       <c r="G20" s="74"/>
@@ -12021,8 +11985,8 @@
     <row r="21" spans="1:8" ht="20.25" customHeight="1">
       <c r="A21" s="71"/>
       <c r="B21" s="72"/>
-      <c r="C21" s="166"/>
-      <c r="D21" s="167"/>
+      <c r="C21" s="191"/>
+      <c r="D21" s="192"/>
       <c r="E21" s="73"/>
       <c r="F21" s="73"/>
       <c r="G21" s="74"/>
@@ -12031,8 +11995,8 @@
     <row r="22" spans="1:8" ht="20.25" customHeight="1">
       <c r="A22" s="71"/>
       <c r="B22" s="72"/>
-      <c r="C22" s="166"/>
-      <c r="D22" s="167"/>
+      <c r="C22" s="191"/>
+      <c r="D22" s="192"/>
       <c r="E22" s="73"/>
       <c r="F22" s="73"/>
       <c r="G22" s="74"/>
@@ -12041,8 +12005,8 @@
     <row r="23" spans="1:8" ht="20.25" customHeight="1">
       <c r="A23" s="71"/>
       <c r="B23" s="72"/>
-      <c r="C23" s="166"/>
-      <c r="D23" s="167"/>
+      <c r="C23" s="191"/>
+      <c r="D23" s="192"/>
       <c r="E23" s="73"/>
       <c r="F23" s="73"/>
       <c r="G23" s="74"/>
@@ -12051,8 +12015,8 @@
     <row r="24" spans="1:8" ht="20.25" customHeight="1">
       <c r="A24" s="71"/>
       <c r="B24" s="72"/>
-      <c r="C24" s="166"/>
-      <c r="D24" s="167"/>
+      <c r="C24" s="191"/>
+      <c r="D24" s="192"/>
       <c r="E24" s="73"/>
       <c r="F24" s="73"/>
       <c r="G24" s="74"/>
@@ -12061,8 +12025,8 @@
     <row r="25" spans="1:8" ht="20.25" customHeight="1">
       <c r="A25" s="71"/>
       <c r="B25" s="72"/>
-      <c r="C25" s="166"/>
-      <c r="D25" s="167"/>
+      <c r="C25" s="191"/>
+      <c r="D25" s="192"/>
       <c r="E25" s="73"/>
       <c r="F25" s="73"/>
       <c r="G25" s="74"/>
@@ -12071,8 +12035,8 @@
     <row r="26" spans="1:8" ht="20.25" customHeight="1">
       <c r="A26" s="71"/>
       <c r="B26" s="72"/>
-      <c r="C26" s="166"/>
-      <c r="D26" s="167"/>
+      <c r="C26" s="191"/>
+      <c r="D26" s="192"/>
       <c r="E26" s="73"/>
       <c r="F26" s="73"/>
       <c r="G26" s="74"/>
@@ -12081,8 +12045,8 @@
     <row r="27" spans="1:8" ht="20.25" customHeight="1">
       <c r="A27" s="71"/>
       <c r="B27" s="72"/>
-      <c r="C27" s="166"/>
-      <c r="D27" s="167"/>
+      <c r="C27" s="191"/>
+      <c r="D27" s="192"/>
       <c r="E27" s="73"/>
       <c r="F27" s="73"/>
       <c r="G27" s="74"/>
@@ -12091,8 +12055,8 @@
     <row r="28" spans="1:8" ht="20.25" customHeight="1">
       <c r="A28" s="71"/>
       <c r="B28" s="72"/>
-      <c r="C28" s="166"/>
-      <c r="D28" s="167"/>
+      <c r="C28" s="191"/>
+      <c r="D28" s="192"/>
       <c r="E28" s="73"/>
       <c r="F28" s="73"/>
       <c r="G28" s="74"/>
@@ -12101,8 +12065,8 @@
     <row r="29" spans="1:8" ht="20.25" customHeight="1">
       <c r="A29" s="71"/>
       <c r="B29" s="72"/>
-      <c r="C29" s="166"/>
-      <c r="D29" s="167"/>
+      <c r="C29" s="191"/>
+      <c r="D29" s="192"/>
       <c r="E29" s="73"/>
       <c r="F29" s="73"/>
       <c r="G29" s="74"/>
@@ -12111,8 +12075,8 @@
     <row r="30" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A30" s="76"/>
       <c r="B30" s="77"/>
-      <c r="C30" s="180"/>
-      <c r="D30" s="181"/>
+      <c r="C30" s="170"/>
+      <c r="D30" s="172"/>
       <c r="E30" s="78"/>
       <c r="F30" s="78"/>
       <c r="G30" s="79"/>
@@ -12144,10 +12108,10 @@
       <c r="A33" s="53" t="s">
         <v>41</v>
       </c>
-      <c r="B33" s="182" t="s">
+      <c r="B33" s="178" t="s">
         <v>49</v>
       </c>
-      <c r="C33" s="183"/>
+      <c r="C33" s="180"/>
       <c r="D33" s="54" t="s">
         <v>50</v>
       </c>
@@ -12162,51 +12126,51 @@
     </row>
     <row r="34" spans="1:8" ht="20.25" customHeight="1">
       <c r="A34" s="61"/>
-      <c r="B34" s="184"/>
-      <c r="C34" s="185"/>
-      <c r="D34" s="186"/>
-      <c r="E34" s="187"/>
-      <c r="F34" s="188"/>
+      <c r="B34" s="193"/>
+      <c r="C34" s="194"/>
+      <c r="D34" s="183"/>
+      <c r="E34" s="184"/>
+      <c r="F34" s="185"/>
       <c r="G34" s="64"/>
       <c r="H34" s="65"/>
     </row>
     <row r="35" spans="1:8" ht="20.25" customHeight="1">
       <c r="A35" s="66"/>
-      <c r="B35" s="175"/>
-      <c r="C35" s="176"/>
-      <c r="D35" s="177"/>
-      <c r="E35" s="178"/>
-      <c r="F35" s="179"/>
+      <c r="B35" s="186"/>
+      <c r="C35" s="187"/>
+      <c r="D35" s="167"/>
+      <c r="E35" s="168"/>
+      <c r="F35" s="169"/>
       <c r="G35" s="69"/>
       <c r="H35" s="70"/>
     </row>
     <row r="36" spans="1:8" ht="20.25" customHeight="1">
       <c r="A36" s="66"/>
-      <c r="B36" s="175"/>
-      <c r="C36" s="176"/>
-      <c r="D36" s="177"/>
-      <c r="E36" s="178"/>
-      <c r="F36" s="179"/>
+      <c r="B36" s="186"/>
+      <c r="C36" s="187"/>
+      <c r="D36" s="167"/>
+      <c r="E36" s="168"/>
+      <c r="F36" s="169"/>
       <c r="G36" s="69"/>
       <c r="H36" s="70"/>
     </row>
     <row r="37" spans="1:8" ht="20.25" customHeight="1">
       <c r="A37" s="66"/>
-      <c r="B37" s="175"/>
-      <c r="C37" s="176"/>
-      <c r="D37" s="177"/>
-      <c r="E37" s="178"/>
-      <c r="F37" s="179"/>
+      <c r="B37" s="186"/>
+      <c r="C37" s="187"/>
+      <c r="D37" s="167"/>
+      <c r="E37" s="168"/>
+      <c r="F37" s="169"/>
       <c r="G37" s="69"/>
       <c r="H37" s="70"/>
     </row>
     <row r="38" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A38" s="76"/>
-      <c r="B38" s="189"/>
-      <c r="C38" s="190"/>
-      <c r="D38" s="180"/>
-      <c r="E38" s="191"/>
-      <c r="F38" s="181"/>
+      <c r="B38" s="188"/>
+      <c r="C38" s="189"/>
+      <c r="D38" s="170"/>
+      <c r="E38" s="171"/>
+      <c r="F38" s="172"/>
       <c r="G38" s="79"/>
       <c r="H38" s="80"/>
     </row>
@@ -12239,15 +12203,15 @@
       <c r="B41" s="57" t="s">
         <v>53</v>
       </c>
-      <c r="C41" s="182" t="s">
+      <c r="C41" s="178" t="s">
         <v>50</v>
       </c>
-      <c r="D41" s="192"/>
-      <c r="E41" s="183"/>
-      <c r="F41" s="182" t="s">
+      <c r="D41" s="179"/>
+      <c r="E41" s="180"/>
+      <c r="F41" s="178" t="s">
         <v>54</v>
       </c>
-      <c r="G41" s="193"/>
+      <c r="G41" s="190"/>
       <c r="H41" s="58" t="s">
         <v>55</v>
       </c>
@@ -12255,51 +12219,51 @@
     <row r="42" spans="1:8" ht="20.25" customHeight="1">
       <c r="A42" s="81"/>
       <c r="B42" s="82"/>
-      <c r="C42" s="186"/>
-      <c r="D42" s="187"/>
-      <c r="E42" s="188"/>
-      <c r="F42" s="186"/>
-      <c r="G42" s="188"/>
+      <c r="C42" s="183"/>
+      <c r="D42" s="184"/>
+      <c r="E42" s="185"/>
+      <c r="F42" s="183"/>
+      <c r="G42" s="185"/>
       <c r="H42" s="83"/>
     </row>
     <row r="43" spans="1:8" ht="20.25" customHeight="1">
       <c r="A43" s="84"/>
       <c r="B43" s="85"/>
-      <c r="C43" s="177"/>
-      <c r="D43" s="178"/>
-      <c r="E43" s="179"/>
-      <c r="F43" s="177"/>
-      <c r="G43" s="179"/>
+      <c r="C43" s="167"/>
+      <c r="D43" s="168"/>
+      <c r="E43" s="169"/>
+      <c r="F43" s="167"/>
+      <c r="G43" s="169"/>
       <c r="H43" s="86"/>
     </row>
     <row r="44" spans="1:8" ht="20.25" customHeight="1">
       <c r="A44" s="84"/>
       <c r="B44" s="85"/>
-      <c r="C44" s="177"/>
-      <c r="D44" s="178"/>
-      <c r="E44" s="179"/>
-      <c r="F44" s="177"/>
-      <c r="G44" s="179"/>
+      <c r="C44" s="167"/>
+      <c r="D44" s="168"/>
+      <c r="E44" s="169"/>
+      <c r="F44" s="167"/>
+      <c r="G44" s="169"/>
       <c r="H44" s="86"/>
     </row>
     <row r="45" spans="1:8" ht="20.25" customHeight="1">
       <c r="A45" s="84"/>
       <c r="B45" s="85"/>
-      <c r="C45" s="177"/>
-      <c r="D45" s="178"/>
-      <c r="E45" s="179"/>
-      <c r="F45" s="177"/>
-      <c r="G45" s="179"/>
+      <c r="C45" s="167"/>
+      <c r="D45" s="168"/>
+      <c r="E45" s="169"/>
+      <c r="F45" s="167"/>
+      <c r="G45" s="169"/>
       <c r="H45" s="86"/>
     </row>
     <row r="46" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A46" s="87"/>
       <c r="B46" s="88"/>
-      <c r="C46" s="180"/>
-      <c r="D46" s="191"/>
-      <c r="E46" s="181"/>
-      <c r="F46" s="194"/>
-      <c r="G46" s="195"/>
+      <c r="C46" s="170"/>
+      <c r="D46" s="171"/>
+      <c r="E46" s="172"/>
+      <c r="F46" s="173"/>
+      <c r="G46" s="174"/>
       <c r="H46" s="89"/>
     </row>
     <row r="47" spans="1:8" ht="20.25" customHeight="1">
@@ -12331,15 +12295,15 @@
       <c r="B49" s="57" t="s">
         <v>53</v>
       </c>
-      <c r="C49" s="182" t="s">
+      <c r="C49" s="178" t="s">
         <v>50</v>
       </c>
-      <c r="D49" s="192"/>
-      <c r="E49" s="183"/>
-      <c r="F49" s="171" t="s">
+      <c r="D49" s="179"/>
+      <c r="E49" s="180"/>
+      <c r="F49" s="181" t="s">
         <v>57</v>
       </c>
-      <c r="G49" s="196"/>
+      <c r="G49" s="182"/>
       <c r="H49" s="49" t="s">
         <v>58</v>
       </c>
@@ -12349,71 +12313,82 @@
         <v>1</v>
       </c>
       <c r="B50" s="95"/>
-      <c r="C50" s="197"/>
-      <c r="D50" s="198"/>
-      <c r="E50" s="199"/>
-      <c r="F50" s="197"/>
-      <c r="G50" s="199"/>
+      <c r="C50" s="175"/>
+      <c r="D50" s="176"/>
+      <c r="E50" s="177"/>
+      <c r="F50" s="175"/>
+      <c r="G50" s="177"/>
       <c r="H50" s="96"/>
     </row>
     <row r="51" spans="1:8" ht="20.25" customHeight="1">
       <c r="A51" s="84"/>
       <c r="B51" s="85"/>
-      <c r="C51" s="177"/>
-      <c r="D51" s="178"/>
-      <c r="E51" s="179"/>
-      <c r="F51" s="177"/>
-      <c r="G51" s="179"/>
+      <c r="C51" s="167"/>
+      <c r="D51" s="168"/>
+      <c r="E51" s="169"/>
+      <c r="F51" s="167"/>
+      <c r="G51" s="169"/>
       <c r="H51" s="86"/>
     </row>
     <row r="52" spans="1:8" ht="20.25" customHeight="1">
       <c r="A52" s="84"/>
       <c r="B52" s="85"/>
-      <c r="C52" s="177"/>
-      <c r="D52" s="178"/>
-      <c r="E52" s="179"/>
-      <c r="F52" s="177"/>
-      <c r="G52" s="179"/>
+      <c r="C52" s="167"/>
+      <c r="D52" s="168"/>
+      <c r="E52" s="169"/>
+      <c r="F52" s="167"/>
+      <c r="G52" s="169"/>
       <c r="H52" s="86"/>
     </row>
     <row r="53" spans="1:8" ht="20.25" customHeight="1">
       <c r="A53" s="84"/>
       <c r="B53" s="85"/>
-      <c r="C53" s="177"/>
-      <c r="D53" s="178"/>
-      <c r="E53" s="179"/>
-      <c r="F53" s="177"/>
-      <c r="G53" s="179"/>
+      <c r="C53" s="167"/>
+      <c r="D53" s="168"/>
+      <c r="E53" s="169"/>
+      <c r="F53" s="167"/>
+      <c r="G53" s="169"/>
       <c r="H53" s="86"/>
     </row>
     <row r="54" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A54" s="87"/>
       <c r="B54" s="88"/>
-      <c r="C54" s="180"/>
-      <c r="D54" s="191"/>
-      <c r="E54" s="181"/>
-      <c r="F54" s="194"/>
-      <c r="G54" s="195"/>
+      <c r="C54" s="170"/>
+      <c r="D54" s="171"/>
+      <c r="E54" s="172"/>
+      <c r="F54" s="173"/>
+      <c r="G54" s="174"/>
       <c r="H54" s="89"/>
     </row>
   </sheetData>
   <mergeCells count="59">
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="D36:F36"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="C44:E44"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="C54:E54"/>
+    <mergeCell ref="F43:G43"/>
     <mergeCell ref="C30:D30"/>
     <mergeCell ref="C6:H6"/>
     <mergeCell ref="C7:H7"/>
@@ -12430,33 +12405,22 @@
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="F54:G54"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="C51:E51"/>
-    <mergeCell ref="C52:E52"/>
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="C54:E54"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="D38:F38"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="1.0236220472440944" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -12470,26 +12434,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="af97f005-77d1-4ca0-aa66-92d9fef63111">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="5693f406-aeca-4321-a656-3a9a02e36084" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101007081BF80CDABE2409E7AC03002E0EC18" ma:contentTypeVersion="11" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="3180883bc47af021c7778a69e39c0ee7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="af97f005-77d1-4ca0-aa66-92d9fef63111" xmlns:ns3="5693f406-aeca-4321-a656-3a9a02e36084" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b1356b8793e215cabb5557499de2766e" ns2:_="" ns3:_="">
     <xsd:import namespace="af97f005-77d1-4ca0-aa66-92d9fef63111"/>
@@ -12700,10 +12644,41 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="af97f005-77d1-4ca0-aa66-92d9fef63111">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="5693f406-aeca-4321-a656-3a9a02e36084" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5020C763-C603-467C-AD36-0246E9729C04}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D71B8487-6482-4850-BCD4-781B077E4CE1}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="af97f005-77d1-4ca0-aa66-92d9fef63111"/>
+    <ds:schemaRef ds:uri="5693f406-aeca-4321-a656-3a9a02e36084"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -12720,20 +12695,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D71B8487-6482-4850-BCD4-781B077E4CE1}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5020C763-C603-467C-AD36-0246E9729C04}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="af97f005-77d1-4ca0-aa66-92d9fef63111"/>
-    <ds:schemaRef ds:uri="5693f406-aeca-4321-a656-3a9a02e36084"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>